--- a/generated/spreadsheet/technical-details-consent-technical-details-consent.xlsx
+++ b/generated/spreadsheet/technical-details-consent-technical-details-consent.xlsx
@@ -616,7 +616,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">

--- a/generated/spreadsheet/technical-details-consent-technical-details-consent.xlsx
+++ b/generated/spreadsheet/technical-details-consent-technical-details-consent.xlsx
@@ -611,7 +611,7 @@
       <c r="F5" s="2" t="inlineStr"/>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>The reference of the planning authority the application has been submitted to, e.g. local-authority:CMD</t>
+          <t>A reference of the planning authority the application has been submitted to, e.g. local-authority:CMD for London borough of Camden</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">

--- a/generated/spreadsheet/technical-details-consent-technical-details-consent.xlsx
+++ b/generated/spreadsheet/technical-details-consent-technical-details-consent.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I158"/>
+  <dimension ref="A1:I157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -847,12 +847,12 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>URL</t>
+          <t>Base64</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>A URL pointing to the stored file</t>
+          <t>Base64-encoded content of the file for inline file uploads</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -886,12 +886,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>Base64</t>
+          <t>Filename</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>Base64-encoded content of the file for inline file uploads</t>
+          <t>Name of the file being uploaded</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -901,7 +901,7 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -925,12 +925,12 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>Filename</t>
+          <t>MIME type</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>Name of the file being uploaded</t>
+          <t>The file's MIME type such as application/pdf or image/jpeg</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -940,7 +940,7 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -964,12 +964,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>MIME type</t>
+          <t>Checksum</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>The file's MIME type such as application/pdf or image/jpeg</t>
+          <t>Hash of the file contents used for file validation and checking files have not been tampered with</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1003,17 +1003,17 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>Checksum</t>
+          <t>File size</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>Hash of the file contents used for file validation and checking files have not been tampered with</t>
+          <t>Size of the file in bytes that can be used to enforce limits</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1032,22 +1032,18 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>Documents[]</t>
+          <t>Fee</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>File</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>File size</t>
-        </is>
-      </c>
+          <t>Amount</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr"/>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>Size of the file in bytes that can be used to enforce limits</t>
+          <t>The total amount due for the application fee</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1057,7 +1053,7 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1076,13 +1072,13 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>Amount</t>
+          <t>Amount paid</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr"/>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>The total amount due for the application fee</t>
+          <t>The amount paid towards the application fee</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
@@ -1111,75 +1107,67 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>Amount paid</t>
+          <t>Transactions[]</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr"/>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>The amount paid towards the application fee</t>
+          <t>References to payments or financial transactions related to this application</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="n"/>
-      <c r="B20" s="2" t="n"/>
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>Access and rights of way</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>Details of any changes the proposed development would make to existing access arrangements or public rights of way</t>
+        </is>
+      </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>Application</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>Fee</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>Transactions[]</t>
-        </is>
-      </c>
+          <t>New or altered vehicle access</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr"/>
+      <c r="E20" s="2" t="inlineStr"/>
       <c r="F20" s="2" t="inlineStr"/>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>References to payments or financial transactions related to this application</t>
+          <t>Is a new or altered vehicle access proposed to/from the public highway</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="inlineStr">
-        <is>
-          <t>Access and rights of way</t>
-        </is>
-      </c>
-      <c r="B21" s="2" t="inlineStr">
-        <is>
-          <t>Details of any changes the proposed development would make to existing access arrangements or public rights of way</t>
-        </is>
-      </c>
+      <c r="A21" s="2" t="n"/>
+      <c r="B21" s="2" t="n"/>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>New or altered vehicle access</t>
+          <t>New or altered pedestrian access</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr"/>
@@ -1187,7 +1175,7 @@
       <c r="F21" s="2" t="inlineStr"/>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>Is a new or altered vehicle access proposed to/from the public highway</t>
+          <t>Is a new or altered pedestrian access proposed to/from the public highway</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
@@ -1206,20 +1194,24 @@
       <c r="B22" s="2" t="n"/>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>New or altered pedestrian access</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr"/>
+          <t>Supporting documents[]</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>Reference</t>
+        </is>
+      </c>
       <c r="E22" s="2" t="inlineStr"/>
       <c r="F22" s="2" t="inlineStr"/>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>Is a new or altered pedestrian access proposed to/from the public highway</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1238,14 +1230,14 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr"/>
       <c r="F23" s="2" t="inlineStr"/>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>A name for the document. For example, The Site Plan</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
@@ -1260,23 +1252,27 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="n"/>
-      <c r="B24" s="2" t="n"/>
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>Agent contact details</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>Name and contact information if an agent is being used.</t>
+        </is>
+      </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>Supporting documents[]</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
+          <t>Agent reference</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr"/>
       <c r="E24" s="2" t="inlineStr"/>
       <c r="F24" s="2" t="inlineStr"/>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>A name for the document. For example, The Site Plan</t>
+          <t>A reference to an agent object</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
@@ -1291,27 +1287,23 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="inlineStr">
-        <is>
-          <t>Agent contact details</t>
-        </is>
-      </c>
-      <c r="B25" s="2" t="inlineStr">
-        <is>
-          <t>Name and contact information if an agent is being used.</t>
-        </is>
-      </c>
+      <c r="A25" s="2" t="n"/>
+      <c r="B25" s="2" t="n"/>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>Agent reference</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr"/>
+          <t>Contact details</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
       <c r="E25" s="2" t="inlineStr"/>
       <c r="F25" s="2" t="inlineStr"/>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>A reference to an agent object</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
@@ -1335,14 +1327,18 @@
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr"/>
+          <t>Phone number(s)[]</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>Phone number</t>
+        </is>
+      </c>
       <c r="F26" s="2" t="inlineStr"/>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
@@ -1352,7 +1348,7 @@
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1371,18 +1367,18 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>Phone number</t>
+          <t>Contact priority</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr"/>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The priority of a number</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
@@ -1392,51 +1388,47 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="2" t="n"/>
-      <c r="B28" s="2" t="n"/>
+      <c r="A28" s="2" t="inlineStr">
+        <is>
+          <t>Agent details</t>
+        </is>
+      </c>
+      <c r="B28" s="2" t="inlineStr">
+        <is>
+          <t>Name and contact information if an agent is being used.</t>
+        </is>
+      </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>Contact details</t>
+          <t>agent</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>Phone number(s)[]</t>
-        </is>
-      </c>
-      <c r="E28" s="2" t="inlineStr">
-        <is>
-          <t>Contact priority</t>
-        </is>
-      </c>
+          <t>Reference</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr"/>
       <c r="F28" s="2" t="inlineStr"/>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>The priority of a number</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="2" t="inlineStr">
-        <is>
-          <t>Agent details</t>
-        </is>
-      </c>
-      <c r="B29" s="2" t="inlineStr">
-        <is>
-          <t>Name and contact information if an agent is being used.</t>
-        </is>
-      </c>
+      <c r="A29" s="2" t="n"/>
+      <c r="B29" s="2" t="n"/>
       <c r="C29" s="2" t="inlineStr">
         <is>
           <t>agent</t>
@@ -1444,14 +1436,18 @@
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="E29" s="2" t="inlineStr"/>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
       <c r="F29" s="2" t="inlineStr"/>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
@@ -1461,7 +1457,7 @@
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1480,13 +1476,13 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>Title</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr"/>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
@@ -1496,7 +1492,7 @@
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1515,13 +1511,13 @@
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr"/>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
@@ -1550,13 +1546,13 @@
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr"/>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
@@ -1585,13 +1581,13 @@
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr"/>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
@@ -1601,7 +1597,7 @@
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1615,18 +1611,14 @@
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="E34" s="2" t="inlineStr">
-        <is>
-          <t>Postcode</t>
-        </is>
-      </c>
+          <t>Company</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr"/>
       <c r="F34" s="2" t="inlineStr"/>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>The name of a company (that the agent works for)</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
@@ -1650,19 +1642,19 @@
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>Company</t>
+          <t>User role</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr"/>
       <c r="F35" s="2" t="inlineStr"/>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>The name of a company (that the agent works for)</t>
+          <t>The role of the named individual. Agent or proxy</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
@@ -1672,58 +1664,58 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="2" t="n"/>
-      <c r="B36" s="2" t="n"/>
+      <c r="A36" s="2" t="inlineStr">
+        <is>
+          <t>Applicant contact details</t>
+        </is>
+      </c>
+      <c r="B36" s="2" t="inlineStr">
+        <is>
+          <t>Telephone number and email address of the applicant.</t>
+        </is>
+      </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>agent</t>
-        </is>
-      </c>
-      <c r="D36" s="2" t="inlineStr">
-        <is>
-          <t>User role</t>
-        </is>
-      </c>
+          <t>Applicant reference</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="inlineStr"/>
       <c r="E36" s="2" t="inlineStr"/>
       <c r="F36" s="2" t="inlineStr"/>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>The role of the named individual. Agent or proxy</t>
+          <t>Reference to match contact details to a named individual from the applicant details component</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="2" t="inlineStr">
-        <is>
-          <t>Applicant contact details</t>
-        </is>
-      </c>
-      <c r="B37" s="2" t="inlineStr">
-        <is>
-          <t>Telephone number and email address of the applicant.</t>
-        </is>
-      </c>
+      <c r="A37" s="2" t="n"/>
+      <c r="B37" s="2" t="n"/>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>Applicant reference</t>
-        </is>
-      </c>
-      <c r="D37" s="2" t="inlineStr"/>
+          <t>Contact details</t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
       <c r="E37" s="2" t="inlineStr"/>
       <c r="F37" s="2" t="inlineStr"/>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>Reference to match contact details to a named individual from the applicant details component</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
@@ -1747,14 +1739,18 @@
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="E38" s="2" t="inlineStr"/>
+          <t>Phone number(s)[]</t>
+        </is>
+      </c>
+      <c r="E38" s="2" t="inlineStr">
+        <is>
+          <t>Phone number</t>
+        </is>
+      </c>
       <c r="F38" s="2" t="inlineStr"/>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
@@ -1764,7 +1760,7 @@
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1783,18 +1779,18 @@
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>Phone number</t>
+          <t>Contact priority</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr"/>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The priority of a number</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
@@ -1804,51 +1800,47 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="2" t="n"/>
-      <c r="B40" s="2" t="n"/>
+      <c r="A40" s="2" t="inlineStr">
+        <is>
+          <t>Applicant details</t>
+        </is>
+      </c>
+      <c r="B40" s="2" t="inlineStr">
+        <is>
+          <t>Name and contact information for the parties making the application.</t>
+        </is>
+      </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>Contact details</t>
+          <t>Applicants[]</t>
         </is>
       </c>
       <c r="D40" s="2" t="inlineStr">
         <is>
-          <t>Phone number(s)[]</t>
-        </is>
-      </c>
-      <c r="E40" s="2" t="inlineStr">
-        <is>
-          <t>Contact priority</t>
-        </is>
-      </c>
+          <t>Reference</t>
+        </is>
+      </c>
+      <c r="E40" s="2" t="inlineStr"/>
       <c r="F40" s="2" t="inlineStr"/>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>The priority of a number</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="H40" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I40" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="2" t="inlineStr">
-        <is>
-          <t>Applicant details</t>
-        </is>
-      </c>
-      <c r="B41" s="2" t="inlineStr">
-        <is>
-          <t>Name and contact information for the parties making the application.</t>
-        </is>
-      </c>
+      <c r="A41" s="2" t="n"/>
+      <c r="B41" s="2" t="n"/>
       <c r="C41" s="2" t="inlineStr">
         <is>
           <t>Applicants[]</t>
@@ -1856,14 +1848,18 @@
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="E41" s="2" t="inlineStr"/>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="E41" s="2" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
       <c r="F41" s="2" t="inlineStr"/>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="H41" s="2" t="inlineStr">
@@ -1873,7 +1869,7 @@
       </c>
       <c r="I41" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1892,13 +1888,13 @@
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>Title</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr"/>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="H42" s="2" t="inlineStr">
@@ -1908,7 +1904,7 @@
       </c>
       <c r="I42" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1927,13 +1923,13 @@
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr"/>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="H43" s="2" t="inlineStr">
@@ -1962,13 +1958,13 @@
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr"/>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="H44" s="2" t="inlineStr">
@@ -1997,13 +1993,13 @@
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="F45" s="2" t="inlineStr"/>
       <c r="G45" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="H45" s="2" t="inlineStr">
@@ -2013,59 +2009,51 @@
       </c>
       <c r="I45" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="2" t="n"/>
-      <c r="B46" s="2" t="n"/>
+      <c r="A46" s="2" t="inlineStr">
+        <is>
+          <t>Biodiversity, geological and archaeological conservation</t>
+        </is>
+      </c>
+      <c r="B46" s="2" t="inlineStr">
+        <is>
+          <t>Details of potential impacts to the biodiversity of the site, or any noteable archaeological or geological features.</t>
+        </is>
+      </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t>Applicants[]</t>
-        </is>
-      </c>
-      <c r="D46" s="2" t="inlineStr">
-        <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="E46" s="2" t="inlineStr">
-        <is>
-          <t>Postcode</t>
-        </is>
-      </c>
+          <t>Protected species impact</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="inlineStr"/>
+      <c r="E46" s="2" t="inlineStr"/>
       <c r="F46" s="2" t="inlineStr"/>
       <c r="G46" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Where is there a likelihood of protected and priority species being affected?</t>
         </is>
       </c>
       <c r="H46" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I46" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="2" t="inlineStr">
-        <is>
-          <t>Biodiversity, geological and archaeological conservation</t>
-        </is>
-      </c>
-      <c r="B47" s="2" t="inlineStr">
-        <is>
-          <t>Details of potential impacts to the biodiversity of the site, or any noteable archaeological or geological features.</t>
-        </is>
-      </c>
+      <c r="A47" s="2" t="n"/>
+      <c r="B47" s="2" t="n"/>
       <c r="C47" s="2" t="inlineStr">
         <is>
-          <t>Protected species impact</t>
+          <t>Biodiversity features impact</t>
         </is>
       </c>
       <c r="D47" s="2" t="inlineStr"/>
@@ -2073,7 +2061,7 @@
       <c r="F47" s="2" t="inlineStr"/>
       <c r="G47" s="2" t="inlineStr">
         <is>
-          <t>Where is there a likelihood of protected and priority species being affected?</t>
+          <t>Where is there a likelihood of important habitats or biodiversity features being affected?</t>
         </is>
       </c>
       <c r="H47" s="2" t="inlineStr">
@@ -2092,7 +2080,7 @@
       <c r="B48" s="2" t="n"/>
       <c r="C48" s="2" t="inlineStr">
         <is>
-          <t>Biodiversity features impact</t>
+          <t>Geological features impact</t>
         </is>
       </c>
       <c r="D48" s="2" t="inlineStr"/>
@@ -2100,7 +2088,7 @@
       <c r="F48" s="2" t="inlineStr"/>
       <c r="G48" s="2" t="inlineStr">
         <is>
-          <t>Where is there a likelihood of important habitats or biodiversity features being affected?</t>
+          <t>Where is there a likelihood of features of geological conservation importance being affected?</t>
         </is>
       </c>
       <c r="H48" s="2" t="inlineStr">
@@ -2115,119 +2103,119 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="2" t="n"/>
-      <c r="B49" s="2" t="n"/>
-      <c r="C49" s="2" t="inlineStr">
-        <is>
-          <t>Geological features impact</t>
-        </is>
-      </c>
+      <c r="A49" s="2" t="inlineStr">
+        <is>
+          <t>Biodiversity net gain</t>
+        </is>
+      </c>
+      <c r="B49" s="2" t="inlineStr">
+        <is>
+          <t>How any natural habitats on the development site will be improved by the proposed works.</t>
+        </is>
+      </c>
+      <c r="C49" s="2" t="inlineStr"/>
       <c r="D49" s="2" t="inlineStr"/>
       <c r="E49" s="2" t="inlineStr"/>
       <c r="F49" s="2" t="inlineStr"/>
-      <c r="G49" s="2" t="inlineStr">
-        <is>
-          <t>Where is there a likelihood of features of geological conservation importance being affected?</t>
-        </is>
-      </c>
-      <c r="H49" s="2" t="inlineStr">
-        <is>
-          <t>enum</t>
-        </is>
-      </c>
-      <c r="I49" s="2" t="inlineStr">
-        <is>
-          <t>MUST</t>
-        </is>
-      </c>
+      <c r="G49" s="2" t="inlineStr"/>
+      <c r="H49" s="2" t="inlineStr"/>
+      <c r="I49" s="2" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>Biodiversity net gain</t>
+          <t>Checklist</t>
         </is>
       </c>
       <c r="B50" s="2" t="inlineStr">
         <is>
-          <t>How any natural habitats on the development site will be improved by the proposed works.</t>
-        </is>
-      </c>
-      <c r="C50" s="2" t="inlineStr"/>
+          <t>Checking whether all the requirements of the form have been met, such as proof of payment or supporting documentation.</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="inlineStr">
+        <is>
+          <t>National requirement types[]</t>
+        </is>
+      </c>
       <c r="D50" s="2" t="inlineStr"/>
       <c r="E50" s="2" t="inlineStr"/>
       <c r="F50" s="2" t="inlineStr"/>
-      <c r="G50" s="2" t="inlineStr"/>
-      <c r="H50" s="2" t="inlineStr"/>
-      <c r="I50" s="2" t="inlineStr"/>
+      <c r="G50" s="2" t="inlineStr">
+        <is>
+          <t>List of the document types required for the given application type</t>
+        </is>
+      </c>
+      <c r="H50" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I50" s="2" t="inlineStr">
+        <is>
+          <t>MUST</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>Checklist</t>
+          <t>Conflict of interest</t>
         </is>
       </c>
       <c r="B51" s="2" t="inlineStr">
         <is>
-          <t>Checking whether all the requirements of the form have been met, such as proof of payment or supporting documentation.</t>
-        </is>
-      </c>
-      <c r="C51" s="2" t="inlineStr">
-        <is>
-          <t>National requirement types[]</t>
-        </is>
-      </c>
+          <t>Details of any conflict of interest that may exist between the applicant and planning authority.</t>
+        </is>
+      </c>
+      <c r="C51" s="2" t="inlineStr"/>
       <c r="D51" s="2" t="inlineStr"/>
       <c r="E51" s="2" t="inlineStr"/>
       <c r="F51" s="2" t="inlineStr"/>
-      <c r="G51" s="2" t="inlineStr">
-        <is>
-          <t>List of the document types required for the given application type</t>
-        </is>
-      </c>
-      <c r="H51" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="I51" s="2" t="inlineStr">
-        <is>
-          <t>MUST</t>
-        </is>
-      </c>
+      <c r="G51" s="2" t="inlineStr"/>
+      <c r="H51" s="2" t="inlineStr"/>
+      <c r="I51" s="2" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
         <is>
-          <t>Conflict of interest</t>
+          <t>Declaration</t>
         </is>
       </c>
       <c r="B52" s="2" t="inlineStr">
         <is>
-          <t>Details of any conflict of interest that may exist between the applicant and planning authority.</t>
-        </is>
-      </c>
-      <c r="C52" s="2" t="inlineStr"/>
+          <t>Signed and dated verification of the application's accuracy.</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
       <c r="D52" s="2" t="inlineStr"/>
       <c r="E52" s="2" t="inlineStr"/>
       <c r="F52" s="2" t="inlineStr"/>
-      <c r="G52" s="2" t="inlineStr"/>
-      <c r="H52" s="2" t="inlineStr"/>
-      <c r="I52" s="2" t="inlineStr"/>
+      <c r="G52" s="2" t="inlineStr">
+        <is>
+          <t>A name of a person</t>
+        </is>
+      </c>
+      <c r="H52" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I52" s="2" t="inlineStr">
+        <is>
+          <t>MUST</t>
+        </is>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="2" t="inlineStr">
-        <is>
-          <t>Declaration</t>
-        </is>
-      </c>
-      <c r="B53" s="2" t="inlineStr">
-        <is>
-          <t>Signed and dated verification of the application's accuracy.</t>
-        </is>
-      </c>
+      <c r="A53" s="2" t="n"/>
+      <c r="B53" s="2" t="n"/>
       <c r="C53" s="2" t="inlineStr">
         <is>
-          <t>Name</t>
+          <t>Declaration confirmed</t>
         </is>
       </c>
       <c r="D53" s="2" t="inlineStr"/>
@@ -2235,12 +2223,12 @@
       <c r="F53" s="2" t="inlineStr"/>
       <c r="G53" s="2" t="inlineStr">
         <is>
-          <t>A name of a person</t>
+          <t>Confirms the applicant or agent has reviewed and validated the information provided in the application</t>
         </is>
       </c>
       <c r="H53" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I53" s="2" t="inlineStr">
@@ -2254,7 +2242,7 @@
       <c r="B54" s="2" t="n"/>
       <c r="C54" s="2" t="inlineStr">
         <is>
-          <t>Declaration confirmed</t>
+          <t>Declaration date</t>
         </is>
       </c>
       <c r="D54" s="2" t="inlineStr"/>
@@ -2262,12 +2250,12 @@
       <c r="F54" s="2" t="inlineStr"/>
       <c r="G54" s="2" t="inlineStr">
         <is>
-          <t>Confirms the applicant or agent has reviewed and validated the information provided in the application</t>
+          <t>The date the declaration was made</t>
         </is>
       </c>
       <c r="H54" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I54" s="2" t="inlineStr">
@@ -2277,24 +2265,36 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="2" t="n"/>
-      <c r="B55" s="2" t="n"/>
+      <c r="A55" s="2" t="inlineStr">
+        <is>
+          <t>Employment</t>
+        </is>
+      </c>
+      <c r="B55" s="2" t="inlineStr">
+        <is>
+          <t>How the proposed development will impact existing and proposed employee numbers</t>
+        </is>
+      </c>
       <c r="C55" s="2" t="inlineStr">
         <is>
-          <t>Declaration date</t>
-        </is>
-      </c>
-      <c r="D55" s="2" t="inlineStr"/>
+          <t>Existing employees</t>
+        </is>
+      </c>
+      <c r="D55" s="2" t="inlineStr">
+        <is>
+          <t>Full-time</t>
+        </is>
+      </c>
       <c r="E55" s="2" t="inlineStr"/>
       <c r="F55" s="2" t="inlineStr"/>
       <c r="G55" s="2" t="inlineStr">
         <is>
-          <t>The date the declaration was made</t>
+          <t>Number of full-time employees</t>
         </is>
       </c>
       <c r="H55" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I55" s="2" t="inlineStr">
@@ -2304,16 +2304,8 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="2" t="inlineStr">
-        <is>
-          <t>Employment</t>
-        </is>
-      </c>
-      <c r="B56" s="2" t="inlineStr">
-        <is>
-          <t>How the proposed development will impact existing and proposed employee numbers</t>
-        </is>
-      </c>
+      <c r="A56" s="2" t="n"/>
+      <c r="B56" s="2" t="n"/>
       <c r="C56" s="2" t="inlineStr">
         <is>
           <t>Existing employees</t>
@@ -2321,14 +2313,14 @@
       </c>
       <c r="D56" s="2" t="inlineStr">
         <is>
-          <t>Full-time</t>
+          <t>Part-time</t>
         </is>
       </c>
       <c r="E56" s="2" t="inlineStr"/>
       <c r="F56" s="2" t="inlineStr"/>
       <c r="G56" s="2" t="inlineStr">
         <is>
-          <t>Number of full-time employees</t>
+          <t>Number of part-time employees</t>
         </is>
       </c>
       <c r="H56" s="2" t="inlineStr">
@@ -2352,14 +2344,14 @@
       </c>
       <c r="D57" s="2" t="inlineStr">
         <is>
-          <t>Part-time</t>
+          <t>Total FTE</t>
         </is>
       </c>
       <c r="E57" s="2" t="inlineStr"/>
       <c r="F57" s="2" t="inlineStr"/>
       <c r="G57" s="2" t="inlineStr">
         <is>
-          <t>Number of part-time employees</t>
+          <t>Total full-time equivalent (FTE)</t>
         </is>
       </c>
       <c r="H57" s="2" t="inlineStr">
@@ -2378,19 +2370,19 @@
       <c r="B58" s="2" t="n"/>
       <c r="C58" s="2" t="inlineStr">
         <is>
-          <t>Existing employees</t>
+          <t>Proposed employees</t>
         </is>
       </c>
       <c r="D58" s="2" t="inlineStr">
         <is>
-          <t>Total FTE</t>
+          <t>Full-time</t>
         </is>
       </c>
       <c r="E58" s="2" t="inlineStr"/>
       <c r="F58" s="2" t="inlineStr"/>
       <c r="G58" s="2" t="inlineStr">
         <is>
-          <t>Total full-time equivalent (FTE)</t>
+          <t>Number of full-time employees</t>
         </is>
       </c>
       <c r="H58" s="2" t="inlineStr">
@@ -2414,14 +2406,14 @@
       </c>
       <c r="D59" s="2" t="inlineStr">
         <is>
-          <t>Full-time</t>
+          <t>Part-time</t>
         </is>
       </c>
       <c r="E59" s="2" t="inlineStr"/>
       <c r="F59" s="2" t="inlineStr"/>
       <c r="G59" s="2" t="inlineStr">
         <is>
-          <t>Number of full-time employees</t>
+          <t>Number of part-time employees</t>
         </is>
       </c>
       <c r="H59" s="2" t="inlineStr">
@@ -2445,14 +2437,14 @@
       </c>
       <c r="D60" s="2" t="inlineStr">
         <is>
-          <t>Part-time</t>
+          <t>Total FTE</t>
         </is>
       </c>
       <c r="E60" s="2" t="inlineStr"/>
       <c r="F60" s="2" t="inlineStr"/>
       <c r="G60" s="2" t="inlineStr">
         <is>
-          <t>Number of part-time employees</t>
+          <t>Total full-time equivalent (FTE)</t>
         </is>
       </c>
       <c r="H60" s="2" t="inlineStr">
@@ -2471,70 +2463,70 @@
       <c r="B61" s="2" t="n"/>
       <c r="C61" s="2" t="inlineStr">
         <is>
-          <t>Proposed employees</t>
-        </is>
-      </c>
-      <c r="D61" s="2" t="inlineStr">
-        <is>
-          <t>Total FTE</t>
-        </is>
-      </c>
+          <t>Employment impact</t>
+        </is>
+      </c>
+      <c r="D61" s="2" t="inlineStr"/>
       <c r="E61" s="2" t="inlineStr"/>
       <c r="F61" s="2" t="inlineStr"/>
       <c r="G61" s="2" t="inlineStr">
         <is>
-          <t>Total full-time equivalent (FTE)</t>
+          <t>Summary of net employment change (gain/loss)</t>
         </is>
       </c>
       <c r="H61" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I61" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="2" t="n"/>
-      <c r="B62" s="2" t="n"/>
+      <c r="A62" s="2" t="inlineStr">
+        <is>
+          <t>Existing use</t>
+        </is>
+      </c>
+      <c r="B62" s="2" t="inlineStr">
+        <is>
+          <t>How the site is currently being used.</t>
+        </is>
+      </c>
       <c r="C62" s="2" t="inlineStr">
         <is>
-          <t>Employment impact</t>
-        </is>
-      </c>
-      <c r="D62" s="2" t="inlineStr"/>
+          <t>Existing use details[]</t>
+        </is>
+      </c>
+      <c r="D62" s="2" t="inlineStr">
+        <is>
+          <t>Use</t>
+        </is>
+      </c>
       <c r="E62" s="2" t="inlineStr"/>
       <c r="F62" s="2" t="inlineStr"/>
       <c r="G62" s="2" t="inlineStr">
         <is>
-          <t>Summary of net employment change (gain/loss)</t>
+          <t>A use class or type of use</t>
         </is>
       </c>
       <c r="H62" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I62" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="2" t="inlineStr">
-        <is>
-          <t>Existing use</t>
-        </is>
-      </c>
-      <c r="B63" s="2" t="inlineStr">
-        <is>
-          <t>How the site is currently being used.</t>
-        </is>
-      </c>
+      <c r="A63" s="2" t="n"/>
+      <c r="B63" s="2" t="n"/>
       <c r="C63" s="2" t="inlineStr">
         <is>
           <t>Existing use details[]</t>
@@ -2542,24 +2534,24 @@
       </c>
       <c r="D63" s="2" t="inlineStr">
         <is>
-          <t>Use</t>
+          <t>Use details</t>
         </is>
       </c>
       <c r="E63" s="2" t="inlineStr"/>
       <c r="F63" s="2" t="inlineStr"/>
       <c r="G63" s="2" t="inlineStr">
         <is>
-          <t>A use class or type of use</t>
+          <t>Further detail of the use</t>
         </is>
       </c>
       <c r="H63" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I63" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2573,14 +2565,14 @@
       </c>
       <c r="D64" s="2" t="inlineStr">
         <is>
-          <t>Use details</t>
+          <t>Land part</t>
         </is>
       </c>
       <c r="E64" s="2" t="inlineStr"/>
       <c r="F64" s="2" t="inlineStr"/>
       <c r="G64" s="2" t="inlineStr">
         <is>
-          <t>Further detail of the use</t>
+          <t>Which part of the land the use relates to</t>
         </is>
       </c>
       <c r="H64" s="2" t="inlineStr">
@@ -2590,7 +2582,7 @@
       </c>
       <c r="I64" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -2599,24 +2591,20 @@
       <c r="B65" s="2" t="n"/>
       <c r="C65" s="2" t="inlineStr">
         <is>
-          <t>Existing use details[]</t>
-        </is>
-      </c>
-      <c r="D65" s="2" t="inlineStr">
-        <is>
-          <t>Land part</t>
-        </is>
-      </c>
+          <t>Site vacant</t>
+        </is>
+      </c>
+      <c r="D65" s="2" t="inlineStr"/>
       <c r="E65" s="2" t="inlineStr"/>
       <c r="F65" s="2" t="inlineStr"/>
       <c r="G65" s="2" t="inlineStr">
         <is>
-          <t>Which part of the land the use relates to</t>
+          <t>Is the site currently vacant</t>
         </is>
       </c>
       <c r="H65" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I65" s="2" t="inlineStr">
@@ -2630,7 +2618,7 @@
       <c r="B66" s="2" t="n"/>
       <c r="C66" s="2" t="inlineStr">
         <is>
-          <t>Site vacant</t>
+          <t>Last use details</t>
         </is>
       </c>
       <c r="D66" s="2" t="inlineStr"/>
@@ -2638,17 +2626,17 @@
       <c r="F66" s="2" t="inlineStr"/>
       <c r="G66" s="2" t="inlineStr">
         <is>
-          <t>Is the site currently vacant</t>
+          <t>Description of the last use of the site</t>
         </is>
       </c>
       <c r="H66" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I66" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2657,7 +2645,7 @@
       <c r="B67" s="2" t="n"/>
       <c r="C67" s="2" t="inlineStr">
         <is>
-          <t>Last use details</t>
+          <t>Last use end date</t>
         </is>
       </c>
       <c r="D67" s="2" t="inlineStr"/>
@@ -2665,12 +2653,12 @@
       <c r="F67" s="2" t="inlineStr"/>
       <c r="G67" s="2" t="inlineStr">
         <is>
-          <t>Description of the last use of the site</t>
+          <t>Date the last use ended (YYYY-MM-DD format)</t>
         </is>
       </c>
       <c r="H67" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="I67" s="2" t="inlineStr">
@@ -2684,7 +2672,7 @@
       <c r="B68" s="2" t="n"/>
       <c r="C68" s="2" t="inlineStr">
         <is>
-          <t>Last use end date</t>
+          <t>Is contaminated land</t>
         </is>
       </c>
       <c r="D68" s="2" t="inlineStr"/>
@@ -2692,17 +2680,17 @@
       <c r="F68" s="2" t="inlineStr"/>
       <c r="G68" s="2" t="inlineStr">
         <is>
-          <t>Date the last use ended (YYYY-MM-DD format)</t>
+          <t>Is the site known to be contaminated?</t>
         </is>
       </c>
       <c r="H68" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I68" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -2711,7 +2699,7 @@
       <c r="B69" s="2" t="n"/>
       <c r="C69" s="2" t="inlineStr">
         <is>
-          <t>Is contaminated land</t>
+          <t>Is suspected contaminated land</t>
         </is>
       </c>
       <c r="D69" s="2" t="inlineStr"/>
@@ -2719,7 +2707,7 @@
       <c r="F69" s="2" t="inlineStr"/>
       <c r="G69" s="2" t="inlineStr">
         <is>
-          <t>Is the site known to be contaminated?</t>
+          <t>Is the site suspected of contamination?</t>
         </is>
       </c>
       <c r="H69" s="2" t="inlineStr">
@@ -2738,7 +2726,7 @@
       <c r="B70" s="2" t="n"/>
       <c r="C70" s="2" t="inlineStr">
         <is>
-          <t>Is suspected contaminated land</t>
+          <t>Proposed use contamination risk</t>
         </is>
       </c>
       <c r="D70" s="2" t="inlineStr"/>
@@ -2746,7 +2734,7 @@
       <c r="F70" s="2" t="inlineStr"/>
       <c r="G70" s="2" t="inlineStr">
         <is>
-          <t>Is the site suspected of contamination?</t>
+          <t>Is the proposed use vulnerable to the presence of contamination?</t>
         </is>
       </c>
       <c r="H70" s="2" t="inlineStr">
@@ -2765,7 +2753,7 @@
       <c r="B71" s="2" t="n"/>
       <c r="C71" s="2" t="inlineStr">
         <is>
-          <t>Proposed use contamination risk</t>
+          <t>Contamination assessment</t>
         </is>
       </c>
       <c r="D71" s="2" t="inlineStr"/>
@@ -2773,26 +2761,34 @@
       <c r="F71" s="2" t="inlineStr"/>
       <c r="G71" s="2" t="inlineStr">
         <is>
-          <t>Is the proposed use vulnerable to the presence of contamination?</t>
+          <t>Reference to contamination assessment document</t>
         </is>
       </c>
       <c r="H71" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I71" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="2" t="n"/>
-      <c r="B72" s="2" t="n"/>
+      <c r="A72" s="2" t="inlineStr">
+        <is>
+          <t>Flood risk assessment</t>
+        </is>
+      </c>
+      <c r="B72" s="2" t="inlineStr">
+        <is>
+          <t>Results of any flood risk assessments made for the development site</t>
+        </is>
+      </c>
       <c r="C72" s="2" t="inlineStr">
         <is>
-          <t>Contamination assessment</t>
+          <t>Flood risk area</t>
         </is>
       </c>
       <c r="D72" s="2" t="inlineStr"/>
@@ -2800,34 +2796,26 @@
       <c r="F72" s="2" t="inlineStr"/>
       <c r="G72" s="2" t="inlineStr">
         <is>
-          <t>Reference to contamination assessment document</t>
+          <t>Is the site within an area at risk of flooding?</t>
         </is>
       </c>
       <c r="H72" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I72" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="2" t="inlineStr">
-        <is>
-          <t>Flood risk assessment</t>
-        </is>
-      </c>
-      <c r="B73" s="2" t="inlineStr">
-        <is>
-          <t>Results of any flood risk assessments made for the development site</t>
-        </is>
-      </c>
+      <c r="A73" s="2" t="n"/>
+      <c r="B73" s="2" t="n"/>
       <c r="C73" s="2" t="inlineStr">
         <is>
-          <t>Flood risk area</t>
+          <t>Data provided by</t>
         </is>
       </c>
       <c r="D73" s="2" t="inlineStr"/>
@@ -2835,17 +2823,17 @@
       <c r="F73" s="2" t="inlineStr"/>
       <c r="G73" s="2" t="inlineStr">
         <is>
-          <t>Is the site within an area at risk of flooding?</t>
+          <t>Who provided the data: Applicant or System/Service?</t>
         </is>
       </c>
       <c r="H73" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I73" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2854,7 +2842,7 @@
       <c r="B74" s="2" t="n"/>
       <c r="C74" s="2" t="inlineStr">
         <is>
-          <t>Data provided by</t>
+          <t>Flood risk assessment</t>
         </is>
       </c>
       <c r="D74" s="2" t="inlineStr"/>
@@ -2862,12 +2850,12 @@
       <c r="F74" s="2" t="inlineStr"/>
       <c r="G74" s="2" t="inlineStr">
         <is>
-          <t>Who provided the data: Applicant or System/Service?</t>
+          <t>Reference of the flood risk assessment document</t>
         </is>
       </c>
       <c r="H74" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I74" s="2" t="inlineStr">
@@ -2881,7 +2869,7 @@
       <c r="B75" s="2" t="n"/>
       <c r="C75" s="2" t="inlineStr">
         <is>
-          <t>Flood risk assessment</t>
+          <t>Within 20m watercourse</t>
         </is>
       </c>
       <c r="D75" s="2" t="inlineStr"/>
@@ -2889,17 +2877,17 @@
       <c r="F75" s="2" t="inlineStr"/>
       <c r="G75" s="2" t="inlineStr">
         <is>
-          <t>Reference of the flood risk assessment document</t>
+          <t>Whether the development is within 20 metres of a watercourse</t>
         </is>
       </c>
       <c r="H75" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I75" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -2908,7 +2896,7 @@
       <c r="B76" s="2" t="n"/>
       <c r="C76" s="2" t="inlineStr">
         <is>
-          <t>Within 20m watercourse</t>
+          <t>Increases flood risk</t>
         </is>
       </c>
       <c r="D76" s="2" t="inlineStr"/>
@@ -2916,7 +2904,7 @@
       <c r="F76" s="2" t="inlineStr"/>
       <c r="G76" s="2" t="inlineStr">
         <is>
-          <t>Whether the development is within 20 metres of a watercourse</t>
+          <t>Whether the development increases flood risk</t>
         </is>
       </c>
       <c r="H76" s="2" t="inlineStr">
@@ -2935,7 +2923,7 @@
       <c r="B77" s="2" t="n"/>
       <c r="C77" s="2" t="inlineStr">
         <is>
-          <t>Increases flood risk</t>
+          <t>Surface water disposal[]</t>
         </is>
       </c>
       <c r="D77" s="2" t="inlineStr"/>
@@ -2943,12 +2931,12 @@
       <c r="F77" s="2" t="inlineStr"/>
       <c r="G77" s="2" t="inlineStr">
         <is>
-          <t>Whether the development increases flood risk</t>
+          <t>Method for disposing of surface water</t>
         </is>
       </c>
       <c r="H77" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I77" s="2" t="inlineStr">
@@ -2958,11 +2946,19 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="2" t="n"/>
-      <c r="B78" s="2" t="n"/>
+      <c r="A78" s="2" t="inlineStr">
+        <is>
+          <t>Foul sewage disposal</t>
+        </is>
+      </c>
+      <c r="B78" s="2" t="inlineStr">
+        <is>
+          <t>How waste water will leave the property as part of the proposed development</t>
+        </is>
+      </c>
       <c r="C78" s="2" t="inlineStr">
         <is>
-          <t>Surface water disposal[]</t>
+          <t>Has new disposal arrangements</t>
         </is>
       </c>
       <c r="D78" s="2" t="inlineStr"/>
@@ -2970,12 +2966,12 @@
       <c r="F78" s="2" t="inlineStr"/>
       <c r="G78" s="2" t="inlineStr">
         <is>
-          <t>Method for disposing of surface water</t>
+          <t>Does the proposal include any new foul sewage disposal arrangments</t>
         </is>
       </c>
       <c r="H78" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I78" s="2" t="inlineStr">
@@ -2985,19 +2981,11 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="2" t="inlineStr">
-        <is>
-          <t>Foul sewage disposal</t>
-        </is>
-      </c>
-      <c r="B79" s="2" t="inlineStr">
-        <is>
-          <t>How waste water will leave the property as part of the proposed development</t>
-        </is>
-      </c>
+      <c r="A79" s="2" t="n"/>
+      <c r="B79" s="2" t="n"/>
       <c r="C79" s="2" t="inlineStr">
         <is>
-          <t>Has new disposal arrangements</t>
+          <t>Foul sewage disposal types[]</t>
         </is>
       </c>
       <c r="D79" s="2" t="inlineStr"/>
@@ -3005,17 +2993,17 @@
       <c r="F79" s="2" t="inlineStr"/>
       <c r="G79" s="2" t="inlineStr">
         <is>
-          <t>Does the proposal include any new foul sewage disposal arrangments</t>
+          <t>List of ways foul sewage will be disposed of</t>
         </is>
       </c>
       <c r="H79" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I79" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3024,7 +3012,7 @@
       <c r="B80" s="2" t="n"/>
       <c r="C80" s="2" t="inlineStr">
         <is>
-          <t>Foul sewage disposal types[]</t>
+          <t>Connect to drainage system</t>
         </is>
       </c>
       <c r="D80" s="2" t="inlineStr"/>
@@ -3032,17 +3020,17 @@
       <c r="F80" s="2" t="inlineStr"/>
       <c r="G80" s="2" t="inlineStr">
         <is>
-          <t>List of ways foul sewage will be disposed of</t>
+          <t>Whether the proposal needs to connect to the existing drainage system</t>
         </is>
       </c>
       <c r="H80" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I80" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -3051,7 +3039,7 @@
       <c r="B81" s="2" t="n"/>
       <c r="C81" s="2" t="inlineStr">
         <is>
-          <t>Connect to drainage system</t>
+          <t>Drainage system details</t>
         </is>
       </c>
       <c r="D81" s="2" t="inlineStr"/>
@@ -3059,26 +3047,34 @@
       <c r="F81" s="2" t="inlineStr"/>
       <c r="G81" s="2" t="inlineStr">
         <is>
-          <t>Whether the proposal needs to connect to the existing drainage system</t>
+          <t>Details of the drawings/plans that show the existing drainage system</t>
         </is>
       </c>
       <c r="H81" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I81" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="2" t="n"/>
-      <c r="B82" s="2" t="n"/>
+      <c r="A82" s="2" t="inlineStr">
+        <is>
+          <t>Hazardous substances</t>
+        </is>
+      </c>
+      <c r="B82" s="2" t="inlineStr">
+        <is>
+          <t>What hazardous substances may be used as part of the development</t>
+        </is>
+      </c>
       <c r="C82" s="2" t="inlineStr">
         <is>
-          <t>Drainage system details</t>
+          <t>Involves hazardous substances</t>
         </is>
       </c>
       <c r="D82" s="2" t="inlineStr"/>
@@ -3086,42 +3082,38 @@
       <c r="F82" s="2" t="inlineStr"/>
       <c r="G82" s="2" t="inlineStr">
         <is>
-          <t>Details of the drawings/plans that show the existing drainage system</t>
+          <t>Indicates if hazardous substances are involved in the proposal</t>
         </is>
       </c>
       <c r="H82" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I82" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="2" t="inlineStr">
-        <is>
-          <t>Hazardous substances</t>
-        </is>
-      </c>
-      <c r="B83" s="2" t="inlineStr">
-        <is>
-          <t>What hazardous substances may be used as part of the development</t>
-        </is>
-      </c>
+      <c r="A83" s="2" t="n"/>
+      <c r="B83" s="2" t="n"/>
       <c r="C83" s="2" t="inlineStr">
         <is>
-          <t>Involves hazardous substances</t>
-        </is>
-      </c>
-      <c r="D83" s="2" t="inlineStr"/>
+          <t>Substance types[]</t>
+        </is>
+      </c>
+      <c r="D83" s="2" t="inlineStr">
+        <is>
+          <t>Hazardous substance type</t>
+        </is>
+      </c>
       <c r="E83" s="2" t="inlineStr"/>
       <c r="F83" s="2" t="inlineStr"/>
       <c r="G83" s="2" t="inlineStr">
         <is>
-          <t>Indicates if hazardous substances are involved in the proposal</t>
+          <t>Reference of hazardous substance type from predefined list</t>
         </is>
       </c>
       <c r="H83" s="2" t="inlineStr">
@@ -3145,24 +3137,24 @@
       </c>
       <c r="D84" s="2" t="inlineStr">
         <is>
-          <t>Hazardous substance type</t>
+          <t>Hazardous substance other</t>
         </is>
       </c>
       <c r="E84" s="2" t="inlineStr"/>
       <c r="F84" s="2" t="inlineStr"/>
       <c r="G84" s="2" t="inlineStr">
         <is>
-          <t>Reference of hazardous substance type from predefined list</t>
+          <t>The specific name of the hazardous substance if other is selected</t>
         </is>
       </c>
       <c r="H84" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I84" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3176,24 +3168,24 @@
       </c>
       <c r="D85" s="2" t="inlineStr">
         <is>
-          <t>Hazardous substance other</t>
+          <t>Amount</t>
         </is>
       </c>
       <c r="E85" s="2" t="inlineStr"/>
       <c r="F85" s="2" t="inlineStr"/>
       <c r="G85" s="2" t="inlineStr">
         <is>
-          <t>The specific name of the hazardous substance if other is selected</t>
+          <t>The total amount due for the application fee</t>
         </is>
       </c>
       <c r="H85" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I85" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -3202,24 +3194,20 @@
       <c r="B86" s="2" t="n"/>
       <c r="C86" s="2" t="inlineStr">
         <is>
-          <t>Substance types[]</t>
-        </is>
-      </c>
-      <c r="D86" s="2" t="inlineStr">
-        <is>
-          <t>Amount</t>
-        </is>
-      </c>
+          <t>Hazardous substance consent required</t>
+        </is>
+      </c>
+      <c r="D86" s="2" t="inlineStr"/>
       <c r="E86" s="2" t="inlineStr"/>
       <c r="F86" s="2" t="inlineStr"/>
       <c r="G86" s="2" t="inlineStr">
         <is>
-          <t>The total amount due for the application fee</t>
+          <t>Does the proposal involve the use or storage of any substances requiring hazardous substances consent</t>
         </is>
       </c>
       <c r="H86" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I86" s="2" t="inlineStr">
@@ -3233,7 +3221,7 @@
       <c r="B87" s="2" t="n"/>
       <c r="C87" s="2" t="inlineStr">
         <is>
-          <t>Hazardous substance consent required</t>
+          <t>Hazardous substance consent details</t>
         </is>
       </c>
       <c r="D87" s="2" t="inlineStr"/>
@@ -3241,77 +3229,81 @@
       <c r="F87" s="2" t="inlineStr"/>
       <c r="G87" s="2" t="inlineStr">
         <is>
-          <t>Does the proposal involve the use or storage of any substances requiring hazardous substances consent</t>
+          <t>Details of hazardous substance consent requirements</t>
         </is>
       </c>
       <c r="H87" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I87" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="2" t="n"/>
-      <c r="B88" s="2" t="n"/>
-      <c r="C88" s="2" t="inlineStr">
-        <is>
-          <t>Hazardous substance consent details</t>
-        </is>
-      </c>
+      <c r="A88" s="2" t="inlineStr">
+        <is>
+          <t>Hours of operation</t>
+        </is>
+      </c>
+      <c r="B88" s="2" t="inlineStr">
+        <is>
+          <t>Proposed operating hours if the proposed development is intended for non-residential use.</t>
+        </is>
+      </c>
+      <c r="C88" s="2" t="inlineStr"/>
       <c r="D88" s="2" t="inlineStr"/>
       <c r="E88" s="2" t="inlineStr"/>
       <c r="F88" s="2" t="inlineStr"/>
-      <c r="G88" s="2" t="inlineStr">
-        <is>
-          <t>Details of hazardous substance consent requirements</t>
-        </is>
-      </c>
-      <c r="H88" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="I88" s="2" t="inlineStr">
-        <is>
-          <t>MAY</t>
-        </is>
-      </c>
+      <c r="G88" s="2" t="inlineStr"/>
+      <c r="H88" s="2" t="inlineStr"/>
+      <c r="I88" s="2" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="2" t="inlineStr">
         <is>
-          <t>Hours of operation</t>
+          <t>Materials</t>
         </is>
       </c>
       <c r="B89" s="2" t="inlineStr">
         <is>
-          <t>Proposed operating hours if the proposed development is intended for non-residential use.</t>
-        </is>
-      </c>
-      <c r="C89" s="2" t="inlineStr"/>
-      <c r="D89" s="2" t="inlineStr"/>
+          <t>What materials are being used for the proposed development</t>
+        </is>
+      </c>
+      <c r="C89" s="2" t="inlineStr">
+        <is>
+          <t>Building elements[]</t>
+        </is>
+      </c>
+      <c r="D89" s="2" t="inlineStr">
+        <is>
+          <t>Building element type</t>
+        </is>
+      </c>
       <c r="E89" s="2" t="inlineStr"/>
       <c r="F89" s="2" t="inlineStr"/>
-      <c r="G89" s="2" t="inlineStr"/>
-      <c r="H89" s="2" t="inlineStr"/>
-      <c r="I89" s="2" t="inlineStr"/>
+      <c r="G89" s="2" t="inlineStr">
+        <is>
+          <t>The part of building the materials relate to, such as walls, roofs, windows, or doors</t>
+        </is>
+      </c>
+      <c r="H89" s="2" t="inlineStr">
+        <is>
+          <t>enum</t>
+        </is>
+      </c>
+      <c r="I89" s="2" t="inlineStr">
+        <is>
+          <t>MUST</t>
+        </is>
+      </c>
     </row>
     <row r="90">
-      <c r="A90" s="2" t="inlineStr">
-        <is>
-          <t>Materials</t>
-        </is>
-      </c>
-      <c r="B90" s="2" t="inlineStr">
-        <is>
-          <t>What materials are being used for the proposed development</t>
-        </is>
-      </c>
+      <c r="A90" s="2" t="n"/>
+      <c r="B90" s="2" t="n"/>
       <c r="C90" s="2" t="inlineStr">
         <is>
           <t>Building elements[]</t>
@@ -3319,24 +3311,24 @@
       </c>
       <c r="D90" s="2" t="inlineStr">
         <is>
-          <t>Building element type</t>
+          <t>Existing materials</t>
         </is>
       </c>
       <c r="E90" s="2" t="inlineStr"/>
       <c r="F90" s="2" t="inlineStr"/>
       <c r="G90" s="2" t="inlineStr">
         <is>
-          <t>The part of building the materials relate to, such as walls, roofs, windows, or doors</t>
+          <t>Description of the materials currently used for this building element</t>
         </is>
       </c>
       <c r="H90" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I90" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3350,14 +3342,14 @@
       </c>
       <c r="D91" s="2" t="inlineStr">
         <is>
-          <t>Existing materials</t>
+          <t>Proposed materials</t>
         </is>
       </c>
       <c r="E91" s="2" t="inlineStr"/>
       <c r="F91" s="2" t="inlineStr"/>
       <c r="G91" s="2" t="inlineStr">
         <is>
-          <t>Description of the materials currently used for this building element</t>
+          <t>Description of the materials proposed for this building element as part of the development</t>
         </is>
       </c>
       <c r="H91" s="2" t="inlineStr">
@@ -3381,19 +3373,19 @@
       </c>
       <c r="D92" s="2" t="inlineStr">
         <is>
-          <t>Proposed materials</t>
+          <t>Materials not applicable</t>
         </is>
       </c>
       <c r="E92" s="2" t="inlineStr"/>
       <c r="F92" s="2" t="inlineStr"/>
       <c r="G92" s="2" t="inlineStr">
         <is>
-          <t>Description of the materials proposed for this building element as part of the development</t>
+          <t>Indicates this building element is not relevant to the application</t>
         </is>
       </c>
       <c r="H92" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I92" s="2" t="inlineStr">
@@ -3412,14 +3404,14 @@
       </c>
       <c r="D93" s="2" t="inlineStr">
         <is>
-          <t>Materials not applicable</t>
+          <t>Materials not known</t>
         </is>
       </c>
       <c r="E93" s="2" t="inlineStr"/>
       <c r="F93" s="2" t="inlineStr"/>
       <c r="G93" s="2" t="inlineStr">
         <is>
-          <t>Indicates this building element is not relevant to the application</t>
+          <t>Indicates the materials for this building element are not yet known</t>
         </is>
       </c>
       <c r="H93" s="2" t="inlineStr">
@@ -3438,19 +3430,15 @@
       <c r="B94" s="2" t="n"/>
       <c r="C94" s="2" t="inlineStr">
         <is>
-          <t>Building elements[]</t>
-        </is>
-      </c>
-      <c r="D94" s="2" t="inlineStr">
-        <is>
-          <t>Materials not known</t>
-        </is>
-      </c>
+          <t>Providing additional material information</t>
+        </is>
+      </c>
+      <c r="D94" s="2" t="inlineStr"/>
       <c r="E94" s="2" t="inlineStr"/>
       <c r="F94" s="2" t="inlineStr"/>
       <c r="G94" s="2" t="inlineStr">
         <is>
-          <t>Indicates the materials for this building element are not yet known</t>
+          <t>Is the applicant providing additional materials information on submitted plan(s)/drawing(s)/design and access statement?</t>
         </is>
       </c>
       <c r="H94" s="2" t="inlineStr">
@@ -3460,7 +3448,7 @@
       </c>
       <c r="I94" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -3469,20 +3457,24 @@
       <c r="B95" s="2" t="n"/>
       <c r="C95" s="2" t="inlineStr">
         <is>
-          <t>Providing additional material information</t>
-        </is>
-      </c>
-      <c r="D95" s="2" t="inlineStr"/>
+          <t>Supporting documents[]</t>
+        </is>
+      </c>
+      <c r="D95" s="2" t="inlineStr">
+        <is>
+          <t>Reference</t>
+        </is>
+      </c>
       <c r="E95" s="2" t="inlineStr"/>
       <c r="F95" s="2" t="inlineStr"/>
       <c r="G95" s="2" t="inlineStr">
         <is>
-          <t>Is the applicant providing additional materials information on submitted plan(s)/drawing(s)/design and access statement?</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="H95" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I95" s="2" t="inlineStr">
@@ -3501,14 +3493,14 @@
       </c>
       <c r="D96" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="E96" s="2" t="inlineStr"/>
       <c r="F96" s="2" t="inlineStr"/>
       <c r="G96" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>A name for the document. For example, The Site Plan</t>
         </is>
       </c>
       <c r="H96" s="2" t="inlineStr">
@@ -3523,45 +3515,33 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="2" t="n"/>
-      <c r="B97" s="2" t="n"/>
-      <c r="C97" s="2" t="inlineStr">
-        <is>
-          <t>Supporting documents[]</t>
-        </is>
-      </c>
-      <c r="D97" s="2" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
+      <c r="A97" s="2" t="inlineStr">
+        <is>
+          <t>Non residential floorspace</t>
+        </is>
+      </c>
+      <c r="B97" s="2" t="inlineStr">
+        <is>
+          <t>Details of changes to non-residential floorspace in the proposed development.</t>
+        </is>
+      </c>
+      <c r="C97" s="2" t="inlineStr"/>
+      <c r="D97" s="2" t="inlineStr"/>
       <c r="E97" s="2" t="inlineStr"/>
       <c r="F97" s="2" t="inlineStr"/>
-      <c r="G97" s="2" t="inlineStr">
-        <is>
-          <t>A name for the document. For example, The Site Plan</t>
-        </is>
-      </c>
-      <c r="H97" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="I97" s="2" t="inlineStr">
-        <is>
-          <t>MUST</t>
-        </is>
-      </c>
+      <c r="G97" s="2" t="inlineStr"/>
+      <c r="H97" s="2" t="inlineStr"/>
+      <c r="I97" s="2" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="2" t="inlineStr">
         <is>
-          <t>Non residential floorspace</t>
+          <t>Ownership certificates and agricultural land declaration</t>
         </is>
       </c>
       <c r="B98" s="2" t="inlineStr">
         <is>
-          <t>Details of changes to non-residential floorspace in the proposed development.</t>
+          <t>Who will be affected by the proposal and whether they have been notified, such as agricultural tenants</t>
         </is>
       </c>
       <c r="C98" s="2" t="inlineStr"/>
@@ -3575,36 +3555,44 @@
     <row r="99">
       <c r="A99" s="2" t="inlineStr">
         <is>
-          <t>Ownership certificates and agricultural land declaration</t>
+          <t>Pre-application advice</t>
         </is>
       </c>
       <c r="B99" s="2" t="inlineStr">
         <is>
-          <t>Who will be affected by the proposal and whether they have been notified, such as agricultural tenants</t>
-        </is>
-      </c>
-      <c r="C99" s="2" t="inlineStr"/>
+          <t>Details of pre-application advice previously received from the planning authority</t>
+        </is>
+      </c>
+      <c r="C99" s="2" t="inlineStr">
+        <is>
+          <t>Pre-application advice sought</t>
+        </is>
+      </c>
       <c r="D99" s="2" t="inlineStr"/>
       <c r="E99" s="2" t="inlineStr"/>
       <c r="F99" s="2" t="inlineStr"/>
-      <c r="G99" s="2" t="inlineStr"/>
-      <c r="H99" s="2" t="inlineStr"/>
-      <c r="I99" s="2" t="inlineStr"/>
+      <c r="G99" s="2" t="inlineStr">
+        <is>
+          <t>Whether pre-application advice has been sought from the planning authority</t>
+        </is>
+      </c>
+      <c r="H99" s="2" t="inlineStr">
+        <is>
+          <t>boolean</t>
+        </is>
+      </c>
+      <c r="I99" s="2" t="inlineStr">
+        <is>
+          <t>MUST</t>
+        </is>
+      </c>
     </row>
     <row r="100">
-      <c r="A100" s="2" t="inlineStr">
-        <is>
-          <t>Pre-application advice</t>
-        </is>
-      </c>
-      <c r="B100" s="2" t="inlineStr">
-        <is>
-          <t>Details of pre-application advice previously received from the planning authority</t>
-        </is>
-      </c>
+      <c r="A100" s="2" t="n"/>
+      <c r="B100" s="2" t="n"/>
       <c r="C100" s="2" t="inlineStr">
         <is>
-          <t>Pre-application advice sought</t>
+          <t>Officer name</t>
         </is>
       </c>
       <c r="D100" s="2" t="inlineStr"/>
@@ -3612,17 +3600,17 @@
       <c r="F100" s="2" t="inlineStr"/>
       <c r="G100" s="2" t="inlineStr">
         <is>
-          <t>Whether pre-application advice has been sought from the planning authority</t>
+          <t>Name of the planning officer who provided the pre-application advice</t>
         </is>
       </c>
       <c r="H100" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I100" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3631,7 +3619,7 @@
       <c r="B101" s="2" t="n"/>
       <c r="C101" s="2" t="inlineStr">
         <is>
-          <t>Officer name</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="D101" s="2" t="inlineStr"/>
@@ -3639,7 +3627,7 @@
       <c r="F101" s="2" t="inlineStr"/>
       <c r="G101" s="2" t="inlineStr">
         <is>
-          <t>Name of the planning officer who provided the pre-application advice</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="H101" s="2" t="inlineStr">
@@ -3658,7 +3646,7 @@
       <c r="B102" s="2" t="n"/>
       <c r="C102" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>Advice date</t>
         </is>
       </c>
       <c r="D102" s="2" t="inlineStr"/>
@@ -3666,7 +3654,7 @@
       <c r="F102" s="2" t="inlineStr"/>
       <c r="G102" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>Date when pre-application advice was received, in YYYY-MM-DD format</t>
         </is>
       </c>
       <c r="H102" s="2" t="inlineStr">
@@ -3685,7 +3673,7 @@
       <c r="B103" s="2" t="n"/>
       <c r="C103" s="2" t="inlineStr">
         <is>
-          <t>Advice date</t>
+          <t>Advice summary</t>
         </is>
       </c>
       <c r="D103" s="2" t="inlineStr"/>
@@ -3693,7 +3681,7 @@
       <c r="F103" s="2" t="inlineStr"/>
       <c r="G103" s="2" t="inlineStr">
         <is>
-          <t>Date when pre-application advice was received, in YYYY-MM-DD format</t>
+          <t>Summary of the pre-application advice received from the planning authority</t>
         </is>
       </c>
       <c r="H103" s="2" t="inlineStr">
@@ -3708,11 +3696,19 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="2" t="n"/>
-      <c r="B104" s="2" t="n"/>
+      <c r="A104" s="2" t="inlineStr">
+        <is>
+          <t>Processes machinery waste</t>
+        </is>
+      </c>
+      <c r="B104" s="2" t="inlineStr">
+        <is>
+          <t>How waste will be managed on the site</t>
+        </is>
+      </c>
       <c r="C104" s="2" t="inlineStr">
         <is>
-          <t>Advice summary</t>
+          <t>Site activity details</t>
         </is>
       </c>
       <c r="D104" s="2" t="inlineStr"/>
@@ -3720,7 +3716,7 @@
       <c r="F104" s="2" t="inlineStr"/>
       <c r="G104" s="2" t="inlineStr">
         <is>
-          <t>Summary of the pre-application advice received from the planning authority</t>
+          <t>Description of activities, processes, and end products including site operations, plant, ventilation, and machinery</t>
         </is>
       </c>
       <c r="H104" s="2" t="inlineStr">
@@ -3730,24 +3726,16 @@
       </c>
       <c r="I104" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="2" t="inlineStr">
-        <is>
-          <t>Processes machinery waste</t>
-        </is>
-      </c>
-      <c r="B105" s="2" t="inlineStr">
-        <is>
-          <t>How waste will be managed on the site</t>
-        </is>
-      </c>
+      <c r="A105" s="2" t="n"/>
+      <c r="B105" s="2" t="n"/>
       <c r="C105" s="2" t="inlineStr">
         <is>
-          <t>Site activity details</t>
+          <t>Proposal waste management</t>
         </is>
       </c>
       <c r="D105" s="2" t="inlineStr"/>
@@ -3755,12 +3743,12 @@
       <c r="F105" s="2" t="inlineStr"/>
       <c r="G105" s="2" t="inlineStr">
         <is>
-          <t>Description of activities, processes, and end products including site operations, plant, ventilation, and machinery</t>
+          <t>Whether the proposal involves waste management development</t>
         </is>
       </c>
       <c r="H105" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I105" s="2" t="inlineStr">
@@ -3774,20 +3762,24 @@
       <c r="B106" s="2" t="n"/>
       <c r="C106" s="2" t="inlineStr">
         <is>
-          <t>Proposal waste management</t>
-        </is>
-      </c>
-      <c r="D106" s="2" t="inlineStr"/>
+          <t>Waste management[]</t>
+        </is>
+      </c>
+      <c r="D106" s="2" t="inlineStr">
+        <is>
+          <t>Waste management facility type</t>
+        </is>
+      </c>
       <c r="E106" s="2" t="inlineStr"/>
       <c r="F106" s="2" t="inlineStr"/>
       <c r="G106" s="2" t="inlineStr">
         <is>
-          <t>Whether the proposal involves waste management development</t>
+          <t>Type of waste management facility</t>
         </is>
       </c>
       <c r="H106" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I106" s="2" t="inlineStr">
@@ -3806,24 +3798,24 @@
       </c>
       <c r="D107" s="2" t="inlineStr">
         <is>
-          <t>Waste management facility type</t>
+          <t>Not applicable</t>
         </is>
       </c>
       <c r="E107" s="2" t="inlineStr"/>
       <c r="F107" s="2" t="inlineStr"/>
       <c r="G107" s="2" t="inlineStr">
         <is>
-          <t>Type of waste management facility</t>
+          <t>Whether the facility is not applicable</t>
         </is>
       </c>
       <c r="H107" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I107" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3837,19 +3829,19 @@
       </c>
       <c r="D108" s="2" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Total capacity</t>
         </is>
       </c>
       <c r="E108" s="2" t="inlineStr"/>
       <c r="F108" s="2" t="inlineStr"/>
       <c r="G108" s="2" t="inlineStr">
         <is>
-          <t>Whether the facility is not applicable</t>
+          <t>Total capacity of void in cubic metres (or tonnes/litres)</t>
         </is>
       </c>
       <c r="H108" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I108" s="2" t="inlineStr">
@@ -3868,14 +3860,14 @@
       </c>
       <c r="D109" s="2" t="inlineStr">
         <is>
-          <t>Total capacity</t>
+          <t>Annual throughput</t>
         </is>
       </c>
       <c r="E109" s="2" t="inlineStr"/>
       <c r="F109" s="2" t="inlineStr"/>
       <c r="G109" s="2" t="inlineStr">
         <is>
-          <t>Total capacity of void in cubic metres (or tonnes/litres)</t>
+          <t>Maximum annual operational throughput in tonnes/litres</t>
         </is>
       </c>
       <c r="H109" s="2" t="inlineStr">
@@ -3894,19 +3886,19 @@
       <c r="B110" s="2" t="n"/>
       <c r="C110" s="2" t="inlineStr">
         <is>
-          <t>Waste management[]</t>
+          <t>Waste streams throughput</t>
         </is>
       </c>
       <c r="D110" s="2" t="inlineStr">
         <is>
-          <t>Annual throughput</t>
+          <t>Municipal</t>
         </is>
       </c>
       <c r="E110" s="2" t="inlineStr"/>
       <c r="F110" s="2" t="inlineStr"/>
       <c r="G110" s="2" t="inlineStr">
         <is>
-          <t>Maximum annual operational throughput in tonnes/litres</t>
+          <t>Maximum throughput for municipal waste (annual throughput in tonnes/litres)</t>
         </is>
       </c>
       <c r="H110" s="2" t="inlineStr">
@@ -3930,14 +3922,14 @@
       </c>
       <c r="D111" s="2" t="inlineStr">
         <is>
-          <t>Municipal</t>
+          <t>Construction demolition</t>
         </is>
       </c>
       <c r="E111" s="2" t="inlineStr"/>
       <c r="F111" s="2" t="inlineStr"/>
       <c r="G111" s="2" t="inlineStr">
         <is>
-          <t>Maximum throughput for municipal waste (annual throughput in tonnes/litres)</t>
+          <t>Maximum throughput for construction and demolition waste (annual throughput in tonnes/litres)</t>
         </is>
       </c>
       <c r="H111" s="2" t="inlineStr">
@@ -3961,14 +3953,14 @@
       </c>
       <c r="D112" s="2" t="inlineStr">
         <is>
-          <t>Construction demolition</t>
+          <t>Commercial industrial</t>
         </is>
       </c>
       <c r="E112" s="2" t="inlineStr"/>
       <c r="F112" s="2" t="inlineStr"/>
       <c r="G112" s="2" t="inlineStr">
         <is>
-          <t>Maximum throughput for construction and demolition waste (annual throughput in tonnes/litres)</t>
+          <t>Maximum throughput for commercial and industrial waste (annual throughput in tonnes/litres)</t>
         </is>
       </c>
       <c r="H112" s="2" t="inlineStr">
@@ -3992,14 +3984,14 @@
       </c>
       <c r="D113" s="2" t="inlineStr">
         <is>
-          <t>Commercial industrial</t>
+          <t>Hazardous</t>
         </is>
       </c>
       <c r="E113" s="2" t="inlineStr"/>
       <c r="F113" s="2" t="inlineStr"/>
       <c r="G113" s="2" t="inlineStr">
         <is>
-          <t>Maximum throughput for commercial and industrial waste (annual throughput in tonnes/litres)</t>
+          <t>Maximum throughput for hazardous waste (annual throughput in tonnes/litres)</t>
         </is>
       </c>
       <c r="H113" s="2" t="inlineStr">
@@ -4014,82 +4006,82 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="2" t="n"/>
-      <c r="B114" s="2" t="n"/>
-      <c r="C114" s="2" t="inlineStr">
-        <is>
-          <t>Waste streams throughput</t>
-        </is>
-      </c>
-      <c r="D114" s="2" t="inlineStr">
-        <is>
-          <t>Hazardous</t>
-        </is>
-      </c>
+      <c r="A114" s="2" t="inlineStr">
+        <is>
+          <t>Description of the proposal</t>
+        </is>
+      </c>
+      <c r="B114" s="2" t="inlineStr">
+        <is>
+          <t>What development, works or change of use is proposed</t>
+        </is>
+      </c>
+      <c r="C114" s="2" t="inlineStr"/>
+      <c r="D114" s="2" t="inlineStr"/>
       <c r="E114" s="2" t="inlineStr"/>
       <c r="F114" s="2" t="inlineStr"/>
-      <c r="G114" s="2" t="inlineStr">
-        <is>
-          <t>Maximum throughput for hazardous waste (annual throughput in tonnes/litres)</t>
-        </is>
-      </c>
-      <c r="H114" s="2" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="I114" s="2" t="inlineStr">
-        <is>
-          <t>MAY</t>
-        </is>
-      </c>
+      <c r="G114" s="2" t="inlineStr"/>
+      <c r="H114" s="2" t="inlineStr"/>
+      <c r="I114" s="2" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="2" t="inlineStr">
         <is>
-          <t>Description of the proposal</t>
+          <t>Residential units</t>
         </is>
       </c>
       <c r="B115" s="2" t="inlineStr">
         <is>
-          <t>What development, works or change of use is proposed</t>
-        </is>
-      </c>
-      <c r="C115" s="2" t="inlineStr"/>
+          <t>Details of the residential units that make up both the current and proposed development.</t>
+        </is>
+      </c>
+      <c r="C115" s="2" t="inlineStr">
+        <is>
+          <t>Residential unit change</t>
+        </is>
+      </c>
       <c r="D115" s="2" t="inlineStr"/>
       <c r="E115" s="2" t="inlineStr"/>
       <c r="F115" s="2" t="inlineStr"/>
-      <c r="G115" s="2" t="inlineStr"/>
-      <c r="H115" s="2" t="inlineStr"/>
-      <c r="I115" s="2" t="inlineStr"/>
+      <c r="G115" s="2" t="inlineStr">
+        <is>
+          <t>Proposal includes the gain, loss or change of use of residential units</t>
+        </is>
+      </c>
+      <c r="H115" s="2" t="inlineStr">
+        <is>
+          <t>boolean</t>
+        </is>
+      </c>
+      <c r="I115" s="2" t="inlineStr">
+        <is>
+          <t>MUST</t>
+        </is>
+      </c>
     </row>
     <row r="116">
-      <c r="A116" s="2" t="inlineStr">
-        <is>
-          <t>Residential units</t>
-        </is>
-      </c>
-      <c r="B116" s="2" t="inlineStr">
-        <is>
-          <t>Details of the residential units that make up both the current and proposed development.</t>
-        </is>
-      </c>
+      <c r="A116" s="2" t="n"/>
+      <c r="B116" s="2" t="n"/>
       <c r="C116" s="2" t="inlineStr">
         <is>
-          <t>Residential unit change</t>
-        </is>
-      </c>
-      <c r="D116" s="2" t="inlineStr"/>
+          <t>Residential unit summary[]</t>
+        </is>
+      </c>
+      <c r="D116" s="2" t="inlineStr">
+        <is>
+          <t>Tenure type</t>
+        </is>
+      </c>
       <c r="E116" s="2" t="inlineStr"/>
       <c r="F116" s="2" t="inlineStr"/>
       <c r="G116" s="2" t="inlineStr">
         <is>
-          <t>Proposal includes the gain, loss or change of use of residential units</t>
+          <t>Category of housing tenure</t>
         </is>
       </c>
       <c r="H116" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I116" s="2" t="inlineStr">
@@ -4108,14 +4100,14 @@
       </c>
       <c r="D117" s="2" t="inlineStr">
         <is>
-          <t>Tenure type</t>
+          <t>Housing type</t>
         </is>
       </c>
       <c r="E117" s="2" t="inlineStr"/>
       <c r="F117" s="2" t="inlineStr"/>
       <c r="G117" s="2" t="inlineStr">
         <is>
-          <t>Category of housing tenure</t>
+          <t>Type of housing</t>
         </is>
       </c>
       <c r="H117" s="2" t="inlineStr">
@@ -4139,19 +4131,23 @@
       </c>
       <c r="D118" s="2" t="inlineStr">
         <is>
-          <t>Housing type</t>
-        </is>
-      </c>
-      <c r="E118" s="2" t="inlineStr"/>
+          <t>Existing unit breakdown[]</t>
+        </is>
+      </c>
+      <c r="E118" s="2" t="inlineStr">
+        <is>
+          <t>Units unknown</t>
+        </is>
+      </c>
       <c r="F118" s="2" t="inlineStr"/>
       <c r="G118" s="2" t="inlineStr">
         <is>
-          <t>Type of housing</t>
+          <t>Whether the number of units is unknown</t>
         </is>
       </c>
       <c r="H118" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I118" s="2" t="inlineStr">
@@ -4175,13 +4171,17 @@
       </c>
       <c r="E119" s="2" t="inlineStr">
         <is>
-          <t>Units unknown</t>
-        </is>
-      </c>
-      <c r="F119" s="2" t="inlineStr"/>
+          <t>Units per bedroom number[]</t>
+        </is>
+      </c>
+      <c r="F119" s="2" t="inlineStr">
+        <is>
+          <t>No bedrooms unknown</t>
+        </is>
+      </c>
       <c r="G119" s="2" t="inlineStr">
         <is>
-          <t>Whether the number of units is unknown</t>
+          <t>Set to true when counting units where bedroom number is unknown</t>
         </is>
       </c>
       <c r="H119" s="2" t="inlineStr">
@@ -4215,22 +4215,22 @@
       </c>
       <c r="F120" s="2" t="inlineStr">
         <is>
-          <t>No bedrooms unknown</t>
+          <t>Number of bedrooms</t>
         </is>
       </c>
       <c r="G120" s="2" t="inlineStr">
         <is>
-          <t>Set to true when counting units where bedroom number is unknown</t>
+          <t>The number of bedrooms in unit</t>
         </is>
       </c>
       <c r="H120" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I120" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4254,12 +4254,12 @@
       </c>
       <c r="F121" s="2" t="inlineStr">
         <is>
-          <t>Number of bedrooms</t>
+          <t>Units</t>
         </is>
       </c>
       <c r="G121" s="2" t="inlineStr">
         <is>
-          <t>The number of bedrooms in unit</t>
+          <t>The number of units of that bedroom count</t>
         </is>
       </c>
       <c r="H121" s="2" t="inlineStr">
@@ -4269,7 +4269,7 @@
       </c>
       <c r="I121" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -4288,17 +4288,13 @@
       </c>
       <c r="E122" s="2" t="inlineStr">
         <is>
-          <t>Units per bedroom number[]</t>
-        </is>
-      </c>
-      <c r="F122" s="2" t="inlineStr">
-        <is>
-          <t>Units</t>
-        </is>
-      </c>
+          <t>Total units</t>
+        </is>
+      </c>
+      <c r="F122" s="2" t="inlineStr"/>
       <c r="G122" s="2" t="inlineStr">
         <is>
-          <t>The number of units of that bedroom count</t>
+          <t>Total number of units</t>
         </is>
       </c>
       <c r="H122" s="2" t="inlineStr">
@@ -4308,7 +4304,7 @@
       </c>
       <c r="I122" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4322,28 +4318,28 @@
       </c>
       <c r="D123" s="2" t="inlineStr">
         <is>
-          <t>Existing unit breakdown[]</t>
+          <t>Proposed unit breakdown[]</t>
         </is>
       </c>
       <c r="E123" s="2" t="inlineStr">
         <is>
-          <t>Total units</t>
+          <t>Units unknown</t>
         </is>
       </c>
       <c r="F123" s="2" t="inlineStr"/>
       <c r="G123" s="2" t="inlineStr">
         <is>
-          <t>Total number of units</t>
+          <t>Whether the number of units is unknown</t>
         </is>
       </c>
       <c r="H123" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I123" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -4362,13 +4358,17 @@
       </c>
       <c r="E124" s="2" t="inlineStr">
         <is>
-          <t>Units unknown</t>
-        </is>
-      </c>
-      <c r="F124" s="2" t="inlineStr"/>
+          <t>Units per bedroom number[]</t>
+        </is>
+      </c>
+      <c r="F124" s="2" t="inlineStr">
+        <is>
+          <t>No bedrooms unknown</t>
+        </is>
+      </c>
       <c r="G124" s="2" t="inlineStr">
         <is>
-          <t>Whether the number of units is unknown</t>
+          <t>Set to true when counting units where bedroom number is unknown</t>
         </is>
       </c>
       <c r="H124" s="2" t="inlineStr">
@@ -4402,22 +4402,22 @@
       </c>
       <c r="F125" s="2" t="inlineStr">
         <is>
-          <t>No bedrooms unknown</t>
+          <t>Number of bedrooms</t>
         </is>
       </c>
       <c r="G125" s="2" t="inlineStr">
         <is>
-          <t>Set to true when counting units where bedroom number is unknown</t>
+          <t>The number of bedrooms in unit</t>
         </is>
       </c>
       <c r="H125" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I125" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4441,12 +4441,12 @@
       </c>
       <c r="F126" s="2" t="inlineStr">
         <is>
-          <t>Number of bedrooms</t>
+          <t>Units</t>
         </is>
       </c>
       <c r="G126" s="2" t="inlineStr">
         <is>
-          <t>The number of bedrooms in unit</t>
+          <t>The number of units of that bedroom count</t>
         </is>
       </c>
       <c r="H126" s="2" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="I126" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -4475,17 +4475,13 @@
       </c>
       <c r="E127" s="2" t="inlineStr">
         <is>
-          <t>Units per bedroom number[]</t>
-        </is>
-      </c>
-      <c r="F127" s="2" t="inlineStr">
-        <is>
-          <t>Units</t>
-        </is>
-      </c>
+          <t>Total units</t>
+        </is>
+      </c>
+      <c r="F127" s="2" t="inlineStr"/>
       <c r="G127" s="2" t="inlineStr">
         <is>
-          <t>The number of units of that bedroom count</t>
+          <t>Total number of units</t>
         </is>
       </c>
       <c r="H127" s="2" t="inlineStr">
@@ -4495,7 +4491,7 @@
       </c>
       <c r="I127" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4504,23 +4500,15 @@
       <c r="B128" s="2" t="n"/>
       <c r="C128" s="2" t="inlineStr">
         <is>
-          <t>Residential unit summary[]</t>
-        </is>
-      </c>
-      <c r="D128" s="2" t="inlineStr">
-        <is>
-          <t>Proposed unit breakdown[]</t>
-        </is>
-      </c>
-      <c r="E128" s="2" t="inlineStr">
-        <is>
-          <t>Total units</t>
-        </is>
-      </c>
+          <t>Total existing units</t>
+        </is>
+      </c>
+      <c r="D128" s="2" t="inlineStr"/>
+      <c r="E128" s="2" t="inlineStr"/>
       <c r="F128" s="2" t="inlineStr"/>
       <c r="G128" s="2" t="inlineStr">
         <is>
-          <t>Total number of units</t>
+          <t>The total number of existing units</t>
         </is>
       </c>
       <c r="H128" s="2" t="inlineStr">
@@ -4530,7 +4518,7 @@
       </c>
       <c r="I128" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -4539,7 +4527,7 @@
       <c r="B129" s="2" t="n"/>
       <c r="C129" s="2" t="inlineStr">
         <is>
-          <t>Total existing units</t>
+          <t>Total proposed units</t>
         </is>
       </c>
       <c r="D129" s="2" t="inlineStr"/>
@@ -4547,7 +4535,7 @@
       <c r="F129" s="2" t="inlineStr"/>
       <c r="G129" s="2" t="inlineStr">
         <is>
-          <t>The total number of existing units</t>
+          <t>The total number of proposed units</t>
         </is>
       </c>
       <c r="H129" s="2" t="inlineStr">
@@ -4566,7 +4554,7 @@
       <c r="B130" s="2" t="n"/>
       <c r="C130" s="2" t="inlineStr">
         <is>
-          <t>Total proposed units</t>
+          <t>Net change</t>
         </is>
       </c>
       <c r="D130" s="2" t="inlineStr"/>
@@ -4574,7 +4562,7 @@
       <c r="F130" s="2" t="inlineStr"/>
       <c r="G130" s="2" t="inlineStr">
         <is>
-          <t>The total number of proposed units</t>
+          <t>Calculated net change in units</t>
         </is>
       </c>
       <c r="H130" s="2" t="inlineStr">
@@ -4589,11 +4577,19 @@
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="2" t="n"/>
-      <c r="B131" s="2" t="n"/>
+      <c r="A131" s="2" t="inlineStr">
+        <is>
+          <t>Site area</t>
+        </is>
+      </c>
+      <c r="B131" s="2" t="inlineStr">
+        <is>
+          <t>How big the site is including relevant measurements</t>
+        </is>
+      </c>
       <c r="C131" s="2" t="inlineStr">
         <is>
-          <t>Net change</t>
+          <t>Site area in hectares</t>
         </is>
       </c>
       <c r="D131" s="2" t="inlineStr"/>
@@ -4601,7 +4597,7 @@
       <c r="F131" s="2" t="inlineStr"/>
       <c r="G131" s="2" t="inlineStr">
         <is>
-          <t>Calculated net change in units</t>
+          <t>The size of the site in hectares</t>
         </is>
       </c>
       <c r="H131" s="2" t="inlineStr">
@@ -4616,19 +4612,11 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="2" t="inlineStr">
-        <is>
-          <t>Site area</t>
-        </is>
-      </c>
-      <c r="B132" s="2" t="inlineStr">
-        <is>
-          <t>How big the site is including relevant measurements</t>
-        </is>
-      </c>
+      <c r="A132" s="2" t="n"/>
+      <c r="B132" s="2" t="n"/>
       <c r="C132" s="2" t="inlineStr">
         <is>
-          <t>Site area in hectares</t>
+          <t>Site area provided by</t>
         </is>
       </c>
       <c r="D132" s="2" t="inlineStr"/>
@@ -4636,39 +4624,51 @@
       <c r="F132" s="2" t="inlineStr"/>
       <c r="G132" s="2" t="inlineStr">
         <is>
-          <t>The size of the site in hectares</t>
+          <t>Who provided the site area value</t>
         </is>
       </c>
       <c r="H132" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I132" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="2" t="n"/>
-      <c r="B133" s="2" t="n"/>
+      <c r="A133" s="2" t="inlineStr">
+        <is>
+          <t>Site details</t>
+        </is>
+      </c>
+      <c r="B133" s="2" t="inlineStr">
+        <is>
+          <t>Where the proposed development will be built.</t>
+        </is>
+      </c>
       <c r="C133" s="2" t="inlineStr">
         <is>
-          <t>Site area provided by</t>
-        </is>
-      </c>
-      <c r="D133" s="2" t="inlineStr"/>
+          <t>Site locations[]</t>
+        </is>
+      </c>
+      <c r="D133" s="2" t="inlineStr">
+        <is>
+          <t>Site boundary</t>
+        </is>
+      </c>
       <c r="E133" s="2" t="inlineStr"/>
       <c r="F133" s="2" t="inlineStr"/>
       <c r="G133" s="2" t="inlineStr">
         <is>
-          <t>Who provided the site area value</t>
+          <t>Geometry of the site of the development, typically in GeoJSON format</t>
         </is>
       </c>
       <c r="H133" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>wkt</t>
         </is>
       </c>
       <c r="I133" s="2" t="inlineStr">
@@ -4678,16 +4678,8 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="2" t="inlineStr">
-        <is>
-          <t>Site details</t>
-        </is>
-      </c>
-      <c r="B134" s="2" t="inlineStr">
-        <is>
-          <t>Where the proposed development will be built.</t>
-        </is>
-      </c>
+      <c r="A134" s="2" t="n"/>
+      <c r="B134" s="2" t="n"/>
       <c r="C134" s="2" t="inlineStr">
         <is>
           <t>Site locations[]</t>
@@ -4695,19 +4687,19 @@
       </c>
       <c r="D134" s="2" t="inlineStr">
         <is>
-          <t>Site boundary</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="E134" s="2" t="inlineStr"/>
       <c r="F134" s="2" t="inlineStr"/>
       <c r="G134" s="2" t="inlineStr">
         <is>
-          <t>Geometry of the site of the development, typically in GeoJSON format</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="H134" s="2" t="inlineStr">
         <is>
-          <t>wkt</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I134" s="2" t="inlineStr">
@@ -4726,14 +4718,14 @@
       </c>
       <c r="D135" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="E135" s="2" t="inlineStr"/>
       <c r="F135" s="2" t="inlineStr"/>
       <c r="G135" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="H135" s="2" t="inlineStr">
@@ -4757,19 +4749,19 @@
       </c>
       <c r="D136" s="2" t="inlineStr">
         <is>
-          <t>Postcode</t>
+          <t>Easting</t>
         </is>
       </c>
       <c r="E136" s="2" t="inlineStr"/>
       <c r="F136" s="2" t="inlineStr"/>
       <c r="G136" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Easting coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
       <c r="H136" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I136" s="2" t="inlineStr">
@@ -4788,14 +4780,14 @@
       </c>
       <c r="D137" s="2" t="inlineStr">
         <is>
-          <t>Easting</t>
+          <t>Northing</t>
         </is>
       </c>
       <c r="E137" s="2" t="inlineStr"/>
       <c r="F137" s="2" t="inlineStr"/>
       <c r="G137" s="2" t="inlineStr">
         <is>
-          <t>Easting coordinate in British National Grid (EPSG:27700)</t>
+          <t>Northing coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
       <c r="H137" s="2" t="inlineStr">
@@ -4819,14 +4811,14 @@
       </c>
       <c r="D138" s="2" t="inlineStr">
         <is>
-          <t>Northing</t>
+          <t>Latitude</t>
         </is>
       </c>
       <c r="E138" s="2" t="inlineStr"/>
       <c r="F138" s="2" t="inlineStr"/>
       <c r="G138" s="2" t="inlineStr">
         <is>
-          <t>Northing coordinate in British National Grid (EPSG:27700)</t>
+          <t>Latitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
       <c r="H138" s="2" t="inlineStr">
@@ -4850,14 +4842,14 @@
       </c>
       <c r="D139" s="2" t="inlineStr">
         <is>
-          <t>Latitude</t>
+          <t>Longitude</t>
         </is>
       </c>
       <c r="E139" s="2" t="inlineStr"/>
       <c r="F139" s="2" t="inlineStr"/>
       <c r="G139" s="2" t="inlineStr">
         <is>
-          <t>Latitude coordinate in WGS84 (EPSG:4326)</t>
+          <t>Longitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
       <c r="H139" s="2" t="inlineStr">
@@ -4881,19 +4873,19 @@
       </c>
       <c r="D140" s="2" t="inlineStr">
         <is>
-          <t>Longitude</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="E140" s="2" t="inlineStr"/>
       <c r="F140" s="2" t="inlineStr"/>
       <c r="G140" s="2" t="inlineStr">
         <is>
-          <t>Longitude coordinate in WGS84 (EPSG:4326)</t>
+          <t>A text description providing details about the subject. For parking changes, this describes how the proposed works affect existing car parking arrangements.</t>
         </is>
       </c>
       <c r="H140" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I140" s="2" t="inlineStr">
@@ -4912,14 +4904,14 @@
       </c>
       <c r="D141" s="2" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>UPRNs[]</t>
         </is>
       </c>
       <c r="E141" s="2" t="inlineStr"/>
       <c r="F141" s="2" t="inlineStr"/>
       <c r="G141" s="2" t="inlineStr">
         <is>
-          <t>A text description providing details about the subject. For parking changes, this describes how the proposed works affect existing car parking arrangements.</t>
+          <t>Unique Property Reference Numbers (UPRNs) for properties within the site boundary</t>
         </is>
       </c>
       <c r="H141" s="2" t="inlineStr">
@@ -4934,50 +4926,46 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="2" t="n"/>
-      <c r="B142" s="2" t="n"/>
+      <c r="A142" s="2" t="inlineStr">
+        <is>
+          <t>Site Visit Details</t>
+        </is>
+      </c>
+      <c r="B142" s="2" t="inlineStr">
+        <is>
+          <t>Information to help the planning authority arrange a site visit</t>
+        </is>
+      </c>
       <c r="C142" s="2" t="inlineStr">
         <is>
-          <t>Site locations[]</t>
-        </is>
-      </c>
-      <c r="D142" s="2" t="inlineStr">
-        <is>
-          <t>UPRNs[]</t>
-        </is>
-      </c>
+          <t>Site seen from public area</t>
+        </is>
+      </c>
+      <c r="D142" s="2" t="inlineStr"/>
       <c r="E142" s="2" t="inlineStr"/>
       <c r="F142" s="2" t="inlineStr"/>
       <c r="G142" s="2" t="inlineStr">
         <is>
-          <t>Unique Property Reference Numbers (UPRNs) for properties within the site boundary</t>
+          <t>Can site be seen from a public road, public footpath, bridleway or other public land</t>
         </is>
       </c>
       <c r="H142" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I142" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="2" t="inlineStr">
-        <is>
-          <t>Site Visit Details</t>
-        </is>
-      </c>
-      <c r="B143" s="2" t="inlineStr">
-        <is>
-          <t>Information to help the planning authority arrange a site visit</t>
-        </is>
-      </c>
+      <c r="A143" s="2" t="n"/>
+      <c r="B143" s="2" t="n"/>
       <c r="C143" s="2" t="inlineStr">
         <is>
-          <t>Site seen from public area</t>
+          <t>Site visit contact type</t>
         </is>
       </c>
       <c r="D143" s="2" t="inlineStr"/>
@@ -4985,12 +4973,12 @@
       <c r="F143" s="2" t="inlineStr"/>
       <c r="G143" s="2" t="inlineStr">
         <is>
-          <t>Can site be seen from a public road, public footpath, bridleway or other public land</t>
+          <t>Indicates who the authority should contact to arrange a site visit</t>
         </is>
       </c>
       <c r="H143" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I143" s="2" t="inlineStr">
@@ -5004,7 +4992,7 @@
       <c r="B144" s="2" t="n"/>
       <c r="C144" s="2" t="inlineStr">
         <is>
-          <t>Site visit contact type</t>
+          <t>Contact reference</t>
         </is>
       </c>
       <c r="D144" s="2" t="inlineStr"/>
@@ -5012,17 +5000,17 @@
       <c r="F144" s="2" t="inlineStr"/>
       <c r="G144" s="2" t="inlineStr">
         <is>
-          <t>Indicates who the authority should contact to arrange a site visit</t>
+          <t>The reference of the applicant or agent who should be contacted for site visits</t>
         </is>
       </c>
       <c r="H144" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I144" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -5031,15 +5019,19 @@
       <c r="B145" s="2" t="n"/>
       <c r="C145" s="2" t="inlineStr">
         <is>
-          <t>Contact reference</t>
-        </is>
-      </c>
-      <c r="D145" s="2" t="inlineStr"/>
+          <t>Other site visit contact</t>
+        </is>
+      </c>
+      <c r="D145" s="2" t="inlineStr">
+        <is>
+          <t>Full name</t>
+        </is>
+      </c>
       <c r="E145" s="2" t="inlineStr"/>
       <c r="F145" s="2" t="inlineStr"/>
       <c r="G145" s="2" t="inlineStr">
         <is>
-          <t>The reference of the applicant or agent who should be contacted for site visits</t>
+          <t>The complete name of a person</t>
         </is>
       </c>
       <c r="H145" s="2" t="inlineStr">
@@ -5049,7 +5041,7 @@
       </c>
       <c r="I145" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -5063,14 +5055,14 @@
       </c>
       <c r="D146" s="2" t="inlineStr">
         <is>
-          <t>Full name</t>
+          <t>Phone number</t>
         </is>
       </c>
       <c r="E146" s="2" t="inlineStr"/>
       <c r="F146" s="2" t="inlineStr"/>
       <c r="G146" s="2" t="inlineStr">
         <is>
-          <t>The complete name of a person</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="H146" s="2" t="inlineStr">
@@ -5094,14 +5086,14 @@
       </c>
       <c r="D147" s="2" t="inlineStr">
         <is>
-          <t>Phone number</t>
+          <t>Email</t>
         </is>
       </c>
       <c r="E147" s="2" t="inlineStr"/>
       <c r="F147" s="2" t="inlineStr"/>
       <c r="G147" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="H147" s="2" t="inlineStr">
@@ -5116,28 +5108,32 @@
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="2" t="n"/>
-      <c r="B148" s="2" t="n"/>
+      <c r="A148" s="2" t="inlineStr">
+        <is>
+          <t>Trade effluent</t>
+        </is>
+      </c>
+      <c r="B148" s="2" t="inlineStr">
+        <is>
+          <t>Details of any liquid waste produced by industial processes on the proposed site, and how it will be diposed of.</t>
+        </is>
+      </c>
       <c r="C148" s="2" t="inlineStr">
         <is>
-          <t>Other site visit contact</t>
-        </is>
-      </c>
-      <c r="D148" s="2" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
-      </c>
+          <t>Disposal required</t>
+        </is>
+      </c>
+      <c r="D148" s="2" t="inlineStr"/>
       <c r="E148" s="2" t="inlineStr"/>
       <c r="F148" s="2" t="inlineStr"/>
       <c r="G148" s="2" t="inlineStr">
         <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
+          <t>Does the proposal involve the disposal of trade effluents or waste (true/false)</t>
         </is>
       </c>
       <c r="H148" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I148" s="2" t="inlineStr">
@@ -5147,19 +5143,11 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="2" t="inlineStr">
-        <is>
-          <t>Trade effluent</t>
-        </is>
-      </c>
-      <c r="B149" s="2" t="inlineStr">
-        <is>
-          <t>Details of any liquid waste produced by industial processes on the proposed site, and how it will be diposed of.</t>
-        </is>
-      </c>
+      <c r="A149" s="2" t="n"/>
+      <c r="B149" s="2" t="n"/>
       <c r="C149" s="2" t="inlineStr">
         <is>
-          <t>Disposal required</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="D149" s="2" t="inlineStr"/>
@@ -5167,77 +5155,81 @@
       <c r="F149" s="2" t="inlineStr"/>
       <c r="G149" s="2" t="inlineStr">
         <is>
-          <t>Does the proposal involve the disposal of trade effluents or waste (true/false)</t>
+          <t>describe the nature, volume and means of disposal of trade effluents or waste</t>
         </is>
       </c>
       <c r="H149" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I149" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="2" t="n"/>
-      <c r="B150" s="2" t="n"/>
-      <c r="C150" s="2" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
+      <c r="A150" s="2" t="inlineStr">
+        <is>
+          <t>Trees and hedges information</t>
+        </is>
+      </c>
+      <c r="B150" s="2" t="inlineStr">
+        <is>
+          <t>Details of trees and/or hedges that will be affected by the proposed development</t>
+        </is>
+      </c>
+      <c r="C150" s="2" t="inlineStr"/>
       <c r="D150" s="2" t="inlineStr"/>
       <c r="E150" s="2" t="inlineStr"/>
       <c r="F150" s="2" t="inlineStr"/>
-      <c r="G150" s="2" t="inlineStr">
-        <is>
-          <t>describe the nature, volume and means of disposal of trade effluents or waste</t>
-        </is>
-      </c>
-      <c r="H150" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="I150" s="2" t="inlineStr">
-        <is>
-          <t>MAY</t>
-        </is>
-      </c>
+      <c r="G150" s="2" t="inlineStr"/>
+      <c r="H150" s="2" t="inlineStr"/>
+      <c r="I150" s="2" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="2" t="inlineStr">
         <is>
-          <t>Trees and hedges information</t>
+          <t>Vehicle parking</t>
         </is>
       </c>
       <c r="B151" s="2" t="inlineStr">
         <is>
-          <t>Details of trees and/or hedges that will be affected by the proposed development</t>
-        </is>
-      </c>
-      <c r="C151" s="2" t="inlineStr"/>
-      <c r="D151" s="2" t="inlineStr"/>
+          <t>Details of current parking facilities at the site and any changes that would be made by the proposed development.</t>
+        </is>
+      </c>
+      <c r="C151" s="2" t="inlineStr">
+        <is>
+          <t>Parking spaces[]</t>
+        </is>
+      </c>
+      <c r="D151" s="2" t="inlineStr">
+        <is>
+          <t>Parking space type</t>
+        </is>
+      </c>
       <c r="E151" s="2" t="inlineStr"/>
       <c r="F151" s="2" t="inlineStr"/>
-      <c r="G151" s="2" t="inlineStr"/>
-      <c r="H151" s="2" t="inlineStr"/>
-      <c r="I151" s="2" t="inlineStr"/>
+      <c r="G151" s="2" t="inlineStr">
+        <is>
+          <t>Type of parking space or vehicle type</t>
+        </is>
+      </c>
+      <c r="H151" s="2" t="inlineStr">
+        <is>
+          <t>enum</t>
+        </is>
+      </c>
+      <c r="I151" s="2" t="inlineStr">
+        <is>
+          <t>MUST</t>
+        </is>
+      </c>
     </row>
     <row r="152">
-      <c r="A152" s="2" t="inlineStr">
-        <is>
-          <t>Vehicle parking</t>
-        </is>
-      </c>
-      <c r="B152" s="2" t="inlineStr">
-        <is>
-          <t>Details of current parking facilities at the site and any changes that would be made by the proposed development.</t>
-        </is>
-      </c>
+      <c r="A152" s="2" t="n"/>
+      <c r="B152" s="2" t="n"/>
       <c r="C152" s="2" t="inlineStr">
         <is>
           <t>Parking spaces[]</t>
@@ -5245,24 +5237,24 @@
       </c>
       <c r="D152" s="2" t="inlineStr">
         <is>
-          <t>Parking space type</t>
+          <t>Vehicle type other</t>
         </is>
       </c>
       <c r="E152" s="2" t="inlineStr"/>
       <c r="F152" s="2" t="inlineStr"/>
       <c r="G152" s="2" t="inlineStr">
         <is>
-          <t>Type of parking space or vehicle type</t>
+          <t>Vehicle type when parking space type is 'other'</t>
         </is>
       </c>
       <c r="H152" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I152" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -5276,24 +5268,24 @@
       </c>
       <c r="D153" s="2" t="inlineStr">
         <is>
-          <t>Vehicle type other</t>
+          <t>Total existing</t>
         </is>
       </c>
       <c r="E153" s="2" t="inlineStr"/>
       <c r="F153" s="2" t="inlineStr"/>
       <c r="G153" s="2" t="inlineStr">
         <is>
-          <t>Vehicle type when parking space type is 'other'</t>
+          <t>Total number of existing parking spaces</t>
         </is>
       </c>
       <c r="H153" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I153" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -5307,14 +5299,14 @@
       </c>
       <c r="D154" s="2" t="inlineStr">
         <is>
-          <t>Total existing</t>
+          <t>Total proposed</t>
         </is>
       </c>
       <c r="E154" s="2" t="inlineStr"/>
       <c r="F154" s="2" t="inlineStr"/>
       <c r="G154" s="2" t="inlineStr">
         <is>
-          <t>Total number of existing parking spaces</t>
+          <t>Total number of proposed parking spaces</t>
         </is>
       </c>
       <c r="H154" s="2" t="inlineStr">
@@ -5338,14 +5330,14 @@
       </c>
       <c r="D155" s="2" t="inlineStr">
         <is>
-          <t>Total proposed</t>
+          <t>Difference in spaces</t>
         </is>
       </c>
       <c r="E155" s="2" t="inlineStr"/>
       <c r="F155" s="2" t="inlineStr"/>
       <c r="G155" s="2" t="inlineStr">
         <is>
-          <t>Total number of proposed parking spaces</t>
+          <t>Net change in parking spaces (proposed minus existing)</t>
         </is>
       </c>
       <c r="H155" s="2" t="inlineStr">
@@ -5360,50 +5352,46 @@
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="2" t="n"/>
-      <c r="B156" s="2" t="n"/>
+      <c r="A156" s="2" t="inlineStr">
+        <is>
+          <t>Waste storage and collection</t>
+        </is>
+      </c>
+      <c r="B156" s="2" t="inlineStr">
+        <is>
+          <t>Any waste storage or recycling arrangements are in place, such as waste storage areas</t>
+        </is>
+      </c>
       <c r="C156" s="2" t="inlineStr">
         <is>
-          <t>Parking spaces[]</t>
-        </is>
-      </c>
-      <c r="D156" s="2" t="inlineStr">
-        <is>
-          <t>Difference in spaces</t>
-        </is>
-      </c>
+          <t>Waste storage area details</t>
+        </is>
+      </c>
+      <c r="D156" s="2" t="inlineStr"/>
       <c r="E156" s="2" t="inlineStr"/>
       <c r="F156" s="2" t="inlineStr"/>
       <c r="G156" s="2" t="inlineStr">
         <is>
-          <t>Net change in parking spaces (proposed minus existing)</t>
+          <t>Details of the waste storage area including location, size, design and access arrangements</t>
         </is>
       </c>
       <c r="H156" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I156" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="2" t="inlineStr">
-        <is>
-          <t>Waste storage and collection</t>
-        </is>
-      </c>
-      <c r="B157" s="2" t="inlineStr">
-        <is>
-          <t>Any waste storage or recycling arrangements are in place, such as waste storage areas</t>
-        </is>
-      </c>
+      <c r="A157" s="2" t="n"/>
+      <c r="B157" s="2" t="n"/>
       <c r="C157" s="2" t="inlineStr">
         <is>
-          <t>Waste storage area details</t>
+          <t>Separate recycling arrangements details</t>
         </is>
       </c>
       <c r="D157" s="2" t="inlineStr"/>
@@ -5411,7 +5399,7 @@
       <c r="F157" s="2" t="inlineStr"/>
       <c r="G157" s="2" t="inlineStr">
         <is>
-          <t>Details of the waste storage area including location, size, design and access arrangements</t>
+          <t>Details of the recycling arrangements including types of materials, collection methods and storage facilities</t>
         </is>
       </c>
       <c r="H157" s="2" t="inlineStr">
@@ -5420,33 +5408,6 @@
         </is>
       </c>
       <c r="I157" s="2" t="inlineStr">
-        <is>
-          <t>MAY</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="2" t="n"/>
-      <c r="B158" s="2" t="n"/>
-      <c r="C158" s="2" t="inlineStr">
-        <is>
-          <t>Separate recycling arrangements details</t>
-        </is>
-      </c>
-      <c r="D158" s="2" t="inlineStr"/>
-      <c r="E158" s="2" t="inlineStr"/>
-      <c r="F158" s="2" t="inlineStr"/>
-      <c r="G158" s="2" t="inlineStr">
-        <is>
-          <t>Details of the recycling arrangements including types of materials, collection methods and storage facilities</t>
-        </is>
-      </c>
-      <c r="H158" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="I158" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -5454,68 +5415,68 @@
     </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="A132:A133"/>
-    <mergeCell ref="B53:B55"/>
-    <mergeCell ref="A151"/>
-    <mergeCell ref="B149:B150"/>
-    <mergeCell ref="A157:A158"/>
-    <mergeCell ref="A56:A62"/>
-    <mergeCell ref="A79:A82"/>
-    <mergeCell ref="A83:A88"/>
-    <mergeCell ref="A149:A150"/>
-    <mergeCell ref="A73:A78"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="B49"/>
+    <mergeCell ref="A62:A71"/>
+    <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A97"/>
+    <mergeCell ref="B131:B132"/>
+    <mergeCell ref="A133:A141"/>
+    <mergeCell ref="B156:B157"/>
+    <mergeCell ref="A55:A61"/>
+    <mergeCell ref="A78:A81"/>
     <mergeCell ref="B51"/>
-    <mergeCell ref="A52"/>
-    <mergeCell ref="B89"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="B63:B72"/>
-    <mergeCell ref="A115"/>
-    <mergeCell ref="A116:A131"/>
-    <mergeCell ref="B90:B97"/>
-    <mergeCell ref="A41:A46"/>
-    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="B104:B113"/>
+    <mergeCell ref="A2:A19"/>
+    <mergeCell ref="B72:B77"/>
+    <mergeCell ref="A82:A87"/>
+    <mergeCell ref="B99:B103"/>
+    <mergeCell ref="B148:B149"/>
+    <mergeCell ref="A151:A155"/>
+    <mergeCell ref="B114"/>
+    <mergeCell ref="A115:A130"/>
     <mergeCell ref="B50"/>
-    <mergeCell ref="A100:A104"/>
-    <mergeCell ref="B132:B133"/>
-    <mergeCell ref="B157:B158"/>
-    <mergeCell ref="A152:A156"/>
-    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="B62:B71"/>
+    <mergeCell ref="B97"/>
+    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="A114"/>
+    <mergeCell ref="B55:B61"/>
+    <mergeCell ref="A49"/>
     <mergeCell ref="A51"/>
-    <mergeCell ref="B73:B78"/>
-    <mergeCell ref="A134:A142"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="A37:A40"/>
-    <mergeCell ref="B2:B20"/>
+    <mergeCell ref="B82:B87"/>
     <mergeCell ref="A98"/>
-    <mergeCell ref="B115"/>
-    <mergeCell ref="A90:A97"/>
-    <mergeCell ref="B105:B114"/>
-    <mergeCell ref="B100:B104"/>
-    <mergeCell ref="B52"/>
-    <mergeCell ref="A105:A114"/>
-    <mergeCell ref="B56:B62"/>
-    <mergeCell ref="B116:B131"/>
-    <mergeCell ref="B29:B36"/>
-    <mergeCell ref="B37:B40"/>
-    <mergeCell ref="B143:B148"/>
-    <mergeCell ref="A99"/>
-    <mergeCell ref="B151"/>
-    <mergeCell ref="B134:B142"/>
+    <mergeCell ref="B133:B141"/>
+    <mergeCell ref="B150"/>
+    <mergeCell ref="A88"/>
+    <mergeCell ref="A89:A96"/>
+    <mergeCell ref="B78:B81"/>
+    <mergeCell ref="A131:A132"/>
+    <mergeCell ref="A150"/>
+    <mergeCell ref="B52:B54"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A156:A157"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="B115:B130"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="B28:B35"/>
     <mergeCell ref="B98"/>
-    <mergeCell ref="A89"/>
+    <mergeCell ref="B142:B147"/>
+    <mergeCell ref="B36:B39"/>
+    <mergeCell ref="B40:B45"/>
     <mergeCell ref="A50"/>
-    <mergeCell ref="B79:B82"/>
-    <mergeCell ref="A2:A20"/>
-    <mergeCell ref="B83:B88"/>
-    <mergeCell ref="B152:B156"/>
-    <mergeCell ref="A29:A36"/>
-    <mergeCell ref="A143:A148"/>
-    <mergeCell ref="B25:B28"/>
-    <mergeCell ref="B99"/>
-    <mergeCell ref="A63:A72"/>
-    <mergeCell ref="B41:B46"/>
+    <mergeCell ref="B88"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="A104:A113"/>
+    <mergeCell ref="A148:A149"/>
+    <mergeCell ref="A99:A103"/>
+    <mergeCell ref="A72:A77"/>
+    <mergeCell ref="B89:B96"/>
+    <mergeCell ref="B2:B19"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="B151:B155"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="A142:A147"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/generated/spreadsheet/technical-details-consent-technical-details-consent.xlsx
+++ b/generated/spreadsheet/technical-details-consent-technical-details-consent.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I157"/>
+  <dimension ref="A1:I156"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -964,17 +964,17 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>Checksum</t>
+          <t>File size</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>Hash of the file contents used for file validation and checking files have not been tampered with</t>
+          <t>Size of the file in bytes that can be used to enforce limits</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -993,22 +993,18 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>Documents[]</t>
+          <t>Fee</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>File</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>File size</t>
-        </is>
-      </c>
+          <t>Amount</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr"/>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>Size of the file in bytes that can be used to enforce limits</t>
+          <t>The total amount due for the application fee</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
@@ -1018,7 +1014,7 @@
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1037,13 +1033,13 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>Amount</t>
+          <t>Amount paid</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr"/>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>The total amount due for the application fee</t>
+          <t>The amount paid towards the application fee</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1072,75 +1068,67 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>Amount paid</t>
+          <t>Transactions[]</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr"/>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>The amount paid towards the application fee</t>
+          <t>References to payments or financial transactions related to this application</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="n"/>
-      <c r="B19" s="2" t="n"/>
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>Access and rights of way</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="inlineStr">
+        <is>
+          <t>Details of any changes the proposed development would make to existing access arrangements or public rights of way</t>
+        </is>
+      </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>Application</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>Fee</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>Transactions[]</t>
-        </is>
-      </c>
+          <t>New or altered vehicle access</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr"/>
+      <c r="E19" s="2" t="inlineStr"/>
       <c r="F19" s="2" t="inlineStr"/>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>References to payments or financial transactions related to this application</t>
+          <t>Is a new or altered vehicle access proposed to/from the public highway</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="inlineStr">
-        <is>
-          <t>Access and rights of way</t>
-        </is>
-      </c>
-      <c r="B20" s="2" t="inlineStr">
-        <is>
-          <t>Details of any changes the proposed development would make to existing access arrangements or public rights of way</t>
-        </is>
-      </c>
+      <c r="A20" s="2" t="n"/>
+      <c r="B20" s="2" t="n"/>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>New or altered vehicle access</t>
+          <t>New or altered pedestrian access</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr"/>
@@ -1148,7 +1136,7 @@
       <c r="F20" s="2" t="inlineStr"/>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>Is a new or altered vehicle access proposed to/from the public highway</t>
+          <t>Is a new or altered pedestrian access proposed to/from the public highway</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
@@ -1167,20 +1155,24 @@
       <c r="B21" s="2" t="n"/>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>New or altered pedestrian access</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr"/>
+          <t>Supporting documents[]</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>Reference</t>
+        </is>
+      </c>
       <c r="E21" s="2" t="inlineStr"/>
       <c r="F21" s="2" t="inlineStr"/>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>Is a new or altered pedestrian access proposed to/from the public highway</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1199,14 +1191,14 @@
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr"/>
       <c r="F22" s="2" t="inlineStr"/>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>A name for the document. For example, The Site Plan</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
@@ -1221,23 +1213,27 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="n"/>
-      <c r="B23" s="2" t="n"/>
+      <c r="A23" s="2" t="inlineStr">
+        <is>
+          <t>Agent contact details</t>
+        </is>
+      </c>
+      <c r="B23" s="2" t="inlineStr">
+        <is>
+          <t>Name and contact information if an agent is being used.</t>
+        </is>
+      </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>Supporting documents[]</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
+          <t>Agent reference</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr"/>
       <c r="E23" s="2" t="inlineStr"/>
       <c r="F23" s="2" t="inlineStr"/>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>A name for the document. For example, The Site Plan</t>
+          <t>A reference to an agent object</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
@@ -1252,27 +1248,23 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="inlineStr">
-        <is>
-          <t>Agent contact details</t>
-        </is>
-      </c>
-      <c r="B24" s="2" t="inlineStr">
-        <is>
-          <t>Name and contact information if an agent is being used.</t>
-        </is>
-      </c>
+      <c r="A24" s="2" t="n"/>
+      <c r="B24" s="2" t="n"/>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>Agent reference</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr"/>
+          <t>Contact details</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
       <c r="E24" s="2" t="inlineStr"/>
       <c r="F24" s="2" t="inlineStr"/>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>A reference to an agent object</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
@@ -1296,14 +1288,18 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr"/>
+          <t>Phone number(s)[]</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>Phone number</t>
+        </is>
+      </c>
       <c r="F25" s="2" t="inlineStr"/>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
@@ -1313,7 +1309,7 @@
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1332,18 +1328,18 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>Phone number</t>
+          <t>Contact priority</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr"/>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The priority of a number</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
@@ -1353,51 +1349,47 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="2" t="n"/>
-      <c r="B27" s="2" t="n"/>
+      <c r="A27" s="2" t="inlineStr">
+        <is>
+          <t>Agent details</t>
+        </is>
+      </c>
+      <c r="B27" s="2" t="inlineStr">
+        <is>
+          <t>Name and contact information if an agent is being used.</t>
+        </is>
+      </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>Contact details</t>
+          <t>agent</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>Phone number(s)[]</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>Contact priority</t>
-        </is>
-      </c>
+          <t>Reference</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr"/>
       <c r="F27" s="2" t="inlineStr"/>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>The priority of a number</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="2" t="inlineStr">
-        <is>
-          <t>Agent details</t>
-        </is>
-      </c>
-      <c r="B28" s="2" t="inlineStr">
-        <is>
-          <t>Name and contact information if an agent is being used.</t>
-        </is>
-      </c>
+      <c r="A28" s="2" t="n"/>
+      <c r="B28" s="2" t="n"/>
       <c r="C28" s="2" t="inlineStr">
         <is>
           <t>agent</t>
@@ -1405,14 +1397,18 @@
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="E28" s="2" t="inlineStr"/>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
       <c r="F28" s="2" t="inlineStr"/>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
@@ -1422,7 +1418,7 @@
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1441,13 +1437,13 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>Title</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr"/>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
@@ -1457,7 +1453,7 @@
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1476,13 +1472,13 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr"/>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
@@ -1511,13 +1507,13 @@
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr"/>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
@@ -1546,13 +1542,13 @@
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr"/>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
@@ -1562,7 +1558,7 @@
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1576,18 +1572,14 @@
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="E33" s="2" t="inlineStr">
-        <is>
-          <t>Postcode</t>
-        </is>
-      </c>
+          <t>Company</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr"/>
       <c r="F33" s="2" t="inlineStr"/>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>The name of a company (that the agent works for)</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
@@ -1611,19 +1603,19 @@
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>Company</t>
+          <t>User role</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr"/>
       <c r="F34" s="2" t="inlineStr"/>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>The name of a company (that the agent works for)</t>
+          <t>The role of the named individual. Agent or proxy</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
@@ -1633,58 +1625,58 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="2" t="n"/>
-      <c r="B35" s="2" t="n"/>
+      <c r="A35" s="2" t="inlineStr">
+        <is>
+          <t>Applicant contact details</t>
+        </is>
+      </c>
+      <c r="B35" s="2" t="inlineStr">
+        <is>
+          <t>Telephone number and email address of the applicant.</t>
+        </is>
+      </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>agent</t>
-        </is>
-      </c>
-      <c r="D35" s="2" t="inlineStr">
-        <is>
-          <t>User role</t>
-        </is>
-      </c>
+          <t>Applicant reference</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr"/>
       <c r="E35" s="2" t="inlineStr"/>
       <c r="F35" s="2" t="inlineStr"/>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>The role of the named individual. Agent or proxy</t>
+          <t>Reference to match contact details to a named individual from the applicant details component</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="2" t="inlineStr">
-        <is>
-          <t>Applicant contact details</t>
-        </is>
-      </c>
-      <c r="B36" s="2" t="inlineStr">
-        <is>
-          <t>Telephone number and email address of the applicant.</t>
-        </is>
-      </c>
+      <c r="A36" s="2" t="n"/>
+      <c r="B36" s="2" t="n"/>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>Applicant reference</t>
-        </is>
-      </c>
-      <c r="D36" s="2" t="inlineStr"/>
+          <t>Contact details</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
       <c r="E36" s="2" t="inlineStr"/>
       <c r="F36" s="2" t="inlineStr"/>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>Reference to match contact details to a named individual from the applicant details component</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
@@ -1708,14 +1700,18 @@
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="E37" s="2" t="inlineStr"/>
+          <t>Phone number(s)[]</t>
+        </is>
+      </c>
+      <c r="E37" s="2" t="inlineStr">
+        <is>
+          <t>Phone number</t>
+        </is>
+      </c>
       <c r="F37" s="2" t="inlineStr"/>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
@@ -1725,7 +1721,7 @@
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1744,18 +1740,18 @@
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>Phone number</t>
+          <t>Contact priority</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr"/>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The priority of a number</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
@@ -1765,51 +1761,47 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="2" t="n"/>
-      <c r="B39" s="2" t="n"/>
+      <c r="A39" s="2" t="inlineStr">
+        <is>
+          <t>Applicant details</t>
+        </is>
+      </c>
+      <c r="B39" s="2" t="inlineStr">
+        <is>
+          <t>Name and contact information for the parties making the application.</t>
+        </is>
+      </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>Contact details</t>
+          <t>Applicants[]</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>Phone number(s)[]</t>
-        </is>
-      </c>
-      <c r="E39" s="2" t="inlineStr">
-        <is>
-          <t>Contact priority</t>
-        </is>
-      </c>
+          <t>Reference</t>
+        </is>
+      </c>
+      <c r="E39" s="2" t="inlineStr"/>
       <c r="F39" s="2" t="inlineStr"/>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>The priority of a number</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="2" t="inlineStr">
-        <is>
-          <t>Applicant details</t>
-        </is>
-      </c>
-      <c r="B40" s="2" t="inlineStr">
-        <is>
-          <t>Name and contact information for the parties making the application.</t>
-        </is>
-      </c>
+      <c r="A40" s="2" t="n"/>
+      <c r="B40" s="2" t="n"/>
       <c r="C40" s="2" t="inlineStr">
         <is>
           <t>Applicants[]</t>
@@ -1817,14 +1809,18 @@
       </c>
       <c r="D40" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="E40" s="2" t="inlineStr"/>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="E40" s="2" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
       <c r="F40" s="2" t="inlineStr"/>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="H40" s="2" t="inlineStr">
@@ -1834,7 +1830,7 @@
       </c>
       <c r="I40" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1853,13 +1849,13 @@
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>Title</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr"/>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="H41" s="2" t="inlineStr">
@@ -1869,7 +1865,7 @@
       </c>
       <c r="I41" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1888,13 +1884,13 @@
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr"/>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="H42" s="2" t="inlineStr">
@@ -1923,13 +1919,13 @@
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr"/>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="H43" s="2" t="inlineStr">
@@ -1958,13 +1954,13 @@
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr"/>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="H44" s="2" t="inlineStr">
@@ -1974,59 +1970,51 @@
       </c>
       <c r="I44" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="2" t="n"/>
-      <c r="B45" s="2" t="n"/>
+      <c r="A45" s="2" t="inlineStr">
+        <is>
+          <t>Biodiversity, geological and archaeological conservation</t>
+        </is>
+      </c>
+      <c r="B45" s="2" t="inlineStr">
+        <is>
+          <t>Details of potential impacts to the biodiversity of the site, or any noteable archaeological or geological features.</t>
+        </is>
+      </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>Applicants[]</t>
-        </is>
-      </c>
-      <c r="D45" s="2" t="inlineStr">
-        <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="E45" s="2" t="inlineStr">
-        <is>
-          <t>Postcode</t>
-        </is>
-      </c>
+          <t>Protected species impact</t>
+        </is>
+      </c>
+      <c r="D45" s="2" t="inlineStr"/>
+      <c r="E45" s="2" t="inlineStr"/>
       <c r="F45" s="2" t="inlineStr"/>
       <c r="G45" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Where is there a likelihood of protected and priority species being affected?</t>
         </is>
       </c>
       <c r="H45" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I45" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="2" t="inlineStr">
-        <is>
-          <t>Biodiversity, geological and archaeological conservation</t>
-        </is>
-      </c>
-      <c r="B46" s="2" t="inlineStr">
-        <is>
-          <t>Details of potential impacts to the biodiversity of the site, or any noteable archaeological or geological features.</t>
-        </is>
-      </c>
+      <c r="A46" s="2" t="n"/>
+      <c r="B46" s="2" t="n"/>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t>Protected species impact</t>
+          <t>Biodiversity features impact</t>
         </is>
       </c>
       <c r="D46" s="2" t="inlineStr"/>
@@ -2034,7 +2022,7 @@
       <c r="F46" s="2" t="inlineStr"/>
       <c r="G46" s="2" t="inlineStr">
         <is>
-          <t>Where is there a likelihood of protected and priority species being affected?</t>
+          <t>Where is there a likelihood of important habitats or biodiversity features being affected?</t>
         </is>
       </c>
       <c r="H46" s="2" t="inlineStr">
@@ -2053,7 +2041,7 @@
       <c r="B47" s="2" t="n"/>
       <c r="C47" s="2" t="inlineStr">
         <is>
-          <t>Biodiversity features impact</t>
+          <t>Geological features impact</t>
         </is>
       </c>
       <c r="D47" s="2" t="inlineStr"/>
@@ -2061,7 +2049,7 @@
       <c r="F47" s="2" t="inlineStr"/>
       <c r="G47" s="2" t="inlineStr">
         <is>
-          <t>Where is there a likelihood of important habitats or biodiversity features being affected?</t>
+          <t>Where is there a likelihood of features of geological conservation importance being affected?</t>
         </is>
       </c>
       <c r="H47" s="2" t="inlineStr">
@@ -2076,119 +2064,119 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="2" t="n"/>
-      <c r="B48" s="2" t="n"/>
-      <c r="C48" s="2" t="inlineStr">
-        <is>
-          <t>Geological features impact</t>
-        </is>
-      </c>
+      <c r="A48" s="2" t="inlineStr">
+        <is>
+          <t>Biodiversity net gain</t>
+        </is>
+      </c>
+      <c r="B48" s="2" t="inlineStr">
+        <is>
+          <t>How any natural habitats on the development site will be improved by the proposed works.</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="inlineStr"/>
       <c r="D48" s="2" t="inlineStr"/>
       <c r="E48" s="2" t="inlineStr"/>
       <c r="F48" s="2" t="inlineStr"/>
-      <c r="G48" s="2" t="inlineStr">
-        <is>
-          <t>Where is there a likelihood of features of geological conservation importance being affected?</t>
-        </is>
-      </c>
-      <c r="H48" s="2" t="inlineStr">
-        <is>
-          <t>enum</t>
-        </is>
-      </c>
-      <c r="I48" s="2" t="inlineStr">
-        <is>
-          <t>MUST</t>
-        </is>
-      </c>
+      <c r="G48" s="2" t="inlineStr"/>
+      <c r="H48" s="2" t="inlineStr"/>
+      <c r="I48" s="2" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>Biodiversity net gain</t>
+          <t>Checklist</t>
         </is>
       </c>
       <c r="B49" s="2" t="inlineStr">
         <is>
-          <t>How any natural habitats on the development site will be improved by the proposed works.</t>
-        </is>
-      </c>
-      <c r="C49" s="2" t="inlineStr"/>
+          <t>Checking whether all the requirements of the form have been met, such as proof of payment or supporting documentation.</t>
+        </is>
+      </c>
+      <c r="C49" s="2" t="inlineStr">
+        <is>
+          <t>National requirement types[]</t>
+        </is>
+      </c>
       <c r="D49" s="2" t="inlineStr"/>
       <c r="E49" s="2" t="inlineStr"/>
       <c r="F49" s="2" t="inlineStr"/>
-      <c r="G49" s="2" t="inlineStr"/>
-      <c r="H49" s="2" t="inlineStr"/>
-      <c r="I49" s="2" t="inlineStr"/>
+      <c r="G49" s="2" t="inlineStr">
+        <is>
+          <t>List of the document types required for the given application type</t>
+        </is>
+      </c>
+      <c r="H49" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I49" s="2" t="inlineStr">
+        <is>
+          <t>MUST</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>Checklist</t>
+          <t>Conflict of interest</t>
         </is>
       </c>
       <c r="B50" s="2" t="inlineStr">
         <is>
-          <t>Checking whether all the requirements of the form have been met, such as proof of payment or supporting documentation.</t>
-        </is>
-      </c>
-      <c r="C50" s="2" t="inlineStr">
-        <is>
-          <t>National requirement types[]</t>
-        </is>
-      </c>
+          <t>Details of any conflict of interest that may exist between the applicant and planning authority.</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="inlineStr"/>
       <c r="D50" s="2" t="inlineStr"/>
       <c r="E50" s="2" t="inlineStr"/>
       <c r="F50" s="2" t="inlineStr"/>
-      <c r="G50" s="2" t="inlineStr">
-        <is>
-          <t>List of the document types required for the given application type</t>
-        </is>
-      </c>
-      <c r="H50" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="I50" s="2" t="inlineStr">
-        <is>
-          <t>MUST</t>
-        </is>
-      </c>
+      <c r="G50" s="2" t="inlineStr"/>
+      <c r="H50" s="2" t="inlineStr"/>
+      <c r="I50" s="2" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>Conflict of interest</t>
+          <t>Declaration</t>
         </is>
       </c>
       <c r="B51" s="2" t="inlineStr">
         <is>
-          <t>Details of any conflict of interest that may exist between the applicant and planning authority.</t>
-        </is>
-      </c>
-      <c r="C51" s="2" t="inlineStr"/>
+          <t>Signed and dated verification of the application's accuracy.</t>
+        </is>
+      </c>
+      <c r="C51" s="2" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
       <c r="D51" s="2" t="inlineStr"/>
       <c r="E51" s="2" t="inlineStr"/>
       <c r="F51" s="2" t="inlineStr"/>
-      <c r="G51" s="2" t="inlineStr"/>
-      <c r="H51" s="2" t="inlineStr"/>
-      <c r="I51" s="2" t="inlineStr"/>
+      <c r="G51" s="2" t="inlineStr">
+        <is>
+          <t>A name of a person</t>
+        </is>
+      </c>
+      <c r="H51" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I51" s="2" t="inlineStr">
+        <is>
+          <t>MUST</t>
+        </is>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="2" t="inlineStr">
-        <is>
-          <t>Declaration</t>
-        </is>
-      </c>
-      <c r="B52" s="2" t="inlineStr">
-        <is>
-          <t>Signed and dated verification of the application's accuracy.</t>
-        </is>
-      </c>
+      <c r="A52" s="2" t="n"/>
+      <c r="B52" s="2" t="n"/>
       <c r="C52" s="2" t="inlineStr">
         <is>
-          <t>Name</t>
+          <t>Declaration confirmed</t>
         </is>
       </c>
       <c r="D52" s="2" t="inlineStr"/>
@@ -2196,12 +2184,12 @@
       <c r="F52" s="2" t="inlineStr"/>
       <c r="G52" s="2" t="inlineStr">
         <is>
-          <t>A name of a person</t>
+          <t>Confirms the applicant or agent has reviewed and validated the information provided in the application</t>
         </is>
       </c>
       <c r="H52" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I52" s="2" t="inlineStr">
@@ -2215,7 +2203,7 @@
       <c r="B53" s="2" t="n"/>
       <c r="C53" s="2" t="inlineStr">
         <is>
-          <t>Declaration confirmed</t>
+          <t>Declaration date</t>
         </is>
       </c>
       <c r="D53" s="2" t="inlineStr"/>
@@ -2223,12 +2211,12 @@
       <c r="F53" s="2" t="inlineStr"/>
       <c r="G53" s="2" t="inlineStr">
         <is>
-          <t>Confirms the applicant or agent has reviewed and validated the information provided in the application</t>
+          <t>The date the declaration was made</t>
         </is>
       </c>
       <c r="H53" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I53" s="2" t="inlineStr">
@@ -2238,24 +2226,36 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="2" t="n"/>
-      <c r="B54" s="2" t="n"/>
+      <c r="A54" s="2" t="inlineStr">
+        <is>
+          <t>Employment</t>
+        </is>
+      </c>
+      <c r="B54" s="2" t="inlineStr">
+        <is>
+          <t>How the proposed development will impact existing and proposed employee numbers</t>
+        </is>
+      </c>
       <c r="C54" s="2" t="inlineStr">
         <is>
-          <t>Declaration date</t>
-        </is>
-      </c>
-      <c r="D54" s="2" t="inlineStr"/>
+          <t>Existing employees</t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="inlineStr">
+        <is>
+          <t>Full-time</t>
+        </is>
+      </c>
       <c r="E54" s="2" t="inlineStr"/>
       <c r="F54" s="2" t="inlineStr"/>
       <c r="G54" s="2" t="inlineStr">
         <is>
-          <t>The date the declaration was made</t>
+          <t>Number of full-time employees</t>
         </is>
       </c>
       <c r="H54" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I54" s="2" t="inlineStr">
@@ -2265,16 +2265,8 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="2" t="inlineStr">
-        <is>
-          <t>Employment</t>
-        </is>
-      </c>
-      <c r="B55" s="2" t="inlineStr">
-        <is>
-          <t>How the proposed development will impact existing and proposed employee numbers</t>
-        </is>
-      </c>
+      <c r="A55" s="2" t="n"/>
+      <c r="B55" s="2" t="n"/>
       <c r="C55" s="2" t="inlineStr">
         <is>
           <t>Existing employees</t>
@@ -2282,14 +2274,14 @@
       </c>
       <c r="D55" s="2" t="inlineStr">
         <is>
-          <t>Full-time</t>
+          <t>Part-time</t>
         </is>
       </c>
       <c r="E55" s="2" t="inlineStr"/>
       <c r="F55" s="2" t="inlineStr"/>
       <c r="G55" s="2" t="inlineStr">
         <is>
-          <t>Number of full-time employees</t>
+          <t>Number of part-time employees</t>
         </is>
       </c>
       <c r="H55" s="2" t="inlineStr">
@@ -2313,14 +2305,14 @@
       </c>
       <c r="D56" s="2" t="inlineStr">
         <is>
-          <t>Part-time</t>
+          <t>Total FTE</t>
         </is>
       </c>
       <c r="E56" s="2" t="inlineStr"/>
       <c r="F56" s="2" t="inlineStr"/>
       <c r="G56" s="2" t="inlineStr">
         <is>
-          <t>Number of part-time employees</t>
+          <t>Total full-time equivalent (FTE)</t>
         </is>
       </c>
       <c r="H56" s="2" t="inlineStr">
@@ -2339,19 +2331,19 @@
       <c r="B57" s="2" t="n"/>
       <c r="C57" s="2" t="inlineStr">
         <is>
-          <t>Existing employees</t>
+          <t>Proposed employees</t>
         </is>
       </c>
       <c r="D57" s="2" t="inlineStr">
         <is>
-          <t>Total FTE</t>
+          <t>Full-time</t>
         </is>
       </c>
       <c r="E57" s="2" t="inlineStr"/>
       <c r="F57" s="2" t="inlineStr"/>
       <c r="G57" s="2" t="inlineStr">
         <is>
-          <t>Total full-time equivalent (FTE)</t>
+          <t>Number of full-time employees</t>
         </is>
       </c>
       <c r="H57" s="2" t="inlineStr">
@@ -2375,14 +2367,14 @@
       </c>
       <c r="D58" s="2" t="inlineStr">
         <is>
-          <t>Full-time</t>
+          <t>Part-time</t>
         </is>
       </c>
       <c r="E58" s="2" t="inlineStr"/>
       <c r="F58" s="2" t="inlineStr"/>
       <c r="G58" s="2" t="inlineStr">
         <is>
-          <t>Number of full-time employees</t>
+          <t>Number of part-time employees</t>
         </is>
       </c>
       <c r="H58" s="2" t="inlineStr">
@@ -2406,14 +2398,14 @@
       </c>
       <c r="D59" s="2" t="inlineStr">
         <is>
-          <t>Part-time</t>
+          <t>Total FTE</t>
         </is>
       </c>
       <c r="E59" s="2" t="inlineStr"/>
       <c r="F59" s="2" t="inlineStr"/>
       <c r="G59" s="2" t="inlineStr">
         <is>
-          <t>Number of part-time employees</t>
+          <t>Total full-time equivalent (FTE)</t>
         </is>
       </c>
       <c r="H59" s="2" t="inlineStr">
@@ -2432,70 +2424,70 @@
       <c r="B60" s="2" t="n"/>
       <c r="C60" s="2" t="inlineStr">
         <is>
-          <t>Proposed employees</t>
-        </is>
-      </c>
-      <c r="D60" s="2" t="inlineStr">
-        <is>
-          <t>Total FTE</t>
-        </is>
-      </c>
+          <t>Employment impact</t>
+        </is>
+      </c>
+      <c r="D60" s="2" t="inlineStr"/>
       <c r="E60" s="2" t="inlineStr"/>
       <c r="F60" s="2" t="inlineStr"/>
       <c r="G60" s="2" t="inlineStr">
         <is>
-          <t>Total full-time equivalent (FTE)</t>
+          <t>Summary of net employment change (gain/loss)</t>
         </is>
       </c>
       <c r="H60" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I60" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="2" t="n"/>
-      <c r="B61" s="2" t="n"/>
+      <c r="A61" s="2" t="inlineStr">
+        <is>
+          <t>Existing use</t>
+        </is>
+      </c>
+      <c r="B61" s="2" t="inlineStr">
+        <is>
+          <t>How the site is currently being used.</t>
+        </is>
+      </c>
       <c r="C61" s="2" t="inlineStr">
         <is>
-          <t>Employment impact</t>
-        </is>
-      </c>
-      <c r="D61" s="2" t="inlineStr"/>
+          <t>Existing use details[]</t>
+        </is>
+      </c>
+      <c r="D61" s="2" t="inlineStr">
+        <is>
+          <t>Use</t>
+        </is>
+      </c>
       <c r="E61" s="2" t="inlineStr"/>
       <c r="F61" s="2" t="inlineStr"/>
       <c r="G61" s="2" t="inlineStr">
         <is>
-          <t>Summary of net employment change (gain/loss)</t>
+          <t>A use class or type of use</t>
         </is>
       </c>
       <c r="H61" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I61" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="2" t="inlineStr">
-        <is>
-          <t>Existing use</t>
-        </is>
-      </c>
-      <c r="B62" s="2" t="inlineStr">
-        <is>
-          <t>How the site is currently being used.</t>
-        </is>
-      </c>
+      <c r="A62" s="2" t="n"/>
+      <c r="B62" s="2" t="n"/>
       <c r="C62" s="2" t="inlineStr">
         <is>
           <t>Existing use details[]</t>
@@ -2503,24 +2495,24 @@
       </c>
       <c r="D62" s="2" t="inlineStr">
         <is>
-          <t>Use</t>
+          <t>Use details</t>
         </is>
       </c>
       <c r="E62" s="2" t="inlineStr"/>
       <c r="F62" s="2" t="inlineStr"/>
       <c r="G62" s="2" t="inlineStr">
         <is>
-          <t>A use class or type of use</t>
+          <t>Further detail of the use</t>
         </is>
       </c>
       <c r="H62" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I62" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2534,14 +2526,14 @@
       </c>
       <c r="D63" s="2" t="inlineStr">
         <is>
-          <t>Use details</t>
+          <t>Land part</t>
         </is>
       </c>
       <c r="E63" s="2" t="inlineStr"/>
       <c r="F63" s="2" t="inlineStr"/>
       <c r="G63" s="2" t="inlineStr">
         <is>
-          <t>Further detail of the use</t>
+          <t>Which part of the land the use relates to</t>
         </is>
       </c>
       <c r="H63" s="2" t="inlineStr">
@@ -2551,7 +2543,7 @@
       </c>
       <c r="I63" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -2560,24 +2552,20 @@
       <c r="B64" s="2" t="n"/>
       <c r="C64" s="2" t="inlineStr">
         <is>
-          <t>Existing use details[]</t>
-        </is>
-      </c>
-      <c r="D64" s="2" t="inlineStr">
-        <is>
-          <t>Land part</t>
-        </is>
-      </c>
+          <t>Site vacant</t>
+        </is>
+      </c>
+      <c r="D64" s="2" t="inlineStr"/>
       <c r="E64" s="2" t="inlineStr"/>
       <c r="F64" s="2" t="inlineStr"/>
       <c r="G64" s="2" t="inlineStr">
         <is>
-          <t>Which part of the land the use relates to</t>
+          <t>Is the site currently vacant</t>
         </is>
       </c>
       <c r="H64" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I64" s="2" t="inlineStr">
@@ -2591,7 +2579,7 @@
       <c r="B65" s="2" t="n"/>
       <c r="C65" s="2" t="inlineStr">
         <is>
-          <t>Site vacant</t>
+          <t>Last use details</t>
         </is>
       </c>
       <c r="D65" s="2" t="inlineStr"/>
@@ -2599,17 +2587,17 @@
       <c r="F65" s="2" t="inlineStr"/>
       <c r="G65" s="2" t="inlineStr">
         <is>
-          <t>Is the site currently vacant</t>
+          <t>Description of the last use of the site</t>
         </is>
       </c>
       <c r="H65" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I65" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2618,7 +2606,7 @@
       <c r="B66" s="2" t="n"/>
       <c r="C66" s="2" t="inlineStr">
         <is>
-          <t>Last use details</t>
+          <t>Last use end date</t>
         </is>
       </c>
       <c r="D66" s="2" t="inlineStr"/>
@@ -2626,12 +2614,12 @@
       <c r="F66" s="2" t="inlineStr"/>
       <c r="G66" s="2" t="inlineStr">
         <is>
-          <t>Description of the last use of the site</t>
+          <t>Date the last use ended (YYYY-MM-DD format)</t>
         </is>
       </c>
       <c r="H66" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="I66" s="2" t="inlineStr">
@@ -2645,7 +2633,7 @@
       <c r="B67" s="2" t="n"/>
       <c r="C67" s="2" t="inlineStr">
         <is>
-          <t>Last use end date</t>
+          <t>Is contaminated land</t>
         </is>
       </c>
       <c r="D67" s="2" t="inlineStr"/>
@@ -2653,17 +2641,17 @@
       <c r="F67" s="2" t="inlineStr"/>
       <c r="G67" s="2" t="inlineStr">
         <is>
-          <t>Date the last use ended (YYYY-MM-DD format)</t>
+          <t>Is the site known to be contaminated?</t>
         </is>
       </c>
       <c r="H67" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I67" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -2672,7 +2660,7 @@
       <c r="B68" s="2" t="n"/>
       <c r="C68" s="2" t="inlineStr">
         <is>
-          <t>Is contaminated land</t>
+          <t>Is suspected contaminated land</t>
         </is>
       </c>
       <c r="D68" s="2" t="inlineStr"/>
@@ -2680,7 +2668,7 @@
       <c r="F68" s="2" t="inlineStr"/>
       <c r="G68" s="2" t="inlineStr">
         <is>
-          <t>Is the site known to be contaminated?</t>
+          <t>Is the site suspected of contamination?</t>
         </is>
       </c>
       <c r="H68" s="2" t="inlineStr">
@@ -2699,7 +2687,7 @@
       <c r="B69" s="2" t="n"/>
       <c r="C69" s="2" t="inlineStr">
         <is>
-          <t>Is suspected contaminated land</t>
+          <t>Proposed use contamination risk</t>
         </is>
       </c>
       <c r="D69" s="2" t="inlineStr"/>
@@ -2707,7 +2695,7 @@
       <c r="F69" s="2" t="inlineStr"/>
       <c r="G69" s="2" t="inlineStr">
         <is>
-          <t>Is the site suspected of contamination?</t>
+          <t>Is the proposed use vulnerable to the presence of contamination?</t>
         </is>
       </c>
       <c r="H69" s="2" t="inlineStr">
@@ -2726,7 +2714,7 @@
       <c r="B70" s="2" t="n"/>
       <c r="C70" s="2" t="inlineStr">
         <is>
-          <t>Proposed use contamination risk</t>
+          <t>Contamination assessment</t>
         </is>
       </c>
       <c r="D70" s="2" t="inlineStr"/>
@@ -2734,26 +2722,34 @@
       <c r="F70" s="2" t="inlineStr"/>
       <c r="G70" s="2" t="inlineStr">
         <is>
-          <t>Is the proposed use vulnerable to the presence of contamination?</t>
+          <t>Reference to contamination assessment document</t>
         </is>
       </c>
       <c r="H70" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I70" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="2" t="n"/>
-      <c r="B71" s="2" t="n"/>
+      <c r="A71" s="2" t="inlineStr">
+        <is>
+          <t>Flood risk assessment</t>
+        </is>
+      </c>
+      <c r="B71" s="2" t="inlineStr">
+        <is>
+          <t>Results of any flood risk assessments made for the development site</t>
+        </is>
+      </c>
       <c r="C71" s="2" t="inlineStr">
         <is>
-          <t>Contamination assessment</t>
+          <t>Flood risk area</t>
         </is>
       </c>
       <c r="D71" s="2" t="inlineStr"/>
@@ -2761,34 +2757,26 @@
       <c r="F71" s="2" t="inlineStr"/>
       <c r="G71" s="2" t="inlineStr">
         <is>
-          <t>Reference to contamination assessment document</t>
+          <t>Is the site within an area at risk of flooding?</t>
         </is>
       </c>
       <c r="H71" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I71" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="2" t="inlineStr">
-        <is>
-          <t>Flood risk assessment</t>
-        </is>
-      </c>
-      <c r="B72" s="2" t="inlineStr">
-        <is>
-          <t>Results of any flood risk assessments made for the development site</t>
-        </is>
-      </c>
+      <c r="A72" s="2" t="n"/>
+      <c r="B72" s="2" t="n"/>
       <c r="C72" s="2" t="inlineStr">
         <is>
-          <t>Flood risk area</t>
+          <t>Data provided by</t>
         </is>
       </c>
       <c r="D72" s="2" t="inlineStr"/>
@@ -2796,17 +2784,17 @@
       <c r="F72" s="2" t="inlineStr"/>
       <c r="G72" s="2" t="inlineStr">
         <is>
-          <t>Is the site within an area at risk of flooding?</t>
+          <t>Who provided the data: Applicant or System/Service?</t>
         </is>
       </c>
       <c r="H72" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I72" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2815,7 +2803,7 @@
       <c r="B73" s="2" t="n"/>
       <c r="C73" s="2" t="inlineStr">
         <is>
-          <t>Data provided by</t>
+          <t>Flood risk assessment</t>
         </is>
       </c>
       <c r="D73" s="2" t="inlineStr"/>
@@ -2823,12 +2811,12 @@
       <c r="F73" s="2" t="inlineStr"/>
       <c r="G73" s="2" t="inlineStr">
         <is>
-          <t>Who provided the data: Applicant or System/Service?</t>
+          <t>Reference of the flood risk assessment document</t>
         </is>
       </c>
       <c r="H73" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I73" s="2" t="inlineStr">
@@ -2842,7 +2830,7 @@
       <c r="B74" s="2" t="n"/>
       <c r="C74" s="2" t="inlineStr">
         <is>
-          <t>Flood risk assessment</t>
+          <t>Within 20m watercourse</t>
         </is>
       </c>
       <c r="D74" s="2" t="inlineStr"/>
@@ -2850,17 +2838,17 @@
       <c r="F74" s="2" t="inlineStr"/>
       <c r="G74" s="2" t="inlineStr">
         <is>
-          <t>Reference of the flood risk assessment document</t>
+          <t>Whether the development is within 20 metres of a watercourse</t>
         </is>
       </c>
       <c r="H74" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I74" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -2869,7 +2857,7 @@
       <c r="B75" s="2" t="n"/>
       <c r="C75" s="2" t="inlineStr">
         <is>
-          <t>Within 20m watercourse</t>
+          <t>Increases flood risk</t>
         </is>
       </c>
       <c r="D75" s="2" t="inlineStr"/>
@@ -2877,7 +2865,7 @@
       <c r="F75" s="2" t="inlineStr"/>
       <c r="G75" s="2" t="inlineStr">
         <is>
-          <t>Whether the development is within 20 metres of a watercourse</t>
+          <t>Whether the development increases flood risk</t>
         </is>
       </c>
       <c r="H75" s="2" t="inlineStr">
@@ -2896,7 +2884,7 @@
       <c r="B76" s="2" t="n"/>
       <c r="C76" s="2" t="inlineStr">
         <is>
-          <t>Increases flood risk</t>
+          <t>Surface water disposal[]</t>
         </is>
       </c>
       <c r="D76" s="2" t="inlineStr"/>
@@ -2904,12 +2892,12 @@
       <c r="F76" s="2" t="inlineStr"/>
       <c r="G76" s="2" t="inlineStr">
         <is>
-          <t>Whether the development increases flood risk</t>
+          <t>Method for disposing of surface water</t>
         </is>
       </c>
       <c r="H76" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I76" s="2" t="inlineStr">
@@ -2919,11 +2907,19 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="2" t="n"/>
-      <c r="B77" s="2" t="n"/>
+      <c r="A77" s="2" t="inlineStr">
+        <is>
+          <t>Foul sewage disposal</t>
+        </is>
+      </c>
+      <c r="B77" s="2" t="inlineStr">
+        <is>
+          <t>How waste water will leave the property as part of the proposed development</t>
+        </is>
+      </c>
       <c r="C77" s="2" t="inlineStr">
         <is>
-          <t>Surface water disposal[]</t>
+          <t>Has new disposal arrangements</t>
         </is>
       </c>
       <c r="D77" s="2" t="inlineStr"/>
@@ -2931,12 +2927,12 @@
       <c r="F77" s="2" t="inlineStr"/>
       <c r="G77" s="2" t="inlineStr">
         <is>
-          <t>Method for disposing of surface water</t>
+          <t>Does the proposal include any new foul sewage disposal arrangments</t>
         </is>
       </c>
       <c r="H77" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I77" s="2" t="inlineStr">
@@ -2946,19 +2942,11 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="2" t="inlineStr">
-        <is>
-          <t>Foul sewage disposal</t>
-        </is>
-      </c>
-      <c r="B78" s="2" t="inlineStr">
-        <is>
-          <t>How waste water will leave the property as part of the proposed development</t>
-        </is>
-      </c>
+      <c r="A78" s="2" t="n"/>
+      <c r="B78" s="2" t="n"/>
       <c r="C78" s="2" t="inlineStr">
         <is>
-          <t>Has new disposal arrangements</t>
+          <t>Foul sewage disposal types[]</t>
         </is>
       </c>
       <c r="D78" s="2" t="inlineStr"/>
@@ -2966,17 +2954,17 @@
       <c r="F78" s="2" t="inlineStr"/>
       <c r="G78" s="2" t="inlineStr">
         <is>
-          <t>Does the proposal include any new foul sewage disposal arrangments</t>
+          <t>List of ways foul sewage will be disposed of</t>
         </is>
       </c>
       <c r="H78" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I78" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2985,7 +2973,7 @@
       <c r="B79" s="2" t="n"/>
       <c r="C79" s="2" t="inlineStr">
         <is>
-          <t>Foul sewage disposal types[]</t>
+          <t>Connect to drainage system</t>
         </is>
       </c>
       <c r="D79" s="2" t="inlineStr"/>
@@ -2993,17 +2981,17 @@
       <c r="F79" s="2" t="inlineStr"/>
       <c r="G79" s="2" t="inlineStr">
         <is>
-          <t>List of ways foul sewage will be disposed of</t>
+          <t>Whether the proposal needs to connect to the existing drainage system</t>
         </is>
       </c>
       <c r="H79" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I79" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -3012,7 +3000,7 @@
       <c r="B80" s="2" t="n"/>
       <c r="C80" s="2" t="inlineStr">
         <is>
-          <t>Connect to drainage system</t>
+          <t>Drainage system details</t>
         </is>
       </c>
       <c r="D80" s="2" t="inlineStr"/>
@@ -3020,26 +3008,34 @@
       <c r="F80" s="2" t="inlineStr"/>
       <c r="G80" s="2" t="inlineStr">
         <is>
-          <t>Whether the proposal needs to connect to the existing drainage system</t>
+          <t>Details of the drawings/plans that show the existing drainage system</t>
         </is>
       </c>
       <c r="H80" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I80" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="2" t="n"/>
-      <c r="B81" s="2" t="n"/>
+      <c r="A81" s="2" t="inlineStr">
+        <is>
+          <t>Hazardous substances</t>
+        </is>
+      </c>
+      <c r="B81" s="2" t="inlineStr">
+        <is>
+          <t>What hazardous substances may be used as part of the development</t>
+        </is>
+      </c>
       <c r="C81" s="2" t="inlineStr">
         <is>
-          <t>Drainage system details</t>
+          <t>Involves hazardous substances</t>
         </is>
       </c>
       <c r="D81" s="2" t="inlineStr"/>
@@ -3047,42 +3043,38 @@
       <c r="F81" s="2" t="inlineStr"/>
       <c r="G81" s="2" t="inlineStr">
         <is>
-          <t>Details of the drawings/plans that show the existing drainage system</t>
+          <t>Indicates if hazardous substances are involved in the proposal</t>
         </is>
       </c>
       <c r="H81" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I81" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="2" t="inlineStr">
-        <is>
-          <t>Hazardous substances</t>
-        </is>
-      </c>
-      <c r="B82" s="2" t="inlineStr">
-        <is>
-          <t>What hazardous substances may be used as part of the development</t>
-        </is>
-      </c>
+      <c r="A82" s="2" t="n"/>
+      <c r="B82" s="2" t="n"/>
       <c r="C82" s="2" t="inlineStr">
         <is>
-          <t>Involves hazardous substances</t>
-        </is>
-      </c>
-      <c r="D82" s="2" t="inlineStr"/>
+          <t>Substance types[]</t>
+        </is>
+      </c>
+      <c r="D82" s="2" t="inlineStr">
+        <is>
+          <t>Hazardous substance type</t>
+        </is>
+      </c>
       <c r="E82" s="2" t="inlineStr"/>
       <c r="F82" s="2" t="inlineStr"/>
       <c r="G82" s="2" t="inlineStr">
         <is>
-          <t>Indicates if hazardous substances are involved in the proposal</t>
+          <t>Reference of hazardous substance type from predefined list</t>
         </is>
       </c>
       <c r="H82" s="2" t="inlineStr">
@@ -3106,24 +3098,24 @@
       </c>
       <c r="D83" s="2" t="inlineStr">
         <is>
-          <t>Hazardous substance type</t>
+          <t>Hazardous substance other</t>
         </is>
       </c>
       <c r="E83" s="2" t="inlineStr"/>
       <c r="F83" s="2" t="inlineStr"/>
       <c r="G83" s="2" t="inlineStr">
         <is>
-          <t>Reference of hazardous substance type from predefined list</t>
+          <t>The specific name of the hazardous substance if other is selected</t>
         </is>
       </c>
       <c r="H83" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I83" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3137,24 +3129,24 @@
       </c>
       <c r="D84" s="2" t="inlineStr">
         <is>
-          <t>Hazardous substance other</t>
+          <t>Amount</t>
         </is>
       </c>
       <c r="E84" s="2" t="inlineStr"/>
       <c r="F84" s="2" t="inlineStr"/>
       <c r="G84" s="2" t="inlineStr">
         <is>
-          <t>The specific name of the hazardous substance if other is selected</t>
+          <t>The total amount due for the application fee</t>
         </is>
       </c>
       <c r="H84" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I84" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -3163,24 +3155,20 @@
       <c r="B85" s="2" t="n"/>
       <c r="C85" s="2" t="inlineStr">
         <is>
-          <t>Substance types[]</t>
-        </is>
-      </c>
-      <c r="D85" s="2" t="inlineStr">
-        <is>
-          <t>Amount</t>
-        </is>
-      </c>
+          <t>Hazardous substance consent required</t>
+        </is>
+      </c>
+      <c r="D85" s="2" t="inlineStr"/>
       <c r="E85" s="2" t="inlineStr"/>
       <c r="F85" s="2" t="inlineStr"/>
       <c r="G85" s="2" t="inlineStr">
         <is>
-          <t>The total amount due for the application fee</t>
+          <t>Does the proposal involve the use or storage of any substances requiring hazardous substances consent</t>
         </is>
       </c>
       <c r="H85" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I85" s="2" t="inlineStr">
@@ -3194,7 +3182,7 @@
       <c r="B86" s="2" t="n"/>
       <c r="C86" s="2" t="inlineStr">
         <is>
-          <t>Hazardous substance consent required</t>
+          <t>Hazardous substance consent details</t>
         </is>
       </c>
       <c r="D86" s="2" t="inlineStr"/>
@@ -3202,77 +3190,81 @@
       <c r="F86" s="2" t="inlineStr"/>
       <c r="G86" s="2" t="inlineStr">
         <is>
-          <t>Does the proposal involve the use or storage of any substances requiring hazardous substances consent</t>
+          <t>Details of hazardous substance consent requirements</t>
         </is>
       </c>
       <c r="H86" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I86" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="2" t="n"/>
-      <c r="B87" s="2" t="n"/>
-      <c r="C87" s="2" t="inlineStr">
-        <is>
-          <t>Hazardous substance consent details</t>
-        </is>
-      </c>
+      <c r="A87" s="2" t="inlineStr">
+        <is>
+          <t>Hours of operation</t>
+        </is>
+      </c>
+      <c r="B87" s="2" t="inlineStr">
+        <is>
+          <t>Proposed operating hours if the proposed development is intended for non-residential use.</t>
+        </is>
+      </c>
+      <c r="C87" s="2" t="inlineStr"/>
       <c r="D87" s="2" t="inlineStr"/>
       <c r="E87" s="2" t="inlineStr"/>
       <c r="F87" s="2" t="inlineStr"/>
-      <c r="G87" s="2" t="inlineStr">
-        <is>
-          <t>Details of hazardous substance consent requirements</t>
-        </is>
-      </c>
-      <c r="H87" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="I87" s="2" t="inlineStr">
-        <is>
-          <t>MAY</t>
-        </is>
-      </c>
+      <c r="G87" s="2" t="inlineStr"/>
+      <c r="H87" s="2" t="inlineStr"/>
+      <c r="I87" s="2" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="2" t="inlineStr">
         <is>
-          <t>Hours of operation</t>
+          <t>Materials</t>
         </is>
       </c>
       <c r="B88" s="2" t="inlineStr">
         <is>
-          <t>Proposed operating hours if the proposed development is intended for non-residential use.</t>
-        </is>
-      </c>
-      <c r="C88" s="2" t="inlineStr"/>
-      <c r="D88" s="2" t="inlineStr"/>
+          <t>What materials are being used for the proposed development</t>
+        </is>
+      </c>
+      <c r="C88" s="2" t="inlineStr">
+        <is>
+          <t>Building elements[]</t>
+        </is>
+      </c>
+      <c r="D88" s="2" t="inlineStr">
+        <is>
+          <t>Building element type</t>
+        </is>
+      </c>
       <c r="E88" s="2" t="inlineStr"/>
       <c r="F88" s="2" t="inlineStr"/>
-      <c r="G88" s="2" t="inlineStr"/>
-      <c r="H88" s="2" t="inlineStr"/>
-      <c r="I88" s="2" t="inlineStr"/>
+      <c r="G88" s="2" t="inlineStr">
+        <is>
+          <t>The part of building the materials relate to, such as walls, roofs, windows, or doors</t>
+        </is>
+      </c>
+      <c r="H88" s="2" t="inlineStr">
+        <is>
+          <t>enum</t>
+        </is>
+      </c>
+      <c r="I88" s="2" t="inlineStr">
+        <is>
+          <t>MUST</t>
+        </is>
+      </c>
     </row>
     <row r="89">
-      <c r="A89" s="2" t="inlineStr">
-        <is>
-          <t>Materials</t>
-        </is>
-      </c>
-      <c r="B89" s="2" t="inlineStr">
-        <is>
-          <t>What materials are being used for the proposed development</t>
-        </is>
-      </c>
+      <c r="A89" s="2" t="n"/>
+      <c r="B89" s="2" t="n"/>
       <c r="C89" s="2" t="inlineStr">
         <is>
           <t>Building elements[]</t>
@@ -3280,24 +3272,24 @@
       </c>
       <c r="D89" s="2" t="inlineStr">
         <is>
-          <t>Building element type</t>
+          <t>Existing materials</t>
         </is>
       </c>
       <c r="E89" s="2" t="inlineStr"/>
       <c r="F89" s="2" t="inlineStr"/>
       <c r="G89" s="2" t="inlineStr">
         <is>
-          <t>The part of building the materials relate to, such as walls, roofs, windows, or doors</t>
+          <t>Description of the materials currently used for this building element</t>
         </is>
       </c>
       <c r="H89" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I89" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3311,14 +3303,14 @@
       </c>
       <c r="D90" s="2" t="inlineStr">
         <is>
-          <t>Existing materials</t>
+          <t>Proposed materials</t>
         </is>
       </c>
       <c r="E90" s="2" t="inlineStr"/>
       <c r="F90" s="2" t="inlineStr"/>
       <c r="G90" s="2" t="inlineStr">
         <is>
-          <t>Description of the materials currently used for this building element</t>
+          <t>Description of the materials proposed for this building element as part of the development</t>
         </is>
       </c>
       <c r="H90" s="2" t="inlineStr">
@@ -3342,19 +3334,19 @@
       </c>
       <c r="D91" s="2" t="inlineStr">
         <is>
-          <t>Proposed materials</t>
+          <t>Materials not applicable</t>
         </is>
       </c>
       <c r="E91" s="2" t="inlineStr"/>
       <c r="F91" s="2" t="inlineStr"/>
       <c r="G91" s="2" t="inlineStr">
         <is>
-          <t>Description of the materials proposed for this building element as part of the development</t>
+          <t>Indicates this building element is not relevant to the application</t>
         </is>
       </c>
       <c r="H91" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I91" s="2" t="inlineStr">
@@ -3373,14 +3365,14 @@
       </c>
       <c r="D92" s="2" t="inlineStr">
         <is>
-          <t>Materials not applicable</t>
+          <t>Materials not known</t>
         </is>
       </c>
       <c r="E92" s="2" t="inlineStr"/>
       <c r="F92" s="2" t="inlineStr"/>
       <c r="G92" s="2" t="inlineStr">
         <is>
-          <t>Indicates this building element is not relevant to the application</t>
+          <t>Indicates the materials for this building element are not yet known</t>
         </is>
       </c>
       <c r="H92" s="2" t="inlineStr">
@@ -3399,19 +3391,15 @@
       <c r="B93" s="2" t="n"/>
       <c r="C93" s="2" t="inlineStr">
         <is>
-          <t>Building elements[]</t>
-        </is>
-      </c>
-      <c r="D93" s="2" t="inlineStr">
-        <is>
-          <t>Materials not known</t>
-        </is>
-      </c>
+          <t>Providing additional material information</t>
+        </is>
+      </c>
+      <c r="D93" s="2" t="inlineStr"/>
       <c r="E93" s="2" t="inlineStr"/>
       <c r="F93" s="2" t="inlineStr"/>
       <c r="G93" s="2" t="inlineStr">
         <is>
-          <t>Indicates the materials for this building element are not yet known</t>
+          <t>Is the applicant providing additional materials information on submitted plan(s)/drawing(s)/design and access statement?</t>
         </is>
       </c>
       <c r="H93" s="2" t="inlineStr">
@@ -3421,7 +3409,7 @@
       </c>
       <c r="I93" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -3430,20 +3418,24 @@
       <c r="B94" s="2" t="n"/>
       <c r="C94" s="2" t="inlineStr">
         <is>
-          <t>Providing additional material information</t>
-        </is>
-      </c>
-      <c r="D94" s="2" t="inlineStr"/>
+          <t>Supporting documents[]</t>
+        </is>
+      </c>
+      <c r="D94" s="2" t="inlineStr">
+        <is>
+          <t>Reference</t>
+        </is>
+      </c>
       <c r="E94" s="2" t="inlineStr"/>
       <c r="F94" s="2" t="inlineStr"/>
       <c r="G94" s="2" t="inlineStr">
         <is>
-          <t>Is the applicant providing additional materials information on submitted plan(s)/drawing(s)/design and access statement?</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="H94" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I94" s="2" t="inlineStr">
@@ -3462,14 +3454,14 @@
       </c>
       <c r="D95" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="E95" s="2" t="inlineStr"/>
       <c r="F95" s="2" t="inlineStr"/>
       <c r="G95" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>A name for the document. For example, The Site Plan</t>
         </is>
       </c>
       <c r="H95" s="2" t="inlineStr">
@@ -3484,45 +3476,33 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="2" t="n"/>
-      <c r="B96" s="2" t="n"/>
-      <c r="C96" s="2" t="inlineStr">
-        <is>
-          <t>Supporting documents[]</t>
-        </is>
-      </c>
-      <c r="D96" s="2" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
+      <c r="A96" s="2" t="inlineStr">
+        <is>
+          <t>Non residential floorspace</t>
+        </is>
+      </c>
+      <c r="B96" s="2" t="inlineStr">
+        <is>
+          <t>Details of changes to non-residential floorspace in the proposed development.</t>
+        </is>
+      </c>
+      <c r="C96" s="2" t="inlineStr"/>
+      <c r="D96" s="2" t="inlineStr"/>
       <c r="E96" s="2" t="inlineStr"/>
       <c r="F96" s="2" t="inlineStr"/>
-      <c r="G96" s="2" t="inlineStr">
-        <is>
-          <t>A name for the document. For example, The Site Plan</t>
-        </is>
-      </c>
-      <c r="H96" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="I96" s="2" t="inlineStr">
-        <is>
-          <t>MUST</t>
-        </is>
-      </c>
+      <c r="G96" s="2" t="inlineStr"/>
+      <c r="H96" s="2" t="inlineStr"/>
+      <c r="I96" s="2" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="2" t="inlineStr">
         <is>
-          <t>Non residential floorspace</t>
+          <t>Ownership certificates and agricultural land declaration</t>
         </is>
       </c>
       <c r="B97" s="2" t="inlineStr">
         <is>
-          <t>Details of changes to non-residential floorspace in the proposed development.</t>
+          <t>Who will be affected by the proposal and whether they have been notified, such as agricultural tenants</t>
         </is>
       </c>
       <c r="C97" s="2" t="inlineStr"/>
@@ -3536,36 +3516,44 @@
     <row r="98">
       <c r="A98" s="2" t="inlineStr">
         <is>
-          <t>Ownership certificates and agricultural land declaration</t>
+          <t>Pre-application advice</t>
         </is>
       </c>
       <c r="B98" s="2" t="inlineStr">
         <is>
-          <t>Who will be affected by the proposal and whether they have been notified, such as agricultural tenants</t>
-        </is>
-      </c>
-      <c r="C98" s="2" t="inlineStr"/>
+          <t>Details of pre-application advice previously received from the planning authority</t>
+        </is>
+      </c>
+      <c r="C98" s="2" t="inlineStr">
+        <is>
+          <t>Pre-application advice sought</t>
+        </is>
+      </c>
       <c r="D98" s="2" t="inlineStr"/>
       <c r="E98" s="2" t="inlineStr"/>
       <c r="F98" s="2" t="inlineStr"/>
-      <c r="G98" s="2" t="inlineStr"/>
-      <c r="H98" s="2" t="inlineStr"/>
-      <c r="I98" s="2" t="inlineStr"/>
+      <c r="G98" s="2" t="inlineStr">
+        <is>
+          <t>Whether pre-application advice has been sought from the planning authority</t>
+        </is>
+      </c>
+      <c r="H98" s="2" t="inlineStr">
+        <is>
+          <t>boolean</t>
+        </is>
+      </c>
+      <c r="I98" s="2" t="inlineStr">
+        <is>
+          <t>MUST</t>
+        </is>
+      </c>
     </row>
     <row r="99">
-      <c r="A99" s="2" t="inlineStr">
-        <is>
-          <t>Pre-application advice</t>
-        </is>
-      </c>
-      <c r="B99" s="2" t="inlineStr">
-        <is>
-          <t>Details of pre-application advice previously received from the planning authority</t>
-        </is>
-      </c>
+      <c r="A99" s="2" t="n"/>
+      <c r="B99" s="2" t="n"/>
       <c r="C99" s="2" t="inlineStr">
         <is>
-          <t>Pre-application advice sought</t>
+          <t>Officer name</t>
         </is>
       </c>
       <c r="D99" s="2" t="inlineStr"/>
@@ -3573,17 +3561,17 @@
       <c r="F99" s="2" t="inlineStr"/>
       <c r="G99" s="2" t="inlineStr">
         <is>
-          <t>Whether pre-application advice has been sought from the planning authority</t>
+          <t>Name of the planning officer who provided the pre-application advice</t>
         </is>
       </c>
       <c r="H99" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I99" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3592,7 +3580,7 @@
       <c r="B100" s="2" t="n"/>
       <c r="C100" s="2" t="inlineStr">
         <is>
-          <t>Officer name</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="D100" s="2" t="inlineStr"/>
@@ -3600,7 +3588,7 @@
       <c r="F100" s="2" t="inlineStr"/>
       <c r="G100" s="2" t="inlineStr">
         <is>
-          <t>Name of the planning officer who provided the pre-application advice</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="H100" s="2" t="inlineStr">
@@ -3619,7 +3607,7 @@
       <c r="B101" s="2" t="n"/>
       <c r="C101" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>Advice date</t>
         </is>
       </c>
       <c r="D101" s="2" t="inlineStr"/>
@@ -3627,7 +3615,7 @@
       <c r="F101" s="2" t="inlineStr"/>
       <c r="G101" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>Date when pre-application advice was received, in YYYY-MM-DD format</t>
         </is>
       </c>
       <c r="H101" s="2" t="inlineStr">
@@ -3646,7 +3634,7 @@
       <c r="B102" s="2" t="n"/>
       <c r="C102" s="2" t="inlineStr">
         <is>
-          <t>Advice date</t>
+          <t>Advice summary</t>
         </is>
       </c>
       <c r="D102" s="2" t="inlineStr"/>
@@ -3654,7 +3642,7 @@
       <c r="F102" s="2" t="inlineStr"/>
       <c r="G102" s="2" t="inlineStr">
         <is>
-          <t>Date when pre-application advice was received, in YYYY-MM-DD format</t>
+          <t>Summary of the pre-application advice received from the planning authority</t>
         </is>
       </c>
       <c r="H102" s="2" t="inlineStr">
@@ -3669,11 +3657,19 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="2" t="n"/>
-      <c r="B103" s="2" t="n"/>
+      <c r="A103" s="2" t="inlineStr">
+        <is>
+          <t>Processes machinery waste</t>
+        </is>
+      </c>
+      <c r="B103" s="2" t="inlineStr">
+        <is>
+          <t>How waste will be managed on the site</t>
+        </is>
+      </c>
       <c r="C103" s="2" t="inlineStr">
         <is>
-          <t>Advice summary</t>
+          <t>Site activity details</t>
         </is>
       </c>
       <c r="D103" s="2" t="inlineStr"/>
@@ -3681,7 +3677,7 @@
       <c r="F103" s="2" t="inlineStr"/>
       <c r="G103" s="2" t="inlineStr">
         <is>
-          <t>Summary of the pre-application advice received from the planning authority</t>
+          <t>Description of activities, processes, and end products including site operations, plant, ventilation, and machinery</t>
         </is>
       </c>
       <c r="H103" s="2" t="inlineStr">
@@ -3691,24 +3687,16 @@
       </c>
       <c r="I103" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="2" t="inlineStr">
-        <is>
-          <t>Processes machinery waste</t>
-        </is>
-      </c>
-      <c r="B104" s="2" t="inlineStr">
-        <is>
-          <t>How waste will be managed on the site</t>
-        </is>
-      </c>
+      <c r="A104" s="2" t="n"/>
+      <c r="B104" s="2" t="n"/>
       <c r="C104" s="2" t="inlineStr">
         <is>
-          <t>Site activity details</t>
+          <t>Proposal waste management</t>
         </is>
       </c>
       <c r="D104" s="2" t="inlineStr"/>
@@ -3716,12 +3704,12 @@
       <c r="F104" s="2" t="inlineStr"/>
       <c r="G104" s="2" t="inlineStr">
         <is>
-          <t>Description of activities, processes, and end products including site operations, plant, ventilation, and machinery</t>
+          <t>Whether the proposal involves waste management development</t>
         </is>
       </c>
       <c r="H104" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I104" s="2" t="inlineStr">
@@ -3735,20 +3723,24 @@
       <c r="B105" s="2" t="n"/>
       <c r="C105" s="2" t="inlineStr">
         <is>
-          <t>Proposal waste management</t>
-        </is>
-      </c>
-      <c r="D105" s="2" t="inlineStr"/>
+          <t>Waste management[]</t>
+        </is>
+      </c>
+      <c r="D105" s="2" t="inlineStr">
+        <is>
+          <t>Waste management facility type</t>
+        </is>
+      </c>
       <c r="E105" s="2" t="inlineStr"/>
       <c r="F105" s="2" t="inlineStr"/>
       <c r="G105" s="2" t="inlineStr">
         <is>
-          <t>Whether the proposal involves waste management development</t>
+          <t>Type of waste management facility</t>
         </is>
       </c>
       <c r="H105" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I105" s="2" t="inlineStr">
@@ -3767,24 +3759,24 @@
       </c>
       <c r="D106" s="2" t="inlineStr">
         <is>
-          <t>Waste management facility type</t>
+          <t>Not applicable</t>
         </is>
       </c>
       <c r="E106" s="2" t="inlineStr"/>
       <c r="F106" s="2" t="inlineStr"/>
       <c r="G106" s="2" t="inlineStr">
         <is>
-          <t>Type of waste management facility</t>
+          <t>Whether the facility is not applicable</t>
         </is>
       </c>
       <c r="H106" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I106" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3798,19 +3790,19 @@
       </c>
       <c r="D107" s="2" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Total capacity</t>
         </is>
       </c>
       <c r="E107" s="2" t="inlineStr"/>
       <c r="F107" s="2" t="inlineStr"/>
       <c r="G107" s="2" t="inlineStr">
         <is>
-          <t>Whether the facility is not applicable</t>
+          <t>Total capacity of void in cubic metres (or tonnes/litres)</t>
         </is>
       </c>
       <c r="H107" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I107" s="2" t="inlineStr">
@@ -3829,14 +3821,14 @@
       </c>
       <c r="D108" s="2" t="inlineStr">
         <is>
-          <t>Total capacity</t>
+          <t>Annual throughput</t>
         </is>
       </c>
       <c r="E108" s="2" t="inlineStr"/>
       <c r="F108" s="2" t="inlineStr"/>
       <c r="G108" s="2" t="inlineStr">
         <is>
-          <t>Total capacity of void in cubic metres (or tonnes/litres)</t>
+          <t>Maximum annual operational throughput in tonnes/litres</t>
         </is>
       </c>
       <c r="H108" s="2" t="inlineStr">
@@ -3855,19 +3847,19 @@
       <c r="B109" s="2" t="n"/>
       <c r="C109" s="2" t="inlineStr">
         <is>
-          <t>Waste management[]</t>
+          <t>Waste streams throughput</t>
         </is>
       </c>
       <c r="D109" s="2" t="inlineStr">
         <is>
-          <t>Annual throughput</t>
+          <t>Municipal</t>
         </is>
       </c>
       <c r="E109" s="2" t="inlineStr"/>
       <c r="F109" s="2" t="inlineStr"/>
       <c r="G109" s="2" t="inlineStr">
         <is>
-          <t>Maximum annual operational throughput in tonnes/litres</t>
+          <t>Maximum throughput for municipal waste (annual throughput in tonnes/litres)</t>
         </is>
       </c>
       <c r="H109" s="2" t="inlineStr">
@@ -3891,14 +3883,14 @@
       </c>
       <c r="D110" s="2" t="inlineStr">
         <is>
-          <t>Municipal</t>
+          <t>Construction demolition</t>
         </is>
       </c>
       <c r="E110" s="2" t="inlineStr"/>
       <c r="F110" s="2" t="inlineStr"/>
       <c r="G110" s="2" t="inlineStr">
         <is>
-          <t>Maximum throughput for municipal waste (annual throughput in tonnes/litres)</t>
+          <t>Maximum throughput for construction and demolition waste (annual throughput in tonnes/litres)</t>
         </is>
       </c>
       <c r="H110" s="2" t="inlineStr">
@@ -3922,14 +3914,14 @@
       </c>
       <c r="D111" s="2" t="inlineStr">
         <is>
-          <t>Construction demolition</t>
+          <t>Commercial industrial</t>
         </is>
       </c>
       <c r="E111" s="2" t="inlineStr"/>
       <c r="F111" s="2" t="inlineStr"/>
       <c r="G111" s="2" t="inlineStr">
         <is>
-          <t>Maximum throughput for construction and demolition waste (annual throughput in tonnes/litres)</t>
+          <t>Maximum throughput for commercial and industrial waste (annual throughput in tonnes/litres)</t>
         </is>
       </c>
       <c r="H111" s="2" t="inlineStr">
@@ -3953,14 +3945,14 @@
       </c>
       <c r="D112" s="2" t="inlineStr">
         <is>
-          <t>Commercial industrial</t>
+          <t>Hazardous</t>
         </is>
       </c>
       <c r="E112" s="2" t="inlineStr"/>
       <c r="F112" s="2" t="inlineStr"/>
       <c r="G112" s="2" t="inlineStr">
         <is>
-          <t>Maximum throughput for commercial and industrial waste (annual throughput in tonnes/litres)</t>
+          <t>Maximum throughput for hazardous waste (annual throughput in tonnes/litres)</t>
         </is>
       </c>
       <c r="H112" s="2" t="inlineStr">
@@ -3975,82 +3967,82 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="2" t="n"/>
-      <c r="B113" s="2" t="n"/>
-      <c r="C113" s="2" t="inlineStr">
-        <is>
-          <t>Waste streams throughput</t>
-        </is>
-      </c>
-      <c r="D113" s="2" t="inlineStr">
-        <is>
-          <t>Hazardous</t>
-        </is>
-      </c>
+      <c r="A113" s="2" t="inlineStr">
+        <is>
+          <t>Description of the proposal</t>
+        </is>
+      </c>
+      <c r="B113" s="2" t="inlineStr">
+        <is>
+          <t>What development, works or change of use is proposed</t>
+        </is>
+      </c>
+      <c r="C113" s="2" t="inlineStr"/>
+      <c r="D113" s="2" t="inlineStr"/>
       <c r="E113" s="2" t="inlineStr"/>
       <c r="F113" s="2" t="inlineStr"/>
-      <c r="G113" s="2" t="inlineStr">
-        <is>
-          <t>Maximum throughput for hazardous waste (annual throughput in tonnes/litres)</t>
-        </is>
-      </c>
-      <c r="H113" s="2" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="I113" s="2" t="inlineStr">
-        <is>
-          <t>MAY</t>
-        </is>
-      </c>
+      <c r="G113" s="2" t="inlineStr"/>
+      <c r="H113" s="2" t="inlineStr"/>
+      <c r="I113" s="2" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="2" t="inlineStr">
         <is>
-          <t>Description of the proposal</t>
+          <t>Residential units</t>
         </is>
       </c>
       <c r="B114" s="2" t="inlineStr">
         <is>
-          <t>What development, works or change of use is proposed</t>
-        </is>
-      </c>
-      <c r="C114" s="2" t="inlineStr"/>
+          <t>Details of the residential units that make up both the current and proposed development.</t>
+        </is>
+      </c>
+      <c r="C114" s="2" t="inlineStr">
+        <is>
+          <t>Residential unit change</t>
+        </is>
+      </c>
       <c r="D114" s="2" t="inlineStr"/>
       <c r="E114" s="2" t="inlineStr"/>
       <c r="F114" s="2" t="inlineStr"/>
-      <c r="G114" s="2" t="inlineStr"/>
-      <c r="H114" s="2" t="inlineStr"/>
-      <c r="I114" s="2" t="inlineStr"/>
+      <c r="G114" s="2" t="inlineStr">
+        <is>
+          <t>Proposal includes the gain, loss or change of use of residential units</t>
+        </is>
+      </c>
+      <c r="H114" s="2" t="inlineStr">
+        <is>
+          <t>boolean</t>
+        </is>
+      </c>
+      <c r="I114" s="2" t="inlineStr">
+        <is>
+          <t>MUST</t>
+        </is>
+      </c>
     </row>
     <row r="115">
-      <c r="A115" s="2" t="inlineStr">
-        <is>
-          <t>Residential units</t>
-        </is>
-      </c>
-      <c r="B115" s="2" t="inlineStr">
-        <is>
-          <t>Details of the residential units that make up both the current and proposed development.</t>
-        </is>
-      </c>
+      <c r="A115" s="2" t="n"/>
+      <c r="B115" s="2" t="n"/>
       <c r="C115" s="2" t="inlineStr">
         <is>
-          <t>Residential unit change</t>
-        </is>
-      </c>
-      <c r="D115" s="2" t="inlineStr"/>
+          <t>Residential unit summary[]</t>
+        </is>
+      </c>
+      <c r="D115" s="2" t="inlineStr">
+        <is>
+          <t>Tenure type</t>
+        </is>
+      </c>
       <c r="E115" s="2" t="inlineStr"/>
       <c r="F115" s="2" t="inlineStr"/>
       <c r="G115" s="2" t="inlineStr">
         <is>
-          <t>Proposal includes the gain, loss or change of use of residential units</t>
+          <t>Category of housing tenure</t>
         </is>
       </c>
       <c r="H115" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I115" s="2" t="inlineStr">
@@ -4069,14 +4061,14 @@
       </c>
       <c r="D116" s="2" t="inlineStr">
         <is>
-          <t>Tenure type</t>
+          <t>Housing type</t>
         </is>
       </c>
       <c r="E116" s="2" t="inlineStr"/>
       <c r="F116" s="2" t="inlineStr"/>
       <c r="G116" s="2" t="inlineStr">
         <is>
-          <t>Category of housing tenure</t>
+          <t>Type of housing</t>
         </is>
       </c>
       <c r="H116" s="2" t="inlineStr">
@@ -4100,19 +4092,23 @@
       </c>
       <c r="D117" s="2" t="inlineStr">
         <is>
-          <t>Housing type</t>
-        </is>
-      </c>
-      <c r="E117" s="2" t="inlineStr"/>
+          <t>Existing unit breakdown[]</t>
+        </is>
+      </c>
+      <c r="E117" s="2" t="inlineStr">
+        <is>
+          <t>Units unknown</t>
+        </is>
+      </c>
       <c r="F117" s="2" t="inlineStr"/>
       <c r="G117" s="2" t="inlineStr">
         <is>
-          <t>Type of housing</t>
+          <t>Whether the number of units is unknown</t>
         </is>
       </c>
       <c r="H117" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I117" s="2" t="inlineStr">
@@ -4136,13 +4132,17 @@
       </c>
       <c r="E118" s="2" t="inlineStr">
         <is>
-          <t>Units unknown</t>
-        </is>
-      </c>
-      <c r="F118" s="2" t="inlineStr"/>
+          <t>Units per bedroom number[]</t>
+        </is>
+      </c>
+      <c r="F118" s="2" t="inlineStr">
+        <is>
+          <t>No bedrooms unknown</t>
+        </is>
+      </c>
       <c r="G118" s="2" t="inlineStr">
         <is>
-          <t>Whether the number of units is unknown</t>
+          <t>Set to true when counting units where bedroom number is unknown</t>
         </is>
       </c>
       <c r="H118" s="2" t="inlineStr">
@@ -4176,22 +4176,22 @@
       </c>
       <c r="F119" s="2" t="inlineStr">
         <is>
-          <t>No bedrooms unknown</t>
+          <t>Number of bedrooms</t>
         </is>
       </c>
       <c r="G119" s="2" t="inlineStr">
         <is>
-          <t>Set to true when counting units where bedroom number is unknown</t>
+          <t>The number of bedrooms in unit</t>
         </is>
       </c>
       <c r="H119" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I119" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4215,12 +4215,12 @@
       </c>
       <c r="F120" s="2" t="inlineStr">
         <is>
-          <t>Number of bedrooms</t>
+          <t>Units</t>
         </is>
       </c>
       <c r="G120" s="2" t="inlineStr">
         <is>
-          <t>The number of bedrooms in unit</t>
+          <t>The number of units of that bedroom count</t>
         </is>
       </c>
       <c r="H120" s="2" t="inlineStr">
@@ -4230,7 +4230,7 @@
       </c>
       <c r="I120" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -4249,17 +4249,13 @@
       </c>
       <c r="E121" s="2" t="inlineStr">
         <is>
-          <t>Units per bedroom number[]</t>
-        </is>
-      </c>
-      <c r="F121" s="2" t="inlineStr">
-        <is>
-          <t>Units</t>
-        </is>
-      </c>
+          <t>Total units</t>
+        </is>
+      </c>
+      <c r="F121" s="2" t="inlineStr"/>
       <c r="G121" s="2" t="inlineStr">
         <is>
-          <t>The number of units of that bedroom count</t>
+          <t>Total number of units</t>
         </is>
       </c>
       <c r="H121" s="2" t="inlineStr">
@@ -4269,7 +4265,7 @@
       </c>
       <c r="I121" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4283,28 +4279,28 @@
       </c>
       <c r="D122" s="2" t="inlineStr">
         <is>
-          <t>Existing unit breakdown[]</t>
+          <t>Proposed unit breakdown[]</t>
         </is>
       </c>
       <c r="E122" s="2" t="inlineStr">
         <is>
-          <t>Total units</t>
+          <t>Units unknown</t>
         </is>
       </c>
       <c r="F122" s="2" t="inlineStr"/>
       <c r="G122" s="2" t="inlineStr">
         <is>
-          <t>Total number of units</t>
+          <t>Whether the number of units is unknown</t>
         </is>
       </c>
       <c r="H122" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I122" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -4323,13 +4319,17 @@
       </c>
       <c r="E123" s="2" t="inlineStr">
         <is>
-          <t>Units unknown</t>
-        </is>
-      </c>
-      <c r="F123" s="2" t="inlineStr"/>
+          <t>Units per bedroom number[]</t>
+        </is>
+      </c>
+      <c r="F123" s="2" t="inlineStr">
+        <is>
+          <t>No bedrooms unknown</t>
+        </is>
+      </c>
       <c r="G123" s="2" t="inlineStr">
         <is>
-          <t>Whether the number of units is unknown</t>
+          <t>Set to true when counting units where bedroom number is unknown</t>
         </is>
       </c>
       <c r="H123" s="2" t="inlineStr">
@@ -4363,22 +4363,22 @@
       </c>
       <c r="F124" s="2" t="inlineStr">
         <is>
-          <t>No bedrooms unknown</t>
+          <t>Number of bedrooms</t>
         </is>
       </c>
       <c r="G124" s="2" t="inlineStr">
         <is>
-          <t>Set to true when counting units where bedroom number is unknown</t>
+          <t>The number of bedrooms in unit</t>
         </is>
       </c>
       <c r="H124" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I124" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4402,12 +4402,12 @@
       </c>
       <c r="F125" s="2" t="inlineStr">
         <is>
-          <t>Number of bedrooms</t>
+          <t>Units</t>
         </is>
       </c>
       <c r="G125" s="2" t="inlineStr">
         <is>
-          <t>The number of bedrooms in unit</t>
+          <t>The number of units of that bedroom count</t>
         </is>
       </c>
       <c r="H125" s="2" t="inlineStr">
@@ -4417,7 +4417,7 @@
       </c>
       <c r="I125" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -4436,17 +4436,13 @@
       </c>
       <c r="E126" s="2" t="inlineStr">
         <is>
-          <t>Units per bedroom number[]</t>
-        </is>
-      </c>
-      <c r="F126" s="2" t="inlineStr">
-        <is>
-          <t>Units</t>
-        </is>
-      </c>
+          <t>Total units</t>
+        </is>
+      </c>
+      <c r="F126" s="2" t="inlineStr"/>
       <c r="G126" s="2" t="inlineStr">
         <is>
-          <t>The number of units of that bedroom count</t>
+          <t>Total number of units</t>
         </is>
       </c>
       <c r="H126" s="2" t="inlineStr">
@@ -4456,7 +4452,7 @@
       </c>
       <c r="I126" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4465,23 +4461,15 @@
       <c r="B127" s="2" t="n"/>
       <c r="C127" s="2" t="inlineStr">
         <is>
-          <t>Residential unit summary[]</t>
-        </is>
-      </c>
-      <c r="D127" s="2" t="inlineStr">
-        <is>
-          <t>Proposed unit breakdown[]</t>
-        </is>
-      </c>
-      <c r="E127" s="2" t="inlineStr">
-        <is>
-          <t>Total units</t>
-        </is>
-      </c>
+          <t>Total existing units</t>
+        </is>
+      </c>
+      <c r="D127" s="2" t="inlineStr"/>
+      <c r="E127" s="2" t="inlineStr"/>
       <c r="F127" s="2" t="inlineStr"/>
       <c r="G127" s="2" t="inlineStr">
         <is>
-          <t>Total number of units</t>
+          <t>The total number of existing units</t>
         </is>
       </c>
       <c r="H127" s="2" t="inlineStr">
@@ -4491,7 +4479,7 @@
       </c>
       <c r="I127" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -4500,7 +4488,7 @@
       <c r="B128" s="2" t="n"/>
       <c r="C128" s="2" t="inlineStr">
         <is>
-          <t>Total existing units</t>
+          <t>Total proposed units</t>
         </is>
       </c>
       <c r="D128" s="2" t="inlineStr"/>
@@ -4508,7 +4496,7 @@
       <c r="F128" s="2" t="inlineStr"/>
       <c r="G128" s="2" t="inlineStr">
         <is>
-          <t>The total number of existing units</t>
+          <t>The total number of proposed units</t>
         </is>
       </c>
       <c r="H128" s="2" t="inlineStr">
@@ -4527,7 +4515,7 @@
       <c r="B129" s="2" t="n"/>
       <c r="C129" s="2" t="inlineStr">
         <is>
-          <t>Total proposed units</t>
+          <t>Net change</t>
         </is>
       </c>
       <c r="D129" s="2" t="inlineStr"/>
@@ -4535,7 +4523,7 @@
       <c r="F129" s="2" t="inlineStr"/>
       <c r="G129" s="2" t="inlineStr">
         <is>
-          <t>The total number of proposed units</t>
+          <t>Calculated net change in units</t>
         </is>
       </c>
       <c r="H129" s="2" t="inlineStr">
@@ -4550,11 +4538,19 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="2" t="n"/>
-      <c r="B130" s="2" t="n"/>
+      <c r="A130" s="2" t="inlineStr">
+        <is>
+          <t>Site area</t>
+        </is>
+      </c>
+      <c r="B130" s="2" t="inlineStr">
+        <is>
+          <t>How big the site is including relevant measurements</t>
+        </is>
+      </c>
       <c r="C130" s="2" t="inlineStr">
         <is>
-          <t>Net change</t>
+          <t>Site area in hectares</t>
         </is>
       </c>
       <c r="D130" s="2" t="inlineStr"/>
@@ -4562,7 +4558,7 @@
       <c r="F130" s="2" t="inlineStr"/>
       <c r="G130" s="2" t="inlineStr">
         <is>
-          <t>Calculated net change in units</t>
+          <t>The size of the site in hectares</t>
         </is>
       </c>
       <c r="H130" s="2" t="inlineStr">
@@ -4577,19 +4573,11 @@
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="2" t="inlineStr">
-        <is>
-          <t>Site area</t>
-        </is>
-      </c>
-      <c r="B131" s="2" t="inlineStr">
-        <is>
-          <t>How big the site is including relevant measurements</t>
-        </is>
-      </c>
+      <c r="A131" s="2" t="n"/>
+      <c r="B131" s="2" t="n"/>
       <c r="C131" s="2" t="inlineStr">
         <is>
-          <t>Site area in hectares</t>
+          <t>Site area provided by</t>
         </is>
       </c>
       <c r="D131" s="2" t="inlineStr"/>
@@ -4597,39 +4585,51 @@
       <c r="F131" s="2" t="inlineStr"/>
       <c r="G131" s="2" t="inlineStr">
         <is>
-          <t>The size of the site in hectares</t>
+          <t>Who provided the site area value</t>
         </is>
       </c>
       <c r="H131" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I131" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="2" t="n"/>
-      <c r="B132" s="2" t="n"/>
+      <c r="A132" s="2" t="inlineStr">
+        <is>
+          <t>Site details</t>
+        </is>
+      </c>
+      <c r="B132" s="2" t="inlineStr">
+        <is>
+          <t>Where the proposed development will be built.</t>
+        </is>
+      </c>
       <c r="C132" s="2" t="inlineStr">
         <is>
-          <t>Site area provided by</t>
-        </is>
-      </c>
-      <c r="D132" s="2" t="inlineStr"/>
+          <t>Site locations[]</t>
+        </is>
+      </c>
+      <c r="D132" s="2" t="inlineStr">
+        <is>
+          <t>Site boundary</t>
+        </is>
+      </c>
       <c r="E132" s="2" t="inlineStr"/>
       <c r="F132" s="2" t="inlineStr"/>
       <c r="G132" s="2" t="inlineStr">
         <is>
-          <t>Who provided the site area value</t>
+          <t>Geometry of the site of the development, typically in GeoJSON format</t>
         </is>
       </c>
       <c r="H132" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>wkt</t>
         </is>
       </c>
       <c r="I132" s="2" t="inlineStr">
@@ -4639,16 +4639,8 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="2" t="inlineStr">
-        <is>
-          <t>Site details</t>
-        </is>
-      </c>
-      <c r="B133" s="2" t="inlineStr">
-        <is>
-          <t>Where the proposed development will be built.</t>
-        </is>
-      </c>
+      <c r="A133" s="2" t="n"/>
+      <c r="B133" s="2" t="n"/>
       <c r="C133" s="2" t="inlineStr">
         <is>
           <t>Site locations[]</t>
@@ -4656,19 +4648,19 @@
       </c>
       <c r="D133" s="2" t="inlineStr">
         <is>
-          <t>Site boundary</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="E133" s="2" t="inlineStr"/>
       <c r="F133" s="2" t="inlineStr"/>
       <c r="G133" s="2" t="inlineStr">
         <is>
-          <t>Geometry of the site of the development, typically in GeoJSON format</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="H133" s="2" t="inlineStr">
         <is>
-          <t>wkt</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I133" s="2" t="inlineStr">
@@ -4687,14 +4679,14 @@
       </c>
       <c r="D134" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="E134" s="2" t="inlineStr"/>
       <c r="F134" s="2" t="inlineStr"/>
       <c r="G134" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="H134" s="2" t="inlineStr">
@@ -4718,19 +4710,19 @@
       </c>
       <c r="D135" s="2" t="inlineStr">
         <is>
-          <t>Postcode</t>
+          <t>Easting</t>
         </is>
       </c>
       <c r="E135" s="2" t="inlineStr"/>
       <c r="F135" s="2" t="inlineStr"/>
       <c r="G135" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Easting coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
       <c r="H135" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I135" s="2" t="inlineStr">
@@ -4749,14 +4741,14 @@
       </c>
       <c r="D136" s="2" t="inlineStr">
         <is>
-          <t>Easting</t>
+          <t>Northing</t>
         </is>
       </c>
       <c r="E136" s="2" t="inlineStr"/>
       <c r="F136" s="2" t="inlineStr"/>
       <c r="G136" s="2" t="inlineStr">
         <is>
-          <t>Easting coordinate in British National Grid (EPSG:27700)</t>
+          <t>Northing coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
       <c r="H136" s="2" t="inlineStr">
@@ -4780,14 +4772,14 @@
       </c>
       <c r="D137" s="2" t="inlineStr">
         <is>
-          <t>Northing</t>
+          <t>Latitude</t>
         </is>
       </c>
       <c r="E137" s="2" t="inlineStr"/>
       <c r="F137" s="2" t="inlineStr"/>
       <c r="G137" s="2" t="inlineStr">
         <is>
-          <t>Northing coordinate in British National Grid (EPSG:27700)</t>
+          <t>Latitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
       <c r="H137" s="2" t="inlineStr">
@@ -4811,14 +4803,14 @@
       </c>
       <c r="D138" s="2" t="inlineStr">
         <is>
-          <t>Latitude</t>
+          <t>Longitude</t>
         </is>
       </c>
       <c r="E138" s="2" t="inlineStr"/>
       <c r="F138" s="2" t="inlineStr"/>
       <c r="G138" s="2" t="inlineStr">
         <is>
-          <t>Latitude coordinate in WGS84 (EPSG:4326)</t>
+          <t>Longitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
       <c r="H138" s="2" t="inlineStr">
@@ -4842,19 +4834,19 @@
       </c>
       <c r="D139" s="2" t="inlineStr">
         <is>
-          <t>Longitude</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="E139" s="2" t="inlineStr"/>
       <c r="F139" s="2" t="inlineStr"/>
       <c r="G139" s="2" t="inlineStr">
         <is>
-          <t>Longitude coordinate in WGS84 (EPSG:4326)</t>
+          <t>A text description providing details about the subject. For parking changes, this describes how the proposed works affect existing car parking arrangements.</t>
         </is>
       </c>
       <c r="H139" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I139" s="2" t="inlineStr">
@@ -4873,14 +4865,14 @@
       </c>
       <c r="D140" s="2" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>UPRNs[]</t>
         </is>
       </c>
       <c r="E140" s="2" t="inlineStr"/>
       <c r="F140" s="2" t="inlineStr"/>
       <c r="G140" s="2" t="inlineStr">
         <is>
-          <t>A text description providing details about the subject. For parking changes, this describes how the proposed works affect existing car parking arrangements.</t>
+          <t>Unique Property Reference Numbers (UPRNs) for properties within the site boundary</t>
         </is>
       </c>
       <c r="H140" s="2" t="inlineStr">
@@ -4895,50 +4887,46 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="2" t="n"/>
-      <c r="B141" s="2" t="n"/>
+      <c r="A141" s="2" t="inlineStr">
+        <is>
+          <t>Site Visit Details</t>
+        </is>
+      </c>
+      <c r="B141" s="2" t="inlineStr">
+        <is>
+          <t>Information to help the planning authority arrange a site visit</t>
+        </is>
+      </c>
       <c r="C141" s="2" t="inlineStr">
         <is>
-          <t>Site locations[]</t>
-        </is>
-      </c>
-      <c r="D141" s="2" t="inlineStr">
-        <is>
-          <t>UPRNs[]</t>
-        </is>
-      </c>
+          <t>Site seen from public area</t>
+        </is>
+      </c>
+      <c r="D141" s="2" t="inlineStr"/>
       <c r="E141" s="2" t="inlineStr"/>
       <c r="F141" s="2" t="inlineStr"/>
       <c r="G141" s="2" t="inlineStr">
         <is>
-          <t>Unique Property Reference Numbers (UPRNs) for properties within the site boundary</t>
+          <t>Can site be seen from a public road, public footpath, bridleway or other public land</t>
         </is>
       </c>
       <c r="H141" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I141" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="2" t="inlineStr">
-        <is>
-          <t>Site Visit Details</t>
-        </is>
-      </c>
-      <c r="B142" s="2" t="inlineStr">
-        <is>
-          <t>Information to help the planning authority arrange a site visit</t>
-        </is>
-      </c>
+      <c r="A142" s="2" t="n"/>
+      <c r="B142" s="2" t="n"/>
       <c r="C142" s="2" t="inlineStr">
         <is>
-          <t>Site seen from public area</t>
+          <t>Site visit contact type</t>
         </is>
       </c>
       <c r="D142" s="2" t="inlineStr"/>
@@ -4946,12 +4934,12 @@
       <c r="F142" s="2" t="inlineStr"/>
       <c r="G142" s="2" t="inlineStr">
         <is>
-          <t>Can site be seen from a public road, public footpath, bridleway or other public land</t>
+          <t>Indicates who the authority should contact to arrange a site visit</t>
         </is>
       </c>
       <c r="H142" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I142" s="2" t="inlineStr">
@@ -4965,7 +4953,7 @@
       <c r="B143" s="2" t="n"/>
       <c r="C143" s="2" t="inlineStr">
         <is>
-          <t>Site visit contact type</t>
+          <t>Contact reference</t>
         </is>
       </c>
       <c r="D143" s="2" t="inlineStr"/>
@@ -4973,17 +4961,17 @@
       <c r="F143" s="2" t="inlineStr"/>
       <c r="G143" s="2" t="inlineStr">
         <is>
-          <t>Indicates who the authority should contact to arrange a site visit</t>
+          <t>The reference of the applicant or agent who should be contacted for site visits</t>
         </is>
       </c>
       <c r="H143" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I143" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4992,15 +4980,19 @@
       <c r="B144" s="2" t="n"/>
       <c r="C144" s="2" t="inlineStr">
         <is>
-          <t>Contact reference</t>
-        </is>
-      </c>
-      <c r="D144" s="2" t="inlineStr"/>
+          <t>Other site visit contact</t>
+        </is>
+      </c>
+      <c r="D144" s="2" t="inlineStr">
+        <is>
+          <t>Full name</t>
+        </is>
+      </c>
       <c r="E144" s="2" t="inlineStr"/>
       <c r="F144" s="2" t="inlineStr"/>
       <c r="G144" s="2" t="inlineStr">
         <is>
-          <t>The reference of the applicant or agent who should be contacted for site visits</t>
+          <t>The complete name of a person</t>
         </is>
       </c>
       <c r="H144" s="2" t="inlineStr">
@@ -5010,7 +5002,7 @@
       </c>
       <c r="I144" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -5024,14 +5016,14 @@
       </c>
       <c r="D145" s="2" t="inlineStr">
         <is>
-          <t>Full name</t>
+          <t>Phone number</t>
         </is>
       </c>
       <c r="E145" s="2" t="inlineStr"/>
       <c r="F145" s="2" t="inlineStr"/>
       <c r="G145" s="2" t="inlineStr">
         <is>
-          <t>The complete name of a person</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="H145" s="2" t="inlineStr">
@@ -5055,14 +5047,14 @@
       </c>
       <c r="D146" s="2" t="inlineStr">
         <is>
-          <t>Phone number</t>
+          <t>Email</t>
         </is>
       </c>
       <c r="E146" s="2" t="inlineStr"/>
       <c r="F146" s="2" t="inlineStr"/>
       <c r="G146" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="H146" s="2" t="inlineStr">
@@ -5077,28 +5069,32 @@
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="2" t="n"/>
-      <c r="B147" s="2" t="n"/>
+      <c r="A147" s="2" t="inlineStr">
+        <is>
+          <t>Trade effluent</t>
+        </is>
+      </c>
+      <c r="B147" s="2" t="inlineStr">
+        <is>
+          <t>Details of any liquid waste produced by industial processes on the proposed site, and how it will be diposed of.</t>
+        </is>
+      </c>
       <c r="C147" s="2" t="inlineStr">
         <is>
-          <t>Other site visit contact</t>
-        </is>
-      </c>
-      <c r="D147" s="2" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
-      </c>
+          <t>Disposal required</t>
+        </is>
+      </c>
+      <c r="D147" s="2" t="inlineStr"/>
       <c r="E147" s="2" t="inlineStr"/>
       <c r="F147" s="2" t="inlineStr"/>
       <c r="G147" s="2" t="inlineStr">
         <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
+          <t>Does the proposal involve the disposal of trade effluents or waste (true/false)</t>
         </is>
       </c>
       <c r="H147" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I147" s="2" t="inlineStr">
@@ -5108,19 +5104,11 @@
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="2" t="inlineStr">
-        <is>
-          <t>Trade effluent</t>
-        </is>
-      </c>
-      <c r="B148" s="2" t="inlineStr">
-        <is>
-          <t>Details of any liquid waste produced by industial processes on the proposed site, and how it will be diposed of.</t>
-        </is>
-      </c>
+      <c r="A148" s="2" t="n"/>
+      <c r="B148" s="2" t="n"/>
       <c r="C148" s="2" t="inlineStr">
         <is>
-          <t>Disposal required</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="D148" s="2" t="inlineStr"/>
@@ -5128,77 +5116,81 @@
       <c r="F148" s="2" t="inlineStr"/>
       <c r="G148" s="2" t="inlineStr">
         <is>
-          <t>Does the proposal involve the disposal of trade effluents or waste (true/false)</t>
+          <t>describe the nature, volume and means of disposal of trade effluents or waste</t>
         </is>
       </c>
       <c r="H148" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I148" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="2" t="n"/>
-      <c r="B149" s="2" t="n"/>
-      <c r="C149" s="2" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
+      <c r="A149" s="2" t="inlineStr">
+        <is>
+          <t>Trees and hedges information</t>
+        </is>
+      </c>
+      <c r="B149" s="2" t="inlineStr">
+        <is>
+          <t>Details of trees and/or hedges that will be affected by the proposed development</t>
+        </is>
+      </c>
+      <c r="C149" s="2" t="inlineStr"/>
       <c r="D149" s="2" t="inlineStr"/>
       <c r="E149" s="2" t="inlineStr"/>
       <c r="F149" s="2" t="inlineStr"/>
-      <c r="G149" s="2" t="inlineStr">
-        <is>
-          <t>describe the nature, volume and means of disposal of trade effluents or waste</t>
-        </is>
-      </c>
-      <c r="H149" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="I149" s="2" t="inlineStr">
-        <is>
-          <t>MAY</t>
-        </is>
-      </c>
+      <c r="G149" s="2" t="inlineStr"/>
+      <c r="H149" s="2" t="inlineStr"/>
+      <c r="I149" s="2" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="2" t="inlineStr">
         <is>
-          <t>Trees and hedges information</t>
+          <t>Vehicle parking</t>
         </is>
       </c>
       <c r="B150" s="2" t="inlineStr">
         <is>
-          <t>Details of trees and/or hedges that will be affected by the proposed development</t>
-        </is>
-      </c>
-      <c r="C150" s="2" t="inlineStr"/>
-      <c r="D150" s="2" t="inlineStr"/>
+          <t>Details of current parking facilities at the site and any changes that would be made by the proposed development.</t>
+        </is>
+      </c>
+      <c r="C150" s="2" t="inlineStr">
+        <is>
+          <t>Parking spaces[]</t>
+        </is>
+      </c>
+      <c r="D150" s="2" t="inlineStr">
+        <is>
+          <t>Parking space type</t>
+        </is>
+      </c>
       <c r="E150" s="2" t="inlineStr"/>
       <c r="F150" s="2" t="inlineStr"/>
-      <c r="G150" s="2" t="inlineStr"/>
-      <c r="H150" s="2" t="inlineStr"/>
-      <c r="I150" s="2" t="inlineStr"/>
+      <c r="G150" s="2" t="inlineStr">
+        <is>
+          <t>Type of parking space or vehicle type</t>
+        </is>
+      </c>
+      <c r="H150" s="2" t="inlineStr">
+        <is>
+          <t>enum</t>
+        </is>
+      </c>
+      <c r="I150" s="2" t="inlineStr">
+        <is>
+          <t>MUST</t>
+        </is>
+      </c>
     </row>
     <row r="151">
-      <c r="A151" s="2" t="inlineStr">
-        <is>
-          <t>Vehicle parking</t>
-        </is>
-      </c>
-      <c r="B151" s="2" t="inlineStr">
-        <is>
-          <t>Details of current parking facilities at the site and any changes that would be made by the proposed development.</t>
-        </is>
-      </c>
+      <c r="A151" s="2" t="n"/>
+      <c r="B151" s="2" t="n"/>
       <c r="C151" s="2" t="inlineStr">
         <is>
           <t>Parking spaces[]</t>
@@ -5206,24 +5198,24 @@
       </c>
       <c r="D151" s="2" t="inlineStr">
         <is>
-          <t>Parking space type</t>
+          <t>Vehicle type other</t>
         </is>
       </c>
       <c r="E151" s="2" t="inlineStr"/>
       <c r="F151" s="2" t="inlineStr"/>
       <c r="G151" s="2" t="inlineStr">
         <is>
-          <t>Type of parking space or vehicle type</t>
+          <t>Vehicle type when parking space type is 'other'</t>
         </is>
       </c>
       <c r="H151" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I151" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -5237,24 +5229,24 @@
       </c>
       <c r="D152" s="2" t="inlineStr">
         <is>
-          <t>Vehicle type other</t>
+          <t>Total existing</t>
         </is>
       </c>
       <c r="E152" s="2" t="inlineStr"/>
       <c r="F152" s="2" t="inlineStr"/>
       <c r="G152" s="2" t="inlineStr">
         <is>
-          <t>Vehicle type when parking space type is 'other'</t>
+          <t>Total number of existing parking spaces</t>
         </is>
       </c>
       <c r="H152" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I152" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -5268,14 +5260,14 @@
       </c>
       <c r="D153" s="2" t="inlineStr">
         <is>
-          <t>Total existing</t>
+          <t>Total proposed</t>
         </is>
       </c>
       <c r="E153" s="2" t="inlineStr"/>
       <c r="F153" s="2" t="inlineStr"/>
       <c r="G153" s="2" t="inlineStr">
         <is>
-          <t>Total number of existing parking spaces</t>
+          <t>Total number of proposed parking spaces</t>
         </is>
       </c>
       <c r="H153" s="2" t="inlineStr">
@@ -5299,14 +5291,14 @@
       </c>
       <c r="D154" s="2" t="inlineStr">
         <is>
-          <t>Total proposed</t>
+          <t>Difference in spaces</t>
         </is>
       </c>
       <c r="E154" s="2" t="inlineStr"/>
       <c r="F154" s="2" t="inlineStr"/>
       <c r="G154" s="2" t="inlineStr">
         <is>
-          <t>Total number of proposed parking spaces</t>
+          <t>Net change in parking spaces (proposed minus existing)</t>
         </is>
       </c>
       <c r="H154" s="2" t="inlineStr">
@@ -5321,50 +5313,46 @@
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="2" t="n"/>
-      <c r="B155" s="2" t="n"/>
+      <c r="A155" s="2" t="inlineStr">
+        <is>
+          <t>Waste storage and collection</t>
+        </is>
+      </c>
+      <c r="B155" s="2" t="inlineStr">
+        <is>
+          <t>Any waste storage or recycling arrangements are in place, such as waste storage areas</t>
+        </is>
+      </c>
       <c r="C155" s="2" t="inlineStr">
         <is>
-          <t>Parking spaces[]</t>
-        </is>
-      </c>
-      <c r="D155" s="2" t="inlineStr">
-        <is>
-          <t>Difference in spaces</t>
-        </is>
-      </c>
+          <t>Waste storage area details</t>
+        </is>
+      </c>
+      <c r="D155" s="2" t="inlineStr"/>
       <c r="E155" s="2" t="inlineStr"/>
       <c r="F155" s="2" t="inlineStr"/>
       <c r="G155" s="2" t="inlineStr">
         <is>
-          <t>Net change in parking spaces (proposed minus existing)</t>
+          <t>Details of the waste storage area including location, size, design and access arrangements</t>
         </is>
       </c>
       <c r="H155" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I155" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="2" t="inlineStr">
-        <is>
-          <t>Waste storage and collection</t>
-        </is>
-      </c>
-      <c r="B156" s="2" t="inlineStr">
-        <is>
-          <t>Any waste storage or recycling arrangements are in place, such as waste storage areas</t>
-        </is>
-      </c>
+      <c r="A156" s="2" t="n"/>
+      <c r="B156" s="2" t="n"/>
       <c r="C156" s="2" t="inlineStr">
         <is>
-          <t>Waste storage area details</t>
+          <t>Separate recycling arrangements details</t>
         </is>
       </c>
       <c r="D156" s="2" t="inlineStr"/>
@@ -5372,7 +5360,7 @@
       <c r="F156" s="2" t="inlineStr"/>
       <c r="G156" s="2" t="inlineStr">
         <is>
-          <t>Details of the waste storage area including location, size, design and access arrangements</t>
+          <t>Details of the recycling arrangements including types of materials, collection methods and storage facilities</t>
         </is>
       </c>
       <c r="H156" s="2" t="inlineStr">
@@ -5381,33 +5369,6 @@
         </is>
       </c>
       <c r="I156" s="2" t="inlineStr">
-        <is>
-          <t>MAY</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="2" t="n"/>
-      <c r="B157" s="2" t="n"/>
-      <c r="C157" s="2" t="inlineStr">
-        <is>
-          <t>Separate recycling arrangements details</t>
-        </is>
-      </c>
-      <c r="D157" s="2" t="inlineStr"/>
-      <c r="E157" s="2" t="inlineStr"/>
-      <c r="F157" s="2" t="inlineStr"/>
-      <c r="G157" s="2" t="inlineStr">
-        <is>
-          <t>Details of the recycling arrangements including types of materials, collection methods and storage facilities</t>
-        </is>
-      </c>
-      <c r="H157" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="I157" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -5415,68 +5376,68 @@
     </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="A36:A39"/>
     <mergeCell ref="B49"/>
-    <mergeCell ref="A62:A71"/>
-    <mergeCell ref="A40:A45"/>
+    <mergeCell ref="B141:B146"/>
     <mergeCell ref="A97"/>
-    <mergeCell ref="B131:B132"/>
-    <mergeCell ref="A133:A141"/>
-    <mergeCell ref="B156:B157"/>
-    <mergeCell ref="A55:A61"/>
-    <mergeCell ref="A78:A81"/>
-    <mergeCell ref="B51"/>
-    <mergeCell ref="B104:B113"/>
-    <mergeCell ref="A2:A19"/>
-    <mergeCell ref="B72:B77"/>
-    <mergeCell ref="A82:A87"/>
-    <mergeCell ref="B99:B103"/>
-    <mergeCell ref="B148:B149"/>
-    <mergeCell ref="A151:A155"/>
-    <mergeCell ref="B114"/>
-    <mergeCell ref="A115:A130"/>
+    <mergeCell ref="B155:B156"/>
+    <mergeCell ref="B132:B140"/>
+    <mergeCell ref="A39:A44"/>
+    <mergeCell ref="B130:B131"/>
+    <mergeCell ref="A96"/>
+    <mergeCell ref="B81:B86"/>
+    <mergeCell ref="B77:B80"/>
+    <mergeCell ref="A150:A154"/>
+    <mergeCell ref="B71:B76"/>
+    <mergeCell ref="B2:B18"/>
+    <mergeCell ref="B45:B47"/>
     <mergeCell ref="B50"/>
-    <mergeCell ref="B62:B71"/>
+    <mergeCell ref="B113"/>
+    <mergeCell ref="B23:B26"/>
     <mergeCell ref="B97"/>
-    <mergeCell ref="A52:A54"/>
-    <mergeCell ref="A114"/>
-    <mergeCell ref="B55:B61"/>
+    <mergeCell ref="A48"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="A88:A95"/>
+    <mergeCell ref="B114:B129"/>
+    <mergeCell ref="A61:A70"/>
+    <mergeCell ref="B39:B44"/>
     <mergeCell ref="A49"/>
-    <mergeCell ref="A51"/>
-    <mergeCell ref="B82:B87"/>
-    <mergeCell ref="A98"/>
-    <mergeCell ref="B133:B141"/>
-    <mergeCell ref="B150"/>
-    <mergeCell ref="A88"/>
-    <mergeCell ref="A89:A96"/>
-    <mergeCell ref="B78:B81"/>
-    <mergeCell ref="A131:A132"/>
-    <mergeCell ref="A150"/>
-    <mergeCell ref="B52:B54"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A156:A157"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="B115:B130"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="B28:B35"/>
-    <mergeCell ref="B98"/>
-    <mergeCell ref="B142:B147"/>
-    <mergeCell ref="B36:B39"/>
-    <mergeCell ref="B40:B45"/>
+    <mergeCell ref="A103:A112"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="B54:B60"/>
+    <mergeCell ref="B27:B34"/>
+    <mergeCell ref="A147:A148"/>
+    <mergeCell ref="A71:A76"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="B149"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="B61:B70"/>
+    <mergeCell ref="B96"/>
+    <mergeCell ref="A114:A129"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="B48"/>
+    <mergeCell ref="B88:B95"/>
+    <mergeCell ref="A87"/>
+    <mergeCell ref="B147:B148"/>
+    <mergeCell ref="A2:A18"/>
+    <mergeCell ref="A98:A102"/>
+    <mergeCell ref="B150:B154"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A54:A60"/>
+    <mergeCell ref="A130:A131"/>
+    <mergeCell ref="A27:A34"/>
+    <mergeCell ref="A141:A146"/>
+    <mergeCell ref="A155:A156"/>
+    <mergeCell ref="A132:A140"/>
+    <mergeCell ref="A149"/>
     <mergeCell ref="A50"/>
-    <mergeCell ref="B88"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="A104:A113"/>
-    <mergeCell ref="A148:A149"/>
-    <mergeCell ref="A99:A103"/>
-    <mergeCell ref="A72:A77"/>
-    <mergeCell ref="B89:B96"/>
-    <mergeCell ref="B2:B19"/>
-    <mergeCell ref="A46:A48"/>
-    <mergeCell ref="B151:B155"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="A28:A35"/>
-    <mergeCell ref="A142:A147"/>
+    <mergeCell ref="B103:B112"/>
+    <mergeCell ref="A81:A86"/>
+    <mergeCell ref="B87"/>
+    <mergeCell ref="A113"/>
+    <mergeCell ref="A77:A80"/>
+    <mergeCell ref="B98:B102"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="B35:B38"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/generated/spreadsheet/technical-details-consent-technical-details-consent.xlsx
+++ b/generated/spreadsheet/technical-details-consent-technical-details-consent.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I156"/>
+  <dimension ref="A1:I150"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -842,27 +842,23 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>File</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>Base64</t>
-        </is>
-      </c>
+          <t>Uploaded date</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr"/>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>Base64-encoded content of the file for inline file uploads</t>
+          <t>The date the document was uploaded to the application</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -886,12 +882,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>Filename</t>
+          <t>Base64</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>Name of the file being uploaded</t>
+          <t>Base64-encoded content of the file for inline file uploads</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -901,7 +897,7 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -925,12 +921,12 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>MIME type</t>
+          <t>Filename</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>The file's MIME type such as application/pdf or image/jpeg</t>
+          <t>Name of the file being uploaded</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -940,7 +936,7 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -964,17 +960,17 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>File size</t>
+          <t>MIME type</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>Size of the file in bytes that can be used to enforce limits</t>
+          <t>The file's MIME type such as application/pdf or image/jpeg</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -993,18 +989,22 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>Fee</t>
+          <t>Documents[]</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>Amount</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr"/>
+          <t>File</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>File size</t>
+        </is>
+      </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>The total amount due for the application fee</t>
+          <t>Size of the file in bytes that can be used to enforce limits</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
@@ -1014,7 +1014,7 @@
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1033,13 +1033,13 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>Amount paid</t>
+          <t>Amount</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr"/>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>The amount paid towards the application fee</t>
+          <t>The total amount due for the application fee</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1068,67 +1068,75 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>Transactions[]</t>
+          <t>Amount paid</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr"/>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>References to payments or financial transactions related to this application</t>
+          <t>The amount paid towards the application fee</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="inlineStr">
-        <is>
-          <t>Access and rights of way</t>
-        </is>
-      </c>
-      <c r="B19" s="2" t="inlineStr">
-        <is>
-          <t>Details of any changes the proposed development would make to existing access arrangements or public rights of way</t>
-        </is>
-      </c>
+      <c r="A19" s="2" t="n"/>
+      <c r="B19" s="2" t="n"/>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>New or altered vehicle access</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr"/>
-      <c r="E19" s="2" t="inlineStr"/>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>Fee</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>Transactions[]</t>
+        </is>
+      </c>
       <c r="F19" s="2" t="inlineStr"/>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>Is a new or altered vehicle access proposed to/from the public highway</t>
+          <t>References to payments or financial transactions related to this application</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="n"/>
-      <c r="B20" s="2" t="n"/>
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>Access and rights of way</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>Details of any changes the proposed development would make to existing access arrangements or public rights of way</t>
+        </is>
+      </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>New or altered pedestrian access</t>
+          <t>New or altered vehicle access</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr"/>
@@ -1136,7 +1144,7 @@
       <c r="F20" s="2" t="inlineStr"/>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>Is a new or altered pedestrian access proposed to/from the public highway</t>
+          <t>Is a new or altered vehicle access proposed to/from the public highway</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
@@ -1155,24 +1163,20 @@
       <c r="B21" s="2" t="n"/>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>Supporting documents[]</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>Reference</t>
-        </is>
-      </c>
+          <t>New or altered pedestrian access</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr"/>
       <c r="E21" s="2" t="inlineStr"/>
       <c r="F21" s="2" t="inlineStr"/>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>Is a new or altered pedestrian access proposed to/from the public highway</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1191,14 +1195,14 @@
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>Name</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr"/>
       <c r="F22" s="2" t="inlineStr"/>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>A name for the document. For example, The Site Plan</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
@@ -3030,92 +3034,72 @@
       </c>
       <c r="B81" s="2" t="inlineStr">
         <is>
-          <t>What hazardous substances may be used as part of the development</t>
-        </is>
-      </c>
-      <c r="C81" s="2" t="inlineStr">
-        <is>
-          <t>Involves hazardous substances</t>
-        </is>
-      </c>
+          <t>Details of hazardous substances requiring consent used as part of the development</t>
+        </is>
+      </c>
+      <c r="C81" s="2" t="inlineStr"/>
       <c r="D81" s="2" t="inlineStr"/>
       <c r="E81" s="2" t="inlineStr"/>
       <c r="F81" s="2" t="inlineStr"/>
-      <c r="G81" s="2" t="inlineStr">
-        <is>
-          <t>Indicates if hazardous substances are involved in the proposal</t>
-        </is>
-      </c>
-      <c r="H81" s="2" t="inlineStr">
-        <is>
-          <t>enum</t>
-        </is>
-      </c>
-      <c r="I81" s="2" t="inlineStr">
-        <is>
-          <t>MUST</t>
-        </is>
-      </c>
+      <c r="G81" s="2" t="inlineStr"/>
+      <c r="H81" s="2" t="inlineStr"/>
+      <c r="I81" s="2" t="inlineStr"/>
     </row>
     <row r="82">
-      <c r="A82" s="2" t="n"/>
-      <c r="B82" s="2" t="n"/>
-      <c r="C82" s="2" t="inlineStr">
-        <is>
-          <t>Substance types[]</t>
-        </is>
-      </c>
-      <c r="D82" s="2" t="inlineStr">
-        <is>
-          <t>Hazardous substance type</t>
-        </is>
-      </c>
+      <c r="A82" s="2" t="inlineStr">
+        <is>
+          <t>Hours of operation</t>
+        </is>
+      </c>
+      <c r="B82" s="2" t="inlineStr">
+        <is>
+          <t>Proposed operating hours if the proposed development is intended for non-residential use.</t>
+        </is>
+      </c>
+      <c r="C82" s="2" t="inlineStr"/>
+      <c r="D82" s="2" t="inlineStr"/>
       <c r="E82" s="2" t="inlineStr"/>
       <c r="F82" s="2" t="inlineStr"/>
-      <c r="G82" s="2" t="inlineStr">
-        <is>
-          <t>Reference of hazardous substance type from predefined list</t>
-        </is>
-      </c>
-      <c r="H82" s="2" t="inlineStr">
-        <is>
-          <t>enum</t>
-        </is>
-      </c>
-      <c r="I82" s="2" t="inlineStr">
-        <is>
-          <t>MUST</t>
-        </is>
-      </c>
+      <c r="G82" s="2" t="inlineStr"/>
+      <c r="H82" s="2" t="inlineStr"/>
+      <c r="I82" s="2" t="inlineStr"/>
     </row>
     <row r="83">
-      <c r="A83" s="2" t="n"/>
-      <c r="B83" s="2" t="n"/>
+      <c r="A83" s="2" t="inlineStr">
+        <is>
+          <t>Materials</t>
+        </is>
+      </c>
+      <c r="B83" s="2" t="inlineStr">
+        <is>
+          <t>What materials are being used for the proposed development</t>
+        </is>
+      </c>
       <c r="C83" s="2" t="inlineStr">
         <is>
-          <t>Substance types[]</t>
+          <t>Building elements[]</t>
         </is>
       </c>
       <c r="D83" s="2" t="inlineStr">
         <is>
-          <t>Hazardous substance other</t>
+          <t>Building element type</t>
         </is>
       </c>
       <c r="E83" s="2" t="inlineStr"/>
       <c r="F83" s="2" t="inlineStr"/>
       <c r="G83" s="2" t="inlineStr">
         <is>
-          <t>The specific name of the hazardous substance if other is selected</t>
+          <t>The part of building the materials relate to, such as walls, roofs, windows, or doors</t>
         </is>
       </c>
       <c r="H83" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I83" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -3124,29 +3108,29 @@
       <c r="B84" s="2" t="n"/>
       <c r="C84" s="2" t="inlineStr">
         <is>
-          <t>Substance types[]</t>
+          <t>Building elements[]</t>
         </is>
       </c>
       <c r="D84" s="2" t="inlineStr">
         <is>
-          <t>Amount</t>
+          <t>Existing materials</t>
         </is>
       </c>
       <c r="E84" s="2" t="inlineStr"/>
       <c r="F84" s="2" t="inlineStr"/>
       <c r="G84" s="2" t="inlineStr">
         <is>
-          <t>The total amount due for the application fee</t>
+          <t>Description of the materials currently used for this building element</t>
         </is>
       </c>
       <c r="H84" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I84" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3155,25 +3139,29 @@
       <c r="B85" s="2" t="n"/>
       <c r="C85" s="2" t="inlineStr">
         <is>
-          <t>Hazardous substance consent required</t>
-        </is>
-      </c>
-      <c r="D85" s="2" t="inlineStr"/>
+          <t>Building elements[]</t>
+        </is>
+      </c>
+      <c r="D85" s="2" t="inlineStr">
+        <is>
+          <t>Proposed materials</t>
+        </is>
+      </c>
       <c r="E85" s="2" t="inlineStr"/>
       <c r="F85" s="2" t="inlineStr"/>
       <c r="G85" s="2" t="inlineStr">
         <is>
-          <t>Does the proposal involve the use or storage of any substances requiring hazardous substances consent</t>
+          <t>Description of the materials proposed for this building element as part of the development</t>
         </is>
       </c>
       <c r="H85" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I85" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3182,20 +3170,24 @@
       <c r="B86" s="2" t="n"/>
       <c r="C86" s="2" t="inlineStr">
         <is>
-          <t>Hazardous substance consent details</t>
-        </is>
-      </c>
-      <c r="D86" s="2" t="inlineStr"/>
+          <t>Building elements[]</t>
+        </is>
+      </c>
+      <c r="D86" s="2" t="inlineStr">
+        <is>
+          <t>Materials not applicable</t>
+        </is>
+      </c>
       <c r="E86" s="2" t="inlineStr"/>
       <c r="F86" s="2" t="inlineStr"/>
       <c r="G86" s="2" t="inlineStr">
         <is>
-          <t>Details of hazardous substance consent requirements</t>
+          <t>Indicates this building element is not relevant to the application</t>
         </is>
       </c>
       <c r="H86" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I86" s="2" t="inlineStr">
@@ -3205,55 +3197,55 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="2" t="inlineStr">
-        <is>
-          <t>Hours of operation</t>
-        </is>
-      </c>
-      <c r="B87" s="2" t="inlineStr">
-        <is>
-          <t>Proposed operating hours if the proposed development is intended for non-residential use.</t>
-        </is>
-      </c>
-      <c r="C87" s="2" t="inlineStr"/>
-      <c r="D87" s="2" t="inlineStr"/>
+      <c r="A87" s="2" t="n"/>
+      <c r="B87" s="2" t="n"/>
+      <c r="C87" s="2" t="inlineStr">
+        <is>
+          <t>Building elements[]</t>
+        </is>
+      </c>
+      <c r="D87" s="2" t="inlineStr">
+        <is>
+          <t>Materials not known</t>
+        </is>
+      </c>
       <c r="E87" s="2" t="inlineStr"/>
       <c r="F87" s="2" t="inlineStr"/>
-      <c r="G87" s="2" t="inlineStr"/>
-      <c r="H87" s="2" t="inlineStr"/>
-      <c r="I87" s="2" t="inlineStr"/>
+      <c r="G87" s="2" t="inlineStr">
+        <is>
+          <t>Indicates the materials for this building element are not yet known</t>
+        </is>
+      </c>
+      <c r="H87" s="2" t="inlineStr">
+        <is>
+          <t>boolean</t>
+        </is>
+      </c>
+      <c r="I87" s="2" t="inlineStr">
+        <is>
+          <t>MAY</t>
+        </is>
+      </c>
     </row>
     <row r="88">
-      <c r="A88" s="2" t="inlineStr">
-        <is>
-          <t>Materials</t>
-        </is>
-      </c>
-      <c r="B88" s="2" t="inlineStr">
-        <is>
-          <t>What materials are being used for the proposed development</t>
-        </is>
-      </c>
+      <c r="A88" s="2" t="n"/>
+      <c r="B88" s="2" t="n"/>
       <c r="C88" s="2" t="inlineStr">
         <is>
-          <t>Building elements[]</t>
-        </is>
-      </c>
-      <c r="D88" s="2" t="inlineStr">
-        <is>
-          <t>Building element type</t>
-        </is>
-      </c>
+          <t>Providing additional material information</t>
+        </is>
+      </c>
+      <c r="D88" s="2" t="inlineStr"/>
       <c r="E88" s="2" t="inlineStr"/>
       <c r="F88" s="2" t="inlineStr"/>
       <c r="G88" s="2" t="inlineStr">
         <is>
-          <t>The part of building the materials relate to, such as walls, roofs, windows, or doors</t>
+          <t>Is the applicant providing additional materials information on submitted plan(s)/drawing(s)/design and access statement?</t>
         </is>
       </c>
       <c r="H88" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I88" s="2" t="inlineStr">
@@ -3267,19 +3259,19 @@
       <c r="B89" s="2" t="n"/>
       <c r="C89" s="2" t="inlineStr">
         <is>
-          <t>Building elements[]</t>
+          <t>Supporting documents[]</t>
         </is>
       </c>
       <c r="D89" s="2" t="inlineStr">
         <is>
-          <t>Existing materials</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="E89" s="2" t="inlineStr"/>
       <c r="F89" s="2" t="inlineStr"/>
       <c r="G89" s="2" t="inlineStr">
         <is>
-          <t>Description of the materials currently used for this building element</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="H89" s="2" t="inlineStr">
@@ -3289,90 +3281,70 @@
       </c>
       <c r="I89" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="2" t="n"/>
-      <c r="B90" s="2" t="n"/>
-      <c r="C90" s="2" t="inlineStr">
-        <is>
-          <t>Building elements[]</t>
-        </is>
-      </c>
-      <c r="D90" s="2" t="inlineStr">
-        <is>
-          <t>Proposed materials</t>
-        </is>
-      </c>
+      <c r="A90" s="2" t="inlineStr">
+        <is>
+          <t>Non residential floorspace</t>
+        </is>
+      </c>
+      <c r="B90" s="2" t="inlineStr">
+        <is>
+          <t>Details of changes to non-residential floorspace in the proposed development.</t>
+        </is>
+      </c>
+      <c r="C90" s="2" t="inlineStr"/>
+      <c r="D90" s="2" t="inlineStr"/>
       <c r="E90" s="2" t="inlineStr"/>
       <c r="F90" s="2" t="inlineStr"/>
-      <c r="G90" s="2" t="inlineStr">
-        <is>
-          <t>Description of the materials proposed for this building element as part of the development</t>
-        </is>
-      </c>
-      <c r="H90" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="I90" s="2" t="inlineStr">
-        <is>
-          <t>MAY</t>
-        </is>
-      </c>
+      <c r="G90" s="2" t="inlineStr"/>
+      <c r="H90" s="2" t="inlineStr"/>
+      <c r="I90" s="2" t="inlineStr"/>
     </row>
     <row r="91">
-      <c r="A91" s="2" t="n"/>
-      <c r="B91" s="2" t="n"/>
-      <c r="C91" s="2" t="inlineStr">
-        <is>
-          <t>Building elements[]</t>
-        </is>
-      </c>
-      <c r="D91" s="2" t="inlineStr">
-        <is>
-          <t>Materials not applicable</t>
-        </is>
-      </c>
+      <c r="A91" s="2" t="inlineStr">
+        <is>
+          <t>Ownership certificates and agricultural land declaration</t>
+        </is>
+      </c>
+      <c r="B91" s="2" t="inlineStr">
+        <is>
+          <t>Who will be affected by the proposal and whether they have been notified, such as agricultural tenants</t>
+        </is>
+      </c>
+      <c r="C91" s="2" t="inlineStr"/>
+      <c r="D91" s="2" t="inlineStr"/>
       <c r="E91" s="2" t="inlineStr"/>
       <c r="F91" s="2" t="inlineStr"/>
-      <c r="G91" s="2" t="inlineStr">
-        <is>
-          <t>Indicates this building element is not relevant to the application</t>
-        </is>
-      </c>
-      <c r="H91" s="2" t="inlineStr">
-        <is>
-          <t>boolean</t>
-        </is>
-      </c>
-      <c r="I91" s="2" t="inlineStr">
-        <is>
-          <t>MAY</t>
-        </is>
-      </c>
+      <c r="G91" s="2" t="inlineStr"/>
+      <c r="H91" s="2" t="inlineStr"/>
+      <c r="I91" s="2" t="inlineStr"/>
     </row>
     <row r="92">
-      <c r="A92" s="2" t="n"/>
-      <c r="B92" s="2" t="n"/>
+      <c r="A92" s="2" t="inlineStr">
+        <is>
+          <t>Pre-application advice</t>
+        </is>
+      </c>
+      <c r="B92" s="2" t="inlineStr">
+        <is>
+          <t>Details of pre-application advice previously received from the planning authority</t>
+        </is>
+      </c>
       <c r="C92" s="2" t="inlineStr">
         <is>
-          <t>Building elements[]</t>
-        </is>
-      </c>
-      <c r="D92" s="2" t="inlineStr">
-        <is>
-          <t>Materials not known</t>
-        </is>
-      </c>
+          <t>Pre-application advice sought</t>
+        </is>
+      </c>
+      <c r="D92" s="2" t="inlineStr"/>
       <c r="E92" s="2" t="inlineStr"/>
       <c r="F92" s="2" t="inlineStr"/>
       <c r="G92" s="2" t="inlineStr">
         <is>
-          <t>Indicates the materials for this building element are not yet known</t>
+          <t>Whether pre-application advice has been sought from the planning authority</t>
         </is>
       </c>
       <c r="H92" s="2" t="inlineStr">
@@ -3382,7 +3354,7 @@
       </c>
       <c r="I92" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -3391,7 +3363,7 @@
       <c r="B93" s="2" t="n"/>
       <c r="C93" s="2" t="inlineStr">
         <is>
-          <t>Providing additional material information</t>
+          <t>Officer name</t>
         </is>
       </c>
       <c r="D93" s="2" t="inlineStr"/>
@@ -3399,17 +3371,17 @@
       <c r="F93" s="2" t="inlineStr"/>
       <c r="G93" s="2" t="inlineStr">
         <is>
-          <t>Is the applicant providing additional materials information on submitted plan(s)/drawing(s)/design and access statement?</t>
+          <t>Name of the planning officer who provided the pre-application advice</t>
         </is>
       </c>
       <c r="H93" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I93" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3418,14 +3390,10 @@
       <c r="B94" s="2" t="n"/>
       <c r="C94" s="2" t="inlineStr">
         <is>
-          <t>Supporting documents[]</t>
-        </is>
-      </c>
-      <c r="D94" s="2" t="inlineStr">
-        <is>
           <t>Reference</t>
         </is>
       </c>
+      <c r="D94" s="2" t="inlineStr"/>
       <c r="E94" s="2" t="inlineStr"/>
       <c r="F94" s="2" t="inlineStr"/>
       <c r="G94" s="2" t="inlineStr">
@@ -3440,7 +3408,7 @@
       </c>
       <c r="I94" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3449,19 +3417,15 @@
       <c r="B95" s="2" t="n"/>
       <c r="C95" s="2" t="inlineStr">
         <is>
-          <t>Supporting documents[]</t>
-        </is>
-      </c>
-      <c r="D95" s="2" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
+          <t>Advice date</t>
+        </is>
+      </c>
+      <c r="D95" s="2" t="inlineStr"/>
       <c r="E95" s="2" t="inlineStr"/>
       <c r="F95" s="2" t="inlineStr"/>
       <c r="G95" s="2" t="inlineStr">
         <is>
-          <t>A name for the document. For example, The Site Plan</t>
+          <t>Date when pre-application advice was received, in YYYY-MM-DD format</t>
         </is>
       </c>
       <c r="H95" s="2" t="inlineStr">
@@ -3471,62 +3435,78 @@
       </c>
       <c r="I95" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="2" t="inlineStr">
-        <is>
-          <t>Non residential floorspace</t>
-        </is>
-      </c>
-      <c r="B96" s="2" t="inlineStr">
-        <is>
-          <t>Details of changes to non-residential floorspace in the proposed development.</t>
-        </is>
-      </c>
-      <c r="C96" s="2" t="inlineStr"/>
+      <c r="A96" s="2" t="n"/>
+      <c r="B96" s="2" t="n"/>
+      <c r="C96" s="2" t="inlineStr">
+        <is>
+          <t>Advice summary</t>
+        </is>
+      </c>
       <c r="D96" s="2" t="inlineStr"/>
       <c r="E96" s="2" t="inlineStr"/>
       <c r="F96" s="2" t="inlineStr"/>
-      <c r="G96" s="2" t="inlineStr"/>
-      <c r="H96" s="2" t="inlineStr"/>
-      <c r="I96" s="2" t="inlineStr"/>
+      <c r="G96" s="2" t="inlineStr">
+        <is>
+          <t>Summary of the pre-application advice received from the planning authority</t>
+        </is>
+      </c>
+      <c r="H96" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I96" s="2" t="inlineStr">
+        <is>
+          <t>MAY</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="inlineStr">
         <is>
-          <t>Ownership certificates and agricultural land declaration</t>
+          <t>Processes machinery waste</t>
         </is>
       </c>
       <c r="B97" s="2" t="inlineStr">
         <is>
-          <t>Who will be affected by the proposal and whether they have been notified, such as agricultural tenants</t>
-        </is>
-      </c>
-      <c r="C97" s="2" t="inlineStr"/>
+          <t>How waste will be managed on the site</t>
+        </is>
+      </c>
+      <c r="C97" s="2" t="inlineStr">
+        <is>
+          <t>Site activity details</t>
+        </is>
+      </c>
       <c r="D97" s="2" t="inlineStr"/>
       <c r="E97" s="2" t="inlineStr"/>
       <c r="F97" s="2" t="inlineStr"/>
-      <c r="G97" s="2" t="inlineStr"/>
-      <c r="H97" s="2" t="inlineStr"/>
-      <c r="I97" s="2" t="inlineStr"/>
+      <c r="G97" s="2" t="inlineStr">
+        <is>
+          <t>Description of activities, processes, and end products including site operations, plant, ventilation, and machinery</t>
+        </is>
+      </c>
+      <c r="H97" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I97" s="2" t="inlineStr">
+        <is>
+          <t>MUST</t>
+        </is>
+      </c>
     </row>
     <row r="98">
-      <c r="A98" s="2" t="inlineStr">
-        <is>
-          <t>Pre-application advice</t>
-        </is>
-      </c>
-      <c r="B98" s="2" t="inlineStr">
-        <is>
-          <t>Details of pre-application advice previously received from the planning authority</t>
-        </is>
-      </c>
+      <c r="A98" s="2" t="n"/>
+      <c r="B98" s="2" t="n"/>
       <c r="C98" s="2" t="inlineStr">
         <is>
-          <t>Pre-application advice sought</t>
+          <t>Proposal waste management</t>
         </is>
       </c>
       <c r="D98" s="2" t="inlineStr"/>
@@ -3534,7 +3514,7 @@
       <c r="F98" s="2" t="inlineStr"/>
       <c r="G98" s="2" t="inlineStr">
         <is>
-          <t>Whether pre-application advice has been sought from the planning authority</t>
+          <t>Whether the proposal involves waste management development</t>
         </is>
       </c>
       <c r="H98" s="2" t="inlineStr">
@@ -3553,25 +3533,29 @@
       <c r="B99" s="2" t="n"/>
       <c r="C99" s="2" t="inlineStr">
         <is>
-          <t>Officer name</t>
-        </is>
-      </c>
-      <c r="D99" s="2" t="inlineStr"/>
+          <t>Waste management[]</t>
+        </is>
+      </c>
+      <c r="D99" s="2" t="inlineStr">
+        <is>
+          <t>Waste management facility type</t>
+        </is>
+      </c>
       <c r="E99" s="2" t="inlineStr"/>
       <c r="F99" s="2" t="inlineStr"/>
       <c r="G99" s="2" t="inlineStr">
         <is>
-          <t>Name of the planning officer who provided the pre-application advice</t>
+          <t>Type of waste management facility</t>
         </is>
       </c>
       <c r="H99" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I99" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -3580,20 +3564,24 @@
       <c r="B100" s="2" t="n"/>
       <c r="C100" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="D100" s="2" t="inlineStr"/>
+          <t>Waste management[]</t>
+        </is>
+      </c>
+      <c r="D100" s="2" t="inlineStr">
+        <is>
+          <t>Not applicable</t>
+        </is>
+      </c>
       <c r="E100" s="2" t="inlineStr"/>
       <c r="F100" s="2" t="inlineStr"/>
       <c r="G100" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>Whether the facility is not applicable</t>
         </is>
       </c>
       <c r="H100" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I100" s="2" t="inlineStr">
@@ -3607,20 +3595,24 @@
       <c r="B101" s="2" t="n"/>
       <c r="C101" s="2" t="inlineStr">
         <is>
-          <t>Advice date</t>
-        </is>
-      </c>
-      <c r="D101" s="2" t="inlineStr"/>
+          <t>Waste management[]</t>
+        </is>
+      </c>
+      <c r="D101" s="2" t="inlineStr">
+        <is>
+          <t>Total capacity</t>
+        </is>
+      </c>
       <c r="E101" s="2" t="inlineStr"/>
       <c r="F101" s="2" t="inlineStr"/>
       <c r="G101" s="2" t="inlineStr">
         <is>
-          <t>Date when pre-application advice was received, in YYYY-MM-DD format</t>
+          <t>Total capacity of void in cubic metres (or tonnes/litres)</t>
         </is>
       </c>
       <c r="H101" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I101" s="2" t="inlineStr">
@@ -3634,20 +3626,24 @@
       <c r="B102" s="2" t="n"/>
       <c r="C102" s="2" t="inlineStr">
         <is>
-          <t>Advice summary</t>
-        </is>
-      </c>
-      <c r="D102" s="2" t="inlineStr"/>
+          <t>Waste management[]</t>
+        </is>
+      </c>
+      <c r="D102" s="2" t="inlineStr">
+        <is>
+          <t>Annual throughput</t>
+        </is>
+      </c>
       <c r="E102" s="2" t="inlineStr"/>
       <c r="F102" s="2" t="inlineStr"/>
       <c r="G102" s="2" t="inlineStr">
         <is>
-          <t>Summary of the pre-application advice received from the planning authority</t>
+          <t>Maximum annual operational throughput in tonnes/litres</t>
         </is>
       </c>
       <c r="H102" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I102" s="2" t="inlineStr">
@@ -3657,37 +3653,33 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="2" t="inlineStr">
-        <is>
-          <t>Processes machinery waste</t>
-        </is>
-      </c>
-      <c r="B103" s="2" t="inlineStr">
-        <is>
-          <t>How waste will be managed on the site</t>
-        </is>
-      </c>
+      <c r="A103" s="2" t="n"/>
+      <c r="B103" s="2" t="n"/>
       <c r="C103" s="2" t="inlineStr">
         <is>
-          <t>Site activity details</t>
-        </is>
-      </c>
-      <c r="D103" s="2" t="inlineStr"/>
+          <t>Waste streams throughput</t>
+        </is>
+      </c>
+      <c r="D103" s="2" t="inlineStr">
+        <is>
+          <t>Municipal</t>
+        </is>
+      </c>
       <c r="E103" s="2" t="inlineStr"/>
       <c r="F103" s="2" t="inlineStr"/>
       <c r="G103" s="2" t="inlineStr">
         <is>
-          <t>Description of activities, processes, and end products including site operations, plant, ventilation, and machinery</t>
+          <t>Maximum throughput for municipal waste (annual throughput in tonnes/litres)</t>
         </is>
       </c>
       <c r="H103" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I103" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3696,25 +3688,29 @@
       <c r="B104" s="2" t="n"/>
       <c r="C104" s="2" t="inlineStr">
         <is>
-          <t>Proposal waste management</t>
-        </is>
-      </c>
-      <c r="D104" s="2" t="inlineStr"/>
+          <t>Waste streams throughput</t>
+        </is>
+      </c>
+      <c r="D104" s="2" t="inlineStr">
+        <is>
+          <t>Construction demolition</t>
+        </is>
+      </c>
       <c r="E104" s="2" t="inlineStr"/>
       <c r="F104" s="2" t="inlineStr"/>
       <c r="G104" s="2" t="inlineStr">
         <is>
-          <t>Whether the proposal involves waste management development</t>
+          <t>Maximum throughput for construction and demolition waste (annual throughput in tonnes/litres)</t>
         </is>
       </c>
       <c r="H104" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I104" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3723,29 +3719,29 @@
       <c r="B105" s="2" t="n"/>
       <c r="C105" s="2" t="inlineStr">
         <is>
-          <t>Waste management[]</t>
+          <t>Waste streams throughput</t>
         </is>
       </c>
       <c r="D105" s="2" t="inlineStr">
         <is>
-          <t>Waste management facility type</t>
+          <t>Commercial industrial</t>
         </is>
       </c>
       <c r="E105" s="2" t="inlineStr"/>
       <c r="F105" s="2" t="inlineStr"/>
       <c r="G105" s="2" t="inlineStr">
         <is>
-          <t>Type of waste management facility</t>
+          <t>Maximum throughput for commercial and industrial waste (annual throughput in tonnes/litres)</t>
         </is>
       </c>
       <c r="H105" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I105" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3754,24 +3750,24 @@
       <c r="B106" s="2" t="n"/>
       <c r="C106" s="2" t="inlineStr">
         <is>
-          <t>Waste management[]</t>
+          <t>Waste streams throughput</t>
         </is>
       </c>
       <c r="D106" s="2" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Hazardous</t>
         </is>
       </c>
       <c r="E106" s="2" t="inlineStr"/>
       <c r="F106" s="2" t="inlineStr"/>
       <c r="G106" s="2" t="inlineStr">
         <is>
-          <t>Whether the facility is not applicable</t>
+          <t>Maximum throughput for hazardous waste (annual throughput in tonnes/litres)</t>
         </is>
       </c>
       <c r="H106" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I106" s="2" t="inlineStr">
@@ -3781,64 +3777,56 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="2" t="n"/>
-      <c r="B107" s="2" t="n"/>
-      <c r="C107" s="2" t="inlineStr">
-        <is>
-          <t>Waste management[]</t>
-        </is>
-      </c>
-      <c r="D107" s="2" t="inlineStr">
-        <is>
-          <t>Total capacity</t>
-        </is>
-      </c>
+      <c r="A107" s="2" t="inlineStr">
+        <is>
+          <t>Description of the proposal</t>
+        </is>
+      </c>
+      <c r="B107" s="2" t="inlineStr">
+        <is>
+          <t>What development, works or change of use is proposed</t>
+        </is>
+      </c>
+      <c r="C107" s="2" t="inlineStr"/>
+      <c r="D107" s="2" t="inlineStr"/>
       <c r="E107" s="2" t="inlineStr"/>
       <c r="F107" s="2" t="inlineStr"/>
-      <c r="G107" s="2" t="inlineStr">
-        <is>
-          <t>Total capacity of void in cubic metres (or tonnes/litres)</t>
-        </is>
-      </c>
-      <c r="H107" s="2" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="I107" s="2" t="inlineStr">
-        <is>
-          <t>MAY</t>
-        </is>
-      </c>
+      <c r="G107" s="2" t="inlineStr"/>
+      <c r="H107" s="2" t="inlineStr"/>
+      <c r="I107" s="2" t="inlineStr"/>
     </row>
     <row r="108">
-      <c r="A108" s="2" t="n"/>
-      <c r="B108" s="2" t="n"/>
+      <c r="A108" s="2" t="inlineStr">
+        <is>
+          <t>Residential units</t>
+        </is>
+      </c>
+      <c r="B108" s="2" t="inlineStr">
+        <is>
+          <t>Details of the residential units that make up both the current and proposed development.</t>
+        </is>
+      </c>
       <c r="C108" s="2" t="inlineStr">
         <is>
-          <t>Waste management[]</t>
-        </is>
-      </c>
-      <c r="D108" s="2" t="inlineStr">
-        <is>
-          <t>Annual throughput</t>
-        </is>
-      </c>
+          <t>Residential unit change</t>
+        </is>
+      </c>
+      <c r="D108" s="2" t="inlineStr"/>
       <c r="E108" s="2" t="inlineStr"/>
       <c r="F108" s="2" t="inlineStr"/>
       <c r="G108" s="2" t="inlineStr">
         <is>
-          <t>Maximum annual operational throughput in tonnes/litres</t>
+          <t>Proposal includes the gain, loss or change of use of residential units</t>
         </is>
       </c>
       <c r="H108" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I108" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -3847,29 +3835,29 @@
       <c r="B109" s="2" t="n"/>
       <c r="C109" s="2" t="inlineStr">
         <is>
-          <t>Waste streams throughput</t>
+          <t>Residential unit summary[]</t>
         </is>
       </c>
       <c r="D109" s="2" t="inlineStr">
         <is>
-          <t>Municipal</t>
+          <t>Tenure type</t>
         </is>
       </c>
       <c r="E109" s="2" t="inlineStr"/>
       <c r="F109" s="2" t="inlineStr"/>
       <c r="G109" s="2" t="inlineStr">
         <is>
-          <t>Maximum throughput for municipal waste (annual throughput in tonnes/litres)</t>
+          <t>Category of housing tenure</t>
         </is>
       </c>
       <c r="H109" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I109" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -3878,29 +3866,29 @@
       <c r="B110" s="2" t="n"/>
       <c r="C110" s="2" t="inlineStr">
         <is>
-          <t>Waste streams throughput</t>
+          <t>Residential unit summary[]</t>
         </is>
       </c>
       <c r="D110" s="2" t="inlineStr">
         <is>
-          <t>Construction demolition</t>
+          <t>Housing type</t>
         </is>
       </c>
       <c r="E110" s="2" t="inlineStr"/>
       <c r="F110" s="2" t="inlineStr"/>
       <c r="G110" s="2" t="inlineStr">
         <is>
-          <t>Maximum throughput for construction and demolition waste (annual throughput in tonnes/litres)</t>
+          <t>Type of housing</t>
         </is>
       </c>
       <c r="H110" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I110" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -3909,29 +3897,33 @@
       <c r="B111" s="2" t="n"/>
       <c r="C111" s="2" t="inlineStr">
         <is>
-          <t>Waste streams throughput</t>
+          <t>Residential unit summary[]</t>
         </is>
       </c>
       <c r="D111" s="2" t="inlineStr">
         <is>
-          <t>Commercial industrial</t>
-        </is>
-      </c>
-      <c r="E111" s="2" t="inlineStr"/>
+          <t>Existing unit breakdown[]</t>
+        </is>
+      </c>
+      <c r="E111" s="2" t="inlineStr">
+        <is>
+          <t>Units unknown</t>
+        </is>
+      </c>
       <c r="F111" s="2" t="inlineStr"/>
       <c r="G111" s="2" t="inlineStr">
         <is>
-          <t>Maximum throughput for commercial and industrial waste (annual throughput in tonnes/litres)</t>
+          <t>Whether the number of units is unknown</t>
         </is>
       </c>
       <c r="H111" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I111" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -3940,78 +3932,110 @@
       <c r="B112" s="2" t="n"/>
       <c r="C112" s="2" t="inlineStr">
         <is>
-          <t>Waste streams throughput</t>
+          <t>Residential unit summary[]</t>
         </is>
       </c>
       <c r="D112" s="2" t="inlineStr">
         <is>
-          <t>Hazardous</t>
-        </is>
-      </c>
-      <c r="E112" s="2" t="inlineStr"/>
-      <c r="F112" s="2" t="inlineStr"/>
+          <t>Existing unit breakdown[]</t>
+        </is>
+      </c>
+      <c r="E112" s="2" t="inlineStr">
+        <is>
+          <t>Units per bedroom number[]</t>
+        </is>
+      </c>
+      <c r="F112" s="2" t="inlineStr">
+        <is>
+          <t>No bedrooms unknown</t>
+        </is>
+      </c>
       <c r="G112" s="2" t="inlineStr">
         <is>
-          <t>Maximum throughput for hazardous waste (annual throughput in tonnes/litres)</t>
+          <t>Set to true when counting units where bedroom number is unknown</t>
         </is>
       </c>
       <c r="H112" s="2" t="inlineStr">
         <is>
+          <t>boolean</t>
+        </is>
+      </c>
+      <c r="I112" s="2" t="inlineStr">
+        <is>
+          <t>MUST</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n"/>
+      <c r="B113" s="2" t="n"/>
+      <c r="C113" s="2" t="inlineStr">
+        <is>
+          <t>Residential unit summary[]</t>
+        </is>
+      </c>
+      <c r="D113" s="2" t="inlineStr">
+        <is>
+          <t>Existing unit breakdown[]</t>
+        </is>
+      </c>
+      <c r="E113" s="2" t="inlineStr">
+        <is>
+          <t>Units per bedroom number[]</t>
+        </is>
+      </c>
+      <c r="F113" s="2" t="inlineStr">
+        <is>
+          <t>Number of bedrooms</t>
+        </is>
+      </c>
+      <c r="G113" s="2" t="inlineStr">
+        <is>
+          <t>The number of bedrooms in unit</t>
+        </is>
+      </c>
+      <c r="H113" s="2" t="inlineStr">
+        <is>
           <t>number</t>
         </is>
       </c>
-      <c r="I112" s="2" t="inlineStr">
-        <is>
-          <t>MAY</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="2" t="inlineStr">
-        <is>
-          <t>Description of the proposal</t>
-        </is>
-      </c>
-      <c r="B113" s="2" t="inlineStr">
-        <is>
-          <t>What development, works or change of use is proposed</t>
-        </is>
-      </c>
-      <c r="C113" s="2" t="inlineStr"/>
-      <c r="D113" s="2" t="inlineStr"/>
-      <c r="E113" s="2" t="inlineStr"/>
-      <c r="F113" s="2" t="inlineStr"/>
-      <c r="G113" s="2" t="inlineStr"/>
-      <c r="H113" s="2" t="inlineStr"/>
-      <c r="I113" s="2" t="inlineStr"/>
+      <c r="I113" s="2" t="inlineStr">
+        <is>
+          <t>MAY</t>
+        </is>
+      </c>
     </row>
     <row r="114">
-      <c r="A114" s="2" t="inlineStr">
-        <is>
-          <t>Residential units</t>
-        </is>
-      </c>
-      <c r="B114" s="2" t="inlineStr">
-        <is>
-          <t>Details of the residential units that make up both the current and proposed development.</t>
-        </is>
-      </c>
+      <c r="A114" s="2" t="n"/>
+      <c r="B114" s="2" t="n"/>
       <c r="C114" s="2" t="inlineStr">
         <is>
-          <t>Residential unit change</t>
-        </is>
-      </c>
-      <c r="D114" s="2" t="inlineStr"/>
-      <c r="E114" s="2" t="inlineStr"/>
-      <c r="F114" s="2" t="inlineStr"/>
+          <t>Residential unit summary[]</t>
+        </is>
+      </c>
+      <c r="D114" s="2" t="inlineStr">
+        <is>
+          <t>Existing unit breakdown[]</t>
+        </is>
+      </c>
+      <c r="E114" s="2" t="inlineStr">
+        <is>
+          <t>Units per bedroom number[]</t>
+        </is>
+      </c>
+      <c r="F114" s="2" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
       <c r="G114" s="2" t="inlineStr">
         <is>
-          <t>Proposal includes the gain, loss or change of use of residential units</t>
+          <t>The number of units of that bedroom count</t>
         </is>
       </c>
       <c r="H114" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I114" s="2" t="inlineStr">
@@ -4030,24 +4054,28 @@
       </c>
       <c r="D115" s="2" t="inlineStr">
         <is>
-          <t>Tenure type</t>
-        </is>
-      </c>
-      <c r="E115" s="2" t="inlineStr"/>
+          <t>Existing unit breakdown[]</t>
+        </is>
+      </c>
+      <c r="E115" s="2" t="inlineStr">
+        <is>
+          <t>Total units</t>
+        </is>
+      </c>
       <c r="F115" s="2" t="inlineStr"/>
       <c r="G115" s="2" t="inlineStr">
         <is>
-          <t>Category of housing tenure</t>
+          <t>Total number of units</t>
         </is>
       </c>
       <c r="H115" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I115" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4061,19 +4089,23 @@
       </c>
       <c r="D116" s="2" t="inlineStr">
         <is>
-          <t>Housing type</t>
-        </is>
-      </c>
-      <c r="E116" s="2" t="inlineStr"/>
+          <t>Proposed unit breakdown[]</t>
+        </is>
+      </c>
+      <c r="E116" s="2" t="inlineStr">
+        <is>
+          <t>Units unknown</t>
+        </is>
+      </c>
       <c r="F116" s="2" t="inlineStr"/>
       <c r="G116" s="2" t="inlineStr">
         <is>
-          <t>Type of housing</t>
+          <t>Whether the number of units is unknown</t>
         </is>
       </c>
       <c r="H116" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I116" s="2" t="inlineStr">
@@ -4092,18 +4124,22 @@
       </c>
       <c r="D117" s="2" t="inlineStr">
         <is>
-          <t>Existing unit breakdown[]</t>
+          <t>Proposed unit breakdown[]</t>
         </is>
       </c>
       <c r="E117" s="2" t="inlineStr">
         <is>
-          <t>Units unknown</t>
-        </is>
-      </c>
-      <c r="F117" s="2" t="inlineStr"/>
+          <t>Units per bedroom number[]</t>
+        </is>
+      </c>
+      <c r="F117" s="2" t="inlineStr">
+        <is>
+          <t>No bedrooms unknown</t>
+        </is>
+      </c>
       <c r="G117" s="2" t="inlineStr">
         <is>
-          <t>Whether the number of units is unknown</t>
+          <t>Set to true when counting units where bedroom number is unknown</t>
         </is>
       </c>
       <c r="H117" s="2" t="inlineStr">
@@ -4127,7 +4163,7 @@
       </c>
       <c r="D118" s="2" t="inlineStr">
         <is>
-          <t>Existing unit breakdown[]</t>
+          <t>Proposed unit breakdown[]</t>
         </is>
       </c>
       <c r="E118" s="2" t="inlineStr">
@@ -4137,22 +4173,22 @@
       </c>
       <c r="F118" s="2" t="inlineStr">
         <is>
-          <t>No bedrooms unknown</t>
+          <t>Number of bedrooms</t>
         </is>
       </c>
       <c r="G118" s="2" t="inlineStr">
         <is>
-          <t>Set to true when counting units where bedroom number is unknown</t>
+          <t>The number of bedrooms in unit</t>
         </is>
       </c>
       <c r="H118" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I118" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4166,7 +4202,7 @@
       </c>
       <c r="D119" s="2" t="inlineStr">
         <is>
-          <t>Existing unit breakdown[]</t>
+          <t>Proposed unit breakdown[]</t>
         </is>
       </c>
       <c r="E119" s="2" t="inlineStr">
@@ -4176,12 +4212,12 @@
       </c>
       <c r="F119" s="2" t="inlineStr">
         <is>
-          <t>Number of bedrooms</t>
+          <t>Units</t>
         </is>
       </c>
       <c r="G119" s="2" t="inlineStr">
         <is>
-          <t>The number of bedrooms in unit</t>
+          <t>The number of units of that bedroom count</t>
         </is>
       </c>
       <c r="H119" s="2" t="inlineStr">
@@ -4191,7 +4227,7 @@
       </c>
       <c r="I119" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -4205,22 +4241,18 @@
       </c>
       <c r="D120" s="2" t="inlineStr">
         <is>
-          <t>Existing unit breakdown[]</t>
+          <t>Proposed unit breakdown[]</t>
         </is>
       </c>
       <c r="E120" s="2" t="inlineStr">
         <is>
-          <t>Units per bedroom number[]</t>
-        </is>
-      </c>
-      <c r="F120" s="2" t="inlineStr">
-        <is>
-          <t>Units</t>
-        </is>
-      </c>
+          <t>Total units</t>
+        </is>
+      </c>
+      <c r="F120" s="2" t="inlineStr"/>
       <c r="G120" s="2" t="inlineStr">
         <is>
-          <t>The number of units of that bedroom count</t>
+          <t>Total number of units</t>
         </is>
       </c>
       <c r="H120" s="2" t="inlineStr">
@@ -4230,7 +4262,7 @@
       </c>
       <c r="I120" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4239,23 +4271,15 @@
       <c r="B121" s="2" t="n"/>
       <c r="C121" s="2" t="inlineStr">
         <is>
-          <t>Residential unit summary[]</t>
-        </is>
-      </c>
-      <c r="D121" s="2" t="inlineStr">
-        <is>
-          <t>Existing unit breakdown[]</t>
-        </is>
-      </c>
-      <c r="E121" s="2" t="inlineStr">
-        <is>
-          <t>Total units</t>
-        </is>
-      </c>
+          <t>Total existing units</t>
+        </is>
+      </c>
+      <c r="D121" s="2" t="inlineStr"/>
+      <c r="E121" s="2" t="inlineStr"/>
       <c r="F121" s="2" t="inlineStr"/>
       <c r="G121" s="2" t="inlineStr">
         <is>
-          <t>Total number of units</t>
+          <t>The total number of existing units</t>
         </is>
       </c>
       <c r="H121" s="2" t="inlineStr">
@@ -4265,7 +4289,7 @@
       </c>
       <c r="I121" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -4274,28 +4298,20 @@
       <c r="B122" s="2" t="n"/>
       <c r="C122" s="2" t="inlineStr">
         <is>
-          <t>Residential unit summary[]</t>
-        </is>
-      </c>
-      <c r="D122" s="2" t="inlineStr">
-        <is>
-          <t>Proposed unit breakdown[]</t>
-        </is>
-      </c>
-      <c r="E122" s="2" t="inlineStr">
-        <is>
-          <t>Units unknown</t>
-        </is>
-      </c>
+          <t>Total proposed units</t>
+        </is>
+      </c>
+      <c r="D122" s="2" t="inlineStr"/>
+      <c r="E122" s="2" t="inlineStr"/>
       <c r="F122" s="2" t="inlineStr"/>
       <c r="G122" s="2" t="inlineStr">
         <is>
-          <t>Whether the number of units is unknown</t>
+          <t>The total number of proposed units</t>
         </is>
       </c>
       <c r="H122" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I122" s="2" t="inlineStr">
@@ -4309,32 +4325,20 @@
       <c r="B123" s="2" t="n"/>
       <c r="C123" s="2" t="inlineStr">
         <is>
-          <t>Residential unit summary[]</t>
-        </is>
-      </c>
-      <c r="D123" s="2" t="inlineStr">
-        <is>
-          <t>Proposed unit breakdown[]</t>
-        </is>
-      </c>
-      <c r="E123" s="2" t="inlineStr">
-        <is>
-          <t>Units per bedroom number[]</t>
-        </is>
-      </c>
-      <c r="F123" s="2" t="inlineStr">
-        <is>
-          <t>No bedrooms unknown</t>
-        </is>
-      </c>
+          <t>Net change</t>
+        </is>
+      </c>
+      <c r="D123" s="2" t="inlineStr"/>
+      <c r="E123" s="2" t="inlineStr"/>
+      <c r="F123" s="2" t="inlineStr"/>
       <c r="G123" s="2" t="inlineStr">
         <is>
-          <t>Set to true when counting units where bedroom number is unknown</t>
+          <t>Calculated net change in units</t>
         </is>
       </c>
       <c r="H123" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I123" s="2" t="inlineStr">
@@ -4344,31 +4348,27 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="2" t="n"/>
-      <c r="B124" s="2" t="n"/>
+      <c r="A124" s="2" t="inlineStr">
+        <is>
+          <t>Site area</t>
+        </is>
+      </c>
+      <c r="B124" s="2" t="inlineStr">
+        <is>
+          <t>How big the site is including relevant measurements</t>
+        </is>
+      </c>
       <c r="C124" s="2" t="inlineStr">
         <is>
-          <t>Residential unit summary[]</t>
-        </is>
-      </c>
-      <c r="D124" s="2" t="inlineStr">
-        <is>
-          <t>Proposed unit breakdown[]</t>
-        </is>
-      </c>
-      <c r="E124" s="2" t="inlineStr">
-        <is>
-          <t>Units per bedroom number[]</t>
-        </is>
-      </c>
-      <c r="F124" s="2" t="inlineStr">
-        <is>
-          <t>Number of bedrooms</t>
-        </is>
-      </c>
+          <t>Site area in hectares</t>
+        </is>
+      </c>
+      <c r="D124" s="2" t="inlineStr"/>
+      <c r="E124" s="2" t="inlineStr"/>
+      <c r="F124" s="2" t="inlineStr"/>
       <c r="G124" s="2" t="inlineStr">
         <is>
-          <t>The number of bedrooms in unit</t>
+          <t>The size of the site in hectares</t>
         </is>
       </c>
       <c r="H124" s="2" t="inlineStr">
@@ -4378,7 +4378,7 @@
       </c>
       <c r="I124" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -4387,67 +4387,59 @@
       <c r="B125" s="2" t="n"/>
       <c r="C125" s="2" t="inlineStr">
         <is>
-          <t>Residential unit summary[]</t>
-        </is>
-      </c>
-      <c r="D125" s="2" t="inlineStr">
-        <is>
-          <t>Proposed unit breakdown[]</t>
-        </is>
-      </c>
-      <c r="E125" s="2" t="inlineStr">
-        <is>
-          <t>Units per bedroom number[]</t>
-        </is>
-      </c>
-      <c r="F125" s="2" t="inlineStr">
-        <is>
-          <t>Units</t>
-        </is>
-      </c>
+          <t>Site area provided by</t>
+        </is>
+      </c>
+      <c r="D125" s="2" t="inlineStr"/>
+      <c r="E125" s="2" t="inlineStr"/>
+      <c r="F125" s="2" t="inlineStr"/>
       <c r="G125" s="2" t="inlineStr">
         <is>
-          <t>The number of units of that bedroom count</t>
+          <t>Who provided the site area value</t>
         </is>
       </c>
       <c r="H125" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I125" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="2" t="n"/>
-      <c r="B126" s="2" t="n"/>
+      <c r="A126" s="2" t="inlineStr">
+        <is>
+          <t>Site details</t>
+        </is>
+      </c>
+      <c r="B126" s="2" t="inlineStr">
+        <is>
+          <t>Where the proposed development will be built.</t>
+        </is>
+      </c>
       <c r="C126" s="2" t="inlineStr">
         <is>
-          <t>Residential unit summary[]</t>
+          <t>Site locations[]</t>
         </is>
       </c>
       <c r="D126" s="2" t="inlineStr">
         <is>
-          <t>Proposed unit breakdown[]</t>
-        </is>
-      </c>
-      <c r="E126" s="2" t="inlineStr">
-        <is>
-          <t>Total units</t>
-        </is>
-      </c>
+          <t>Site boundary</t>
+        </is>
+      </c>
+      <c r="E126" s="2" t="inlineStr"/>
       <c r="F126" s="2" t="inlineStr"/>
       <c r="G126" s="2" t="inlineStr">
         <is>
-          <t>Total number of units</t>
+          <t>Geometry of the site of the development, typically in GeoJSON format</t>
         </is>
       </c>
       <c r="H126" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>wkt</t>
         </is>
       </c>
       <c r="I126" s="2" t="inlineStr">
@@ -4461,25 +4453,29 @@
       <c r="B127" s="2" t="n"/>
       <c r="C127" s="2" t="inlineStr">
         <is>
-          <t>Total existing units</t>
-        </is>
-      </c>
-      <c r="D127" s="2" t="inlineStr"/>
+          <t>Site locations[]</t>
+        </is>
+      </c>
+      <c r="D127" s="2" t="inlineStr">
+        <is>
+          <t>Address Text</t>
+        </is>
+      </c>
       <c r="E127" s="2" t="inlineStr"/>
       <c r="F127" s="2" t="inlineStr"/>
       <c r="G127" s="2" t="inlineStr">
         <is>
-          <t>The total number of existing units</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="H127" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I127" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4488,25 +4484,29 @@
       <c r="B128" s="2" t="n"/>
       <c r="C128" s="2" t="inlineStr">
         <is>
-          <t>Total proposed units</t>
-        </is>
-      </c>
-      <c r="D128" s="2" t="inlineStr"/>
+          <t>Site locations[]</t>
+        </is>
+      </c>
+      <c r="D128" s="2" t="inlineStr">
+        <is>
+          <t>Postcode</t>
+        </is>
+      </c>
       <c r="E128" s="2" t="inlineStr"/>
       <c r="F128" s="2" t="inlineStr"/>
       <c r="G128" s="2" t="inlineStr">
         <is>
-          <t>The total number of proposed units</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="H128" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I128" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4515,15 +4515,19 @@
       <c r="B129" s="2" t="n"/>
       <c r="C129" s="2" t="inlineStr">
         <is>
-          <t>Net change</t>
-        </is>
-      </c>
-      <c r="D129" s="2" t="inlineStr"/>
+          <t>Site locations[]</t>
+        </is>
+      </c>
+      <c r="D129" s="2" t="inlineStr">
+        <is>
+          <t>Easting</t>
+        </is>
+      </c>
       <c r="E129" s="2" t="inlineStr"/>
       <c r="F129" s="2" t="inlineStr"/>
       <c r="G129" s="2" t="inlineStr">
         <is>
-          <t>Calculated net change in units</t>
+          <t>Easting coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
       <c r="H129" s="2" t="inlineStr">
@@ -4533,32 +4537,28 @@
       </c>
       <c r="I129" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="2" t="inlineStr">
-        <is>
-          <t>Site area</t>
-        </is>
-      </c>
-      <c r="B130" s="2" t="inlineStr">
-        <is>
-          <t>How big the site is including relevant measurements</t>
-        </is>
-      </c>
+      <c r="A130" s="2" t="n"/>
+      <c r="B130" s="2" t="n"/>
       <c r="C130" s="2" t="inlineStr">
         <is>
-          <t>Site area in hectares</t>
-        </is>
-      </c>
-      <c r="D130" s="2" t="inlineStr"/>
+          <t>Site locations[]</t>
+        </is>
+      </c>
+      <c r="D130" s="2" t="inlineStr">
+        <is>
+          <t>Northing</t>
+        </is>
+      </c>
       <c r="E130" s="2" t="inlineStr"/>
       <c r="F130" s="2" t="inlineStr"/>
       <c r="G130" s="2" t="inlineStr">
         <is>
-          <t>The size of the site in hectares</t>
+          <t>Northing coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
       <c r="H130" s="2" t="inlineStr">
@@ -4568,7 +4568,7 @@
       </c>
       <c r="I130" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4577,20 +4577,24 @@
       <c r="B131" s="2" t="n"/>
       <c r="C131" s="2" t="inlineStr">
         <is>
-          <t>Site area provided by</t>
-        </is>
-      </c>
-      <c r="D131" s="2" t="inlineStr"/>
+          <t>Site locations[]</t>
+        </is>
+      </c>
+      <c r="D131" s="2" t="inlineStr">
+        <is>
+          <t>Latitude</t>
+        </is>
+      </c>
       <c r="E131" s="2" t="inlineStr"/>
       <c r="F131" s="2" t="inlineStr"/>
       <c r="G131" s="2" t="inlineStr">
         <is>
-          <t>Who provided the site area value</t>
+          <t>Latitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
       <c r="H131" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I131" s="2" t="inlineStr">
@@ -4600,16 +4604,8 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="2" t="inlineStr">
-        <is>
-          <t>Site details</t>
-        </is>
-      </c>
-      <c r="B132" s="2" t="inlineStr">
-        <is>
-          <t>Where the proposed development will be built.</t>
-        </is>
-      </c>
+      <c r="A132" s="2" t="n"/>
+      <c r="B132" s="2" t="n"/>
       <c r="C132" s="2" t="inlineStr">
         <is>
           <t>Site locations[]</t>
@@ -4617,19 +4613,19 @@
       </c>
       <c r="D132" s="2" t="inlineStr">
         <is>
-          <t>Site boundary</t>
+          <t>Longitude</t>
         </is>
       </c>
       <c r="E132" s="2" t="inlineStr"/>
       <c r="F132" s="2" t="inlineStr"/>
       <c r="G132" s="2" t="inlineStr">
         <is>
-          <t>Geometry of the site of the development, typically in GeoJSON format</t>
+          <t>Longitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
       <c r="H132" s="2" t="inlineStr">
         <is>
-          <t>wkt</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I132" s="2" t="inlineStr">
@@ -4648,14 +4644,14 @@
       </c>
       <c r="D133" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="E133" s="2" t="inlineStr"/>
       <c r="F133" s="2" t="inlineStr"/>
       <c r="G133" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>A text description providing details about the subject. For parking changes, this describes how the proposed works affect existing car parking arrangements.</t>
         </is>
       </c>
       <c r="H133" s="2" t="inlineStr">
@@ -4679,14 +4675,14 @@
       </c>
       <c r="D134" s="2" t="inlineStr">
         <is>
-          <t>Postcode</t>
+          <t>UPRNs[]</t>
         </is>
       </c>
       <c r="E134" s="2" t="inlineStr"/>
       <c r="F134" s="2" t="inlineStr"/>
       <c r="G134" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Unique Property Reference Numbers (UPRNs) for properties within the site boundary</t>
         </is>
       </c>
       <c r="H134" s="2" t="inlineStr">
@@ -4701,33 +4697,37 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="2" t="n"/>
-      <c r="B135" s="2" t="n"/>
+      <c r="A135" s="2" t="inlineStr">
+        <is>
+          <t>Site Visit Details</t>
+        </is>
+      </c>
+      <c r="B135" s="2" t="inlineStr">
+        <is>
+          <t>Information to help the planning authority arrange a site visit</t>
+        </is>
+      </c>
       <c r="C135" s="2" t="inlineStr">
         <is>
-          <t>Site locations[]</t>
-        </is>
-      </c>
-      <c r="D135" s="2" t="inlineStr">
-        <is>
-          <t>Easting</t>
-        </is>
-      </c>
+          <t>Site seen from public area</t>
+        </is>
+      </c>
+      <c r="D135" s="2" t="inlineStr"/>
       <c r="E135" s="2" t="inlineStr"/>
       <c r="F135" s="2" t="inlineStr"/>
       <c r="G135" s="2" t="inlineStr">
         <is>
-          <t>Easting coordinate in British National Grid (EPSG:27700)</t>
+          <t>Can site be seen from a public road, public footpath, bridleway or other public land</t>
         </is>
       </c>
       <c r="H135" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I135" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -4736,29 +4736,25 @@
       <c r="B136" s="2" t="n"/>
       <c r="C136" s="2" t="inlineStr">
         <is>
-          <t>Site locations[]</t>
-        </is>
-      </c>
-      <c r="D136" s="2" t="inlineStr">
-        <is>
-          <t>Northing</t>
-        </is>
-      </c>
+          <t>Site visit contact type</t>
+        </is>
+      </c>
+      <c r="D136" s="2" t="inlineStr"/>
       <c r="E136" s="2" t="inlineStr"/>
       <c r="F136" s="2" t="inlineStr"/>
       <c r="G136" s="2" t="inlineStr">
         <is>
-          <t>Northing coordinate in British National Grid (EPSG:27700)</t>
+          <t>Indicates who the authority should contact to arrange a site visit</t>
         </is>
       </c>
       <c r="H136" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I136" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -4767,24 +4763,20 @@
       <c r="B137" s="2" t="n"/>
       <c r="C137" s="2" t="inlineStr">
         <is>
-          <t>Site locations[]</t>
-        </is>
-      </c>
-      <c r="D137" s="2" t="inlineStr">
-        <is>
-          <t>Latitude</t>
-        </is>
-      </c>
+          <t>Contact reference</t>
+        </is>
+      </c>
+      <c r="D137" s="2" t="inlineStr"/>
       <c r="E137" s="2" t="inlineStr"/>
       <c r="F137" s="2" t="inlineStr"/>
       <c r="G137" s="2" t="inlineStr">
         <is>
-          <t>Latitude coordinate in WGS84 (EPSG:4326)</t>
+          <t>The reference of the applicant or agent who should be contacted for site visits</t>
         </is>
       </c>
       <c r="H137" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I137" s="2" t="inlineStr">
@@ -4798,29 +4790,29 @@
       <c r="B138" s="2" t="n"/>
       <c r="C138" s="2" t="inlineStr">
         <is>
-          <t>Site locations[]</t>
+          <t>Other site visit contact</t>
         </is>
       </c>
       <c r="D138" s="2" t="inlineStr">
         <is>
-          <t>Longitude</t>
+          <t>Full name</t>
         </is>
       </c>
       <c r="E138" s="2" t="inlineStr"/>
       <c r="F138" s="2" t="inlineStr"/>
       <c r="G138" s="2" t="inlineStr">
         <is>
-          <t>Longitude coordinate in WGS84 (EPSG:4326)</t>
+          <t>The complete name of a person</t>
         </is>
       </c>
       <c r="H138" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I138" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -4829,19 +4821,19 @@
       <c r="B139" s="2" t="n"/>
       <c r="C139" s="2" t="inlineStr">
         <is>
-          <t>Site locations[]</t>
+          <t>Other site visit contact</t>
         </is>
       </c>
       <c r="D139" s="2" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Phone number</t>
         </is>
       </c>
       <c r="E139" s="2" t="inlineStr"/>
       <c r="F139" s="2" t="inlineStr"/>
       <c r="G139" s="2" t="inlineStr">
         <is>
-          <t>A text description providing details about the subject. For parking changes, this describes how the proposed works affect existing car parking arrangements.</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="H139" s="2" t="inlineStr">
@@ -4851,7 +4843,7 @@
       </c>
       <c r="I139" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -4860,19 +4852,19 @@
       <c r="B140" s="2" t="n"/>
       <c r="C140" s="2" t="inlineStr">
         <is>
-          <t>Site locations[]</t>
+          <t>Other site visit contact</t>
         </is>
       </c>
       <c r="D140" s="2" t="inlineStr">
         <is>
-          <t>UPRNs[]</t>
+          <t>Email</t>
         </is>
       </c>
       <c r="E140" s="2" t="inlineStr"/>
       <c r="F140" s="2" t="inlineStr"/>
       <c r="G140" s="2" t="inlineStr">
         <is>
-          <t>Unique Property Reference Numbers (UPRNs) for properties within the site boundary</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="H140" s="2" t="inlineStr">
@@ -4882,24 +4874,24 @@
       </c>
       <c r="I140" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="inlineStr">
         <is>
-          <t>Site Visit Details</t>
+          <t>Trade effluent</t>
         </is>
       </c>
       <c r="B141" s="2" t="inlineStr">
         <is>
-          <t>Information to help the planning authority arrange a site visit</t>
+          <t>Details of any liquid waste produced by industial processes on the proposed site, and how it will be diposed of.</t>
         </is>
       </c>
       <c r="C141" s="2" t="inlineStr">
         <is>
-          <t>Site seen from public area</t>
+          <t>Disposal required</t>
         </is>
       </c>
       <c r="D141" s="2" t="inlineStr"/>
@@ -4907,7 +4899,7 @@
       <c r="F141" s="2" t="inlineStr"/>
       <c r="G141" s="2" t="inlineStr">
         <is>
-          <t>Can site be seen from a public road, public footpath, bridleway or other public land</t>
+          <t>Does the proposal involve the disposal of trade effluents or waste (true/false)</t>
         </is>
       </c>
       <c r="H141" s="2" t="inlineStr">
@@ -4926,7 +4918,7 @@
       <c r="B142" s="2" t="n"/>
       <c r="C142" s="2" t="inlineStr">
         <is>
-          <t>Site visit contact type</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="D142" s="2" t="inlineStr"/>
@@ -4934,70 +4926,70 @@
       <c r="F142" s="2" t="inlineStr"/>
       <c r="G142" s="2" t="inlineStr">
         <is>
-          <t>Indicates who the authority should contact to arrange a site visit</t>
+          <t>describe the nature, volume and means of disposal of trade effluents or waste</t>
         </is>
       </c>
       <c r="H142" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I142" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="2" t="n"/>
-      <c r="B143" s="2" t="n"/>
-      <c r="C143" s="2" t="inlineStr">
-        <is>
-          <t>Contact reference</t>
-        </is>
-      </c>
+      <c r="A143" s="2" t="inlineStr">
+        <is>
+          <t>Trees and hedges information</t>
+        </is>
+      </c>
+      <c r="B143" s="2" t="inlineStr">
+        <is>
+          <t>Details of trees and/or hedges that will be affected by the proposed development</t>
+        </is>
+      </c>
+      <c r="C143" s="2" t="inlineStr"/>
       <c r="D143" s="2" t="inlineStr"/>
       <c r="E143" s="2" t="inlineStr"/>
       <c r="F143" s="2" t="inlineStr"/>
-      <c r="G143" s="2" t="inlineStr">
-        <is>
-          <t>The reference of the applicant or agent who should be contacted for site visits</t>
-        </is>
-      </c>
-      <c r="H143" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="I143" s="2" t="inlineStr">
-        <is>
-          <t>MAY</t>
-        </is>
-      </c>
+      <c r="G143" s="2" t="inlineStr"/>
+      <c r="H143" s="2" t="inlineStr"/>
+      <c r="I143" s="2" t="inlineStr"/>
     </row>
     <row r="144">
-      <c r="A144" s="2" t="n"/>
-      <c r="B144" s="2" t="n"/>
+      <c r="A144" s="2" t="inlineStr">
+        <is>
+          <t>Vehicle parking</t>
+        </is>
+      </c>
+      <c r="B144" s="2" t="inlineStr">
+        <is>
+          <t>Details of current parking facilities at the site and any changes that would be made by the proposed development.</t>
+        </is>
+      </c>
       <c r="C144" s="2" t="inlineStr">
         <is>
-          <t>Other site visit contact</t>
+          <t>Parking spaces[]</t>
         </is>
       </c>
       <c r="D144" s="2" t="inlineStr">
         <is>
-          <t>Full name</t>
+          <t>Parking space type</t>
         </is>
       </c>
       <c r="E144" s="2" t="inlineStr"/>
       <c r="F144" s="2" t="inlineStr"/>
       <c r="G144" s="2" t="inlineStr">
         <is>
-          <t>The complete name of a person</t>
+          <t>Type of parking space or vehicle type</t>
         </is>
       </c>
       <c r="H144" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I144" s="2" t="inlineStr">
@@ -5011,19 +5003,19 @@
       <c r="B145" s="2" t="n"/>
       <c r="C145" s="2" t="inlineStr">
         <is>
-          <t>Other site visit contact</t>
+          <t>Parking spaces[]</t>
         </is>
       </c>
       <c r="D145" s="2" t="inlineStr">
         <is>
-          <t>Phone number</t>
+          <t>Vehicle type other</t>
         </is>
       </c>
       <c r="E145" s="2" t="inlineStr"/>
       <c r="F145" s="2" t="inlineStr"/>
       <c r="G145" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>Vehicle type when parking space type is 'other'</t>
         </is>
       </c>
       <c r="H145" s="2" t="inlineStr">
@@ -5033,7 +5025,7 @@
       </c>
       <c r="I145" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -5042,24 +5034,24 @@
       <c r="B146" s="2" t="n"/>
       <c r="C146" s="2" t="inlineStr">
         <is>
-          <t>Other site visit contact</t>
+          <t>Parking spaces[]</t>
         </is>
       </c>
       <c r="D146" s="2" t="inlineStr">
         <is>
-          <t>Email</t>
+          <t>Total existing</t>
         </is>
       </c>
       <c r="E146" s="2" t="inlineStr"/>
       <c r="F146" s="2" t="inlineStr"/>
       <c r="G146" s="2" t="inlineStr">
         <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
+          <t>Total number of existing parking spaces</t>
         </is>
       </c>
       <c r="H146" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I146" s="2" t="inlineStr">
@@ -5069,32 +5061,28 @@
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="2" t="inlineStr">
-        <is>
-          <t>Trade effluent</t>
-        </is>
-      </c>
-      <c r="B147" s="2" t="inlineStr">
-        <is>
-          <t>Details of any liquid waste produced by industial processes on the proposed site, and how it will be diposed of.</t>
-        </is>
-      </c>
+      <c r="A147" s="2" t="n"/>
+      <c r="B147" s="2" t="n"/>
       <c r="C147" s="2" t="inlineStr">
         <is>
-          <t>Disposal required</t>
-        </is>
-      </c>
-      <c r="D147" s="2" t="inlineStr"/>
+          <t>Parking spaces[]</t>
+        </is>
+      </c>
+      <c r="D147" s="2" t="inlineStr">
+        <is>
+          <t>Total proposed</t>
+        </is>
+      </c>
       <c r="E147" s="2" t="inlineStr"/>
       <c r="F147" s="2" t="inlineStr"/>
       <c r="G147" s="2" t="inlineStr">
         <is>
-          <t>Does the proposal involve the disposal of trade effluents or waste (true/false)</t>
+          <t>Total number of proposed parking spaces</t>
         </is>
       </c>
       <c r="H147" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I147" s="2" t="inlineStr">
@@ -5108,267 +5096,89 @@
       <c r="B148" s="2" t="n"/>
       <c r="C148" s="2" t="inlineStr">
         <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="D148" s="2" t="inlineStr"/>
+          <t>Parking spaces[]</t>
+        </is>
+      </c>
+      <c r="D148" s="2" t="inlineStr">
+        <is>
+          <t>Difference in spaces</t>
+        </is>
+      </c>
       <c r="E148" s="2" t="inlineStr"/>
       <c r="F148" s="2" t="inlineStr"/>
       <c r="G148" s="2" t="inlineStr">
         <is>
-          <t>describe the nature, volume and means of disposal of trade effluents or waste</t>
+          <t>Net change in parking spaces (proposed minus existing)</t>
         </is>
       </c>
       <c r="H148" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I148" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="inlineStr">
         <is>
-          <t>Trees and hedges information</t>
+          <t>Waste storage and collection</t>
         </is>
       </c>
       <c r="B149" s="2" t="inlineStr">
         <is>
-          <t>Details of trees and/or hedges that will be affected by the proposed development</t>
-        </is>
-      </c>
-      <c r="C149" s="2" t="inlineStr"/>
+          <t>Any waste storage or recycling arrangements are in place, such as waste storage areas</t>
+        </is>
+      </c>
+      <c r="C149" s="2" t="inlineStr">
+        <is>
+          <t>Waste storage area details</t>
+        </is>
+      </c>
       <c r="D149" s="2" t="inlineStr"/>
       <c r="E149" s="2" t="inlineStr"/>
       <c r="F149" s="2" t="inlineStr"/>
-      <c r="G149" s="2" t="inlineStr"/>
-      <c r="H149" s="2" t="inlineStr"/>
-      <c r="I149" s="2" t="inlineStr"/>
+      <c r="G149" s="2" t="inlineStr">
+        <is>
+          <t>Details of the waste storage area including location, size, design and access arrangements</t>
+        </is>
+      </c>
+      <c r="H149" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I149" s="2" t="inlineStr">
+        <is>
+          <t>MAY</t>
+        </is>
+      </c>
     </row>
     <row r="150">
-      <c r="A150" s="2" t="inlineStr">
-        <is>
-          <t>Vehicle parking</t>
-        </is>
-      </c>
-      <c r="B150" s="2" t="inlineStr">
-        <is>
-          <t>Details of current parking facilities at the site and any changes that would be made by the proposed development.</t>
-        </is>
-      </c>
+      <c r="A150" s="2" t="n"/>
+      <c r="B150" s="2" t="n"/>
       <c r="C150" s="2" t="inlineStr">
         <is>
-          <t>Parking spaces[]</t>
-        </is>
-      </c>
-      <c r="D150" s="2" t="inlineStr">
-        <is>
-          <t>Parking space type</t>
-        </is>
-      </c>
+          <t>Separate recycling arrangements details</t>
+        </is>
+      </c>
+      <c r="D150" s="2" t="inlineStr"/>
       <c r="E150" s="2" t="inlineStr"/>
       <c r="F150" s="2" t="inlineStr"/>
       <c r="G150" s="2" t="inlineStr">
         <is>
-          <t>Type of parking space or vehicle type</t>
+          <t>Details of the recycling arrangements including types of materials, collection methods and storage facilities</t>
         </is>
       </c>
       <c r="H150" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I150" s="2" t="inlineStr">
-        <is>
-          <t>MUST</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="2" t="n"/>
-      <c r="B151" s="2" t="n"/>
-      <c r="C151" s="2" t="inlineStr">
-        <is>
-          <t>Parking spaces[]</t>
-        </is>
-      </c>
-      <c r="D151" s="2" t="inlineStr">
-        <is>
-          <t>Vehicle type other</t>
-        </is>
-      </c>
-      <c r="E151" s="2" t="inlineStr"/>
-      <c r="F151" s="2" t="inlineStr"/>
-      <c r="G151" s="2" t="inlineStr">
-        <is>
-          <t>Vehicle type when parking space type is 'other'</t>
-        </is>
-      </c>
-      <c r="H151" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="I151" s="2" t="inlineStr">
-        <is>
-          <t>MAY</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="2" t="n"/>
-      <c r="B152" s="2" t="n"/>
-      <c r="C152" s="2" t="inlineStr">
-        <is>
-          <t>Parking spaces[]</t>
-        </is>
-      </c>
-      <c r="D152" s="2" t="inlineStr">
-        <is>
-          <t>Total existing</t>
-        </is>
-      </c>
-      <c r="E152" s="2" t="inlineStr"/>
-      <c r="F152" s="2" t="inlineStr"/>
-      <c r="G152" s="2" t="inlineStr">
-        <is>
-          <t>Total number of existing parking spaces</t>
-        </is>
-      </c>
-      <c r="H152" s="2" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="I152" s="2" t="inlineStr">
-        <is>
-          <t>MUST</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="2" t="n"/>
-      <c r="B153" s="2" t="n"/>
-      <c r="C153" s="2" t="inlineStr">
-        <is>
-          <t>Parking spaces[]</t>
-        </is>
-      </c>
-      <c r="D153" s="2" t="inlineStr">
-        <is>
-          <t>Total proposed</t>
-        </is>
-      </c>
-      <c r="E153" s="2" t="inlineStr"/>
-      <c r="F153" s="2" t="inlineStr"/>
-      <c r="G153" s="2" t="inlineStr">
-        <is>
-          <t>Total number of proposed parking spaces</t>
-        </is>
-      </c>
-      <c r="H153" s="2" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="I153" s="2" t="inlineStr">
-        <is>
-          <t>MUST</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="2" t="n"/>
-      <c r="B154" s="2" t="n"/>
-      <c r="C154" s="2" t="inlineStr">
-        <is>
-          <t>Parking spaces[]</t>
-        </is>
-      </c>
-      <c r="D154" s="2" t="inlineStr">
-        <is>
-          <t>Difference in spaces</t>
-        </is>
-      </c>
-      <c r="E154" s="2" t="inlineStr"/>
-      <c r="F154" s="2" t="inlineStr"/>
-      <c r="G154" s="2" t="inlineStr">
-        <is>
-          <t>Net change in parking spaces (proposed minus existing)</t>
-        </is>
-      </c>
-      <c r="H154" s="2" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="I154" s="2" t="inlineStr">
-        <is>
-          <t>MUST</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="2" t="inlineStr">
-        <is>
-          <t>Waste storage and collection</t>
-        </is>
-      </c>
-      <c r="B155" s="2" t="inlineStr">
-        <is>
-          <t>Any waste storage or recycling arrangements are in place, such as waste storage areas</t>
-        </is>
-      </c>
-      <c r="C155" s="2" t="inlineStr">
-        <is>
-          <t>Waste storage area details</t>
-        </is>
-      </c>
-      <c r="D155" s="2" t="inlineStr"/>
-      <c r="E155" s="2" t="inlineStr"/>
-      <c r="F155" s="2" t="inlineStr"/>
-      <c r="G155" s="2" t="inlineStr">
-        <is>
-          <t>Details of the waste storage area including location, size, design and access arrangements</t>
-        </is>
-      </c>
-      <c r="H155" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="I155" s="2" t="inlineStr">
-        <is>
-          <t>MAY</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="2" t="n"/>
-      <c r="B156" s="2" t="n"/>
-      <c r="C156" s="2" t="inlineStr">
-        <is>
-          <t>Separate recycling arrangements details</t>
-        </is>
-      </c>
-      <c r="D156" s="2" t="inlineStr"/>
-      <c r="E156" s="2" t="inlineStr"/>
-      <c r="F156" s="2" t="inlineStr"/>
-      <c r="G156" s="2" t="inlineStr">
-        <is>
-          <t>Details of the recycling arrangements including types of materials, collection methods and storage facilities</t>
-        </is>
-      </c>
-      <c r="H156" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="I156" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -5377,67 +5187,67 @@
   </sheetData>
   <mergeCells count="62">
     <mergeCell ref="B49"/>
-    <mergeCell ref="B141:B146"/>
-    <mergeCell ref="A97"/>
-    <mergeCell ref="B155:B156"/>
-    <mergeCell ref="B132:B140"/>
+    <mergeCell ref="B149:B150"/>
+    <mergeCell ref="B135:B140"/>
+    <mergeCell ref="B143"/>
     <mergeCell ref="A39:A44"/>
-    <mergeCell ref="B130:B131"/>
-    <mergeCell ref="A96"/>
-    <mergeCell ref="B81:B86"/>
+    <mergeCell ref="A91"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A149:A150"/>
+    <mergeCell ref="A81"/>
+    <mergeCell ref="A2:A19"/>
     <mergeCell ref="B77:B80"/>
-    <mergeCell ref="A150:A154"/>
+    <mergeCell ref="A124:A125"/>
     <mergeCell ref="B71:B76"/>
-    <mergeCell ref="B2:B18"/>
     <mergeCell ref="B45:B47"/>
     <mergeCell ref="B50"/>
-    <mergeCell ref="B113"/>
+    <mergeCell ref="B92:B96"/>
+    <mergeCell ref="B97:B106"/>
     <mergeCell ref="B23:B26"/>
-    <mergeCell ref="B97"/>
+    <mergeCell ref="A126:A134"/>
     <mergeCell ref="A48"/>
     <mergeCell ref="B51:B53"/>
-    <mergeCell ref="A88:A95"/>
-    <mergeCell ref="B114:B129"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="B108:B123"/>
     <mergeCell ref="A61:A70"/>
     <mergeCell ref="B39:B44"/>
+    <mergeCell ref="B91"/>
+    <mergeCell ref="A143"/>
     <mergeCell ref="A49"/>
-    <mergeCell ref="A103:A112"/>
-    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="B81"/>
+    <mergeCell ref="A82"/>
+    <mergeCell ref="A107"/>
+    <mergeCell ref="B90"/>
     <mergeCell ref="B54:B60"/>
     <mergeCell ref="B27:B34"/>
-    <mergeCell ref="A147:A148"/>
+    <mergeCell ref="B83:B89"/>
     <mergeCell ref="A71:A76"/>
     <mergeCell ref="A45:A47"/>
-    <mergeCell ref="B149"/>
+    <mergeCell ref="A141:A142"/>
+    <mergeCell ref="A92:A96"/>
     <mergeCell ref="A23:A26"/>
     <mergeCell ref="B61:B70"/>
-    <mergeCell ref="B96"/>
-    <mergeCell ref="A114:A129"/>
+    <mergeCell ref="B144:B148"/>
     <mergeCell ref="A51:A53"/>
     <mergeCell ref="B48"/>
-    <mergeCell ref="B88:B95"/>
-    <mergeCell ref="A87"/>
-    <mergeCell ref="B147:B148"/>
-    <mergeCell ref="A2:A18"/>
-    <mergeCell ref="A98:A102"/>
-    <mergeCell ref="B150:B154"/>
-    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="B126:B134"/>
+    <mergeCell ref="A83:A89"/>
+    <mergeCell ref="A135:A140"/>
+    <mergeCell ref="B124:B125"/>
+    <mergeCell ref="B107"/>
+    <mergeCell ref="A90"/>
     <mergeCell ref="A54:A60"/>
-    <mergeCell ref="A130:A131"/>
     <mergeCell ref="A27:A34"/>
-    <mergeCell ref="A141:A146"/>
-    <mergeCell ref="A155:A156"/>
-    <mergeCell ref="A132:A140"/>
-    <mergeCell ref="A149"/>
     <mergeCell ref="A50"/>
-    <mergeCell ref="B103:B112"/>
-    <mergeCell ref="A81:A86"/>
-    <mergeCell ref="B87"/>
-    <mergeCell ref="A113"/>
+    <mergeCell ref="B141:B142"/>
+    <mergeCell ref="B82"/>
     <mergeCell ref="A77:A80"/>
-    <mergeCell ref="B98:B102"/>
+    <mergeCell ref="B2:B19"/>
+    <mergeCell ref="A108:A123"/>
     <mergeCell ref="A35:A38"/>
+    <mergeCell ref="A144:A148"/>
     <mergeCell ref="B35:B38"/>
+    <mergeCell ref="A97:A106"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/generated/spreadsheet/technical-details-consent-technical-details-consent.xlsx
+++ b/generated/spreadsheet/technical-details-consent-technical-details-consent.xlsx
@@ -708,7 +708,7 @@
       <c r="F8" s="2" t="inlineStr"/>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>A reference for the document</t>
+          <t>Unique reference for the document within this application submission, generated by the submitting system</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">

--- a/generated/spreadsheet/technical-details-consent-technical-details-consent.xlsx
+++ b/generated/spreadsheet/technical-details-consent-technical-details-consent.xlsx
@@ -3004,15 +3004,19 @@
       <c r="B80" s="2" t="n"/>
       <c r="C80" s="2" t="inlineStr">
         <is>
-          <t>Drainage system details</t>
-        </is>
-      </c>
-      <c r="D80" s="2" t="inlineStr"/>
+          <t>Supporting documents[]</t>
+        </is>
+      </c>
+      <c r="D80" s="2" t="inlineStr">
+        <is>
+          <t>Reference</t>
+        </is>
+      </c>
       <c r="E80" s="2" t="inlineStr"/>
       <c r="F80" s="2" t="inlineStr"/>
       <c r="G80" s="2" t="inlineStr">
         <is>
-          <t>Details of the drawings/plans that show the existing drainage system</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="H80" s="2" t="inlineStr">
@@ -3022,7 +3026,7 @@
       </c>
       <c r="I80" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>

--- a/generated/spreadsheet/technical-details-consent-technical-details-consent.xlsx
+++ b/generated/spreadsheet/technical-details-consent-technical-details-consent.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I150"/>
+  <dimension ref="A1:I152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3635,19 +3635,19 @@
       </c>
       <c r="D102" s="2" t="inlineStr">
         <is>
-          <t>Annual throughput</t>
+          <t>Unit type</t>
         </is>
       </c>
       <c r="E102" s="2" t="inlineStr"/>
       <c r="F102" s="2" t="inlineStr"/>
       <c r="G102" s="2" t="inlineStr">
         <is>
-          <t>Maximum annual operational throughput in tonnes/litres</t>
+          <t>Unit for capacity/throughput (e.g. cubic metres, tonnes, litres)</t>
         </is>
       </c>
       <c r="H102" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I102" s="2" t="inlineStr">
@@ -3661,19 +3661,19 @@
       <c r="B103" s="2" t="n"/>
       <c r="C103" s="2" t="inlineStr">
         <is>
-          <t>Waste streams throughput</t>
+          <t>Waste management[]</t>
         </is>
       </c>
       <c r="D103" s="2" t="inlineStr">
         <is>
-          <t>Municipal</t>
+          <t>Annual throughput</t>
         </is>
       </c>
       <c r="E103" s="2" t="inlineStr"/>
       <c r="F103" s="2" t="inlineStr"/>
       <c r="G103" s="2" t="inlineStr">
         <is>
-          <t>Maximum throughput for municipal waste (annual throughput in tonnes/litres)</t>
+          <t>Maximum annual operational throughput in tonnes/litres</t>
         </is>
       </c>
       <c r="H103" s="2" t="inlineStr">
@@ -3692,24 +3692,24 @@
       <c r="B104" s="2" t="n"/>
       <c r="C104" s="2" t="inlineStr">
         <is>
-          <t>Waste streams throughput</t>
+          <t>Waste management[]</t>
         </is>
       </c>
       <c r="D104" s="2" t="inlineStr">
         <is>
-          <t>Construction demolition</t>
+          <t>Unit type</t>
         </is>
       </c>
       <c r="E104" s="2" t="inlineStr"/>
       <c r="F104" s="2" t="inlineStr"/>
       <c r="G104" s="2" t="inlineStr">
         <is>
-          <t>Maximum throughput for construction and demolition waste (annual throughput in tonnes/litres)</t>
+          <t>Unit for capacity/throughput (e.g. cubic metres, tonnes, litres)</t>
         </is>
       </c>
       <c r="H104" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I104" s="2" t="inlineStr">
@@ -3728,14 +3728,14 @@
       </c>
       <c r="D105" s="2" t="inlineStr">
         <is>
-          <t>Commercial industrial</t>
+          <t>Municipal</t>
         </is>
       </c>
       <c r="E105" s="2" t="inlineStr"/>
       <c r="F105" s="2" t="inlineStr"/>
       <c r="G105" s="2" t="inlineStr">
         <is>
-          <t>Maximum throughput for commercial and industrial waste (annual throughput in tonnes/litres)</t>
+          <t>Maximum throughput for municipal waste (annual throughput in tonnes/litres)</t>
         </is>
       </c>
       <c r="H105" s="2" t="inlineStr">
@@ -3759,14 +3759,14 @@
       </c>
       <c r="D106" s="2" t="inlineStr">
         <is>
-          <t>Hazardous</t>
+          <t>Construction demolition</t>
         </is>
       </c>
       <c r="E106" s="2" t="inlineStr"/>
       <c r="F106" s="2" t="inlineStr"/>
       <c r="G106" s="2" t="inlineStr">
         <is>
-          <t>Maximum throughput for hazardous waste (annual throughput in tonnes/litres)</t>
+          <t>Maximum throughput for construction and demolition waste (annual throughput in tonnes/litres)</t>
         </is>
       </c>
       <c r="H106" s="2" t="inlineStr">
@@ -3781,113 +3781,113 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="2" t="inlineStr">
-        <is>
-          <t>Description of the proposal</t>
-        </is>
-      </c>
-      <c r="B107" s="2" t="inlineStr">
-        <is>
-          <t>What development, works or change of use is proposed</t>
-        </is>
-      </c>
-      <c r="C107" s="2" t="inlineStr"/>
-      <c r="D107" s="2" t="inlineStr"/>
+      <c r="A107" s="2" t="n"/>
+      <c r="B107" s="2" t="n"/>
+      <c r="C107" s="2" t="inlineStr">
+        <is>
+          <t>Waste streams throughput</t>
+        </is>
+      </c>
+      <c r="D107" s="2" t="inlineStr">
+        <is>
+          <t>Commercial industrial</t>
+        </is>
+      </c>
       <c r="E107" s="2" t="inlineStr"/>
       <c r="F107" s="2" t="inlineStr"/>
-      <c r="G107" s="2" t="inlineStr"/>
-      <c r="H107" s="2" t="inlineStr"/>
-      <c r="I107" s="2" t="inlineStr"/>
+      <c r="G107" s="2" t="inlineStr">
+        <is>
+          <t>Maximum throughput for commercial and industrial waste (annual throughput in tonnes/litres)</t>
+        </is>
+      </c>
+      <c r="H107" s="2" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="I107" s="2" t="inlineStr">
+        <is>
+          <t>MAY</t>
+        </is>
+      </c>
     </row>
     <row r="108">
-      <c r="A108" s="2" t="inlineStr">
-        <is>
-          <t>Residential units</t>
-        </is>
-      </c>
-      <c r="B108" s="2" t="inlineStr">
-        <is>
-          <t>Details of the residential units that make up both the current and proposed development.</t>
-        </is>
-      </c>
+      <c r="A108" s="2" t="n"/>
+      <c r="B108" s="2" t="n"/>
       <c r="C108" s="2" t="inlineStr">
         <is>
-          <t>Residential unit change</t>
-        </is>
-      </c>
-      <c r="D108" s="2" t="inlineStr"/>
+          <t>Waste streams throughput</t>
+        </is>
+      </c>
+      <c r="D108" s="2" t="inlineStr">
+        <is>
+          <t>Hazardous</t>
+        </is>
+      </c>
       <c r="E108" s="2" t="inlineStr"/>
       <c r="F108" s="2" t="inlineStr"/>
       <c r="G108" s="2" t="inlineStr">
         <is>
-          <t>Proposal includes the gain, loss or change of use of residential units</t>
+          <t>Maximum throughput for hazardous waste (annual throughput in tonnes/litres)</t>
         </is>
       </c>
       <c r="H108" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I108" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="2" t="n"/>
-      <c r="B109" s="2" t="n"/>
-      <c r="C109" s="2" t="inlineStr">
-        <is>
-          <t>Residential unit summary[]</t>
-        </is>
-      </c>
-      <c r="D109" s="2" t="inlineStr">
-        <is>
-          <t>Tenure type</t>
-        </is>
-      </c>
+      <c r="A109" s="2" t="inlineStr">
+        <is>
+          <t>Description of the proposal</t>
+        </is>
+      </c>
+      <c r="B109" s="2" t="inlineStr">
+        <is>
+          <t>What development, works or change of use is proposed</t>
+        </is>
+      </c>
+      <c r="C109" s="2" t="inlineStr"/>
+      <c r="D109" s="2" t="inlineStr"/>
       <c r="E109" s="2" t="inlineStr"/>
       <c r="F109" s="2" t="inlineStr"/>
-      <c r="G109" s="2" t="inlineStr">
-        <is>
-          <t>Category of housing tenure</t>
-        </is>
-      </c>
-      <c r="H109" s="2" t="inlineStr">
-        <is>
-          <t>enum</t>
-        </is>
-      </c>
-      <c r="I109" s="2" t="inlineStr">
-        <is>
-          <t>MUST</t>
-        </is>
-      </c>
+      <c r="G109" s="2" t="inlineStr"/>
+      <c r="H109" s="2" t="inlineStr"/>
+      <c r="I109" s="2" t="inlineStr"/>
     </row>
     <row r="110">
-      <c r="A110" s="2" t="n"/>
-      <c r="B110" s="2" t="n"/>
+      <c r="A110" s="2" t="inlineStr">
+        <is>
+          <t>Residential units</t>
+        </is>
+      </c>
+      <c r="B110" s="2" t="inlineStr">
+        <is>
+          <t>Details of the residential units that make up both the current and proposed development.</t>
+        </is>
+      </c>
       <c r="C110" s="2" t="inlineStr">
         <is>
-          <t>Residential unit summary[]</t>
-        </is>
-      </c>
-      <c r="D110" s="2" t="inlineStr">
-        <is>
-          <t>Housing type</t>
-        </is>
-      </c>
+          <t>Residential unit change</t>
+        </is>
+      </c>
+      <c r="D110" s="2" t="inlineStr"/>
       <c r="E110" s="2" t="inlineStr"/>
       <c r="F110" s="2" t="inlineStr"/>
       <c r="G110" s="2" t="inlineStr">
         <is>
-          <t>Type of housing</t>
+          <t>Proposal includes the gain, loss or change of use of residential units</t>
         </is>
       </c>
       <c r="H110" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I110" s="2" t="inlineStr">
@@ -3906,23 +3906,19 @@
       </c>
       <c r="D111" s="2" t="inlineStr">
         <is>
-          <t>Existing unit breakdown[]</t>
-        </is>
-      </c>
-      <c r="E111" s="2" t="inlineStr">
-        <is>
-          <t>Units unknown</t>
-        </is>
-      </c>
+          <t>Tenure type</t>
+        </is>
+      </c>
+      <c r="E111" s="2" t="inlineStr"/>
       <c r="F111" s="2" t="inlineStr"/>
       <c r="G111" s="2" t="inlineStr">
         <is>
-          <t>Whether the number of units is unknown</t>
+          <t>Category of housing tenure</t>
         </is>
       </c>
       <c r="H111" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I111" s="2" t="inlineStr">
@@ -3941,27 +3937,19 @@
       </c>
       <c r="D112" s="2" t="inlineStr">
         <is>
-          <t>Existing unit breakdown[]</t>
-        </is>
-      </c>
-      <c r="E112" s="2" t="inlineStr">
-        <is>
-          <t>Units per bedroom number[]</t>
-        </is>
-      </c>
-      <c r="F112" s="2" t="inlineStr">
-        <is>
-          <t>No bedrooms unknown</t>
-        </is>
-      </c>
+          <t>Housing type</t>
+        </is>
+      </c>
+      <c r="E112" s="2" t="inlineStr"/>
+      <c r="F112" s="2" t="inlineStr"/>
       <c r="G112" s="2" t="inlineStr">
         <is>
-          <t>Set to true when counting units where bedroom number is unknown</t>
+          <t>Type of housing</t>
         </is>
       </c>
       <c r="H112" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I112" s="2" t="inlineStr">
@@ -3985,27 +3973,23 @@
       </c>
       <c r="E113" s="2" t="inlineStr">
         <is>
-          <t>Units per bedroom number[]</t>
-        </is>
-      </c>
-      <c r="F113" s="2" t="inlineStr">
-        <is>
-          <t>Number of bedrooms</t>
-        </is>
-      </c>
+          <t>Units unknown</t>
+        </is>
+      </c>
+      <c r="F113" s="2" t="inlineStr"/>
       <c r="G113" s="2" t="inlineStr">
         <is>
-          <t>The number of bedrooms in unit</t>
+          <t>Whether the number of units is unknown</t>
         </is>
       </c>
       <c r="H113" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I113" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -4029,17 +4013,17 @@
       </c>
       <c r="F114" s="2" t="inlineStr">
         <is>
-          <t>Units</t>
+          <t>No bedrooms unknown</t>
         </is>
       </c>
       <c r="G114" s="2" t="inlineStr">
         <is>
-          <t>The number of units of that bedroom count</t>
+          <t>Set to true when counting units where bedroom number is unknown</t>
         </is>
       </c>
       <c r="H114" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I114" s="2" t="inlineStr">
@@ -4063,13 +4047,17 @@
       </c>
       <c r="E115" s="2" t="inlineStr">
         <is>
-          <t>Total units</t>
-        </is>
-      </c>
-      <c r="F115" s="2" t="inlineStr"/>
+          <t>Units per bedroom number[]</t>
+        </is>
+      </c>
+      <c r="F115" s="2" t="inlineStr">
+        <is>
+          <t>Number of bedrooms</t>
+        </is>
+      </c>
       <c r="G115" s="2" t="inlineStr">
         <is>
-          <t>Total number of units</t>
+          <t>The number of bedrooms in unit</t>
         </is>
       </c>
       <c r="H115" s="2" t="inlineStr">
@@ -4093,23 +4081,27 @@
       </c>
       <c r="D116" s="2" t="inlineStr">
         <is>
-          <t>Proposed unit breakdown[]</t>
+          <t>Existing unit breakdown[]</t>
         </is>
       </c>
       <c r="E116" s="2" t="inlineStr">
         <is>
-          <t>Units unknown</t>
-        </is>
-      </c>
-      <c r="F116" s="2" t="inlineStr"/>
+          <t>Units per bedroom number[]</t>
+        </is>
+      </c>
+      <c r="F116" s="2" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
       <c r="G116" s="2" t="inlineStr">
         <is>
-          <t>Whether the number of units is unknown</t>
+          <t>The number of units of that bedroom count</t>
         </is>
       </c>
       <c r="H116" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I116" s="2" t="inlineStr">
@@ -4128,32 +4120,28 @@
       </c>
       <c r="D117" s="2" t="inlineStr">
         <is>
-          <t>Proposed unit breakdown[]</t>
+          <t>Existing unit breakdown[]</t>
         </is>
       </c>
       <c r="E117" s="2" t="inlineStr">
         <is>
-          <t>Units per bedroom number[]</t>
-        </is>
-      </c>
-      <c r="F117" s="2" t="inlineStr">
-        <is>
-          <t>No bedrooms unknown</t>
-        </is>
-      </c>
+          <t>Total units</t>
+        </is>
+      </c>
+      <c r="F117" s="2" t="inlineStr"/>
       <c r="G117" s="2" t="inlineStr">
         <is>
-          <t>Set to true when counting units where bedroom number is unknown</t>
+          <t>Total number of units</t>
         </is>
       </c>
       <c r="H117" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I117" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4172,27 +4160,23 @@
       </c>
       <c r="E118" s="2" t="inlineStr">
         <is>
-          <t>Units per bedroom number[]</t>
-        </is>
-      </c>
-      <c r="F118" s="2" t="inlineStr">
-        <is>
-          <t>Number of bedrooms</t>
-        </is>
-      </c>
+          <t>Units unknown</t>
+        </is>
+      </c>
+      <c r="F118" s="2" t="inlineStr"/>
       <c r="G118" s="2" t="inlineStr">
         <is>
-          <t>The number of bedrooms in unit</t>
+          <t>Whether the number of units is unknown</t>
         </is>
       </c>
       <c r="H118" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I118" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -4216,17 +4200,17 @@
       </c>
       <c r="F119" s="2" t="inlineStr">
         <is>
-          <t>Units</t>
+          <t>No bedrooms unknown</t>
         </is>
       </c>
       <c r="G119" s="2" t="inlineStr">
         <is>
-          <t>The number of units of that bedroom count</t>
+          <t>Set to true when counting units where bedroom number is unknown</t>
         </is>
       </c>
       <c r="H119" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I119" s="2" t="inlineStr">
@@ -4250,13 +4234,17 @@
       </c>
       <c r="E120" s="2" t="inlineStr">
         <is>
-          <t>Total units</t>
-        </is>
-      </c>
-      <c r="F120" s="2" t="inlineStr"/>
+          <t>Units per bedroom number[]</t>
+        </is>
+      </c>
+      <c r="F120" s="2" t="inlineStr">
+        <is>
+          <t>Number of bedrooms</t>
+        </is>
+      </c>
       <c r="G120" s="2" t="inlineStr">
         <is>
-          <t>Total number of units</t>
+          <t>The number of bedrooms in unit</t>
         </is>
       </c>
       <c r="H120" s="2" t="inlineStr">
@@ -4275,15 +4263,27 @@
       <c r="B121" s="2" t="n"/>
       <c r="C121" s="2" t="inlineStr">
         <is>
-          <t>Total existing units</t>
-        </is>
-      </c>
-      <c r="D121" s="2" t="inlineStr"/>
-      <c r="E121" s="2" t="inlineStr"/>
-      <c r="F121" s="2" t="inlineStr"/>
+          <t>Residential unit summary[]</t>
+        </is>
+      </c>
+      <c r="D121" s="2" t="inlineStr">
+        <is>
+          <t>Proposed unit breakdown[]</t>
+        </is>
+      </c>
+      <c r="E121" s="2" t="inlineStr">
+        <is>
+          <t>Units per bedroom number[]</t>
+        </is>
+      </c>
+      <c r="F121" s="2" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
       <c r="G121" s="2" t="inlineStr">
         <is>
-          <t>The total number of existing units</t>
+          <t>The number of units of that bedroom count</t>
         </is>
       </c>
       <c r="H121" s="2" t="inlineStr">
@@ -4302,15 +4302,23 @@
       <c r="B122" s="2" t="n"/>
       <c r="C122" s="2" t="inlineStr">
         <is>
-          <t>Total proposed units</t>
-        </is>
-      </c>
-      <c r="D122" s="2" t="inlineStr"/>
-      <c r="E122" s="2" t="inlineStr"/>
+          <t>Residential unit summary[]</t>
+        </is>
+      </c>
+      <c r="D122" s="2" t="inlineStr">
+        <is>
+          <t>Proposed unit breakdown[]</t>
+        </is>
+      </c>
+      <c r="E122" s="2" t="inlineStr">
+        <is>
+          <t>Total units</t>
+        </is>
+      </c>
       <c r="F122" s="2" t="inlineStr"/>
       <c r="G122" s="2" t="inlineStr">
         <is>
-          <t>The total number of proposed units</t>
+          <t>Total number of units</t>
         </is>
       </c>
       <c r="H122" s="2" t="inlineStr">
@@ -4320,7 +4328,7 @@
       </c>
       <c r="I122" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4329,7 +4337,7 @@
       <c r="B123" s="2" t="n"/>
       <c r="C123" s="2" t="inlineStr">
         <is>
-          <t>Net change</t>
+          <t>Total existing units</t>
         </is>
       </c>
       <c r="D123" s="2" t="inlineStr"/>
@@ -4337,7 +4345,7 @@
       <c r="F123" s="2" t="inlineStr"/>
       <c r="G123" s="2" t="inlineStr">
         <is>
-          <t>Calculated net change in units</t>
+          <t>The total number of existing units</t>
         </is>
       </c>
       <c r="H123" s="2" t="inlineStr">
@@ -4352,19 +4360,11 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="2" t="inlineStr">
-        <is>
-          <t>Site area</t>
-        </is>
-      </c>
-      <c r="B124" s="2" t="inlineStr">
-        <is>
-          <t>How big the site is including relevant measurements</t>
-        </is>
-      </c>
+      <c r="A124" s="2" t="n"/>
+      <c r="B124" s="2" t="n"/>
       <c r="C124" s="2" t="inlineStr">
         <is>
-          <t>Site area in hectares</t>
+          <t>Total proposed units</t>
         </is>
       </c>
       <c r="D124" s="2" t="inlineStr"/>
@@ -4372,7 +4372,7 @@
       <c r="F124" s="2" t="inlineStr"/>
       <c r="G124" s="2" t="inlineStr">
         <is>
-          <t>The size of the site in hectares</t>
+          <t>The total number of proposed units</t>
         </is>
       </c>
       <c r="H124" s="2" t="inlineStr">
@@ -4391,7 +4391,7 @@
       <c r="B125" s="2" t="n"/>
       <c r="C125" s="2" t="inlineStr">
         <is>
-          <t>Site area provided by</t>
+          <t>Net change</t>
         </is>
       </c>
       <c r="D125" s="2" t="inlineStr"/>
@@ -4399,56 +4399,52 @@
       <c r="F125" s="2" t="inlineStr"/>
       <c r="G125" s="2" t="inlineStr">
         <is>
-          <t>Who provided the site area value</t>
+          <t>Calculated net change in units</t>
         </is>
       </c>
       <c r="H125" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I125" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="inlineStr">
         <is>
-          <t>Site details</t>
+          <t>Site area</t>
         </is>
       </c>
       <c r="B126" s="2" t="inlineStr">
         <is>
-          <t>Where the proposed development will be built.</t>
+          <t>How big the site is including relevant measurements</t>
         </is>
       </c>
       <c r="C126" s="2" t="inlineStr">
         <is>
-          <t>Site locations[]</t>
-        </is>
-      </c>
-      <c r="D126" s="2" t="inlineStr">
-        <is>
-          <t>Site boundary</t>
-        </is>
-      </c>
+          <t>Site area in hectares</t>
+        </is>
+      </c>
+      <c r="D126" s="2" t="inlineStr"/>
       <c r="E126" s="2" t="inlineStr"/>
       <c r="F126" s="2" t="inlineStr"/>
       <c r="G126" s="2" t="inlineStr">
         <is>
-          <t>Geometry of the site of the development, typically in GeoJSON format</t>
+          <t>The size of the site in hectares</t>
         </is>
       </c>
       <c r="H126" s="2" t="inlineStr">
         <is>
-          <t>wkt</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I126" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -4457,24 +4453,20 @@
       <c r="B127" s="2" t="n"/>
       <c r="C127" s="2" t="inlineStr">
         <is>
-          <t>Site locations[]</t>
-        </is>
-      </c>
-      <c r="D127" s="2" t="inlineStr">
-        <is>
-          <t>Address Text</t>
-        </is>
-      </c>
+          <t>Site area provided by</t>
+        </is>
+      </c>
+      <c r="D127" s="2" t="inlineStr"/>
       <c r="E127" s="2" t="inlineStr"/>
       <c r="F127" s="2" t="inlineStr"/>
       <c r="G127" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>Who provided the site area value</t>
         </is>
       </c>
       <c r="H127" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I127" s="2" t="inlineStr">
@@ -4484,8 +4476,16 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="2" t="n"/>
-      <c r="B128" s="2" t="n"/>
+      <c r="A128" s="2" t="inlineStr">
+        <is>
+          <t>Site details</t>
+        </is>
+      </c>
+      <c r="B128" s="2" t="inlineStr">
+        <is>
+          <t>Where the proposed development will be built.</t>
+        </is>
+      </c>
       <c r="C128" s="2" t="inlineStr">
         <is>
           <t>Site locations[]</t>
@@ -4493,19 +4493,19 @@
       </c>
       <c r="D128" s="2" t="inlineStr">
         <is>
-          <t>Postcode</t>
+          <t>Site boundary</t>
         </is>
       </c>
       <c r="E128" s="2" t="inlineStr"/>
       <c r="F128" s="2" t="inlineStr"/>
       <c r="G128" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Geometry of the site of the development, typically in GeoJSON format</t>
         </is>
       </c>
       <c r="H128" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>wkt</t>
         </is>
       </c>
       <c r="I128" s="2" t="inlineStr">
@@ -4524,19 +4524,19 @@
       </c>
       <c r="D129" s="2" t="inlineStr">
         <is>
-          <t>Easting</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="E129" s="2" t="inlineStr"/>
       <c r="F129" s="2" t="inlineStr"/>
       <c r="G129" s="2" t="inlineStr">
         <is>
-          <t>Easting coordinate in British National Grid (EPSG:27700)</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="H129" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I129" s="2" t="inlineStr">
@@ -4555,19 +4555,19 @@
       </c>
       <c r="D130" s="2" t="inlineStr">
         <is>
-          <t>Northing</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="E130" s="2" t="inlineStr"/>
       <c r="F130" s="2" t="inlineStr"/>
       <c r="G130" s="2" t="inlineStr">
         <is>
-          <t>Northing coordinate in British National Grid (EPSG:27700)</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="H130" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I130" s="2" t="inlineStr">
@@ -4586,14 +4586,14 @@
       </c>
       <c r="D131" s="2" t="inlineStr">
         <is>
-          <t>Latitude</t>
+          <t>Easting</t>
         </is>
       </c>
       <c r="E131" s="2" t="inlineStr"/>
       <c r="F131" s="2" t="inlineStr"/>
       <c r="G131" s="2" t="inlineStr">
         <is>
-          <t>Latitude coordinate in WGS84 (EPSG:4326)</t>
+          <t>Easting coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
       <c r="H131" s="2" t="inlineStr">
@@ -4617,14 +4617,14 @@
       </c>
       <c r="D132" s="2" t="inlineStr">
         <is>
-          <t>Longitude</t>
+          <t>Northing</t>
         </is>
       </c>
       <c r="E132" s="2" t="inlineStr"/>
       <c r="F132" s="2" t="inlineStr"/>
       <c r="G132" s="2" t="inlineStr">
         <is>
-          <t>Longitude coordinate in WGS84 (EPSG:4326)</t>
+          <t>Northing coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
       <c r="H132" s="2" t="inlineStr">
@@ -4648,19 +4648,19 @@
       </c>
       <c r="D133" s="2" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Latitude</t>
         </is>
       </c>
       <c r="E133" s="2" t="inlineStr"/>
       <c r="F133" s="2" t="inlineStr"/>
       <c r="G133" s="2" t="inlineStr">
         <is>
-          <t>A text description providing details about the subject. For parking changes, this describes how the proposed works affect existing car parking arrangements.</t>
+          <t>Latitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
       <c r="H133" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I133" s="2" t="inlineStr">
@@ -4679,19 +4679,19 @@
       </c>
       <c r="D134" s="2" t="inlineStr">
         <is>
-          <t>UPRNs[]</t>
+          <t>Longitude</t>
         </is>
       </c>
       <c r="E134" s="2" t="inlineStr"/>
       <c r="F134" s="2" t="inlineStr"/>
       <c r="G134" s="2" t="inlineStr">
         <is>
-          <t>Unique Property Reference Numbers (UPRNs) for properties within the site boundary</t>
+          <t>Longitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
       <c r="H134" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I134" s="2" t="inlineStr">
@@ -4701,37 +4701,33 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="2" t="inlineStr">
-        <is>
-          <t>Site Visit Details</t>
-        </is>
-      </c>
-      <c r="B135" s="2" t="inlineStr">
-        <is>
-          <t>Information to help the planning authority arrange a site visit</t>
-        </is>
-      </c>
+      <c r="A135" s="2" t="n"/>
+      <c r="B135" s="2" t="n"/>
       <c r="C135" s="2" t="inlineStr">
         <is>
-          <t>Site seen from public area</t>
-        </is>
-      </c>
-      <c r="D135" s="2" t="inlineStr"/>
+          <t>Site locations[]</t>
+        </is>
+      </c>
+      <c r="D135" s="2" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
       <c r="E135" s="2" t="inlineStr"/>
       <c r="F135" s="2" t="inlineStr"/>
       <c r="G135" s="2" t="inlineStr">
         <is>
-          <t>Can site be seen from a public road, public footpath, bridleway or other public land</t>
+          <t>A text description providing details about the subject. For parking changes, this describes how the proposed works affect existing car parking arrangements.</t>
         </is>
       </c>
       <c r="H135" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I135" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4740,34 +4736,46 @@
       <c r="B136" s="2" t="n"/>
       <c r="C136" s="2" t="inlineStr">
         <is>
-          <t>Site visit contact type</t>
-        </is>
-      </c>
-      <c r="D136" s="2" t="inlineStr"/>
+          <t>Site locations[]</t>
+        </is>
+      </c>
+      <c r="D136" s="2" t="inlineStr">
+        <is>
+          <t>UPRNs[]</t>
+        </is>
+      </c>
       <c r="E136" s="2" t="inlineStr"/>
       <c r="F136" s="2" t="inlineStr"/>
       <c r="G136" s="2" t="inlineStr">
         <is>
-          <t>Indicates who the authority should contact to arrange a site visit</t>
+          <t>Unique Property Reference Numbers (UPRNs) for properties within the site boundary</t>
         </is>
       </c>
       <c r="H136" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I136" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="2" t="n"/>
-      <c r="B137" s="2" t="n"/>
+      <c r="A137" s="2" t="inlineStr">
+        <is>
+          <t>Site Visit Details</t>
+        </is>
+      </c>
+      <c r="B137" s="2" t="inlineStr">
+        <is>
+          <t>Information to help the planning authority arrange a site visit</t>
+        </is>
+      </c>
       <c r="C137" s="2" t="inlineStr">
         <is>
-          <t>Contact reference</t>
+          <t>Site seen from public area</t>
         </is>
       </c>
       <c r="D137" s="2" t="inlineStr"/>
@@ -4775,17 +4783,17 @@
       <c r="F137" s="2" t="inlineStr"/>
       <c r="G137" s="2" t="inlineStr">
         <is>
-          <t>The reference of the applicant or agent who should be contacted for site visits</t>
+          <t>Can site be seen from a public road, public footpath, bridleway or other public land</t>
         </is>
       </c>
       <c r="H137" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I137" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -4794,24 +4802,20 @@
       <c r="B138" s="2" t="n"/>
       <c r="C138" s="2" t="inlineStr">
         <is>
-          <t>Other site visit contact</t>
-        </is>
-      </c>
-      <c r="D138" s="2" t="inlineStr">
-        <is>
-          <t>Full name</t>
-        </is>
-      </c>
+          <t>Site visit contact type</t>
+        </is>
+      </c>
+      <c r="D138" s="2" t="inlineStr"/>
       <c r="E138" s="2" t="inlineStr"/>
       <c r="F138" s="2" t="inlineStr"/>
       <c r="G138" s="2" t="inlineStr">
         <is>
-          <t>The complete name of a person</t>
+          <t>Indicates who the authority should contact to arrange a site visit</t>
         </is>
       </c>
       <c r="H138" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I138" s="2" t="inlineStr">
@@ -4825,19 +4829,15 @@
       <c r="B139" s="2" t="n"/>
       <c r="C139" s="2" t="inlineStr">
         <is>
-          <t>Other site visit contact</t>
-        </is>
-      </c>
-      <c r="D139" s="2" t="inlineStr">
-        <is>
-          <t>Phone number</t>
-        </is>
-      </c>
+          <t>Contact reference</t>
+        </is>
+      </c>
+      <c r="D139" s="2" t="inlineStr"/>
       <c r="E139" s="2" t="inlineStr"/>
       <c r="F139" s="2" t="inlineStr"/>
       <c r="G139" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The reference of the applicant or agent who should be contacted for site visits</t>
         </is>
       </c>
       <c r="H139" s="2" t="inlineStr">
@@ -4847,7 +4847,7 @@
       </c>
       <c r="I139" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4861,14 +4861,14 @@
       </c>
       <c r="D140" s="2" t="inlineStr">
         <is>
-          <t>Email</t>
+          <t>Full name</t>
         </is>
       </c>
       <c r="E140" s="2" t="inlineStr"/>
       <c r="F140" s="2" t="inlineStr"/>
       <c r="G140" s="2" t="inlineStr">
         <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
+          <t>The complete name of a person</t>
         </is>
       </c>
       <c r="H140" s="2" t="inlineStr">
@@ -4883,32 +4883,28 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="2" t="inlineStr">
-        <is>
-          <t>Trade effluent</t>
-        </is>
-      </c>
-      <c r="B141" s="2" t="inlineStr">
-        <is>
-          <t>Details of any liquid waste produced by industial processes on the proposed site, and how it will be diposed of.</t>
-        </is>
-      </c>
+      <c r="A141" s="2" t="n"/>
+      <c r="B141" s="2" t="n"/>
       <c r="C141" s="2" t="inlineStr">
         <is>
-          <t>Disposal required</t>
-        </is>
-      </c>
-      <c r="D141" s="2" t="inlineStr"/>
+          <t>Other site visit contact</t>
+        </is>
+      </c>
+      <c r="D141" s="2" t="inlineStr">
+        <is>
+          <t>Phone number</t>
+        </is>
+      </c>
       <c r="E141" s="2" t="inlineStr"/>
       <c r="F141" s="2" t="inlineStr"/>
       <c r="G141" s="2" t="inlineStr">
         <is>
-          <t>Does the proposal involve the disposal of trade effluents or waste (true/false)</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="H141" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I141" s="2" t="inlineStr">
@@ -4922,15 +4918,19 @@
       <c r="B142" s="2" t="n"/>
       <c r="C142" s="2" t="inlineStr">
         <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="D142" s="2" t="inlineStr"/>
+          <t>Other site visit contact</t>
+        </is>
+      </c>
+      <c r="D142" s="2" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
       <c r="E142" s="2" t="inlineStr"/>
       <c r="F142" s="2" t="inlineStr"/>
       <c r="G142" s="2" t="inlineStr">
         <is>
-          <t>describe the nature, volume and means of disposal of trade effluents or waste</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="H142" s="2" t="inlineStr">
@@ -4940,102 +4940,102 @@
       </c>
       <c r="I142" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="inlineStr">
         <is>
-          <t>Trees and hedges information</t>
+          <t>Trade effluent</t>
         </is>
       </c>
       <c r="B143" s="2" t="inlineStr">
         <is>
-          <t>Details of trees and/or hedges that will be affected by the proposed development</t>
-        </is>
-      </c>
-      <c r="C143" s="2" t="inlineStr"/>
+          <t>Details of any liquid waste produced by industial processes on the proposed site, and how it will be diposed of.</t>
+        </is>
+      </c>
+      <c r="C143" s="2" t="inlineStr">
+        <is>
+          <t>Disposal required</t>
+        </is>
+      </c>
       <c r="D143" s="2" t="inlineStr"/>
       <c r="E143" s="2" t="inlineStr"/>
       <c r="F143" s="2" t="inlineStr"/>
-      <c r="G143" s="2" t="inlineStr"/>
-      <c r="H143" s="2" t="inlineStr"/>
-      <c r="I143" s="2" t="inlineStr"/>
+      <c r="G143" s="2" t="inlineStr">
+        <is>
+          <t>Does the proposal involve the disposal of trade effluents or waste (true/false)</t>
+        </is>
+      </c>
+      <c r="H143" s="2" t="inlineStr">
+        <is>
+          <t>boolean</t>
+        </is>
+      </c>
+      <c r="I143" s="2" t="inlineStr">
+        <is>
+          <t>MUST</t>
+        </is>
+      </c>
     </row>
     <row r="144">
-      <c r="A144" s="2" t="inlineStr">
-        <is>
-          <t>Vehicle parking</t>
-        </is>
-      </c>
-      <c r="B144" s="2" t="inlineStr">
-        <is>
-          <t>Details of current parking facilities at the site and any changes that would be made by the proposed development.</t>
-        </is>
-      </c>
+      <c r="A144" s="2" t="n"/>
+      <c r="B144" s="2" t="n"/>
       <c r="C144" s="2" t="inlineStr">
         <is>
-          <t>Parking spaces[]</t>
-        </is>
-      </c>
-      <c r="D144" s="2" t="inlineStr">
-        <is>
-          <t>Parking space type</t>
-        </is>
-      </c>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="D144" s="2" t="inlineStr"/>
       <c r="E144" s="2" t="inlineStr"/>
       <c r="F144" s="2" t="inlineStr"/>
       <c r="G144" s="2" t="inlineStr">
         <is>
-          <t>Type of parking space or vehicle type</t>
+          <t>describe the nature, volume and means of disposal of trade effluents or waste</t>
         </is>
       </c>
       <c r="H144" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I144" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="2" t="n"/>
-      <c r="B145" s="2" t="n"/>
-      <c r="C145" s="2" t="inlineStr">
-        <is>
-          <t>Parking spaces[]</t>
-        </is>
-      </c>
-      <c r="D145" s="2" t="inlineStr">
-        <is>
-          <t>Vehicle type other</t>
-        </is>
-      </c>
+      <c r="A145" s="2" t="inlineStr">
+        <is>
+          <t>Trees and hedges information</t>
+        </is>
+      </c>
+      <c r="B145" s="2" t="inlineStr">
+        <is>
+          <t>Details of trees and/or hedges that will be affected by the proposed development</t>
+        </is>
+      </c>
+      <c r="C145" s="2" t="inlineStr"/>
+      <c r="D145" s="2" t="inlineStr"/>
       <c r="E145" s="2" t="inlineStr"/>
       <c r="F145" s="2" t="inlineStr"/>
-      <c r="G145" s="2" t="inlineStr">
-        <is>
-          <t>Vehicle type when parking space type is 'other'</t>
-        </is>
-      </c>
-      <c r="H145" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="I145" s="2" t="inlineStr">
-        <is>
-          <t>MAY</t>
-        </is>
-      </c>
+      <c r="G145" s="2" t="inlineStr"/>
+      <c r="H145" s="2" t="inlineStr"/>
+      <c r="I145" s="2" t="inlineStr"/>
     </row>
     <row r="146">
-      <c r="A146" s="2" t="n"/>
-      <c r="B146" s="2" t="n"/>
+      <c r="A146" s="2" t="inlineStr">
+        <is>
+          <t>Vehicle parking</t>
+        </is>
+      </c>
+      <c r="B146" s="2" t="inlineStr">
+        <is>
+          <t>Details of current parking facilities at the site and any changes that would be made by the proposed development.</t>
+        </is>
+      </c>
       <c r="C146" s="2" t="inlineStr">
         <is>
           <t>Parking spaces[]</t>
@@ -5043,19 +5043,19 @@
       </c>
       <c r="D146" s="2" t="inlineStr">
         <is>
-          <t>Total existing</t>
+          <t>Parking space type</t>
         </is>
       </c>
       <c r="E146" s="2" t="inlineStr"/>
       <c r="F146" s="2" t="inlineStr"/>
       <c r="G146" s="2" t="inlineStr">
         <is>
-          <t>Total number of existing parking spaces</t>
+          <t>Type of parking space or vehicle type</t>
         </is>
       </c>
       <c r="H146" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I146" s="2" t="inlineStr">
@@ -5074,24 +5074,24 @@
       </c>
       <c r="D147" s="2" t="inlineStr">
         <is>
-          <t>Total proposed</t>
+          <t>Vehicle type other</t>
         </is>
       </c>
       <c r="E147" s="2" t="inlineStr"/>
       <c r="F147" s="2" t="inlineStr"/>
       <c r="G147" s="2" t="inlineStr">
         <is>
-          <t>Total number of proposed parking spaces</t>
+          <t>Vehicle type when parking space type is 'other'</t>
         </is>
       </c>
       <c r="H147" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I147" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -5105,14 +5105,14 @@
       </c>
       <c r="D148" s="2" t="inlineStr">
         <is>
-          <t>Difference in spaces</t>
+          <t>Total existing</t>
         </is>
       </c>
       <c r="E148" s="2" t="inlineStr"/>
       <c r="F148" s="2" t="inlineStr"/>
       <c r="G148" s="2" t="inlineStr">
         <is>
-          <t>Net change in parking spaces (proposed minus existing)</t>
+          <t>Total number of existing parking spaces</t>
         </is>
       </c>
       <c r="H148" s="2" t="inlineStr">
@@ -5127,37 +5127,33 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="2" t="inlineStr">
-        <is>
-          <t>Waste storage and collection</t>
-        </is>
-      </c>
-      <c r="B149" s="2" t="inlineStr">
-        <is>
-          <t>Any waste storage or recycling arrangements are in place, such as waste storage areas</t>
-        </is>
-      </c>
+      <c r="A149" s="2" t="n"/>
+      <c r="B149" s="2" t="n"/>
       <c r="C149" s="2" t="inlineStr">
         <is>
-          <t>Waste storage area details</t>
-        </is>
-      </c>
-      <c r="D149" s="2" t="inlineStr"/>
+          <t>Parking spaces[]</t>
+        </is>
+      </c>
+      <c r="D149" s="2" t="inlineStr">
+        <is>
+          <t>Total proposed</t>
+        </is>
+      </c>
       <c r="E149" s="2" t="inlineStr"/>
       <c r="F149" s="2" t="inlineStr"/>
       <c r="G149" s="2" t="inlineStr">
         <is>
-          <t>Details of the waste storage area including location, size, design and access arrangements</t>
+          <t>Total number of proposed parking spaces</t>
         </is>
       </c>
       <c r="H149" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I149" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -5166,23 +5162,89 @@
       <c r="B150" s="2" t="n"/>
       <c r="C150" s="2" t="inlineStr">
         <is>
-          <t>Separate recycling arrangements details</t>
-        </is>
-      </c>
-      <c r="D150" s="2" t="inlineStr"/>
+          <t>Parking spaces[]</t>
+        </is>
+      </c>
+      <c r="D150" s="2" t="inlineStr">
+        <is>
+          <t>Difference in spaces</t>
+        </is>
+      </c>
       <c r="E150" s="2" t="inlineStr"/>
       <c r="F150" s="2" t="inlineStr"/>
       <c r="G150" s="2" t="inlineStr">
         <is>
+          <t>Net change in parking spaces (proposed minus existing)</t>
+        </is>
+      </c>
+      <c r="H150" s="2" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="I150" s="2" t="inlineStr">
+        <is>
+          <t>MUST</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="inlineStr">
+        <is>
+          <t>Waste storage and collection</t>
+        </is>
+      </c>
+      <c r="B151" s="2" t="inlineStr">
+        <is>
+          <t>Any waste storage or recycling arrangements are in place, such as waste storage areas</t>
+        </is>
+      </c>
+      <c r="C151" s="2" t="inlineStr">
+        <is>
+          <t>Waste storage area details</t>
+        </is>
+      </c>
+      <c r="D151" s="2" t="inlineStr"/>
+      <c r="E151" s="2" t="inlineStr"/>
+      <c r="F151" s="2" t="inlineStr"/>
+      <c r="G151" s="2" t="inlineStr">
+        <is>
+          <t>Details of the waste storage area including location, size, design and access arrangements</t>
+        </is>
+      </c>
+      <c r="H151" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I151" s="2" t="inlineStr">
+        <is>
+          <t>MAY</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n"/>
+      <c r="B152" s="2" t="n"/>
+      <c r="C152" s="2" t="inlineStr">
+        <is>
+          <t>Separate recycling arrangements details</t>
+        </is>
+      </c>
+      <c r="D152" s="2" t="inlineStr"/>
+      <c r="E152" s="2" t="inlineStr"/>
+      <c r="F152" s="2" t="inlineStr"/>
+      <c r="G152" s="2" t="inlineStr">
+        <is>
           <t>Details of the recycling arrangements including types of materials, collection methods and storage facilities</t>
         </is>
       </c>
-      <c r="H150" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="I150" s="2" t="inlineStr">
+      <c r="H152" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I152" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -5191,67 +5253,67 @@
   </sheetData>
   <mergeCells count="62">
     <mergeCell ref="B49"/>
-    <mergeCell ref="B149:B150"/>
-    <mergeCell ref="B135:B140"/>
-    <mergeCell ref="B143"/>
+    <mergeCell ref="A97:A108"/>
     <mergeCell ref="A39:A44"/>
     <mergeCell ref="A91"/>
+    <mergeCell ref="A109"/>
     <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A149:A150"/>
     <mergeCell ref="A81"/>
     <mergeCell ref="A2:A19"/>
     <mergeCell ref="B77:B80"/>
-    <mergeCell ref="A124:A125"/>
+    <mergeCell ref="B146:B150"/>
     <mergeCell ref="B71:B76"/>
     <mergeCell ref="B45:B47"/>
     <mergeCell ref="B50"/>
     <mergeCell ref="B92:B96"/>
-    <mergeCell ref="B97:B106"/>
+    <mergeCell ref="B128:B136"/>
     <mergeCell ref="B23:B26"/>
-    <mergeCell ref="A126:A134"/>
+    <mergeCell ref="A137:A142"/>
     <mergeCell ref="A48"/>
     <mergeCell ref="B51:B53"/>
     <mergeCell ref="B20:B22"/>
-    <mergeCell ref="B108:B123"/>
+    <mergeCell ref="B151:B152"/>
     <mergeCell ref="A61:A70"/>
     <mergeCell ref="B39:B44"/>
     <mergeCell ref="B91"/>
-    <mergeCell ref="A143"/>
+    <mergeCell ref="B109"/>
+    <mergeCell ref="A126:A127"/>
     <mergeCell ref="A49"/>
     <mergeCell ref="B81"/>
     <mergeCell ref="A82"/>
-    <mergeCell ref="A107"/>
     <mergeCell ref="B90"/>
+    <mergeCell ref="B143:B144"/>
+    <mergeCell ref="B97:B108"/>
+    <mergeCell ref="B110:B125"/>
     <mergeCell ref="B54:B60"/>
     <mergeCell ref="B27:B34"/>
+    <mergeCell ref="A151:A152"/>
     <mergeCell ref="B83:B89"/>
     <mergeCell ref="A71:A76"/>
     <mergeCell ref="A45:A47"/>
-    <mergeCell ref="A141:A142"/>
     <mergeCell ref="A92:A96"/>
     <mergeCell ref="A23:A26"/>
     <mergeCell ref="B61:B70"/>
-    <mergeCell ref="B144:B148"/>
     <mergeCell ref="A51:A53"/>
     <mergeCell ref="B48"/>
-    <mergeCell ref="B126:B134"/>
+    <mergeCell ref="A110:A125"/>
     <mergeCell ref="A83:A89"/>
-    <mergeCell ref="A135:A140"/>
-    <mergeCell ref="B124:B125"/>
-    <mergeCell ref="B107"/>
+    <mergeCell ref="B137:B142"/>
     <mergeCell ref="A90"/>
+    <mergeCell ref="A143:A144"/>
+    <mergeCell ref="B145"/>
     <mergeCell ref="A54:A60"/>
     <mergeCell ref="A27:A34"/>
     <mergeCell ref="A50"/>
-    <mergeCell ref="B141:B142"/>
+    <mergeCell ref="B126:B127"/>
+    <mergeCell ref="A145"/>
     <mergeCell ref="B82"/>
     <mergeCell ref="A77:A80"/>
     <mergeCell ref="B2:B19"/>
-    <mergeCell ref="A108:A123"/>
+    <mergeCell ref="A146:A150"/>
     <mergeCell ref="A35:A38"/>
-    <mergeCell ref="A144:A148"/>
     <mergeCell ref="B35:B38"/>
-    <mergeCell ref="A97:A106"/>
+    <mergeCell ref="A128:A136"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/generated/spreadsheet/technical-details-consent-technical-details-consent.xlsx
+++ b/generated/spreadsheet/technical-details-consent-technical-details-consent.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I152"/>
+  <dimension ref="A1:I151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2424,43 +2424,47 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="2" t="n"/>
-      <c r="B60" s="2" t="n"/>
+      <c r="A60" s="2" t="inlineStr">
+        <is>
+          <t>Existing use</t>
+        </is>
+      </c>
+      <c r="B60" s="2" t="inlineStr">
+        <is>
+          <t>How the site is currently being used.</t>
+        </is>
+      </c>
       <c r="C60" s="2" t="inlineStr">
         <is>
-          <t>Employment impact</t>
-        </is>
-      </c>
-      <c r="D60" s="2" t="inlineStr"/>
+          <t>Existing use details[]</t>
+        </is>
+      </c>
+      <c r="D60" s="2" t="inlineStr">
+        <is>
+          <t>Use</t>
+        </is>
+      </c>
       <c r="E60" s="2" t="inlineStr"/>
       <c r="F60" s="2" t="inlineStr"/>
       <c r="G60" s="2" t="inlineStr">
         <is>
-          <t>Summary of net employment change (gain/loss)</t>
+          <t>A use class or type of use</t>
         </is>
       </c>
       <c r="H60" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I60" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="2" t="inlineStr">
-        <is>
-          <t>Existing use</t>
-        </is>
-      </c>
-      <c r="B61" s="2" t="inlineStr">
-        <is>
-          <t>How the site is currently being used.</t>
-        </is>
-      </c>
+      <c r="A61" s="2" t="n"/>
+      <c r="B61" s="2" t="n"/>
       <c r="C61" s="2" t="inlineStr">
         <is>
           <t>Existing use details[]</t>
@@ -2468,24 +2472,24 @@
       </c>
       <c r="D61" s="2" t="inlineStr">
         <is>
-          <t>Use</t>
+          <t>Use details</t>
         </is>
       </c>
       <c r="E61" s="2" t="inlineStr"/>
       <c r="F61" s="2" t="inlineStr"/>
       <c r="G61" s="2" t="inlineStr">
         <is>
-          <t>A use class or type of use</t>
+          <t>Further detail of the use</t>
         </is>
       </c>
       <c r="H61" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I61" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2499,14 +2503,14 @@
       </c>
       <c r="D62" s="2" t="inlineStr">
         <is>
-          <t>Use details</t>
+          <t>Land part</t>
         </is>
       </c>
       <c r="E62" s="2" t="inlineStr"/>
       <c r="F62" s="2" t="inlineStr"/>
       <c r="G62" s="2" t="inlineStr">
         <is>
-          <t>Further detail of the use</t>
+          <t>Which part of the land the use relates to</t>
         </is>
       </c>
       <c r="H62" s="2" t="inlineStr">
@@ -2516,7 +2520,7 @@
       </c>
       <c r="I62" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -2525,24 +2529,20 @@
       <c r="B63" s="2" t="n"/>
       <c r="C63" s="2" t="inlineStr">
         <is>
-          <t>Existing use details[]</t>
-        </is>
-      </c>
-      <c r="D63" s="2" t="inlineStr">
-        <is>
-          <t>Land part</t>
-        </is>
-      </c>
+          <t>Site vacant</t>
+        </is>
+      </c>
+      <c r="D63" s="2" t="inlineStr"/>
       <c r="E63" s="2" t="inlineStr"/>
       <c r="F63" s="2" t="inlineStr"/>
       <c r="G63" s="2" t="inlineStr">
         <is>
-          <t>Which part of the land the use relates to</t>
+          <t>Is the site currently vacant</t>
         </is>
       </c>
       <c r="H63" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I63" s="2" t="inlineStr">
@@ -2556,7 +2556,7 @@
       <c r="B64" s="2" t="n"/>
       <c r="C64" s="2" t="inlineStr">
         <is>
-          <t>Site vacant</t>
+          <t>Last use details</t>
         </is>
       </c>
       <c r="D64" s="2" t="inlineStr"/>
@@ -2564,17 +2564,17 @@
       <c r="F64" s="2" t="inlineStr"/>
       <c r="G64" s="2" t="inlineStr">
         <is>
-          <t>Is the site currently vacant</t>
+          <t>Description of the last use of the site</t>
         </is>
       </c>
       <c r="H64" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I64" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2583,7 +2583,7 @@
       <c r="B65" s="2" t="n"/>
       <c r="C65" s="2" t="inlineStr">
         <is>
-          <t>Last use details</t>
+          <t>Last use end date</t>
         </is>
       </c>
       <c r="D65" s="2" t="inlineStr"/>
@@ -2591,12 +2591,12 @@
       <c r="F65" s="2" t="inlineStr"/>
       <c r="G65" s="2" t="inlineStr">
         <is>
-          <t>Description of the last use of the site</t>
+          <t>Date the last use ended (YYYY-MM-DD format)</t>
         </is>
       </c>
       <c r="H65" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="I65" s="2" t="inlineStr">
@@ -2610,7 +2610,7 @@
       <c r="B66" s="2" t="n"/>
       <c r="C66" s="2" t="inlineStr">
         <is>
-          <t>Last use end date</t>
+          <t>Is contaminated land</t>
         </is>
       </c>
       <c r="D66" s="2" t="inlineStr"/>
@@ -2618,17 +2618,17 @@
       <c r="F66" s="2" t="inlineStr"/>
       <c r="G66" s="2" t="inlineStr">
         <is>
-          <t>Date the last use ended (YYYY-MM-DD format)</t>
+          <t>Is the site known to be contaminated?</t>
         </is>
       </c>
       <c r="H66" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I66" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -2637,7 +2637,7 @@
       <c r="B67" s="2" t="n"/>
       <c r="C67" s="2" t="inlineStr">
         <is>
-          <t>Is contaminated land</t>
+          <t>Is suspected contaminated land</t>
         </is>
       </c>
       <c r="D67" s="2" t="inlineStr"/>
@@ -2645,7 +2645,7 @@
       <c r="F67" s="2" t="inlineStr"/>
       <c r="G67" s="2" t="inlineStr">
         <is>
-          <t>Is the site known to be contaminated?</t>
+          <t>Is the site suspected of contamination?</t>
         </is>
       </c>
       <c r="H67" s="2" t="inlineStr">
@@ -2664,7 +2664,7 @@
       <c r="B68" s="2" t="n"/>
       <c r="C68" s="2" t="inlineStr">
         <is>
-          <t>Is suspected contaminated land</t>
+          <t>Proposed use contamination risk</t>
         </is>
       </c>
       <c r="D68" s="2" t="inlineStr"/>
@@ -2672,7 +2672,7 @@
       <c r="F68" s="2" t="inlineStr"/>
       <c r="G68" s="2" t="inlineStr">
         <is>
-          <t>Is the site suspected of contamination?</t>
+          <t>Is the proposed use vulnerable to the presence of contamination?</t>
         </is>
       </c>
       <c r="H68" s="2" t="inlineStr">
@@ -2691,7 +2691,7 @@
       <c r="B69" s="2" t="n"/>
       <c r="C69" s="2" t="inlineStr">
         <is>
-          <t>Proposed use contamination risk</t>
+          <t>Contamination assessment</t>
         </is>
       </c>
       <c r="D69" s="2" t="inlineStr"/>
@@ -2699,26 +2699,34 @@
       <c r="F69" s="2" t="inlineStr"/>
       <c r="G69" s="2" t="inlineStr">
         <is>
-          <t>Is the proposed use vulnerable to the presence of contamination?</t>
+          <t>Reference to contamination assessment document</t>
         </is>
       </c>
       <c r="H69" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I69" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="2" t="n"/>
-      <c r="B70" s="2" t="n"/>
+      <c r="A70" s="2" t="inlineStr">
+        <is>
+          <t>Flood risk assessment</t>
+        </is>
+      </c>
+      <c r="B70" s="2" t="inlineStr">
+        <is>
+          <t>Results of any flood risk assessments made for the development site</t>
+        </is>
+      </c>
       <c r="C70" s="2" t="inlineStr">
         <is>
-          <t>Contamination assessment</t>
+          <t>Flood risk area</t>
         </is>
       </c>
       <c r="D70" s="2" t="inlineStr"/>
@@ -2726,34 +2734,26 @@
       <c r="F70" s="2" t="inlineStr"/>
       <c r="G70" s="2" t="inlineStr">
         <is>
-          <t>Reference to contamination assessment document</t>
+          <t>Is the site within an area at risk of flooding?</t>
         </is>
       </c>
       <c r="H70" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I70" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="2" t="inlineStr">
-        <is>
-          <t>Flood risk assessment</t>
-        </is>
-      </c>
-      <c r="B71" s="2" t="inlineStr">
-        <is>
-          <t>Results of any flood risk assessments made for the development site</t>
-        </is>
-      </c>
+      <c r="A71" s="2" t="n"/>
+      <c r="B71" s="2" t="n"/>
       <c r="C71" s="2" t="inlineStr">
         <is>
-          <t>Flood risk area</t>
+          <t>Data provided by</t>
         </is>
       </c>
       <c r="D71" s="2" t="inlineStr"/>
@@ -2761,17 +2761,17 @@
       <c r="F71" s="2" t="inlineStr"/>
       <c r="G71" s="2" t="inlineStr">
         <is>
-          <t>Is the site within an area at risk of flooding?</t>
+          <t>Who provided the data: Applicant or System/Service?</t>
         </is>
       </c>
       <c r="H71" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I71" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2780,7 +2780,7 @@
       <c r="B72" s="2" t="n"/>
       <c r="C72" s="2" t="inlineStr">
         <is>
-          <t>Data provided by</t>
+          <t>Flood risk assessment</t>
         </is>
       </c>
       <c r="D72" s="2" t="inlineStr"/>
@@ -2788,12 +2788,12 @@
       <c r="F72" s="2" t="inlineStr"/>
       <c r="G72" s="2" t="inlineStr">
         <is>
-          <t>Who provided the data: Applicant or System/Service?</t>
+          <t>Reference of the flood risk assessment document</t>
         </is>
       </c>
       <c r="H72" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I72" s="2" t="inlineStr">
@@ -2807,7 +2807,7 @@
       <c r="B73" s="2" t="n"/>
       <c r="C73" s="2" t="inlineStr">
         <is>
-          <t>Flood risk assessment</t>
+          <t>Within 20m watercourse</t>
         </is>
       </c>
       <c r="D73" s="2" t="inlineStr"/>
@@ -2815,17 +2815,17 @@
       <c r="F73" s="2" t="inlineStr"/>
       <c r="G73" s="2" t="inlineStr">
         <is>
-          <t>Reference of the flood risk assessment document</t>
+          <t>Whether the development is within 20 metres of a watercourse</t>
         </is>
       </c>
       <c r="H73" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I73" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -2834,7 +2834,7 @@
       <c r="B74" s="2" t="n"/>
       <c r="C74" s="2" t="inlineStr">
         <is>
-          <t>Within 20m watercourse</t>
+          <t>Increases flood risk</t>
         </is>
       </c>
       <c r="D74" s="2" t="inlineStr"/>
@@ -2842,7 +2842,7 @@
       <c r="F74" s="2" t="inlineStr"/>
       <c r="G74" s="2" t="inlineStr">
         <is>
-          <t>Whether the development is within 20 metres of a watercourse</t>
+          <t>Whether the development increases flood risk</t>
         </is>
       </c>
       <c r="H74" s="2" t="inlineStr">
@@ -2861,7 +2861,7 @@
       <c r="B75" s="2" t="n"/>
       <c r="C75" s="2" t="inlineStr">
         <is>
-          <t>Increases flood risk</t>
+          <t>Surface water disposal[]</t>
         </is>
       </c>
       <c r="D75" s="2" t="inlineStr"/>
@@ -2869,12 +2869,12 @@
       <c r="F75" s="2" t="inlineStr"/>
       <c r="G75" s="2" t="inlineStr">
         <is>
-          <t>Whether the development increases flood risk</t>
+          <t>Method for disposing of surface water</t>
         </is>
       </c>
       <c r="H75" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I75" s="2" t="inlineStr">
@@ -2884,11 +2884,19 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="2" t="n"/>
-      <c r="B76" s="2" t="n"/>
+      <c r="A76" s="2" t="inlineStr">
+        <is>
+          <t>Foul sewage disposal</t>
+        </is>
+      </c>
+      <c r="B76" s="2" t="inlineStr">
+        <is>
+          <t>How waste water will leave the property as part of the proposed development</t>
+        </is>
+      </c>
       <c r="C76" s="2" t="inlineStr">
         <is>
-          <t>Surface water disposal[]</t>
+          <t>Has new disposal arrangements</t>
         </is>
       </c>
       <c r="D76" s="2" t="inlineStr"/>
@@ -2896,12 +2904,12 @@
       <c r="F76" s="2" t="inlineStr"/>
       <c r="G76" s="2" t="inlineStr">
         <is>
-          <t>Method for disposing of surface water</t>
+          <t>Does the proposal include any new foul sewage disposal arrangments</t>
         </is>
       </c>
       <c r="H76" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I76" s="2" t="inlineStr">
@@ -2911,19 +2919,11 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="2" t="inlineStr">
-        <is>
-          <t>Foul sewage disposal</t>
-        </is>
-      </c>
-      <c r="B77" s="2" t="inlineStr">
-        <is>
-          <t>How waste water will leave the property as part of the proposed development</t>
-        </is>
-      </c>
+      <c r="A77" s="2" t="n"/>
+      <c r="B77" s="2" t="n"/>
       <c r="C77" s="2" t="inlineStr">
         <is>
-          <t>Has new disposal arrangements</t>
+          <t>Foul sewage disposal types[]</t>
         </is>
       </c>
       <c r="D77" s="2" t="inlineStr"/>
@@ -2931,17 +2931,17 @@
       <c r="F77" s="2" t="inlineStr"/>
       <c r="G77" s="2" t="inlineStr">
         <is>
-          <t>Does the proposal include any new foul sewage disposal arrangments</t>
+          <t>List of ways foul sewage will be disposed of</t>
         </is>
       </c>
       <c r="H77" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I77" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2950,7 +2950,7 @@
       <c r="B78" s="2" t="n"/>
       <c r="C78" s="2" t="inlineStr">
         <is>
-          <t>Foul sewage disposal types[]</t>
+          <t>Connect to drainage system</t>
         </is>
       </c>
       <c r="D78" s="2" t="inlineStr"/>
@@ -2958,17 +2958,17 @@
       <c r="F78" s="2" t="inlineStr"/>
       <c r="G78" s="2" t="inlineStr">
         <is>
-          <t>List of ways foul sewage will be disposed of</t>
+          <t>Whether the proposal needs to connect to the existing drainage system</t>
         </is>
       </c>
       <c r="H78" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I78" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -2977,20 +2977,24 @@
       <c r="B79" s="2" t="n"/>
       <c r="C79" s="2" t="inlineStr">
         <is>
-          <t>Connect to drainage system</t>
-        </is>
-      </c>
-      <c r="D79" s="2" t="inlineStr"/>
+          <t>Supporting documents[]</t>
+        </is>
+      </c>
+      <c r="D79" s="2" t="inlineStr">
+        <is>
+          <t>Reference</t>
+        </is>
+      </c>
       <c r="E79" s="2" t="inlineStr"/>
       <c r="F79" s="2" t="inlineStr"/>
       <c r="G79" s="2" t="inlineStr">
         <is>
-          <t>Whether the proposal needs to connect to the existing drainage system</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="H79" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I79" s="2" t="inlineStr">
@@ -3000,45 +3004,33 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="2" t="n"/>
-      <c r="B80" s="2" t="n"/>
-      <c r="C80" s="2" t="inlineStr">
-        <is>
-          <t>Supporting documents[]</t>
-        </is>
-      </c>
-      <c r="D80" s="2" t="inlineStr">
-        <is>
-          <t>Reference</t>
-        </is>
-      </c>
+      <c r="A80" s="2" t="inlineStr">
+        <is>
+          <t>Hazardous substances</t>
+        </is>
+      </c>
+      <c r="B80" s="2" t="inlineStr">
+        <is>
+          <t>Details of hazardous substances requiring consent used as part of the development</t>
+        </is>
+      </c>
+      <c r="C80" s="2" t="inlineStr"/>
+      <c r="D80" s="2" t="inlineStr"/>
       <c r="E80" s="2" t="inlineStr"/>
       <c r="F80" s="2" t="inlineStr"/>
-      <c r="G80" s="2" t="inlineStr">
-        <is>
-          <t>A unique reference for the data item</t>
-        </is>
-      </c>
-      <c r="H80" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="I80" s="2" t="inlineStr">
-        <is>
-          <t>MUST</t>
-        </is>
-      </c>
+      <c r="G80" s="2" t="inlineStr"/>
+      <c r="H80" s="2" t="inlineStr"/>
+      <c r="I80" s="2" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="2" t="inlineStr">
         <is>
-          <t>Hazardous substances</t>
+          <t>Hours of operation</t>
         </is>
       </c>
       <c r="B81" s="2" t="inlineStr">
         <is>
-          <t>Details of hazardous substances requiring consent used as part of the development</t>
+          <t>Proposed operating hours if the proposed development is intended for non-residential use.</t>
         </is>
       </c>
       <c r="C81" s="2" t="inlineStr"/>
@@ -3052,33 +3044,45 @@
     <row r="82">
       <c r="A82" s="2" t="inlineStr">
         <is>
-          <t>Hours of operation</t>
+          <t>Materials</t>
         </is>
       </c>
       <c r="B82" s="2" t="inlineStr">
         <is>
-          <t>Proposed operating hours if the proposed development is intended for non-residential use.</t>
-        </is>
-      </c>
-      <c r="C82" s="2" t="inlineStr"/>
-      <c r="D82" s="2" t="inlineStr"/>
+          <t>What materials are being used for the proposed development</t>
+        </is>
+      </c>
+      <c r="C82" s="2" t="inlineStr">
+        <is>
+          <t>Building elements[]</t>
+        </is>
+      </c>
+      <c r="D82" s="2" t="inlineStr">
+        <is>
+          <t>Building element type</t>
+        </is>
+      </c>
       <c r="E82" s="2" t="inlineStr"/>
       <c r="F82" s="2" t="inlineStr"/>
-      <c r="G82" s="2" t="inlineStr"/>
-      <c r="H82" s="2" t="inlineStr"/>
-      <c r="I82" s="2" t="inlineStr"/>
+      <c r="G82" s="2" t="inlineStr">
+        <is>
+          <t>The part of building the materials relate to, such as walls, roofs, windows, or doors</t>
+        </is>
+      </c>
+      <c r="H82" s="2" t="inlineStr">
+        <is>
+          <t>enum</t>
+        </is>
+      </c>
+      <c r="I82" s="2" t="inlineStr">
+        <is>
+          <t>MUST</t>
+        </is>
+      </c>
     </row>
     <row r="83">
-      <c r="A83" s="2" t="inlineStr">
-        <is>
-          <t>Materials</t>
-        </is>
-      </c>
-      <c r="B83" s="2" t="inlineStr">
-        <is>
-          <t>What materials are being used for the proposed development</t>
-        </is>
-      </c>
+      <c r="A83" s="2" t="n"/>
+      <c r="B83" s="2" t="n"/>
       <c r="C83" s="2" t="inlineStr">
         <is>
           <t>Building elements[]</t>
@@ -3086,24 +3090,24 @@
       </c>
       <c r="D83" s="2" t="inlineStr">
         <is>
-          <t>Building element type</t>
+          <t>Existing materials</t>
         </is>
       </c>
       <c r="E83" s="2" t="inlineStr"/>
       <c r="F83" s="2" t="inlineStr"/>
       <c r="G83" s="2" t="inlineStr">
         <is>
-          <t>The part of building the materials relate to, such as walls, roofs, windows, or doors</t>
+          <t>Description of the materials currently used for this building element</t>
         </is>
       </c>
       <c r="H83" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I83" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3117,14 +3121,14 @@
       </c>
       <c r="D84" s="2" t="inlineStr">
         <is>
-          <t>Existing materials</t>
+          <t>Proposed materials</t>
         </is>
       </c>
       <c r="E84" s="2" t="inlineStr"/>
       <c r="F84" s="2" t="inlineStr"/>
       <c r="G84" s="2" t="inlineStr">
         <is>
-          <t>Description of the materials currently used for this building element</t>
+          <t>Description of the materials proposed for this building element as part of the development</t>
         </is>
       </c>
       <c r="H84" s="2" t="inlineStr">
@@ -3148,19 +3152,19 @@
       </c>
       <c r="D85" s="2" t="inlineStr">
         <is>
-          <t>Proposed materials</t>
+          <t>Materials not applicable</t>
         </is>
       </c>
       <c r="E85" s="2" t="inlineStr"/>
       <c r="F85" s="2" t="inlineStr"/>
       <c r="G85" s="2" t="inlineStr">
         <is>
-          <t>Description of the materials proposed for this building element as part of the development</t>
+          <t>Indicates this building element is not relevant to the application</t>
         </is>
       </c>
       <c r="H85" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I85" s="2" t="inlineStr">
@@ -3179,14 +3183,14 @@
       </c>
       <c r="D86" s="2" t="inlineStr">
         <is>
-          <t>Materials not applicable</t>
+          <t>Materials not known</t>
         </is>
       </c>
       <c r="E86" s="2" t="inlineStr"/>
       <c r="F86" s="2" t="inlineStr"/>
       <c r="G86" s="2" t="inlineStr">
         <is>
-          <t>Indicates this building element is not relevant to the application</t>
+          <t>Indicates the materials for this building element are not yet known</t>
         </is>
       </c>
       <c r="H86" s="2" t="inlineStr">
@@ -3205,19 +3209,15 @@
       <c r="B87" s="2" t="n"/>
       <c r="C87" s="2" t="inlineStr">
         <is>
-          <t>Building elements[]</t>
-        </is>
-      </c>
-      <c r="D87" s="2" t="inlineStr">
-        <is>
-          <t>Materials not known</t>
-        </is>
-      </c>
+          <t>Providing additional material information</t>
+        </is>
+      </c>
+      <c r="D87" s="2" t="inlineStr"/>
       <c r="E87" s="2" t="inlineStr"/>
       <c r="F87" s="2" t="inlineStr"/>
       <c r="G87" s="2" t="inlineStr">
         <is>
-          <t>Indicates the materials for this building element are not yet known</t>
+          <t>Is the applicant providing additional materials information on submitted plan(s)/drawing(s)/design and access statement?</t>
         </is>
       </c>
       <c r="H87" s="2" t="inlineStr">
@@ -3227,7 +3227,7 @@
       </c>
       <c r="I87" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -3236,20 +3236,24 @@
       <c r="B88" s="2" t="n"/>
       <c r="C88" s="2" t="inlineStr">
         <is>
-          <t>Providing additional material information</t>
-        </is>
-      </c>
-      <c r="D88" s="2" t="inlineStr"/>
+          <t>Supporting documents[]</t>
+        </is>
+      </c>
+      <c r="D88" s="2" t="inlineStr">
+        <is>
+          <t>Reference</t>
+        </is>
+      </c>
       <c r="E88" s="2" t="inlineStr"/>
       <c r="F88" s="2" t="inlineStr"/>
       <c r="G88" s="2" t="inlineStr">
         <is>
-          <t>Is the applicant providing additional materials information on submitted plan(s)/drawing(s)/design and access statement?</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="H88" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I88" s="2" t="inlineStr">
@@ -3259,45 +3263,33 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="2" t="n"/>
-      <c r="B89" s="2" t="n"/>
-      <c r="C89" s="2" t="inlineStr">
-        <is>
-          <t>Supporting documents[]</t>
-        </is>
-      </c>
-      <c r="D89" s="2" t="inlineStr">
-        <is>
-          <t>Reference</t>
-        </is>
-      </c>
+      <c r="A89" s="2" t="inlineStr">
+        <is>
+          <t>Non residential floorspace</t>
+        </is>
+      </c>
+      <c r="B89" s="2" t="inlineStr">
+        <is>
+          <t>Details of changes to non-residential floorspace in the proposed development.</t>
+        </is>
+      </c>
+      <c r="C89" s="2" t="inlineStr"/>
+      <c r="D89" s="2" t="inlineStr"/>
       <c r="E89" s="2" t="inlineStr"/>
       <c r="F89" s="2" t="inlineStr"/>
-      <c r="G89" s="2" t="inlineStr">
-        <is>
-          <t>A unique reference for the data item</t>
-        </is>
-      </c>
-      <c r="H89" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="I89" s="2" t="inlineStr">
-        <is>
-          <t>MUST</t>
-        </is>
-      </c>
+      <c r="G89" s="2" t="inlineStr"/>
+      <c r="H89" s="2" t="inlineStr"/>
+      <c r="I89" s="2" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="2" t="inlineStr">
         <is>
-          <t>Non residential floorspace</t>
+          <t>Ownership certificates and agricultural land declaration</t>
         </is>
       </c>
       <c r="B90" s="2" t="inlineStr">
         <is>
-          <t>Details of changes to non-residential floorspace in the proposed development.</t>
+          <t>Who will be affected by the proposal and whether they have been notified, such as agricultural tenants</t>
         </is>
       </c>
       <c r="C90" s="2" t="inlineStr"/>
@@ -3311,36 +3303,44 @@
     <row r="91">
       <c r="A91" s="2" t="inlineStr">
         <is>
-          <t>Ownership certificates and agricultural land declaration</t>
+          <t>Pre-application advice</t>
         </is>
       </c>
       <c r="B91" s="2" t="inlineStr">
         <is>
-          <t>Who will be affected by the proposal and whether they have been notified, such as agricultural tenants</t>
-        </is>
-      </c>
-      <c r="C91" s="2" t="inlineStr"/>
+          <t>Details of pre-application advice previously received from the planning authority</t>
+        </is>
+      </c>
+      <c r="C91" s="2" t="inlineStr">
+        <is>
+          <t>Pre-application advice sought</t>
+        </is>
+      </c>
       <c r="D91" s="2" t="inlineStr"/>
       <c r="E91" s="2" t="inlineStr"/>
       <c r="F91" s="2" t="inlineStr"/>
-      <c r="G91" s="2" t="inlineStr"/>
-      <c r="H91" s="2" t="inlineStr"/>
-      <c r="I91" s="2" t="inlineStr"/>
+      <c r="G91" s="2" t="inlineStr">
+        <is>
+          <t>Whether pre-application advice has been sought from the planning authority</t>
+        </is>
+      </c>
+      <c r="H91" s="2" t="inlineStr">
+        <is>
+          <t>boolean</t>
+        </is>
+      </c>
+      <c r="I91" s="2" t="inlineStr">
+        <is>
+          <t>MUST</t>
+        </is>
+      </c>
     </row>
     <row r="92">
-      <c r="A92" s="2" t="inlineStr">
-        <is>
-          <t>Pre-application advice</t>
-        </is>
-      </c>
-      <c r="B92" s="2" t="inlineStr">
-        <is>
-          <t>Details of pre-application advice previously received from the planning authority</t>
-        </is>
-      </c>
+      <c r="A92" s="2" t="n"/>
+      <c r="B92" s="2" t="n"/>
       <c r="C92" s="2" t="inlineStr">
         <is>
-          <t>Pre-application advice sought</t>
+          <t>Officer name</t>
         </is>
       </c>
       <c r="D92" s="2" t="inlineStr"/>
@@ -3348,17 +3348,17 @@
       <c r="F92" s="2" t="inlineStr"/>
       <c r="G92" s="2" t="inlineStr">
         <is>
-          <t>Whether pre-application advice has been sought from the planning authority</t>
+          <t>Name of the planning officer who provided the pre-application advice</t>
         </is>
       </c>
       <c r="H92" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I92" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3367,7 +3367,7 @@
       <c r="B93" s="2" t="n"/>
       <c r="C93" s="2" t="inlineStr">
         <is>
-          <t>Officer name</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="D93" s="2" t="inlineStr"/>
@@ -3375,7 +3375,7 @@
       <c r="F93" s="2" t="inlineStr"/>
       <c r="G93" s="2" t="inlineStr">
         <is>
-          <t>Name of the planning officer who provided the pre-application advice</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="H93" s="2" t="inlineStr">
@@ -3394,7 +3394,7 @@
       <c r="B94" s="2" t="n"/>
       <c r="C94" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>Advice date</t>
         </is>
       </c>
       <c r="D94" s="2" t="inlineStr"/>
@@ -3402,7 +3402,7 @@
       <c r="F94" s="2" t="inlineStr"/>
       <c r="G94" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>Date when pre-application advice was received, in YYYY-MM-DD format</t>
         </is>
       </c>
       <c r="H94" s="2" t="inlineStr">
@@ -3421,7 +3421,7 @@
       <c r="B95" s="2" t="n"/>
       <c r="C95" s="2" t="inlineStr">
         <is>
-          <t>Advice date</t>
+          <t>Advice summary</t>
         </is>
       </c>
       <c r="D95" s="2" t="inlineStr"/>
@@ -3429,7 +3429,7 @@
       <c r="F95" s="2" t="inlineStr"/>
       <c r="G95" s="2" t="inlineStr">
         <is>
-          <t>Date when pre-application advice was received, in YYYY-MM-DD format</t>
+          <t>Summary of the pre-application advice received from the planning authority</t>
         </is>
       </c>
       <c r="H95" s="2" t="inlineStr">
@@ -3444,11 +3444,19 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="2" t="n"/>
-      <c r="B96" s="2" t="n"/>
+      <c r="A96" s="2" t="inlineStr">
+        <is>
+          <t>Processes machinery waste</t>
+        </is>
+      </c>
+      <c r="B96" s="2" t="inlineStr">
+        <is>
+          <t>How waste will be managed on the site</t>
+        </is>
+      </c>
       <c r="C96" s="2" t="inlineStr">
         <is>
-          <t>Advice summary</t>
+          <t>Site activity details</t>
         </is>
       </c>
       <c r="D96" s="2" t="inlineStr"/>
@@ -3456,7 +3464,7 @@
       <c r="F96" s="2" t="inlineStr"/>
       <c r="G96" s="2" t="inlineStr">
         <is>
-          <t>Summary of the pre-application advice received from the planning authority</t>
+          <t>Description of activities, processes, and end products including site operations, plant, ventilation, and machinery</t>
         </is>
       </c>
       <c r="H96" s="2" t="inlineStr">
@@ -3466,24 +3474,16 @@
       </c>
       <c r="I96" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="2" t="inlineStr">
-        <is>
-          <t>Processes machinery waste</t>
-        </is>
-      </c>
-      <c r="B97" s="2" t="inlineStr">
-        <is>
-          <t>How waste will be managed on the site</t>
-        </is>
-      </c>
+      <c r="A97" s="2" t="n"/>
+      <c r="B97" s="2" t="n"/>
       <c r="C97" s="2" t="inlineStr">
         <is>
-          <t>Site activity details</t>
+          <t>Proposal waste management</t>
         </is>
       </c>
       <c r="D97" s="2" t="inlineStr"/>
@@ -3491,12 +3491,12 @@
       <c r="F97" s="2" t="inlineStr"/>
       <c r="G97" s="2" t="inlineStr">
         <is>
-          <t>Description of activities, processes, and end products including site operations, plant, ventilation, and machinery</t>
+          <t>Whether the proposal involves waste management development</t>
         </is>
       </c>
       <c r="H97" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I97" s="2" t="inlineStr">
@@ -3510,20 +3510,24 @@
       <c r="B98" s="2" t="n"/>
       <c r="C98" s="2" t="inlineStr">
         <is>
-          <t>Proposal waste management</t>
-        </is>
-      </c>
-      <c r="D98" s="2" t="inlineStr"/>
+          <t>Waste management[]</t>
+        </is>
+      </c>
+      <c r="D98" s="2" t="inlineStr">
+        <is>
+          <t>Waste management facility type</t>
+        </is>
+      </c>
       <c r="E98" s="2" t="inlineStr"/>
       <c r="F98" s="2" t="inlineStr"/>
       <c r="G98" s="2" t="inlineStr">
         <is>
-          <t>Whether the proposal involves waste management development</t>
+          <t>Type of waste management facility</t>
         </is>
       </c>
       <c r="H98" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I98" s="2" t="inlineStr">
@@ -3542,24 +3546,24 @@
       </c>
       <c r="D99" s="2" t="inlineStr">
         <is>
-          <t>Waste management facility type</t>
+          <t>Not applicable</t>
         </is>
       </c>
       <c r="E99" s="2" t="inlineStr"/>
       <c r="F99" s="2" t="inlineStr"/>
       <c r="G99" s="2" t="inlineStr">
         <is>
-          <t>Type of waste management facility</t>
+          <t>Whether the facility is not applicable</t>
         </is>
       </c>
       <c r="H99" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I99" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3573,19 +3577,19 @@
       </c>
       <c r="D100" s="2" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Total capacity</t>
         </is>
       </c>
       <c r="E100" s="2" t="inlineStr"/>
       <c r="F100" s="2" t="inlineStr"/>
       <c r="G100" s="2" t="inlineStr">
         <is>
-          <t>Whether the facility is not applicable</t>
+          <t>Total capacity of void in cubic metres (or tonnes/litres)</t>
         </is>
       </c>
       <c r="H100" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I100" s="2" t="inlineStr">
@@ -3604,19 +3608,19 @@
       </c>
       <c r="D101" s="2" t="inlineStr">
         <is>
-          <t>Total capacity</t>
+          <t>Unit type</t>
         </is>
       </c>
       <c r="E101" s="2" t="inlineStr"/>
       <c r="F101" s="2" t="inlineStr"/>
       <c r="G101" s="2" t="inlineStr">
         <is>
-          <t>Total capacity of void in cubic metres (or tonnes/litres)</t>
+          <t>Unit for capacity/throughput (e.g. cubic metres, tonnes, litres)</t>
         </is>
       </c>
       <c r="H101" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I101" s="2" t="inlineStr">
@@ -3635,19 +3639,19 @@
       </c>
       <c r="D102" s="2" t="inlineStr">
         <is>
-          <t>Unit type</t>
+          <t>Annual throughput</t>
         </is>
       </c>
       <c r="E102" s="2" t="inlineStr"/>
       <c r="F102" s="2" t="inlineStr"/>
       <c r="G102" s="2" t="inlineStr">
         <is>
-          <t>Unit for capacity/throughput (e.g. cubic metres, tonnes, litres)</t>
+          <t>Maximum annual operational throughput in tonnes/litres</t>
         </is>
       </c>
       <c r="H102" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I102" s="2" t="inlineStr">
@@ -3666,19 +3670,19 @@
       </c>
       <c r="D103" s="2" t="inlineStr">
         <is>
-          <t>Annual throughput</t>
+          <t>Unit type</t>
         </is>
       </c>
       <c r="E103" s="2" t="inlineStr"/>
       <c r="F103" s="2" t="inlineStr"/>
       <c r="G103" s="2" t="inlineStr">
         <is>
-          <t>Maximum annual operational throughput in tonnes/litres</t>
+          <t>Unit for capacity/throughput (e.g. cubic metres, tonnes, litres)</t>
         </is>
       </c>
       <c r="H103" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I103" s="2" t="inlineStr">
@@ -3692,24 +3696,24 @@
       <c r="B104" s="2" t="n"/>
       <c r="C104" s="2" t="inlineStr">
         <is>
-          <t>Waste management[]</t>
+          <t>Waste streams throughput</t>
         </is>
       </c>
       <c r="D104" s="2" t="inlineStr">
         <is>
-          <t>Unit type</t>
+          <t>Municipal</t>
         </is>
       </c>
       <c r="E104" s="2" t="inlineStr"/>
       <c r="F104" s="2" t="inlineStr"/>
       <c r="G104" s="2" t="inlineStr">
         <is>
-          <t>Unit for capacity/throughput (e.g. cubic metres, tonnes, litres)</t>
+          <t>Maximum throughput for municipal waste (annual throughput in tonnes/litres)</t>
         </is>
       </c>
       <c r="H104" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I104" s="2" t="inlineStr">
@@ -3728,14 +3732,14 @@
       </c>
       <c r="D105" s="2" t="inlineStr">
         <is>
-          <t>Municipal</t>
+          <t>Construction demolition</t>
         </is>
       </c>
       <c r="E105" s="2" t="inlineStr"/>
       <c r="F105" s="2" t="inlineStr"/>
       <c r="G105" s="2" t="inlineStr">
         <is>
-          <t>Maximum throughput for municipal waste (annual throughput in tonnes/litres)</t>
+          <t>Maximum throughput for construction and demolition waste (annual throughput in tonnes/litres)</t>
         </is>
       </c>
       <c r="H105" s="2" t="inlineStr">
@@ -3759,14 +3763,14 @@
       </c>
       <c r="D106" s="2" t="inlineStr">
         <is>
-          <t>Construction demolition</t>
+          <t>Commercial industrial</t>
         </is>
       </c>
       <c r="E106" s="2" t="inlineStr"/>
       <c r="F106" s="2" t="inlineStr"/>
       <c r="G106" s="2" t="inlineStr">
         <is>
-          <t>Maximum throughput for construction and demolition waste (annual throughput in tonnes/litres)</t>
+          <t>Maximum throughput for commercial and industrial waste (annual throughput in tonnes/litres)</t>
         </is>
       </c>
       <c r="H106" s="2" t="inlineStr">
@@ -3790,14 +3794,14 @@
       </c>
       <c r="D107" s="2" t="inlineStr">
         <is>
-          <t>Commercial industrial</t>
+          <t>Hazardous</t>
         </is>
       </c>
       <c r="E107" s="2" t="inlineStr"/>
       <c r="F107" s="2" t="inlineStr"/>
       <c r="G107" s="2" t="inlineStr">
         <is>
-          <t>Maximum throughput for commercial and industrial waste (annual throughput in tonnes/litres)</t>
+          <t>Maximum throughput for hazardous waste (annual throughput in tonnes/litres)</t>
         </is>
       </c>
       <c r="H107" s="2" t="inlineStr">
@@ -3812,82 +3816,82 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="2" t="n"/>
-      <c r="B108" s="2" t="n"/>
-      <c r="C108" s="2" t="inlineStr">
-        <is>
-          <t>Waste streams throughput</t>
-        </is>
-      </c>
-      <c r="D108" s="2" t="inlineStr">
-        <is>
-          <t>Hazardous</t>
-        </is>
-      </c>
+      <c r="A108" s="2" t="inlineStr">
+        <is>
+          <t>Description of the proposal</t>
+        </is>
+      </c>
+      <c r="B108" s="2" t="inlineStr">
+        <is>
+          <t>What development, works or change of use is proposed</t>
+        </is>
+      </c>
+      <c r="C108" s="2" t="inlineStr"/>
+      <c r="D108" s="2" t="inlineStr"/>
       <c r="E108" s="2" t="inlineStr"/>
       <c r="F108" s="2" t="inlineStr"/>
-      <c r="G108" s="2" t="inlineStr">
-        <is>
-          <t>Maximum throughput for hazardous waste (annual throughput in tonnes/litres)</t>
-        </is>
-      </c>
-      <c r="H108" s="2" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="I108" s="2" t="inlineStr">
-        <is>
-          <t>MAY</t>
-        </is>
-      </c>
+      <c r="G108" s="2" t="inlineStr"/>
+      <c r="H108" s="2" t="inlineStr"/>
+      <c r="I108" s="2" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="2" t="inlineStr">
         <is>
-          <t>Description of the proposal</t>
+          <t>Residential units</t>
         </is>
       </c>
       <c r="B109" s="2" t="inlineStr">
         <is>
-          <t>What development, works or change of use is proposed</t>
-        </is>
-      </c>
-      <c r="C109" s="2" t="inlineStr"/>
+          <t>Details of the residential units that make up both the current and proposed development.</t>
+        </is>
+      </c>
+      <c r="C109" s="2" t="inlineStr">
+        <is>
+          <t>Residential unit change</t>
+        </is>
+      </c>
       <c r="D109" s="2" t="inlineStr"/>
       <c r="E109" s="2" t="inlineStr"/>
       <c r="F109" s="2" t="inlineStr"/>
-      <c r="G109" s="2" t="inlineStr"/>
-      <c r="H109" s="2" t="inlineStr"/>
-      <c r="I109" s="2" t="inlineStr"/>
+      <c r="G109" s="2" t="inlineStr">
+        <is>
+          <t>Proposal includes the gain, loss or change of use of residential units</t>
+        </is>
+      </c>
+      <c r="H109" s="2" t="inlineStr">
+        <is>
+          <t>boolean</t>
+        </is>
+      </c>
+      <c r="I109" s="2" t="inlineStr">
+        <is>
+          <t>MUST</t>
+        </is>
+      </c>
     </row>
     <row r="110">
-      <c r="A110" s="2" t="inlineStr">
-        <is>
-          <t>Residential units</t>
-        </is>
-      </c>
-      <c r="B110" s="2" t="inlineStr">
-        <is>
-          <t>Details of the residential units that make up both the current and proposed development.</t>
-        </is>
-      </c>
+      <c r="A110" s="2" t="n"/>
+      <c r="B110" s="2" t="n"/>
       <c r="C110" s="2" t="inlineStr">
         <is>
-          <t>Residential unit change</t>
-        </is>
-      </c>
-      <c r="D110" s="2" t="inlineStr"/>
+          <t>Residential unit summary[]</t>
+        </is>
+      </c>
+      <c r="D110" s="2" t="inlineStr">
+        <is>
+          <t>Tenure type</t>
+        </is>
+      </c>
       <c r="E110" s="2" t="inlineStr"/>
       <c r="F110" s="2" t="inlineStr"/>
       <c r="G110" s="2" t="inlineStr">
         <is>
-          <t>Proposal includes the gain, loss or change of use of residential units</t>
+          <t>Category of housing tenure</t>
         </is>
       </c>
       <c r="H110" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I110" s="2" t="inlineStr">
@@ -3906,14 +3910,14 @@
       </c>
       <c r="D111" s="2" t="inlineStr">
         <is>
-          <t>Tenure type</t>
+          <t>Housing type</t>
         </is>
       </c>
       <c r="E111" s="2" t="inlineStr"/>
       <c r="F111" s="2" t="inlineStr"/>
       <c r="G111" s="2" t="inlineStr">
         <is>
-          <t>Category of housing tenure</t>
+          <t>Type of housing</t>
         </is>
       </c>
       <c r="H111" s="2" t="inlineStr">
@@ -3937,19 +3941,23 @@
       </c>
       <c r="D112" s="2" t="inlineStr">
         <is>
-          <t>Housing type</t>
-        </is>
-      </c>
-      <c r="E112" s="2" t="inlineStr"/>
+          <t>Existing unit breakdown[]</t>
+        </is>
+      </c>
+      <c r="E112" s="2" t="inlineStr">
+        <is>
+          <t>Units unknown</t>
+        </is>
+      </c>
       <c r="F112" s="2" t="inlineStr"/>
       <c r="G112" s="2" t="inlineStr">
         <is>
-          <t>Type of housing</t>
+          <t>Whether the number of units is unknown</t>
         </is>
       </c>
       <c r="H112" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I112" s="2" t="inlineStr">
@@ -3973,13 +3981,17 @@
       </c>
       <c r="E113" s="2" t="inlineStr">
         <is>
-          <t>Units unknown</t>
-        </is>
-      </c>
-      <c r="F113" s="2" t="inlineStr"/>
+          <t>Units per bedroom number[]</t>
+        </is>
+      </c>
+      <c r="F113" s="2" t="inlineStr">
+        <is>
+          <t>No bedrooms unknown</t>
+        </is>
+      </c>
       <c r="G113" s="2" t="inlineStr">
         <is>
-          <t>Whether the number of units is unknown</t>
+          <t>Set to true when counting units where bedroom number is unknown</t>
         </is>
       </c>
       <c r="H113" s="2" t="inlineStr">
@@ -4013,22 +4025,22 @@
       </c>
       <c r="F114" s="2" t="inlineStr">
         <is>
-          <t>No bedrooms unknown</t>
+          <t>Number of bedrooms</t>
         </is>
       </c>
       <c r="G114" s="2" t="inlineStr">
         <is>
-          <t>Set to true when counting units where bedroom number is unknown</t>
+          <t>The number of bedrooms in unit</t>
         </is>
       </c>
       <c r="H114" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I114" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4052,12 +4064,12 @@
       </c>
       <c r="F115" s="2" t="inlineStr">
         <is>
-          <t>Number of bedrooms</t>
+          <t>Units</t>
         </is>
       </c>
       <c r="G115" s="2" t="inlineStr">
         <is>
-          <t>The number of bedrooms in unit</t>
+          <t>The number of units of that bedroom count</t>
         </is>
       </c>
       <c r="H115" s="2" t="inlineStr">
@@ -4067,7 +4079,7 @@
       </c>
       <c r="I115" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -4086,17 +4098,13 @@
       </c>
       <c r="E116" s="2" t="inlineStr">
         <is>
-          <t>Units per bedroom number[]</t>
-        </is>
-      </c>
-      <c r="F116" s="2" t="inlineStr">
-        <is>
-          <t>Units</t>
-        </is>
-      </c>
+          <t>Total units</t>
+        </is>
+      </c>
+      <c r="F116" s="2" t="inlineStr"/>
       <c r="G116" s="2" t="inlineStr">
         <is>
-          <t>The number of units of that bedroom count</t>
+          <t>Total number of units</t>
         </is>
       </c>
       <c r="H116" s="2" t="inlineStr">
@@ -4106,7 +4114,7 @@
       </c>
       <c r="I116" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4120,28 +4128,28 @@
       </c>
       <c r="D117" s="2" t="inlineStr">
         <is>
-          <t>Existing unit breakdown[]</t>
+          <t>Proposed unit breakdown[]</t>
         </is>
       </c>
       <c r="E117" s="2" t="inlineStr">
         <is>
-          <t>Total units</t>
+          <t>Units unknown</t>
         </is>
       </c>
       <c r="F117" s="2" t="inlineStr"/>
       <c r="G117" s="2" t="inlineStr">
         <is>
-          <t>Total number of units</t>
+          <t>Whether the number of units is unknown</t>
         </is>
       </c>
       <c r="H117" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I117" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -4160,13 +4168,17 @@
       </c>
       <c r="E118" s="2" t="inlineStr">
         <is>
-          <t>Units unknown</t>
-        </is>
-      </c>
-      <c r="F118" s="2" t="inlineStr"/>
+          <t>Units per bedroom number[]</t>
+        </is>
+      </c>
+      <c r="F118" s="2" t="inlineStr">
+        <is>
+          <t>No bedrooms unknown</t>
+        </is>
+      </c>
       <c r="G118" s="2" t="inlineStr">
         <is>
-          <t>Whether the number of units is unknown</t>
+          <t>Set to true when counting units where bedroom number is unknown</t>
         </is>
       </c>
       <c r="H118" s="2" t="inlineStr">
@@ -4200,22 +4212,22 @@
       </c>
       <c r="F119" s="2" t="inlineStr">
         <is>
-          <t>No bedrooms unknown</t>
+          <t>Number of bedrooms</t>
         </is>
       </c>
       <c r="G119" s="2" t="inlineStr">
         <is>
-          <t>Set to true when counting units where bedroom number is unknown</t>
+          <t>The number of bedrooms in unit</t>
         </is>
       </c>
       <c r="H119" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I119" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4239,12 +4251,12 @@
       </c>
       <c r="F120" s="2" t="inlineStr">
         <is>
-          <t>Number of bedrooms</t>
+          <t>Units</t>
         </is>
       </c>
       <c r="G120" s="2" t="inlineStr">
         <is>
-          <t>The number of bedrooms in unit</t>
+          <t>The number of units of that bedroom count</t>
         </is>
       </c>
       <c r="H120" s="2" t="inlineStr">
@@ -4254,7 +4266,7 @@
       </c>
       <c r="I120" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -4273,17 +4285,13 @@
       </c>
       <c r="E121" s="2" t="inlineStr">
         <is>
-          <t>Units per bedroom number[]</t>
-        </is>
-      </c>
-      <c r="F121" s="2" t="inlineStr">
-        <is>
-          <t>Units</t>
-        </is>
-      </c>
+          <t>Total units</t>
+        </is>
+      </c>
+      <c r="F121" s="2" t="inlineStr"/>
       <c r="G121" s="2" t="inlineStr">
         <is>
-          <t>The number of units of that bedroom count</t>
+          <t>Total number of units</t>
         </is>
       </c>
       <c r="H121" s="2" t="inlineStr">
@@ -4293,7 +4301,7 @@
       </c>
       <c r="I121" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4302,23 +4310,15 @@
       <c r="B122" s="2" t="n"/>
       <c r="C122" s="2" t="inlineStr">
         <is>
-          <t>Residential unit summary[]</t>
-        </is>
-      </c>
-      <c r="D122" s="2" t="inlineStr">
-        <is>
-          <t>Proposed unit breakdown[]</t>
-        </is>
-      </c>
-      <c r="E122" s="2" t="inlineStr">
-        <is>
-          <t>Total units</t>
-        </is>
-      </c>
+          <t>Total existing units</t>
+        </is>
+      </c>
+      <c r="D122" s="2" t="inlineStr"/>
+      <c r="E122" s="2" t="inlineStr"/>
       <c r="F122" s="2" t="inlineStr"/>
       <c r="G122" s="2" t="inlineStr">
         <is>
-          <t>Total number of units</t>
+          <t>The total number of existing units</t>
         </is>
       </c>
       <c r="H122" s="2" t="inlineStr">
@@ -4328,7 +4328,7 @@
       </c>
       <c r="I122" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -4337,7 +4337,7 @@
       <c r="B123" s="2" t="n"/>
       <c r="C123" s="2" t="inlineStr">
         <is>
-          <t>Total existing units</t>
+          <t>Total proposed units</t>
         </is>
       </c>
       <c r="D123" s="2" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
       <c r="F123" s="2" t="inlineStr"/>
       <c r="G123" s="2" t="inlineStr">
         <is>
-          <t>The total number of existing units</t>
+          <t>The total number of proposed units</t>
         </is>
       </c>
       <c r="H123" s="2" t="inlineStr">
@@ -4364,7 +4364,7 @@
       <c r="B124" s="2" t="n"/>
       <c r="C124" s="2" t="inlineStr">
         <is>
-          <t>Total proposed units</t>
+          <t>Net change</t>
         </is>
       </c>
       <c r="D124" s="2" t="inlineStr"/>
@@ -4372,7 +4372,7 @@
       <c r="F124" s="2" t="inlineStr"/>
       <c r="G124" s="2" t="inlineStr">
         <is>
-          <t>The total number of proposed units</t>
+          <t>Calculated net change in units</t>
         </is>
       </c>
       <c r="H124" s="2" t="inlineStr">
@@ -4387,11 +4387,19 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="2" t="n"/>
-      <c r="B125" s="2" t="n"/>
+      <c r="A125" s="2" t="inlineStr">
+        <is>
+          <t>Site area</t>
+        </is>
+      </c>
+      <c r="B125" s="2" t="inlineStr">
+        <is>
+          <t>How big the site is including relevant measurements</t>
+        </is>
+      </c>
       <c r="C125" s="2" t="inlineStr">
         <is>
-          <t>Net change</t>
+          <t>Site area in hectares</t>
         </is>
       </c>
       <c r="D125" s="2" t="inlineStr"/>
@@ -4399,7 +4407,7 @@
       <c r="F125" s="2" t="inlineStr"/>
       <c r="G125" s="2" t="inlineStr">
         <is>
-          <t>Calculated net change in units</t>
+          <t>The size of the site in hectares</t>
         </is>
       </c>
       <c r="H125" s="2" t="inlineStr">
@@ -4414,19 +4422,11 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="2" t="inlineStr">
-        <is>
-          <t>Site area</t>
-        </is>
-      </c>
-      <c r="B126" s="2" t="inlineStr">
-        <is>
-          <t>How big the site is including relevant measurements</t>
-        </is>
-      </c>
+      <c r="A126" s="2" t="n"/>
+      <c r="B126" s="2" t="n"/>
       <c r="C126" s="2" t="inlineStr">
         <is>
-          <t>Site area in hectares</t>
+          <t>Site area provided by</t>
         </is>
       </c>
       <c r="D126" s="2" t="inlineStr"/>
@@ -4434,39 +4434,51 @@
       <c r="F126" s="2" t="inlineStr"/>
       <c r="G126" s="2" t="inlineStr">
         <is>
-          <t>The size of the site in hectares</t>
+          <t>Who provided the site area value</t>
         </is>
       </c>
       <c r="H126" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I126" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="2" t="n"/>
-      <c r="B127" s="2" t="n"/>
+      <c r="A127" s="2" t="inlineStr">
+        <is>
+          <t>Site details</t>
+        </is>
+      </c>
+      <c r="B127" s="2" t="inlineStr">
+        <is>
+          <t>Where the proposed development will be built.</t>
+        </is>
+      </c>
       <c r="C127" s="2" t="inlineStr">
         <is>
-          <t>Site area provided by</t>
-        </is>
-      </c>
-      <c r="D127" s="2" t="inlineStr"/>
+          <t>Site locations[]</t>
+        </is>
+      </c>
+      <c r="D127" s="2" t="inlineStr">
+        <is>
+          <t>Site boundary</t>
+        </is>
+      </c>
       <c r="E127" s="2" t="inlineStr"/>
       <c r="F127" s="2" t="inlineStr"/>
       <c r="G127" s="2" t="inlineStr">
         <is>
-          <t>Who provided the site area value</t>
+          <t>Geometry of the site of the development, typically in GeoJSON format</t>
         </is>
       </c>
       <c r="H127" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>wkt</t>
         </is>
       </c>
       <c r="I127" s="2" t="inlineStr">
@@ -4476,16 +4488,8 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="2" t="inlineStr">
-        <is>
-          <t>Site details</t>
-        </is>
-      </c>
-      <c r="B128" s="2" t="inlineStr">
-        <is>
-          <t>Where the proposed development will be built.</t>
-        </is>
-      </c>
+      <c r="A128" s="2" t="n"/>
+      <c r="B128" s="2" t="n"/>
       <c r="C128" s="2" t="inlineStr">
         <is>
           <t>Site locations[]</t>
@@ -4493,19 +4497,19 @@
       </c>
       <c r="D128" s="2" t="inlineStr">
         <is>
-          <t>Site boundary</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="E128" s="2" t="inlineStr"/>
       <c r="F128" s="2" t="inlineStr"/>
       <c r="G128" s="2" t="inlineStr">
         <is>
-          <t>Geometry of the site of the development, typically in GeoJSON format</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="H128" s="2" t="inlineStr">
         <is>
-          <t>wkt</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I128" s="2" t="inlineStr">
@@ -4524,14 +4528,14 @@
       </c>
       <c r="D129" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="E129" s="2" t="inlineStr"/>
       <c r="F129" s="2" t="inlineStr"/>
       <c r="G129" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="H129" s="2" t="inlineStr">
@@ -4555,19 +4559,19 @@
       </c>
       <c r="D130" s="2" t="inlineStr">
         <is>
-          <t>Postcode</t>
+          <t>Easting</t>
         </is>
       </c>
       <c r="E130" s="2" t="inlineStr"/>
       <c r="F130" s="2" t="inlineStr"/>
       <c r="G130" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Easting coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
       <c r="H130" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I130" s="2" t="inlineStr">
@@ -4586,14 +4590,14 @@
       </c>
       <c r="D131" s="2" t="inlineStr">
         <is>
-          <t>Easting</t>
+          <t>Northing</t>
         </is>
       </c>
       <c r="E131" s="2" t="inlineStr"/>
       <c r="F131" s="2" t="inlineStr"/>
       <c r="G131" s="2" t="inlineStr">
         <is>
-          <t>Easting coordinate in British National Grid (EPSG:27700)</t>
+          <t>Northing coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
       <c r="H131" s="2" t="inlineStr">
@@ -4617,14 +4621,14 @@
       </c>
       <c r="D132" s="2" t="inlineStr">
         <is>
-          <t>Northing</t>
+          <t>Latitude</t>
         </is>
       </c>
       <c r="E132" s="2" t="inlineStr"/>
       <c r="F132" s="2" t="inlineStr"/>
       <c r="G132" s="2" t="inlineStr">
         <is>
-          <t>Northing coordinate in British National Grid (EPSG:27700)</t>
+          <t>Latitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
       <c r="H132" s="2" t="inlineStr">
@@ -4648,14 +4652,14 @@
       </c>
       <c r="D133" s="2" t="inlineStr">
         <is>
-          <t>Latitude</t>
+          <t>Longitude</t>
         </is>
       </c>
       <c r="E133" s="2" t="inlineStr"/>
       <c r="F133" s="2" t="inlineStr"/>
       <c r="G133" s="2" t="inlineStr">
         <is>
-          <t>Latitude coordinate in WGS84 (EPSG:4326)</t>
+          <t>Longitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
       <c r="H133" s="2" t="inlineStr">
@@ -4679,19 +4683,19 @@
       </c>
       <c r="D134" s="2" t="inlineStr">
         <is>
-          <t>Longitude</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="E134" s="2" t="inlineStr"/>
       <c r="F134" s="2" t="inlineStr"/>
       <c r="G134" s="2" t="inlineStr">
         <is>
-          <t>Longitude coordinate in WGS84 (EPSG:4326)</t>
+          <t>A text description providing details about the subject. For parking changes, this describes how the proposed works affect existing car parking arrangements.</t>
         </is>
       </c>
       <c r="H134" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I134" s="2" t="inlineStr">
@@ -4710,14 +4714,14 @@
       </c>
       <c r="D135" s="2" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>UPRNs[]</t>
         </is>
       </c>
       <c r="E135" s="2" t="inlineStr"/>
       <c r="F135" s="2" t="inlineStr"/>
       <c r="G135" s="2" t="inlineStr">
         <is>
-          <t>A text description providing details about the subject. For parking changes, this describes how the proposed works affect existing car parking arrangements.</t>
+          <t>Unique Property Reference Numbers (UPRNs) for properties within the site boundary</t>
         </is>
       </c>
       <c r="H135" s="2" t="inlineStr">
@@ -4732,50 +4736,46 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="2" t="n"/>
-      <c r="B136" s="2" t="n"/>
+      <c r="A136" s="2" t="inlineStr">
+        <is>
+          <t>Site Visit Details</t>
+        </is>
+      </c>
+      <c r="B136" s="2" t="inlineStr">
+        <is>
+          <t>Information to help the planning authority arrange a site visit</t>
+        </is>
+      </c>
       <c r="C136" s="2" t="inlineStr">
         <is>
-          <t>Site locations[]</t>
-        </is>
-      </c>
-      <c r="D136" s="2" t="inlineStr">
-        <is>
-          <t>UPRNs[]</t>
-        </is>
-      </c>
+          <t>Site seen from public area</t>
+        </is>
+      </c>
+      <c r="D136" s="2" t="inlineStr"/>
       <c r="E136" s="2" t="inlineStr"/>
       <c r="F136" s="2" t="inlineStr"/>
       <c r="G136" s="2" t="inlineStr">
         <is>
-          <t>Unique Property Reference Numbers (UPRNs) for properties within the site boundary</t>
+          <t>Can site be seen from a public road, public footpath, bridleway or other public land</t>
         </is>
       </c>
       <c r="H136" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I136" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="2" t="inlineStr">
-        <is>
-          <t>Site Visit Details</t>
-        </is>
-      </c>
-      <c r="B137" s="2" t="inlineStr">
-        <is>
-          <t>Information to help the planning authority arrange a site visit</t>
-        </is>
-      </c>
+      <c r="A137" s="2" t="n"/>
+      <c r="B137" s="2" t="n"/>
       <c r="C137" s="2" t="inlineStr">
         <is>
-          <t>Site seen from public area</t>
+          <t>Site visit contact type</t>
         </is>
       </c>
       <c r="D137" s="2" t="inlineStr"/>
@@ -4783,12 +4783,12 @@
       <c r="F137" s="2" t="inlineStr"/>
       <c r="G137" s="2" t="inlineStr">
         <is>
-          <t>Can site be seen from a public road, public footpath, bridleway or other public land</t>
+          <t>Indicates who the authority should contact to arrange a site visit</t>
         </is>
       </c>
       <c r="H137" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I137" s="2" t="inlineStr">
@@ -4802,7 +4802,7 @@
       <c r="B138" s="2" t="n"/>
       <c r="C138" s="2" t="inlineStr">
         <is>
-          <t>Site visit contact type</t>
+          <t>Contact reference</t>
         </is>
       </c>
       <c r="D138" s="2" t="inlineStr"/>
@@ -4810,17 +4810,17 @@
       <c r="F138" s="2" t="inlineStr"/>
       <c r="G138" s="2" t="inlineStr">
         <is>
-          <t>Indicates who the authority should contact to arrange a site visit</t>
+          <t>The reference of the applicant or agent who should be contacted for site visits</t>
         </is>
       </c>
       <c r="H138" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I138" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4829,15 +4829,19 @@
       <c r="B139" s="2" t="n"/>
       <c r="C139" s="2" t="inlineStr">
         <is>
-          <t>Contact reference</t>
-        </is>
-      </c>
-      <c r="D139" s="2" t="inlineStr"/>
+          <t>Other site visit contact</t>
+        </is>
+      </c>
+      <c r="D139" s="2" t="inlineStr">
+        <is>
+          <t>Full name</t>
+        </is>
+      </c>
       <c r="E139" s="2" t="inlineStr"/>
       <c r="F139" s="2" t="inlineStr"/>
       <c r="G139" s="2" t="inlineStr">
         <is>
-          <t>The reference of the applicant or agent who should be contacted for site visits</t>
+          <t>The complete name of a person</t>
         </is>
       </c>
       <c r="H139" s="2" t="inlineStr">
@@ -4847,7 +4851,7 @@
       </c>
       <c r="I139" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -4861,14 +4865,14 @@
       </c>
       <c r="D140" s="2" t="inlineStr">
         <is>
-          <t>Full name</t>
+          <t>Phone number</t>
         </is>
       </c>
       <c r="E140" s="2" t="inlineStr"/>
       <c r="F140" s="2" t="inlineStr"/>
       <c r="G140" s="2" t="inlineStr">
         <is>
-          <t>The complete name of a person</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="H140" s="2" t="inlineStr">
@@ -4892,14 +4896,14 @@
       </c>
       <c r="D141" s="2" t="inlineStr">
         <is>
-          <t>Phone number</t>
+          <t>Email</t>
         </is>
       </c>
       <c r="E141" s="2" t="inlineStr"/>
       <c r="F141" s="2" t="inlineStr"/>
       <c r="G141" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="H141" s="2" t="inlineStr">
@@ -4914,28 +4918,32 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="2" t="n"/>
-      <c r="B142" s="2" t="n"/>
+      <c r="A142" s="2" t="inlineStr">
+        <is>
+          <t>Trade effluent</t>
+        </is>
+      </c>
+      <c r="B142" s="2" t="inlineStr">
+        <is>
+          <t>Details of any liquid waste produced by industial processes on the proposed site, and how it will be diposed of.</t>
+        </is>
+      </c>
       <c r="C142" s="2" t="inlineStr">
         <is>
-          <t>Other site visit contact</t>
-        </is>
-      </c>
-      <c r="D142" s="2" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
-      </c>
+          <t>Disposal required</t>
+        </is>
+      </c>
+      <c r="D142" s="2" t="inlineStr"/>
       <c r="E142" s="2" t="inlineStr"/>
       <c r="F142" s="2" t="inlineStr"/>
       <c r="G142" s="2" t="inlineStr">
         <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
+          <t>Does the proposal involve the disposal of trade effluents or waste (true/false)</t>
         </is>
       </c>
       <c r="H142" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I142" s="2" t="inlineStr">
@@ -4945,19 +4953,11 @@
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="2" t="inlineStr">
-        <is>
-          <t>Trade effluent</t>
-        </is>
-      </c>
-      <c r="B143" s="2" t="inlineStr">
-        <is>
-          <t>Details of any liquid waste produced by industial processes on the proposed site, and how it will be diposed of.</t>
-        </is>
-      </c>
+      <c r="A143" s="2" t="n"/>
+      <c r="B143" s="2" t="n"/>
       <c r="C143" s="2" t="inlineStr">
         <is>
-          <t>Disposal required</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="D143" s="2" t="inlineStr"/>
@@ -4965,77 +4965,81 @@
       <c r="F143" s="2" t="inlineStr"/>
       <c r="G143" s="2" t="inlineStr">
         <is>
-          <t>Does the proposal involve the disposal of trade effluents or waste (true/false)</t>
+          <t>describe the nature, volume and means of disposal of trade effluents or waste</t>
         </is>
       </c>
       <c r="H143" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I143" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="2" t="n"/>
-      <c r="B144" s="2" t="n"/>
-      <c r="C144" s="2" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
+      <c r="A144" s="2" t="inlineStr">
+        <is>
+          <t>Trees and hedges information</t>
+        </is>
+      </c>
+      <c r="B144" s="2" t="inlineStr">
+        <is>
+          <t>Details of trees and/or hedges that will be affected by the proposed development</t>
+        </is>
+      </c>
+      <c r="C144" s="2" t="inlineStr"/>
       <c r="D144" s="2" t="inlineStr"/>
       <c r="E144" s="2" t="inlineStr"/>
       <c r="F144" s="2" t="inlineStr"/>
-      <c r="G144" s="2" t="inlineStr">
-        <is>
-          <t>describe the nature, volume and means of disposal of trade effluents or waste</t>
-        </is>
-      </c>
-      <c r="H144" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="I144" s="2" t="inlineStr">
-        <is>
-          <t>MAY</t>
-        </is>
-      </c>
+      <c r="G144" s="2" t="inlineStr"/>
+      <c r="H144" s="2" t="inlineStr"/>
+      <c r="I144" s="2" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="2" t="inlineStr">
         <is>
-          <t>Trees and hedges information</t>
+          <t>Vehicle parking</t>
         </is>
       </c>
       <c r="B145" s="2" t="inlineStr">
         <is>
-          <t>Details of trees and/or hedges that will be affected by the proposed development</t>
-        </is>
-      </c>
-      <c r="C145" s="2" t="inlineStr"/>
-      <c r="D145" s="2" t="inlineStr"/>
+          <t>Details of current parking facilities at the site and any changes that would be made by the proposed development.</t>
+        </is>
+      </c>
+      <c r="C145" s="2" t="inlineStr">
+        <is>
+          <t>Parking spaces[]</t>
+        </is>
+      </c>
+      <c r="D145" s="2" t="inlineStr">
+        <is>
+          <t>Parking space type</t>
+        </is>
+      </c>
       <c r="E145" s="2" t="inlineStr"/>
       <c r="F145" s="2" t="inlineStr"/>
-      <c r="G145" s="2" t="inlineStr"/>
-      <c r="H145" s="2" t="inlineStr"/>
-      <c r="I145" s="2" t="inlineStr"/>
+      <c r="G145" s="2" t="inlineStr">
+        <is>
+          <t>Type of parking space or vehicle type</t>
+        </is>
+      </c>
+      <c r="H145" s="2" t="inlineStr">
+        <is>
+          <t>enum</t>
+        </is>
+      </c>
+      <c r="I145" s="2" t="inlineStr">
+        <is>
+          <t>MUST</t>
+        </is>
+      </c>
     </row>
     <row r="146">
-      <c r="A146" s="2" t="inlineStr">
-        <is>
-          <t>Vehicle parking</t>
-        </is>
-      </c>
-      <c r="B146" s="2" t="inlineStr">
-        <is>
-          <t>Details of current parking facilities at the site and any changes that would be made by the proposed development.</t>
-        </is>
-      </c>
+      <c r="A146" s="2" t="n"/>
+      <c r="B146" s="2" t="n"/>
       <c r="C146" s="2" t="inlineStr">
         <is>
           <t>Parking spaces[]</t>
@@ -5043,24 +5047,24 @@
       </c>
       <c r="D146" s="2" t="inlineStr">
         <is>
-          <t>Parking space type</t>
+          <t>Vehicle type other</t>
         </is>
       </c>
       <c r="E146" s="2" t="inlineStr"/>
       <c r="F146" s="2" t="inlineStr"/>
       <c r="G146" s="2" t="inlineStr">
         <is>
-          <t>Type of parking space or vehicle type</t>
+          <t>Vehicle type when parking space type is 'other'</t>
         </is>
       </c>
       <c r="H146" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I146" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -5074,24 +5078,24 @@
       </c>
       <c r="D147" s="2" t="inlineStr">
         <is>
-          <t>Vehicle type other</t>
+          <t>Total existing</t>
         </is>
       </c>
       <c r="E147" s="2" t="inlineStr"/>
       <c r="F147" s="2" t="inlineStr"/>
       <c r="G147" s="2" t="inlineStr">
         <is>
-          <t>Vehicle type when parking space type is 'other'</t>
+          <t>Total number of existing parking spaces</t>
         </is>
       </c>
       <c r="H147" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I147" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -5105,14 +5109,14 @@
       </c>
       <c r="D148" s="2" t="inlineStr">
         <is>
-          <t>Total existing</t>
+          <t>Total proposed</t>
         </is>
       </c>
       <c r="E148" s="2" t="inlineStr"/>
       <c r="F148" s="2" t="inlineStr"/>
       <c r="G148" s="2" t="inlineStr">
         <is>
-          <t>Total number of existing parking spaces</t>
+          <t>Total number of proposed parking spaces</t>
         </is>
       </c>
       <c r="H148" s="2" t="inlineStr">
@@ -5136,14 +5140,14 @@
       </c>
       <c r="D149" s="2" t="inlineStr">
         <is>
-          <t>Total proposed</t>
+          <t>Difference in spaces</t>
         </is>
       </c>
       <c r="E149" s="2" t="inlineStr"/>
       <c r="F149" s="2" t="inlineStr"/>
       <c r="G149" s="2" t="inlineStr">
         <is>
-          <t>Total number of proposed parking spaces</t>
+          <t>Net change in parking spaces (proposed minus existing)</t>
         </is>
       </c>
       <c r="H149" s="2" t="inlineStr">
@@ -5158,50 +5162,46 @@
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="2" t="n"/>
-      <c r="B150" s="2" t="n"/>
+      <c r="A150" s="2" t="inlineStr">
+        <is>
+          <t>Waste storage and collection</t>
+        </is>
+      </c>
+      <c r="B150" s="2" t="inlineStr">
+        <is>
+          <t>Any waste storage or recycling arrangements are in place, such as waste storage areas</t>
+        </is>
+      </c>
       <c r="C150" s="2" t="inlineStr">
         <is>
-          <t>Parking spaces[]</t>
-        </is>
-      </c>
-      <c r="D150" s="2" t="inlineStr">
-        <is>
-          <t>Difference in spaces</t>
-        </is>
-      </c>
+          <t>Waste storage area details</t>
+        </is>
+      </c>
+      <c r="D150" s="2" t="inlineStr"/>
       <c r="E150" s="2" t="inlineStr"/>
       <c r="F150" s="2" t="inlineStr"/>
       <c r="G150" s="2" t="inlineStr">
         <is>
-          <t>Net change in parking spaces (proposed minus existing)</t>
+          <t>Details of the waste storage area including location, size, design and access arrangements</t>
         </is>
       </c>
       <c r="H150" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I150" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="2" t="inlineStr">
-        <is>
-          <t>Waste storage and collection</t>
-        </is>
-      </c>
-      <c r="B151" s="2" t="inlineStr">
-        <is>
-          <t>Any waste storage or recycling arrangements are in place, such as waste storage areas</t>
-        </is>
-      </c>
+      <c r="A151" s="2" t="n"/>
+      <c r="B151" s="2" t="n"/>
       <c r="C151" s="2" t="inlineStr">
         <is>
-          <t>Waste storage area details</t>
+          <t>Separate recycling arrangements details</t>
         </is>
       </c>
       <c r="D151" s="2" t="inlineStr"/>
@@ -5209,7 +5209,7 @@
       <c r="F151" s="2" t="inlineStr"/>
       <c r="G151" s="2" t="inlineStr">
         <is>
-          <t>Details of the waste storage area including location, size, design and access arrangements</t>
+          <t>Details of the recycling arrangements including types of materials, collection methods and storage facilities</t>
         </is>
       </c>
       <c r="H151" s="2" t="inlineStr">
@@ -5218,33 +5218,6 @@
         </is>
       </c>
       <c r="I151" s="2" t="inlineStr">
-        <is>
-          <t>MAY</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="2" t="n"/>
-      <c r="B152" s="2" t="n"/>
-      <c r="C152" s="2" t="inlineStr">
-        <is>
-          <t>Separate recycling arrangements details</t>
-        </is>
-      </c>
-      <c r="D152" s="2" t="inlineStr"/>
-      <c r="E152" s="2" t="inlineStr"/>
-      <c r="F152" s="2" t="inlineStr"/>
-      <c r="G152" s="2" t="inlineStr">
-        <is>
-          <t>Details of the recycling arrangements including types of materials, collection methods and storage facilities</t>
-        </is>
-      </c>
-      <c r="H152" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="I152" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -5252,68 +5225,68 @@
     </row>
   </sheetData>
   <mergeCells count="62">
+    <mergeCell ref="A144"/>
     <mergeCell ref="B49"/>
-    <mergeCell ref="A97:A108"/>
     <mergeCell ref="A39:A44"/>
-    <mergeCell ref="A91"/>
-    <mergeCell ref="A109"/>
+    <mergeCell ref="B82:B88"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="A81"/>
     <mergeCell ref="A2:A19"/>
-    <mergeCell ref="B77:B80"/>
-    <mergeCell ref="B146:B150"/>
-    <mergeCell ref="B71:B76"/>
+    <mergeCell ref="B89"/>
+    <mergeCell ref="B80"/>
     <mergeCell ref="B45:B47"/>
     <mergeCell ref="B50"/>
-    <mergeCell ref="B92:B96"/>
-    <mergeCell ref="B128:B136"/>
+    <mergeCell ref="A96:A107"/>
+    <mergeCell ref="A70:A75"/>
     <mergeCell ref="B23:B26"/>
-    <mergeCell ref="A137:A142"/>
+    <mergeCell ref="A91:A95"/>
     <mergeCell ref="A48"/>
     <mergeCell ref="B51:B53"/>
     <mergeCell ref="B20:B22"/>
-    <mergeCell ref="B151:B152"/>
-    <mergeCell ref="A61:A70"/>
+    <mergeCell ref="B70:B75"/>
+    <mergeCell ref="A109:A124"/>
     <mergeCell ref="B39:B44"/>
-    <mergeCell ref="B91"/>
-    <mergeCell ref="B109"/>
-    <mergeCell ref="A126:A127"/>
+    <mergeCell ref="B127:B135"/>
+    <mergeCell ref="B136:B141"/>
+    <mergeCell ref="B144"/>
+    <mergeCell ref="A54:A59"/>
+    <mergeCell ref="A60:A69"/>
     <mergeCell ref="A49"/>
     <mergeCell ref="B81"/>
-    <mergeCell ref="A82"/>
     <mergeCell ref="B90"/>
-    <mergeCell ref="B143:B144"/>
-    <mergeCell ref="B97:B108"/>
-    <mergeCell ref="B110:B125"/>
-    <mergeCell ref="B54:B60"/>
     <mergeCell ref="B27:B34"/>
-    <mergeCell ref="A151:A152"/>
-    <mergeCell ref="B83:B89"/>
-    <mergeCell ref="A71:A76"/>
+    <mergeCell ref="A76:A79"/>
+    <mergeCell ref="B142:B143"/>
     <mergeCell ref="A45:A47"/>
-    <mergeCell ref="A92:A96"/>
+    <mergeCell ref="A150:A151"/>
     <mergeCell ref="A23:A26"/>
-    <mergeCell ref="B61:B70"/>
+    <mergeCell ref="B96:B107"/>
+    <mergeCell ref="B54:B59"/>
+    <mergeCell ref="A136:A141"/>
     <mergeCell ref="A51:A53"/>
     <mergeCell ref="B48"/>
-    <mergeCell ref="A110:A125"/>
-    <mergeCell ref="A83:A89"/>
-    <mergeCell ref="B137:B142"/>
+    <mergeCell ref="B91:B95"/>
+    <mergeCell ref="B109:B124"/>
+    <mergeCell ref="A127:A135"/>
+    <mergeCell ref="A125:A126"/>
+    <mergeCell ref="B60:B69"/>
     <mergeCell ref="A90"/>
-    <mergeCell ref="A143:A144"/>
-    <mergeCell ref="B145"/>
-    <mergeCell ref="A54:A60"/>
+    <mergeCell ref="A108"/>
     <mergeCell ref="A27:A34"/>
+    <mergeCell ref="A80"/>
+    <mergeCell ref="A89"/>
+    <mergeCell ref="A142:A143"/>
+    <mergeCell ref="B150:B151"/>
     <mergeCell ref="A50"/>
-    <mergeCell ref="B126:B127"/>
-    <mergeCell ref="A145"/>
-    <mergeCell ref="B82"/>
-    <mergeCell ref="A77:A80"/>
+    <mergeCell ref="A82:A88"/>
+    <mergeCell ref="A145:A149"/>
+    <mergeCell ref="B145:B149"/>
     <mergeCell ref="B2:B19"/>
-    <mergeCell ref="A146:A150"/>
+    <mergeCell ref="B76:B79"/>
+    <mergeCell ref="B125:B126"/>
     <mergeCell ref="A35:A38"/>
     <mergeCell ref="B35:B38"/>
-    <mergeCell ref="A128:A136"/>
+    <mergeCell ref="B108"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/generated/spreadsheet/technical-details-consent-technical-details-consent.xlsx
+++ b/generated/spreadsheet/technical-details-consent-technical-details-consent.xlsx
@@ -647,7 +647,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>datetime</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -853,7 +853,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>datetime</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -2596,7 +2596,7 @@
       </c>
       <c r="H65" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>datetime</t>
         </is>
       </c>
       <c r="I65" s="2" t="inlineStr">
